--- a/Data/Developer_survey/Contributors_To_feature_files.xlsx
+++ b/Data/Developer_survey/Contributors_To_feature_files.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitishpatkar/my-papers/RP-open-source-bdd-projects-analysis/Data/Developer_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923073D1-1037-954B-9FC4-7EC949647EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809EFE4E-9B73-6D48-934C-604B2F69A11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-3500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-2880" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repos" sheetId="1" r:id="rId1"/>
     <sheet name="Authors" sheetId="2" r:id="rId2"/>
     <sheet name="Author contact" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Author contact'!$A$1:$AE$198</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -90,29 +93,6 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Did not fetch through the script
-	-nitish patkar</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="913">
   <si>
@@ -2882,7 +2862,7 @@
     <numFmt numFmtId="166" formatCode="d\.\ mmm\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2938,6 +2918,12 @@
       <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3084,10 +3070,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3397,6 +3384,60 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3406,6 +3447,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3430,73 +3482,27 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3716,8 +3722,8 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3972,7 +3978,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="147" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4043,7 +4049,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="147" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -9336,6 +9342,7 @@
     <hyperlink ref="E28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId55"/>
 </worksheet>
 </file>
@@ -9348,8 +9355,8 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19045,20 +19052,21 @@
     <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId28"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q137" sqref="Q137"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19136,15 +19144,15 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A2" s="113">
+      <c r="A2" s="136">
         <f>Repos!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="137" t="str">
         <f>Repos!B2</f>
         <v>https://github.com/eugenp/tutorials</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="138">
         <f>Authors!G2</f>
         <v>44346</v>
       </c>
@@ -19161,7 +19169,9 @@
         <v>156</v>
       </c>
       <c r="H2" s="32"/>
-      <c r="I2" s="30"/>
+      <c r="I2" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J2" s="29"/>
       <c r="K2" s="30"/>
       <c r="L2" s="43"/>
@@ -19186,9 +19196,9 @@
       <c r="AE2" s="19"/>
     </row>
     <row r="3" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="31" t="s">
         <v>157</v>
       </c>
@@ -19202,7 +19212,9 @@
         <v>160</v>
       </c>
       <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
+      <c r="I3" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J3" s="29"/>
       <c r="K3" s="30"/>
       <c r="L3" s="43"/>
@@ -19227,9 +19239,9 @@
       <c r="AE3" s="19"/>
     </row>
     <row r="4" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="31" t="s">
         <v>161</v>
       </c>
@@ -19241,7 +19253,9 @@
         <v>163</v>
       </c>
       <c r="H4" s="33"/>
-      <c r="I4" s="30"/>
+      <c r="I4" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J4" s="29"/>
       <c r="K4" s="30"/>
       <c r="L4" s="43"/>
@@ -19266,9 +19280,9 @@
       <c r="AE4" s="19"/>
     </row>
     <row r="5" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="31" t="s">
         <v>164</v>
       </c>
@@ -19280,7 +19294,9 @@
         <v>166</v>
       </c>
       <c r="H5" s="33"/>
-      <c r="I5" s="30"/>
+      <c r="I5" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J5" s="29"/>
       <c r="K5" s="30"/>
       <c r="L5" s="43"/>
@@ -19305,9 +19321,9 @@
       <c r="AE5" s="19"/>
     </row>
     <row r="6" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="31" t="s">
         <v>167</v>
       </c>
@@ -19321,7 +19337,9 @@
         <v>170</v>
       </c>
       <c r="H6" s="33"/>
-      <c r="I6" s="30"/>
+      <c r="I6" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J6" s="29"/>
       <c r="K6" s="30"/>
       <c r="L6" s="43"/>
@@ -19346,9 +19364,9 @@
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="46" t="s">
         <v>171</v>
       </c>
@@ -19361,7 +19379,7 @@
       <c r="G7" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="143" t="s">
         <v>174</v>
       </c>
       <c r="I7" s="48"/>
@@ -19389,15 +19407,15 @@
       <c r="AE7" s="19"/>
     </row>
     <row r="8" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="125">
         <f>Repos!A3</f>
         <v>2</v>
       </c>
-      <c r="B8" s="110" t="str">
+      <c r="B8" s="128" t="str">
         <f>Repos!B3</f>
         <v>https://github.com/neo4j/neo4j</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="129">
         <f>Authors!G3</f>
         <v>44259</v>
       </c>
@@ -19437,9 +19455,9 @@
       <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="31" t="s">
         <v>178</v>
       </c>
@@ -19478,9 +19496,9 @@
       <c r="AE9" s="19"/>
     </row>
     <row r="10" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="31" t="s">
         <v>182</v>
       </c>
@@ -19519,9 +19537,9 @@
       <c r="AE10" s="19"/>
     </row>
     <row r="11" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="31" t="s">
         <v>186</v>
       </c>
@@ -19560,9 +19578,9 @@
       <c r="AE11" s="19"/>
     </row>
     <row r="12" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="31" t="s">
         <v>190</v>
       </c>
@@ -19601,9 +19619,9 @@
       <c r="AE12" s="19"/>
     </row>
     <row r="13" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="31" t="s">
         <v>194</v>
       </c>
@@ -19642,9 +19660,9 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="31" t="s">
         <v>198</v>
       </c>
@@ -19683,9 +19701,9 @@
       <c r="AE14" s="19"/>
     </row>
     <row r="15" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
       <c r="D15" s="31" t="s">
         <v>202</v>
       </c>
@@ -19724,9 +19742,9 @@
       <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="31" t="s">
         <v>206</v>
       </c>
@@ -19767,9 +19785,9 @@
       <c r="AE16" s="19"/>
     </row>
     <row r="17" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="31" t="s">
         <v>210</v>
       </c>
@@ -19810,9 +19828,9 @@
       <c r="AE17" s="19"/>
     </row>
     <row r="18" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="31" t="s">
         <v>214</v>
       </c>
@@ -19851,9 +19869,9 @@
       <c r="AE18" s="19"/>
     </row>
     <row r="19" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="31" t="s">
         <v>218</v>
       </c>
@@ -19892,9 +19910,9 @@
       <c r="AE19" s="19"/>
     </row>
     <row r="20" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="31" t="s">
         <v>222</v>
       </c>
@@ -19933,9 +19951,9 @@
       <c r="AE20" s="19"/>
     </row>
     <row r="21" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="31" t="s">
         <v>226</v>
       </c>
@@ -19974,9 +19992,9 @@
       <c r="AE21" s="19"/>
     </row>
     <row r="22" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="46" t="s">
         <v>230</v>
       </c>
@@ -20059,15 +20077,15 @@
       <c r="AE23" s="19"/>
     </row>
     <row r="24" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A24" s="107">
+      <c r="A24" s="125">
         <f>Repos!A5</f>
         <v>4</v>
       </c>
-      <c r="B24" s="110" t="str">
+      <c r="B24" s="128" t="str">
         <f>Repos!B5</f>
         <v>https://github.com/eclipse/openj9</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="140" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="63" t="s">
@@ -20108,9 +20126,9 @@
       <c r="AE24" s="19"/>
     </row>
     <row r="25" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="31" t="s">
         <v>238</v>
       </c>
@@ -20149,9 +20167,9 @@
       <c r="AE25" s="19"/>
     </row>
     <row r="26" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="108"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="31" t="s">
         <v>242</v>
       </c>
@@ -20190,9 +20208,9 @@
       <c r="AE26" s="19"/>
     </row>
     <row r="27" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="108"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="31" t="s">
         <v>246</v>
       </c>
@@ -20231,9 +20249,9 @@
       <c r="AE27" s="19"/>
     </row>
     <row r="28" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="31" t="s">
         <v>250</v>
       </c>
@@ -20272,9 +20290,9 @@
       <c r="AE28" s="19"/>
     </row>
     <row r="29" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="31" t="s">
         <v>254</v>
       </c>
@@ -20313,9 +20331,9 @@
       <c r="AE29" s="19"/>
     </row>
     <row r="30" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="108"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="31" t="s">
         <v>258</v>
       </c>
@@ -20354,9 +20372,9 @@
       <c r="AE30" s="19"/>
     </row>
     <row r="31" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="31" t="s">
         <v>262</v>
       </c>
@@ -20395,9 +20413,9 @@
       <c r="AE31" s="19"/>
     </row>
     <row r="32" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="46" t="s">
         <v>266</v>
       </c>
@@ -20457,11 +20475,13 @@
       <c r="F33" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="144" t="s">
         <v>273</v>
       </c>
       <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
+      <c r="I33" s="71" t="b">
+        <v>1</v>
+      </c>
       <c r="J33" s="96"/>
       <c r="K33" s="71"/>
       <c r="L33" s="72"/>
@@ -20486,15 +20506,15 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A34" s="107">
+      <c r="A34" s="125">
         <f>Repos!A7</f>
         <v>6</v>
       </c>
-      <c r="B34" s="110" t="str">
+      <c r="B34" s="128" t="str">
         <f>Repos!B7</f>
         <v>https://github.com/apache/servicecomb-pack</v>
       </c>
-      <c r="C34" s="112">
+      <c r="C34" s="135">
         <f>Authors!G7</f>
         <v>44271</v>
       </c>
@@ -20511,7 +20531,9 @@
         <v>277</v>
       </c>
       <c r="H34" s="50"/>
-      <c r="I34" s="53"/>
+      <c r="I34" s="53" t="b">
+        <v>1</v>
+      </c>
       <c r="J34" s="94"/>
       <c r="K34" s="53"/>
       <c r="L34" s="54"/>
@@ -20536,9 +20558,9 @@
       <c r="AE34" s="19"/>
     </row>
     <row r="35" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="31" t="s">
         <v>278</v>
       </c>
@@ -20552,7 +20574,9 @@
         <v>281</v>
       </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
+      <c r="I35" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J35" s="29"/>
       <c r="K35" s="30"/>
       <c r="L35" s="43" t="s">
@@ -20579,9 +20603,9 @@
       <c r="AE35" s="19"/>
     </row>
     <row r="36" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="31" t="s">
         <v>282</v>
       </c>
@@ -20591,11 +20615,13 @@
       <c r="F36" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="145" t="s">
         <v>285</v>
       </c>
       <c r="H36" s="36"/>
-      <c r="I36" s="30"/>
+      <c r="I36" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J36" s="29"/>
       <c r="K36" s="30"/>
       <c r="L36" s="43"/>
@@ -20620,9 +20646,9 @@
       <c r="AE36" s="19"/>
     </row>
     <row r="37" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="46" t="s">
         <v>286</v>
       </c>
@@ -20632,11 +20658,13 @@
       <c r="F37" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="146" t="s">
         <v>289</v>
       </c>
       <c r="H37" s="73"/>
-      <c r="I37" s="48"/>
+      <c r="I37" s="48" t="b">
+        <v>1</v>
+      </c>
       <c r="J37" s="93"/>
       <c r="K37" s="48"/>
       <c r="L37" s="49"/>
@@ -20711,15 +20739,15 @@
       <c r="AE38" s="19"/>
     </row>
     <row r="39" spans="1:31" ht="88" x14ac:dyDescent="0.25">
-      <c r="A39" s="107">
+      <c r="A39" s="125">
         <f>Repos!A9</f>
         <v>8</v>
       </c>
-      <c r="B39" s="110" t="str">
+      <c r="B39" s="128" t="str">
         <f>Repos!B9</f>
         <v>https://github.com/apache/tinkerpop</v>
       </c>
-      <c r="C39" s="111">
+      <c r="C39" s="129">
         <f>Authors!G9</f>
         <v>44365</v>
       </c>
@@ -20763,9 +20791,9 @@
       <c r="AE39" s="19"/>
     </row>
     <row r="40" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="31" t="s">
         <v>297</v>
       </c>
@@ -20804,9 +20832,9 @@
       <c r="AE40" s="19"/>
     </row>
     <row r="41" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="31" t="s">
         <v>301</v>
       </c>
@@ -20845,9 +20873,9 @@
       <c r="AE41" s="19"/>
     </row>
     <row r="42" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="31" t="s">
         <v>305</v>
       </c>
@@ -20886,9 +20914,9 @@
       <c r="AE42" s="19"/>
     </row>
     <row r="43" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="31" t="s">
         <v>307</v>
       </c>
@@ -20927,9 +20955,9 @@
       <c r="AE43" s="19"/>
     </row>
     <row r="44" spans="1:31" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="109"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="46" t="s">
         <v>311</v>
       </c>
@@ -20968,15 +20996,15 @@
       <c r="AE44" s="19"/>
     </row>
     <row r="45" spans="1:31" ht="66" x14ac:dyDescent="0.25">
-      <c r="A45" s="107">
+      <c r="A45" s="125">
         <f>Repos!A10</f>
         <v>9</v>
       </c>
-      <c r="B45" s="110" t="str">
+      <c r="B45" s="128" t="str">
         <f>Repos!B10</f>
         <v>https://github.com/iotaledger/iri</v>
       </c>
-      <c r="C45" s="112">
+      <c r="C45" s="135">
         <f>Authors!G10</f>
         <v>43958</v>
       </c>
@@ -20993,7 +21021,9 @@
         <v>318</v>
       </c>
       <c r="H45" s="50"/>
-      <c r="I45" s="53"/>
+      <c r="I45" s="53" t="b">
+        <v>1</v>
+      </c>
       <c r="J45" s="94"/>
       <c r="K45" s="53"/>
       <c r="L45" s="54"/>
@@ -21018,9 +21048,9 @@
       <c r="AE45" s="19"/>
     </row>
     <row r="46" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="31" t="s">
         <v>319</v>
       </c>
@@ -21030,11 +21060,13 @@
       <c r="F46" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="148" t="s">
         <v>322</v>
       </c>
       <c r="H46" s="33"/>
-      <c r="I46" s="30"/>
+      <c r="I46" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J46" s="29"/>
       <c r="K46" s="30"/>
       <c r="L46" s="43"/>
@@ -21059,9 +21091,9 @@
       <c r="AE46" s="19"/>
     </row>
     <row r="47" spans="1:31" ht="88" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
       <c r="D47" s="31" t="s">
         <v>323</v>
       </c>
@@ -21102,9 +21134,9 @@
       <c r="AE47" s="19"/>
     </row>
     <row r="48" spans="1:31" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="127"/>
       <c r="D48" s="46" t="s">
         <v>326</v>
       </c>
@@ -21118,7 +21150,9 @@
         <v>329</v>
       </c>
       <c r="H48" s="73"/>
-      <c r="I48" s="48"/>
+      <c r="I48" s="48" t="b">
+        <v>1</v>
+      </c>
       <c r="J48" s="93"/>
       <c r="K48" s="48"/>
       <c r="L48" s="49"/>
@@ -21143,15 +21177,15 @@
       <c r="AE48" s="19"/>
     </row>
     <row r="49" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A49" s="107">
+      <c r="A49" s="125">
         <f>Repos!A11</f>
         <v>10</v>
       </c>
-      <c r="B49" s="110" t="str">
+      <c r="B49" s="128" t="str">
         <f>Repos!B11</f>
         <v>https://github.com/SmartBear/soapui</v>
       </c>
-      <c r="C49" s="112">
+      <c r="C49" s="135">
         <f>Authors!G11</f>
         <v>41827</v>
       </c>
@@ -21193,9 +21227,9 @@
       <c r="AE49" s="19"/>
     </row>
     <row r="50" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A50" s="108"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="31" t="s">
         <v>333</v>
       </c>
@@ -21234,9 +21268,9 @@
       <c r="AE50" s="19"/>
     </row>
     <row r="51" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="108"/>
+      <c r="A51" s="126"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
       <c r="D51" s="31" t="s">
         <v>337</v>
       </c>
@@ -21275,9 +21309,9 @@
       <c r="AE51" s="19"/>
     </row>
     <row r="52" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
       <c r="D52" s="31" t="s">
         <v>341</v>
       </c>
@@ -21316,9 +21350,9 @@
       <c r="AE52" s="19"/>
     </row>
     <row r="53" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
+      <c r="A53" s="126"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
       <c r="D53" s="31" t="s">
         <v>343</v>
       </c>
@@ -21357,9 +21391,9 @@
       <c r="AE53" s="19"/>
     </row>
     <row r="54" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
+      <c r="A54" s="126"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
       <c r="D54" s="31" t="s">
         <v>347</v>
       </c>
@@ -21398,9 +21432,9 @@
       <c r="AE54" s="19"/>
     </row>
     <row r="55" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="108"/>
+      <c r="A55" s="126"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
       <c r="D55" s="31" t="s">
         <v>351</v>
       </c>
@@ -21439,9 +21473,9 @@
       <c r="AE55" s="19"/>
     </row>
     <row r="56" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="109"/>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
       <c r="D56" s="46" t="s">
         <v>355</v>
       </c>
@@ -21480,15 +21514,15 @@
       <c r="AE56" s="19"/>
     </row>
     <row r="57" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A57" s="107">
+      <c r="A57" s="125">
         <f>Repos!A12</f>
         <v>11</v>
       </c>
-      <c r="B57" s="110" t="str">
+      <c r="B57" s="128" t="str">
         <f>Repos!B12</f>
         <v>https://github.com/w3c/epubcheck</v>
       </c>
-      <c r="C57" s="112">
+      <c r="C57" s="135">
         <f>Authors!G12</f>
         <v>44253</v>
       </c>
@@ -21532,9 +21566,9 @@
       <c r="AE57" s="19"/>
     </row>
     <row r="58" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="108"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
       <c r="D58" s="31" t="s">
         <v>362</v>
       </c>
@@ -21575,9 +21609,9 @@
       <c r="AE58" s="19"/>
     </row>
     <row r="59" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="109"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="46" t="s">
         <v>366</v>
       </c>
@@ -21643,7 +21677,9 @@
         <v>373</v>
       </c>
       <c r="H60" s="70"/>
-      <c r="I60" s="71"/>
+      <c r="I60" s="71" t="b">
+        <v>1</v>
+      </c>
       <c r="J60" s="96"/>
       <c r="K60" s="71"/>
       <c r="L60" s="72"/>
@@ -21668,15 +21704,15 @@
       <c r="AE60" s="19"/>
     </row>
     <row r="61" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A61" s="107">
+      <c r="A61" s="125">
         <f>Repos!A14</f>
         <v>13</v>
       </c>
-      <c r="B61" s="110" t="str">
+      <c r="B61" s="128" t="str">
         <f>Repos!B14</f>
         <v>https://github.com/bugsnag/bugsnag-android</v>
       </c>
-      <c r="C61" s="111">
+      <c r="C61" s="129">
         <f>Authors!G14</f>
         <v>44362</v>
       </c>
@@ -21718,9 +21754,9 @@
       <c r="AE61" s="19"/>
     </row>
     <row r="62" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
+      <c r="A62" s="126"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="31" t="s">
         <v>378</v>
       </c>
@@ -21759,9 +21795,9 @@
       <c r="AE62" s="19"/>
     </row>
     <row r="63" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
+      <c r="A63" s="126"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
       <c r="D63" s="31" t="s">
         <v>382</v>
       </c>
@@ -21800,9 +21836,9 @@
       <c r="AE63" s="19"/>
     </row>
     <row r="64" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="108"/>
+      <c r="A64" s="126"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
       <c r="D64" s="31" t="s">
         <v>386</v>
       </c>
@@ -21841,9 +21877,9 @@
       <c r="AE64" s="19"/>
     </row>
     <row r="65" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
+      <c r="A65" s="126"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
       <c r="D65" s="31" t="s">
         <v>390</v>
       </c>
@@ -21882,9 +21918,9 @@
       <c r="AE65" s="19"/>
     </row>
     <row r="66" spans="1:31" ht="89" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="109"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="127"/>
       <c r="D66" s="46" t="s">
         <v>393</v>
       </c>
@@ -21925,15 +21961,15 @@
       <c r="AE66" s="19"/>
     </row>
     <row r="67" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A67" s="107">
+      <c r="A67" s="125">
         <f>Repos!A15</f>
         <v>14</v>
       </c>
-      <c r="B67" s="110" t="str">
+      <c r="B67" s="128" t="str">
         <f>Repos!B15</f>
         <v>https://github.com/blox/blox</v>
       </c>
-      <c r="C67" s="111">
+      <c r="C67" s="129">
         <f>Authors!G15</f>
         <v>43143</v>
       </c>
@@ -21977,9 +22013,9 @@
       <c r="AE67" s="19"/>
     </row>
     <row r="68" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="108"/>
+      <c r="A68" s="126"/>
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
       <c r="D68" s="31" t="s">
         <v>401</v>
       </c>
@@ -22020,9 +22056,9 @@
       <c r="AE68" s="19"/>
     </row>
     <row r="69" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="109"/>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="127"/>
       <c r="D69" s="46" t="s">
         <v>405</v>
       </c>
@@ -22113,15 +22149,15 @@
       <c r="AE70" s="19"/>
     </row>
     <row r="71" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A71" s="107">
+      <c r="A71" s="125">
         <f>Repos!A17</f>
         <v>16</v>
       </c>
-      <c r="B71" s="110" t="str">
+      <c r="B71" s="128" t="str">
         <f>Repos!B17</f>
         <v>https://github.com/FluentLenium/FluentLenium</v>
       </c>
-      <c r="C71" s="111">
+      <c r="C71" s="129">
         <f>Authors!G17</f>
         <v>43660</v>
       </c>
@@ -22163,9 +22199,9 @@
       <c r="AE71" s="19"/>
     </row>
     <row r="72" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="109"/>
-      <c r="B72" s="109"/>
-      <c r="C72" s="109"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="127"/>
       <c r="D72" s="46" t="s">
         <v>415</v>
       </c>
@@ -22204,15 +22240,15 @@
       <c r="AE72" s="19"/>
     </row>
     <row r="73" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A73" s="107">
+      <c r="A73" s="125">
         <f>Repos!A18</f>
         <v>17</v>
       </c>
-      <c r="B73" s="110" t="str">
+      <c r="B73" s="128" t="str">
         <f>Repos!B18</f>
         <v>https://github.com/AppiumTestDistribution/AppiumTestDistribution</v>
       </c>
-      <c r="C73" s="119">
+      <c r="C73" s="142">
         <f>Authors!G18</f>
         <v>44184</v>
       </c>
@@ -22254,9 +22290,9 @@
       <c r="AE73" s="19"/>
     </row>
     <row r="74" spans="1:31" ht="110" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
-      <c r="B74" s="108"/>
-      <c r="C74" s="108"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="126"/>
       <c r="D74" s="31" t="s">
         <v>423</v>
       </c>
@@ -22297,9 +22333,9 @@
       <c r="AE74" s="19"/>
     </row>
     <row r="75" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
-      <c r="B75" s="108"/>
-      <c r="C75" s="108"/>
+      <c r="A75" s="126"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
       <c r="D75" s="31" t="s">
         <v>427</v>
       </c>
@@ -22338,9 +22374,9 @@
       <c r="AE75" s="19"/>
     </row>
     <row r="76" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="109"/>
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
       <c r="D76" s="46" t="s">
         <v>431</v>
       </c>
@@ -22379,15 +22415,15 @@
       <c r="AE76" s="19"/>
     </row>
     <row r="77" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A77" s="107">
+      <c r="A77" s="125">
         <f>Repos!A19</f>
         <v>18</v>
       </c>
-      <c r="B77" s="110" t="str">
+      <c r="B77" s="128" t="str">
         <f>Repos!B19</f>
         <v>https://github.com/mzheravin/exchange-core</v>
       </c>
-      <c r="C77" s="112">
+      <c r="C77" s="135">
         <f>Authors!G19</f>
         <v>43989</v>
       </c>
@@ -22429,9 +22465,9 @@
       <c r="AE77" s="19"/>
     </row>
     <row r="78" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="109"/>
-      <c r="B78" s="109"/>
-      <c r="C78" s="109"/>
+      <c r="A78" s="127"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="127"/>
       <c r="D78" s="46" t="s">
         <v>439</v>
       </c>
@@ -22520,15 +22556,15 @@
       <c r="AE79" s="19"/>
     </row>
     <row r="80" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A80" s="107">
+      <c r="A80" s="125">
         <f>Repos!A21</f>
         <v>20</v>
       </c>
-      <c r="B80" s="110" t="str">
+      <c r="B80" s="128" t="str">
         <f>Repos!B21</f>
         <v>https://github.com/jbangdev/jbang</v>
       </c>
-      <c r="C80" s="118">
+      <c r="C80" s="141">
         <f>Authors!G21</f>
         <v>44340</v>
       </c>
@@ -22570,9 +22606,9 @@
       <c r="AE80" s="19"/>
     </row>
     <row r="81" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
-      <c r="B81" s="108"/>
-      <c r="C81" s="108"/>
+      <c r="A81" s="126"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
       <c r="D81" s="31" t="s">
         <v>450</v>
       </c>
@@ -22611,9 +22647,9 @@
       <c r="AE81" s="19"/>
     </row>
     <row r="82" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A82" s="108"/>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
+      <c r="A82" s="126"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
       <c r="D82" s="31" t="s">
         <v>454</v>
       </c>
@@ -22652,9 +22688,9 @@
       <c r="AE82" s="19"/>
     </row>
     <row r="83" spans="1:31" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="108"/>
-      <c r="B83" s="108"/>
-      <c r="C83" s="108"/>
+      <c r="A83" s="126"/>
+      <c r="B83" s="126"/>
+      <c r="C83" s="126"/>
       <c r="D83" s="31" t="s">
         <v>458</v>
       </c>
@@ -22695,15 +22731,15 @@
       <c r="AE83" s="19"/>
     </row>
     <row r="84" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A84" s="107">
+      <c r="A84" s="125">
         <f>Repos!A22</f>
         <v>21</v>
       </c>
-      <c r="B84" s="110" t="str">
+      <c r="B84" s="128" t="str">
         <f>Repos!B22</f>
         <v>https://github.com/SoftInstigate/restheart</v>
       </c>
-      <c r="C84" s="111">
+      <c r="C84" s="129">
         <f>Authors!G22</f>
         <v>44358</v>
       </c>
@@ -22745,9 +22781,9 @@
       <c r="AE84" s="19"/>
     </row>
     <row r="85" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
-      <c r="B85" s="108"/>
-      <c r="C85" s="108"/>
+      <c r="A85" s="126"/>
+      <c r="B85" s="126"/>
+      <c r="C85" s="126"/>
       <c r="D85" s="31" t="s">
         <v>466</v>
       </c>
@@ -22786,9 +22822,9 @@
       <c r="AE85" s="19"/>
     </row>
     <row r="86" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
-      <c r="B86" s="108"/>
-      <c r="C86" s="108"/>
+      <c r="A86" s="126"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
       <c r="D86" s="31" t="s">
         <v>468</v>
       </c>
@@ -22829,9 +22865,9 @@
       <c r="AE86" s="19"/>
     </row>
     <row r="87" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="109"/>
-      <c r="B87" s="109"/>
-      <c r="C87" s="109"/>
+      <c r="A87" s="127"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="127"/>
       <c r="D87" s="46" t="s">
         <v>472</v>
       </c>
@@ -22924,15 +22960,15 @@
       <c r="AE88" s="19"/>
     </row>
     <row r="89" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A89" s="107">
+      <c r="A89" s="125">
         <f>Repos!A24</f>
         <v>23</v>
       </c>
-      <c r="B89" s="110" t="str">
+      <c r="B89" s="128" t="str">
         <f>Repos!B24</f>
         <v>https://github.com/intuit/karate</v>
       </c>
-      <c r="C89" s="111">
+      <c r="C89" s="129">
         <v>44370</v>
       </c>
       <c r="D89" s="63" t="s">
@@ -22973,9 +23009,9 @@
       <c r="AE89" s="19"/>
     </row>
     <row r="90" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
-      <c r="B90" s="108"/>
-      <c r="C90" s="108"/>
+      <c r="A90" s="126"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="126"/>
       <c r="D90" s="41" t="s">
         <v>480</v>
       </c>
@@ -23014,9 +23050,9 @@
       <c r="AE90" s="19"/>
     </row>
     <row r="91" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
+      <c r="A91" s="126"/>
+      <c r="B91" s="126"/>
+      <c r="C91" s="126"/>
       <c r="D91" s="41" t="s">
         <v>484</v>
       </c>
@@ -23055,9 +23091,9 @@
       <c r="AE91" s="19"/>
     </row>
     <row r="92" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
-      <c r="B92" s="108"/>
-      <c r="C92" s="108"/>
+      <c r="A92" s="126"/>
+      <c r="B92" s="126"/>
+      <c r="C92" s="126"/>
       <c r="D92" s="41" t="s">
         <v>488</v>
       </c>
@@ -23096,9 +23132,9 @@
       <c r="AE92" s="19"/>
     </row>
     <row r="93" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
-      <c r="B93" s="108"/>
-      <c r="C93" s="108"/>
+      <c r="A93" s="126"/>
+      <c r="B93" s="126"/>
+      <c r="C93" s="126"/>
       <c r="D93" s="41" t="s">
         <v>492</v>
       </c>
@@ -23137,9 +23173,9 @@
       <c r="AE93" s="19"/>
     </row>
     <row r="94" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
-      <c r="B94" s="108"/>
-      <c r="C94" s="108"/>
+      <c r="A94" s="126"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="126"/>
       <c r="D94" s="41" t="s">
         <v>496</v>
       </c>
@@ -23178,9 +23214,9 @@
       <c r="AE94" s="19"/>
     </row>
     <row r="95" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
-      <c r="B95" s="108"/>
-      <c r="C95" s="108"/>
+      <c r="A95" s="126"/>
+      <c r="B95" s="126"/>
+      <c r="C95" s="126"/>
       <c r="D95" s="41" t="s">
         <v>500</v>
       </c>
@@ -23219,9 +23255,9 @@
       <c r="AE95" s="19"/>
     </row>
     <row r="96" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
-      <c r="B96" s="108"/>
-      <c r="C96" s="108"/>
+      <c r="A96" s="126"/>
+      <c r="B96" s="126"/>
+      <c r="C96" s="126"/>
       <c r="D96" s="41" t="s">
         <v>504</v>
       </c>
@@ -23260,9 +23296,9 @@
       <c r="AE96" s="19"/>
     </row>
     <row r="97" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
-      <c r="B97" s="108"/>
-      <c r="C97" s="108"/>
+      <c r="A97" s="126"/>
+      <c r="B97" s="126"/>
+      <c r="C97" s="126"/>
       <c r="D97" s="41" t="s">
         <v>506</v>
       </c>
@@ -23301,9 +23337,9 @@
       <c r="AE97" s="19"/>
     </row>
     <row r="98" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="109"/>
-      <c r="B98" s="109"/>
-      <c r="C98" s="109"/>
+      <c r="A98" s="127"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="127"/>
       <c r="D98" s="86" t="s">
         <v>509</v>
       </c>
@@ -23342,15 +23378,15 @@
       <c r="AE98" s="19"/>
     </row>
     <row r="99" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A99" s="107">
+      <c r="A99" s="125">
         <f>Repos!A25</f>
         <v>24</v>
       </c>
-      <c r="B99" s="110" t="str">
+      <c r="B99" s="128" t="str">
         <f>Repos!B25</f>
         <v>https://github.com/cucumber/cucumber</v>
       </c>
-      <c r="C99" s="111">
+      <c r="C99" s="129">
         <v>44370</v>
       </c>
       <c r="D99" s="63" t="s">
@@ -23391,9 +23427,9 @@
       <c r="AE99" s="19"/>
     </row>
     <row r="100" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="108"/>
+      <c r="A100" s="126"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="126"/>
       <c r="D100" s="41" t="s">
         <v>517</v>
       </c>
@@ -23432,9 +23468,9 @@
       <c r="AE100" s="19"/>
     </row>
     <row r="101" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
-      <c r="B101" s="108"/>
-      <c r="C101" s="108"/>
+      <c r="A101" s="126"/>
+      <c r="B101" s="126"/>
+      <c r="C101" s="126"/>
       <c r="D101" s="41" t="s">
         <v>521</v>
       </c>
@@ -23473,9 +23509,9 @@
       <c r="AE101" s="19"/>
     </row>
     <row r="102" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
+      <c r="A102" s="126"/>
+      <c r="B102" s="126"/>
+      <c r="C102" s="126"/>
       <c r="D102" s="41" t="s">
         <v>525</v>
       </c>
@@ -23514,9 +23550,9 @@
       <c r="AE102" s="19"/>
     </row>
     <row r="103" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
-      <c r="B103" s="108"/>
-      <c r="C103" s="108"/>
+      <c r="A103" s="126"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="126"/>
       <c r="D103" s="41" t="s">
         <v>529</v>
       </c>
@@ -23555,9 +23591,9 @@
       <c r="AE103" s="19"/>
     </row>
     <row r="104" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
-      <c r="B104" s="108"/>
-      <c r="C104" s="108"/>
+      <c r="A104" s="126"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="126"/>
       <c r="D104" s="41" t="s">
         <v>532</v>
       </c>
@@ -23596,9 +23632,9 @@
       <c r="AE104" s="19"/>
     </row>
     <row r="105" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
-      <c r="B105" s="108"/>
-      <c r="C105" s="108"/>
+      <c r="A105" s="126"/>
+      <c r="B105" s="126"/>
+      <c r="C105" s="126"/>
       <c r="D105" s="41" t="s">
         <v>535</v>
       </c>
@@ -23637,9 +23673,9 @@
       <c r="AE105" s="19"/>
     </row>
     <row r="106" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A106" s="108"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="108"/>
+      <c r="A106" s="126"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="126"/>
       <c r="D106" s="41" t="s">
         <v>539</v>
       </c>
@@ -23678,9 +23714,9 @@
       <c r="AE106" s="19"/>
     </row>
     <row r="107" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
-      <c r="B107" s="108"/>
-      <c r="C107" s="108"/>
+      <c r="A107" s="126"/>
+      <c r="B107" s="126"/>
+      <c r="C107" s="126"/>
       <c r="D107" s="41" t="s">
         <v>542</v>
       </c>
@@ -23719,9 +23755,9 @@
       <c r="AE107" s="19"/>
     </row>
     <row r="108" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="109"/>
-      <c r="B108" s="109"/>
-      <c r="C108" s="109"/>
+      <c r="A108" s="127"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="127"/>
       <c r="D108" s="86" t="s">
         <v>545</v>
       </c>
@@ -23760,15 +23796,15 @@
       <c r="AE108" s="19"/>
     </row>
     <row r="109" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A109" s="107">
+      <c r="A109" s="125">
         <f>Repos!A26</f>
         <v>25</v>
       </c>
-      <c r="B109" s="110" t="str">
+      <c r="B109" s="128" t="str">
         <f>Repos!B26</f>
         <v>https://github.com/cucumber/cucumber-jvm</v>
       </c>
-      <c r="C109" s="111">
+      <c r="C109" s="129">
         <v>44370</v>
       </c>
       <c r="D109" s="63" t="s">
@@ -23809,9 +23845,9 @@
       <c r="AE109" s="19"/>
     </row>
     <row r="110" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="108"/>
+      <c r="A110" s="126"/>
+      <c r="B110" s="126"/>
+      <c r="C110" s="126"/>
       <c r="D110" s="41" t="s">
         <v>549</v>
       </c>
@@ -23850,9 +23886,9 @@
       <c r="AE110" s="19"/>
     </row>
     <row r="111" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A111" s="108"/>
-      <c r="B111" s="108"/>
-      <c r="C111" s="108"/>
+      <c r="A111" s="126"/>
+      <c r="B111" s="126"/>
+      <c r="C111" s="126"/>
       <c r="D111" s="41" t="s">
         <v>553</v>
       </c>
@@ -23891,9 +23927,9 @@
       <c r="AE111" s="19"/>
     </row>
     <row r="112" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A112" s="108"/>
-      <c r="B112" s="108"/>
-      <c r="C112" s="108"/>
+      <c r="A112" s="126"/>
+      <c r="B112" s="126"/>
+      <c r="C112" s="126"/>
       <c r="D112" s="41" t="s">
         <v>557</v>
       </c>
@@ -23932,9 +23968,9 @@
       <c r="AE112" s="19"/>
     </row>
     <row r="113" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
+      <c r="A113" s="126"/>
+      <c r="B113" s="126"/>
+      <c r="C113" s="126"/>
       <c r="D113" s="41" t="s">
         <v>559</v>
       </c>
@@ -23973,9 +24009,9 @@
       <c r="AE113" s="19"/>
     </row>
     <row r="114" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="109"/>
-      <c r="B114" s="109"/>
-      <c r="C114" s="109"/>
+      <c r="A114" s="127"/>
+      <c r="B114" s="127"/>
+      <c r="C114" s="127"/>
       <c r="D114" s="86" t="s">
         <v>563</v>
       </c>
@@ -24014,15 +24050,15 @@
       <c r="AE114" s="19"/>
     </row>
     <row r="115" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A115" s="107">
+      <c r="A115" s="125">
         <f>Repos!A27</f>
         <v>26</v>
       </c>
-      <c r="B115" s="110" t="str">
+      <c r="B115" s="128" t="str">
         <f>Repos!B27</f>
         <v>https://github.com/JetBrains/intellij-plugins</v>
       </c>
-      <c r="C115" s="111">
+      <c r="C115" s="129">
         <v>44370</v>
       </c>
       <c r="D115" s="63" t="s">
@@ -24063,9 +24099,9 @@
       <c r="AE115" s="19"/>
     </row>
     <row r="116" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A116" s="108"/>
-      <c r="B116" s="108"/>
-      <c r="C116" s="108"/>
+      <c r="A116" s="126"/>
+      <c r="B116" s="126"/>
+      <c r="C116" s="126"/>
       <c r="D116" s="41" t="s">
         <v>569</v>
       </c>
@@ -24104,9 +24140,9 @@
       <c r="AE116" s="19"/>
     </row>
     <row r="117" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A117" s="108"/>
-      <c r="B117" s="108"/>
-      <c r="C117" s="108"/>
+      <c r="A117" s="126"/>
+      <c r="B117" s="126"/>
+      <c r="C117" s="126"/>
       <c r="D117" s="41" t="s">
         <v>573</v>
       </c>
@@ -24145,9 +24181,9 @@
       <c r="AE117" s="19"/>
     </row>
     <row r="118" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A118" s="108"/>
-      <c r="B118" s="108"/>
-      <c r="C118" s="108"/>
+      <c r="A118" s="126"/>
+      <c r="B118" s="126"/>
+      <c r="C118" s="126"/>
       <c r="D118" s="41" t="s">
         <v>577</v>
       </c>
@@ -24186,9 +24222,9 @@
       <c r="AE118" s="19"/>
     </row>
     <row r="119" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A119" s="108"/>
-      <c r="B119" s="108"/>
-      <c r="C119" s="108"/>
+      <c r="A119" s="126"/>
+      <c r="B119" s="126"/>
+      <c r="C119" s="126"/>
       <c r="D119" s="41" t="s">
         <v>581</v>
       </c>
@@ -24227,9 +24263,9 @@
       <c r="AE119" s="19"/>
     </row>
     <row r="120" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="109"/>
-      <c r="B120" s="109"/>
-      <c r="C120" s="109"/>
+      <c r="A120" s="127"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="127"/>
       <c r="D120" s="86" t="s">
         <v>585</v>
       </c>
@@ -24268,34 +24304,34 @@
       <c r="AE120" s="19"/>
     </row>
     <row r="121" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A121" s="120">
+      <c r="A121" s="130">
         <f>Repos!A28</f>
         <v>27</v>
       </c>
-      <c r="B121" s="121" t="str">
+      <c r="B121" s="133" t="str">
         <f>Repos!B28</f>
         <v>https://github.com/OpenLiberty/open-liberty</v>
       </c>
-      <c r="C121" s="122">
+      <c r="C121" s="134">
         <v>44370</v>
       </c>
-      <c r="D121" s="123" t="s">
+      <c r="D121" s="107" t="s">
         <v>589</v>
       </c>
-      <c r="E121" s="123" t="s">
+      <c r="E121" s="107" t="s">
         <v>590</v>
       </c>
-      <c r="F121" s="124" t="s">
+      <c r="F121" s="108" t="s">
         <v>591</v>
       </c>
-      <c r="G121" s="125" t="s">
+      <c r="G121" s="109" t="s">
         <v>592</v>
       </c>
-      <c r="H121" s="125"/>
-      <c r="I121" s="126"/>
-      <c r="J121" s="127"/>
-      <c r="K121" s="126"/>
-      <c r="L121" s="128"/>
+      <c r="H121" s="109"/>
+      <c r="I121" s="110"/>
+      <c r="J121" s="111"/>
+      <c r="K121" s="110"/>
+      <c r="L121" s="112"/>
       <c r="M121" s="19"/>
       <c r="N121" s="19"/>
       <c r="O121" s="19"/>
@@ -24317,26 +24353,26 @@
       <c r="AE121" s="19"/>
     </row>
     <row r="122" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A122" s="129"/>
-      <c r="B122" s="129"/>
-      <c r="C122" s="129"/>
-      <c r="D122" s="130" t="s">
+      <c r="A122" s="131"/>
+      <c r="B122" s="131"/>
+      <c r="C122" s="131"/>
+      <c r="D122" s="113" t="s">
         <v>593</v>
       </c>
-      <c r="E122" s="130" t="s">
+      <c r="E122" s="113" t="s">
         <v>594</v>
       </c>
-      <c r="F122" s="131" t="s">
+      <c r="F122" s="114" t="s">
         <v>595</v>
       </c>
-      <c r="G122" s="132" t="s">
+      <c r="G122" s="115" t="s">
         <v>596</v>
       </c>
-      <c r="H122" s="132"/>
-      <c r="I122" s="133"/>
-      <c r="J122" s="134"/>
-      <c r="K122" s="133"/>
-      <c r="L122" s="135"/>
+      <c r="H122" s="115"/>
+      <c r="I122" s="116"/>
+      <c r="J122" s="117"/>
+      <c r="K122" s="116"/>
+      <c r="L122" s="118"/>
       <c r="M122" s="19"/>
       <c r="N122" s="19"/>
       <c r="O122" s="19"/>
@@ -24358,26 +24394,26 @@
       <c r="AE122" s="19"/>
     </row>
     <row r="123" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A123" s="129"/>
-      <c r="B123" s="129"/>
-      <c r="C123" s="129"/>
-      <c r="D123" s="130" t="s">
+      <c r="A123" s="131"/>
+      <c r="B123" s="131"/>
+      <c r="C123" s="131"/>
+      <c r="D123" s="113" t="s">
         <v>597</v>
       </c>
-      <c r="E123" s="130" t="s">
+      <c r="E123" s="113" t="s">
         <v>598</v>
       </c>
-      <c r="F123" s="131" t="s">
+      <c r="F123" s="114" t="s">
         <v>599</v>
       </c>
-      <c r="G123" s="132" t="s">
+      <c r="G123" s="115" t="s">
         <v>600</v>
       </c>
-      <c r="H123" s="132"/>
-      <c r="I123" s="133"/>
-      <c r="J123" s="134"/>
-      <c r="K123" s="133"/>
-      <c r="L123" s="135"/>
+      <c r="H123" s="115"/>
+      <c r="I123" s="116"/>
+      <c r="J123" s="117"/>
+      <c r="K123" s="116"/>
+      <c r="L123" s="118"/>
       <c r="M123" s="19"/>
       <c r="N123" s="19"/>
       <c r="O123" s="19"/>
@@ -24399,26 +24435,26 @@
       <c r="AE123" s="19"/>
     </row>
     <row r="124" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A124" s="129"/>
-      <c r="B124" s="129"/>
-      <c r="C124" s="129"/>
-      <c r="D124" s="130" t="s">
+      <c r="A124" s="131"/>
+      <c r="B124" s="131"/>
+      <c r="C124" s="131"/>
+      <c r="D124" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="E124" s="130" t="s">
+      <c r="E124" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="F124" s="131" t="s">
+      <c r="F124" s="114" t="s">
         <v>603</v>
       </c>
-      <c r="G124" s="132" t="s">
+      <c r="G124" s="115" t="s">
         <v>604</v>
       </c>
-      <c r="H124" s="132"/>
-      <c r="I124" s="133"/>
-      <c r="J124" s="134"/>
-      <c r="K124" s="133"/>
-      <c r="L124" s="135"/>
+      <c r="H124" s="115"/>
+      <c r="I124" s="116"/>
+      <c r="J124" s="117"/>
+      <c r="K124" s="116"/>
+      <c r="L124" s="118"/>
       <c r="M124" s="19"/>
       <c r="N124" s="19"/>
       <c r="O124" s="19"/>
@@ -24440,26 +24476,26 @@
       <c r="AE124" s="19"/>
     </row>
     <row r="125" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A125" s="129"/>
-      <c r="B125" s="129"/>
-      <c r="C125" s="129"/>
-      <c r="D125" s="130" t="s">
+      <c r="A125" s="131"/>
+      <c r="B125" s="131"/>
+      <c r="C125" s="131"/>
+      <c r="D125" s="113" t="s">
         <v>605</v>
       </c>
-      <c r="E125" s="130" t="s">
+      <c r="E125" s="113" t="s">
         <v>606</v>
       </c>
-      <c r="F125" s="131" t="s">
+      <c r="F125" s="114" t="s">
         <v>607</v>
       </c>
-      <c r="G125" s="132" t="s">
+      <c r="G125" s="115" t="s">
         <v>608</v>
       </c>
-      <c r="H125" s="132"/>
-      <c r="I125" s="133"/>
-      <c r="J125" s="134"/>
-      <c r="K125" s="133"/>
-      <c r="L125" s="135"/>
+      <c r="H125" s="115"/>
+      <c r="I125" s="116"/>
+      <c r="J125" s="117"/>
+      <c r="K125" s="116"/>
+      <c r="L125" s="118"/>
       <c r="M125" s="19"/>
       <c r="N125" s="19"/>
       <c r="O125" s="19"/>
@@ -24481,26 +24517,26 @@
       <c r="AE125" s="19"/>
     </row>
     <row r="126" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A126" s="129"/>
-      <c r="B126" s="129"/>
-      <c r="C126" s="129"/>
-      <c r="D126" s="130" t="s">
+      <c r="A126" s="131"/>
+      <c r="B126" s="131"/>
+      <c r="C126" s="131"/>
+      <c r="D126" s="113" t="s">
         <v>609</v>
       </c>
-      <c r="E126" s="130" t="s">
+      <c r="E126" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="F126" s="131" t="s">
+      <c r="F126" s="114" t="s">
         <v>611</v>
       </c>
-      <c r="G126" s="132" t="s">
+      <c r="G126" s="115" t="s">
         <v>612</v>
       </c>
-      <c r="H126" s="132"/>
-      <c r="I126" s="133"/>
-      <c r="J126" s="134"/>
-      <c r="K126" s="133"/>
-      <c r="L126" s="135"/>
+      <c r="H126" s="115"/>
+      <c r="I126" s="116"/>
+      <c r="J126" s="117"/>
+      <c r="K126" s="116"/>
+      <c r="L126" s="118"/>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="19"/>
@@ -24522,26 +24558,26 @@
       <c r="AE126" s="19"/>
     </row>
     <row r="127" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A127" s="129"/>
-      <c r="B127" s="129"/>
-      <c r="C127" s="129"/>
-      <c r="D127" s="130" t="s">
+      <c r="A127" s="131"/>
+      <c r="B127" s="131"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="113" t="s">
         <v>613</v>
       </c>
-      <c r="E127" s="130" t="s">
+      <c r="E127" s="113" t="s">
         <v>614</v>
       </c>
-      <c r="F127" s="131" t="s">
+      <c r="F127" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="G127" s="132" t="s">
+      <c r="G127" s="115" t="s">
         <v>616</v>
       </c>
-      <c r="H127" s="132"/>
-      <c r="I127" s="133"/>
-      <c r="J127" s="134"/>
-      <c r="K127" s="133"/>
-      <c r="L127" s="135"/>
+      <c r="H127" s="115"/>
+      <c r="I127" s="116"/>
+      <c r="J127" s="117"/>
+      <c r="K127" s="116"/>
+      <c r="L127" s="118"/>
       <c r="M127" s="19"/>
       <c r="N127" s="19"/>
       <c r="O127" s="19"/>
@@ -24563,26 +24599,26 @@
       <c r="AE127" s="19"/>
     </row>
     <row r="128" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A128" s="129"/>
-      <c r="B128" s="129"/>
-      <c r="C128" s="129"/>
-      <c r="D128" s="130" t="s">
+      <c r="A128" s="131"/>
+      <c r="B128" s="131"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="113" t="s">
         <v>617</v>
       </c>
-      <c r="E128" s="130" t="s">
+      <c r="E128" s="113" t="s">
         <v>618</v>
       </c>
-      <c r="F128" s="131" t="s">
+      <c r="F128" s="114" t="s">
         <v>619</v>
       </c>
-      <c r="G128" s="132" t="s">
+      <c r="G128" s="115" t="s">
         <v>620</v>
       </c>
-      <c r="H128" s="132"/>
-      <c r="I128" s="133"/>
-      <c r="J128" s="134"/>
-      <c r="K128" s="133"/>
-      <c r="L128" s="135"/>
+      <c r="H128" s="115"/>
+      <c r="I128" s="116"/>
+      <c r="J128" s="117"/>
+      <c r="K128" s="116"/>
+      <c r="L128" s="118"/>
       <c r="M128" s="19"/>
       <c r="N128" s="19"/>
       <c r="O128" s="19"/>
@@ -24604,26 +24640,26 @@
       <c r="AE128" s="19"/>
     </row>
     <row r="129" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A129" s="129"/>
-      <c r="B129" s="129"/>
-      <c r="C129" s="129"/>
-      <c r="D129" s="130" t="s">
+      <c r="A129" s="131"/>
+      <c r="B129" s="131"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="113" t="s">
         <v>621</v>
       </c>
-      <c r="E129" s="130" t="s">
+      <c r="E129" s="113" t="s">
         <v>622</v>
       </c>
-      <c r="F129" s="131" t="s">
+      <c r="F129" s="114" t="s">
         <v>623</v>
       </c>
-      <c r="G129" s="132" t="s">
+      <c r="G129" s="115" t="s">
         <v>624</v>
       </c>
-      <c r="H129" s="132"/>
-      <c r="I129" s="133"/>
-      <c r="J129" s="134"/>
-      <c r="K129" s="133"/>
-      <c r="L129" s="135"/>
+      <c r="H129" s="115"/>
+      <c r="I129" s="116"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="116"/>
+      <c r="L129" s="118"/>
       <c r="M129" s="19"/>
       <c r="N129" s="19"/>
       <c r="O129" s="19"/>
@@ -24645,26 +24681,26 @@
       <c r="AE129" s="19"/>
     </row>
     <row r="130" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A130" s="129"/>
-      <c r="B130" s="129"/>
-      <c r="C130" s="129"/>
-      <c r="D130" s="130" t="s">
+      <c r="A130" s="131"/>
+      <c r="B130" s="131"/>
+      <c r="C130" s="131"/>
+      <c r="D130" s="113" t="s">
         <v>625</v>
       </c>
-      <c r="E130" s="130" t="s">
+      <c r="E130" s="113" t="s">
         <v>626</v>
       </c>
-      <c r="F130" s="131" t="s">
+      <c r="F130" s="114" t="s">
         <v>627</v>
       </c>
-      <c r="G130" s="132" t="s">
+      <c r="G130" s="115" t="s">
         <v>628</v>
       </c>
-      <c r="H130" s="132"/>
-      <c r="I130" s="133"/>
-      <c r="J130" s="134"/>
-      <c r="K130" s="133"/>
-      <c r="L130" s="135"/>
+      <c r="H130" s="115"/>
+      <c r="I130" s="116"/>
+      <c r="J130" s="117"/>
+      <c r="K130" s="116"/>
+      <c r="L130" s="118"/>
       <c r="M130" s="19"/>
       <c r="N130" s="19"/>
       <c r="O130" s="19"/>
@@ -24686,26 +24722,26 @@
       <c r="AE130" s="19"/>
     </row>
     <row r="131" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A131" s="129"/>
-      <c r="B131" s="129"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="130" t="s">
+      <c r="A131" s="131"/>
+      <c r="B131" s="131"/>
+      <c r="C131" s="131"/>
+      <c r="D131" s="113" t="s">
         <v>629</v>
       </c>
-      <c r="E131" s="130" t="s">
+      <c r="E131" s="113" t="s">
         <v>630</v>
       </c>
-      <c r="F131" s="131" t="s">
+      <c r="F131" s="114" t="s">
         <v>631</v>
       </c>
-      <c r="G131" s="132" t="s">
+      <c r="G131" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="H131" s="132"/>
-      <c r="I131" s="133"/>
-      <c r="J131" s="134"/>
-      <c r="K131" s="133"/>
-      <c r="L131" s="135"/>
+      <c r="H131" s="115"/>
+      <c r="I131" s="116"/>
+      <c r="J131" s="117"/>
+      <c r="K131" s="116"/>
+      <c r="L131" s="118"/>
       <c r="M131" s="19"/>
       <c r="N131" s="19"/>
       <c r="O131" s="19"/>
@@ -24727,26 +24763,26 @@
       <c r="AE131" s="19"/>
     </row>
     <row r="132" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A132" s="129"/>
-      <c r="B132" s="129"/>
-      <c r="C132" s="129"/>
-      <c r="D132" s="130" t="s">
+      <c r="A132" s="131"/>
+      <c r="B132" s="131"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="113" t="s">
         <v>632</v>
       </c>
-      <c r="E132" s="130" t="s">
+      <c r="E132" s="113" t="s">
         <v>633</v>
       </c>
-      <c r="F132" s="131" t="s">
+      <c r="F132" s="114" t="s">
         <v>634</v>
       </c>
-      <c r="G132" s="132" t="s">
+      <c r="G132" s="115" t="s">
         <v>635</v>
       </c>
-      <c r="H132" s="132"/>
-      <c r="I132" s="133"/>
-      <c r="J132" s="134"/>
-      <c r="K132" s="133"/>
-      <c r="L132" s="135"/>
+      <c r="H132" s="115"/>
+      <c r="I132" s="116"/>
+      <c r="J132" s="117"/>
+      <c r="K132" s="116"/>
+      <c r="L132" s="118"/>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
       <c r="O132" s="19"/>
@@ -24768,26 +24804,26 @@
       <c r="AE132" s="19"/>
     </row>
     <row r="133" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A133" s="129"/>
-      <c r="B133" s="129"/>
-      <c r="C133" s="129"/>
-      <c r="D133" s="130" t="s">
+      <c r="A133" s="131"/>
+      <c r="B133" s="131"/>
+      <c r="C133" s="131"/>
+      <c r="D133" s="113" t="s">
         <v>636</v>
       </c>
-      <c r="E133" s="130" t="s">
+      <c r="E133" s="113" t="s">
         <v>637</v>
       </c>
-      <c r="F133" s="131" t="s">
+      <c r="F133" s="114" t="s">
         <v>638</v>
       </c>
-      <c r="G133" s="132" t="s">
+      <c r="G133" s="115" t="s">
         <v>639</v>
       </c>
-      <c r="H133" s="132"/>
-      <c r="I133" s="133"/>
-      <c r="J133" s="134"/>
-      <c r="K133" s="133"/>
-      <c r="L133" s="135"/>
+      <c r="H133" s="115"/>
+      <c r="I133" s="116"/>
+      <c r="J133" s="117"/>
+      <c r="K133" s="116"/>
+      <c r="L133" s="118"/>
       <c r="M133" s="19"/>
       <c r="N133" s="19"/>
       <c r="O133" s="19"/>
@@ -24809,26 +24845,26 @@
       <c r="AE133" s="19"/>
     </row>
     <row r="134" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A134" s="129"/>
-      <c r="B134" s="129"/>
-      <c r="C134" s="129"/>
-      <c r="D134" s="130" t="s">
+      <c r="A134" s="131"/>
+      <c r="B134" s="131"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="E134" s="130" t="s">
+      <c r="E134" s="113" t="s">
         <v>641</v>
       </c>
-      <c r="F134" s="131" t="s">
+      <c r="F134" s="114" t="s">
         <v>642</v>
       </c>
-      <c r="G134" s="132" t="s">
+      <c r="G134" s="115" t="s">
         <v>643</v>
       </c>
-      <c r="H134" s="132"/>
-      <c r="I134" s="133"/>
-      <c r="J134" s="134"/>
-      <c r="K134" s="133"/>
-      <c r="L134" s="135"/>
+      <c r="H134" s="115"/>
+      <c r="I134" s="116"/>
+      <c r="J134" s="117"/>
+      <c r="K134" s="116"/>
+      <c r="L134" s="118"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -24850,26 +24886,26 @@
       <c r="AE134" s="19"/>
     </row>
     <row r="135" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A135" s="129"/>
-      <c r="B135" s="129"/>
-      <c r="C135" s="129"/>
-      <c r="D135" s="130" t="s">
+      <c r="A135" s="131"/>
+      <c r="B135" s="131"/>
+      <c r="C135" s="131"/>
+      <c r="D135" s="113" t="s">
         <v>644</v>
       </c>
-      <c r="E135" s="130" t="s">
+      <c r="E135" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="F135" s="131" t="s">
+      <c r="F135" s="114" t="s">
         <v>646</v>
       </c>
-      <c r="G135" s="132" t="s">
+      <c r="G135" s="115" t="s">
         <v>647</v>
       </c>
-      <c r="H135" s="132"/>
-      <c r="I135" s="133"/>
-      <c r="J135" s="134"/>
-      <c r="K135" s="133"/>
-      <c r="L135" s="135"/>
+      <c r="H135" s="115"/>
+      <c r="I135" s="116"/>
+      <c r="J135" s="117"/>
+      <c r="K135" s="116"/>
+      <c r="L135" s="118"/>
       <c r="M135" s="19"/>
       <c r="N135" s="19"/>
       <c r="O135" s="19"/>
@@ -24891,26 +24927,26 @@
       <c r="AE135" s="19"/>
     </row>
     <row r="136" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A136" s="129"/>
-      <c r="B136" s="129"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="130" t="s">
+      <c r="A136" s="131"/>
+      <c r="B136" s="131"/>
+      <c r="C136" s="131"/>
+      <c r="D136" s="113" t="s">
         <v>648</v>
       </c>
-      <c r="E136" s="130" t="s">
+      <c r="E136" s="113" t="s">
         <v>649</v>
       </c>
-      <c r="F136" s="131" t="s">
+      <c r="F136" s="114" t="s">
         <v>650</v>
       </c>
-      <c r="G136" s="132" t="s">
+      <c r="G136" s="115" t="s">
         <v>651</v>
       </c>
-      <c r="H136" s="132"/>
-      <c r="I136" s="133"/>
-      <c r="J136" s="134"/>
-      <c r="K136" s="133"/>
-      <c r="L136" s="135"/>
+      <c r="H136" s="115"/>
+      <c r="I136" s="116"/>
+      <c r="J136" s="117"/>
+      <c r="K136" s="116"/>
+      <c r="L136" s="118"/>
       <c r="M136" s="19"/>
       <c r="N136" s="19"/>
       <c r="O136" s="19"/>
@@ -24932,26 +24968,26 @@
       <c r="AE136" s="19"/>
     </row>
     <row r="137" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A137" s="129"/>
-      <c r="B137" s="129"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="130" t="s">
+      <c r="A137" s="131"/>
+      <c r="B137" s="131"/>
+      <c r="C137" s="131"/>
+      <c r="D137" s="113" t="s">
         <v>652</v>
       </c>
-      <c r="E137" s="130" t="s">
+      <c r="E137" s="113" t="s">
         <v>653</v>
       </c>
-      <c r="F137" s="131" t="s">
+      <c r="F137" s="114" t="s">
         <v>654</v>
       </c>
-      <c r="G137" s="132" t="s">
+      <c r="G137" s="115" t="s">
         <v>655</v>
       </c>
-      <c r="H137" s="132"/>
-      <c r="I137" s="133"/>
-      <c r="J137" s="134"/>
-      <c r="K137" s="133"/>
-      <c r="L137" s="135"/>
+      <c r="H137" s="115"/>
+      <c r="I137" s="116"/>
+      <c r="J137" s="117"/>
+      <c r="K137" s="116"/>
+      <c r="L137" s="118"/>
       <c r="M137" s="19"/>
       <c r="N137" s="19"/>
       <c r="O137" s="19"/>
@@ -24973,26 +25009,26 @@
       <c r="AE137" s="19"/>
     </row>
     <row r="138" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A138" s="129"/>
-      <c r="B138" s="129"/>
-      <c r="C138" s="129"/>
-      <c r="D138" s="130" t="s">
+      <c r="A138" s="131"/>
+      <c r="B138" s="131"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="113" t="s">
         <v>656</v>
       </c>
-      <c r="E138" s="130" t="s">
+      <c r="E138" s="113" t="s">
         <v>657</v>
       </c>
-      <c r="F138" s="131" t="s">
+      <c r="F138" s="114" t="s">
         <v>658</v>
       </c>
-      <c r="G138" s="132" t="s">
+      <c r="G138" s="115" t="s">
         <v>659</v>
       </c>
-      <c r="H138" s="132"/>
-      <c r="I138" s="133"/>
-      <c r="J138" s="134"/>
-      <c r="K138" s="133"/>
-      <c r="L138" s="135"/>
+      <c r="H138" s="115"/>
+      <c r="I138" s="116"/>
+      <c r="J138" s="117"/>
+      <c r="K138" s="116"/>
+      <c r="L138" s="118"/>
       <c r="M138" s="19"/>
       <c r="N138" s="19"/>
       <c r="O138" s="19"/>
@@ -25014,26 +25050,26 @@
       <c r="AE138" s="19"/>
     </row>
     <row r="139" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A139" s="129"/>
-      <c r="B139" s="129"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="130" t="s">
+      <c r="A139" s="131"/>
+      <c r="B139" s="131"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="113" t="s">
         <v>660</v>
       </c>
-      <c r="E139" s="130" t="s">
+      <c r="E139" s="113" t="s">
         <v>661</v>
       </c>
-      <c r="F139" s="131" t="s">
+      <c r="F139" s="114" t="s">
         <v>662</v>
       </c>
-      <c r="G139" s="132" t="s">
+      <c r="G139" s="115" t="s">
         <v>663</v>
       </c>
-      <c r="H139" s="132"/>
-      <c r="I139" s="133"/>
-      <c r="J139" s="134"/>
-      <c r="K139" s="133"/>
-      <c r="L139" s="135"/>
+      <c r="H139" s="115"/>
+      <c r="I139" s="116"/>
+      <c r="J139" s="117"/>
+      <c r="K139" s="116"/>
+      <c r="L139" s="118"/>
       <c r="M139" s="19"/>
       <c r="N139" s="19"/>
       <c r="O139" s="19"/>
@@ -25055,26 +25091,26 @@
       <c r="AE139" s="19"/>
     </row>
     <row r="140" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A140" s="129"/>
-      <c r="B140" s="129"/>
-      <c r="C140" s="129"/>
-      <c r="D140" s="130" t="s">
+      <c r="A140" s="131"/>
+      <c r="B140" s="131"/>
+      <c r="C140" s="131"/>
+      <c r="D140" s="113" t="s">
         <v>664</v>
       </c>
-      <c r="E140" s="130" t="s">
+      <c r="E140" s="113" t="s">
         <v>665</v>
       </c>
-      <c r="F140" s="131" t="s">
+      <c r="F140" s="114" t="s">
         <v>666</v>
       </c>
-      <c r="G140" s="132" t="s">
+      <c r="G140" s="115" t="s">
         <v>667</v>
       </c>
-      <c r="H140" s="132"/>
-      <c r="I140" s="133"/>
-      <c r="J140" s="134"/>
-      <c r="K140" s="133"/>
-      <c r="L140" s="135"/>
+      <c r="H140" s="115"/>
+      <c r="I140" s="116"/>
+      <c r="J140" s="117"/>
+      <c r="K140" s="116"/>
+      <c r="L140" s="118"/>
       <c r="M140" s="19"/>
       <c r="N140" s="19"/>
       <c r="O140" s="19"/>
@@ -25096,26 +25132,26 @@
       <c r="AE140" s="19"/>
     </row>
     <row r="141" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A141" s="129"/>
-      <c r="B141" s="129"/>
-      <c r="C141" s="129"/>
-      <c r="D141" s="130" t="s">
+      <c r="A141" s="131"/>
+      <c r="B141" s="131"/>
+      <c r="C141" s="131"/>
+      <c r="D141" s="113" t="s">
         <v>668</v>
       </c>
-      <c r="E141" s="130" t="s">
+      <c r="E141" s="113" t="s">
         <v>669</v>
       </c>
-      <c r="F141" s="131" t="s">
+      <c r="F141" s="114" t="s">
         <v>670</v>
       </c>
-      <c r="G141" s="132" t="s">
+      <c r="G141" s="115" t="s">
         <v>671</v>
       </c>
-      <c r="H141" s="132"/>
-      <c r="I141" s="133"/>
-      <c r="J141" s="134"/>
-      <c r="K141" s="133"/>
-      <c r="L141" s="135"/>
+      <c r="H141" s="115"/>
+      <c r="I141" s="116"/>
+      <c r="J141" s="117"/>
+      <c r="K141" s="116"/>
+      <c r="L141" s="118"/>
       <c r="M141" s="19"/>
       <c r="N141" s="19"/>
       <c r="O141" s="19"/>
@@ -25137,26 +25173,26 @@
       <c r="AE141" s="19"/>
     </row>
     <row r="142" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A142" s="129"/>
-      <c r="B142" s="129"/>
-      <c r="C142" s="129"/>
-      <c r="D142" s="130" t="s">
+      <c r="A142" s="131"/>
+      <c r="B142" s="131"/>
+      <c r="C142" s="131"/>
+      <c r="D142" s="113" t="s">
         <v>672</v>
       </c>
-      <c r="E142" s="130" t="s">
+      <c r="E142" s="113" t="s">
         <v>673</v>
       </c>
-      <c r="F142" s="131" t="s">
+      <c r="F142" s="114" t="s">
         <v>674</v>
       </c>
-      <c r="G142" s="132" t="s">
+      <c r="G142" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="H142" s="132"/>
-      <c r="I142" s="133"/>
-      <c r="J142" s="134"/>
-      <c r="K142" s="133"/>
-      <c r="L142" s="135"/>
+      <c r="H142" s="115"/>
+      <c r="I142" s="116"/>
+      <c r="J142" s="117"/>
+      <c r="K142" s="116"/>
+      <c r="L142" s="118"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -25178,26 +25214,26 @@
       <c r="AE142" s="19"/>
     </row>
     <row r="143" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A143" s="129"/>
-      <c r="B143" s="129"/>
-      <c r="C143" s="129"/>
-      <c r="D143" s="130" t="s">
+      <c r="A143" s="131"/>
+      <c r="B143" s="131"/>
+      <c r="C143" s="131"/>
+      <c r="D143" s="113" t="s">
         <v>676</v>
       </c>
-      <c r="E143" s="130" t="s">
+      <c r="E143" s="113" t="s">
         <v>677</v>
       </c>
-      <c r="F143" s="131" t="s">
+      <c r="F143" s="114" t="s">
         <v>678</v>
       </c>
-      <c r="G143" s="132" t="s">
+      <c r="G143" s="115" t="s">
         <v>679</v>
       </c>
-      <c r="H143" s="132"/>
-      <c r="I143" s="133"/>
-      <c r="J143" s="134"/>
-      <c r="K143" s="133"/>
-      <c r="L143" s="135"/>
+      <c r="H143" s="115"/>
+      <c r="I143" s="116"/>
+      <c r="J143" s="117"/>
+      <c r="K143" s="116"/>
+      <c r="L143" s="118"/>
       <c r="M143" s="19"/>
       <c r="N143" s="19"/>
       <c r="O143" s="19"/>
@@ -25219,26 +25255,26 @@
       <c r="AE143" s="19"/>
     </row>
     <row r="144" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A144" s="129"/>
-      <c r="B144" s="129"/>
-      <c r="C144" s="129"/>
-      <c r="D144" s="130" t="s">
+      <c r="A144" s="131"/>
+      <c r="B144" s="131"/>
+      <c r="C144" s="131"/>
+      <c r="D144" s="113" t="s">
         <v>680</v>
       </c>
-      <c r="E144" s="130" t="s">
+      <c r="E144" s="113" t="s">
         <v>681</v>
       </c>
-      <c r="F144" s="131" t="s">
+      <c r="F144" s="114" t="s">
         <v>682</v>
       </c>
-      <c r="G144" s="132" t="s">
+      <c r="G144" s="115" t="s">
         <v>683</v>
       </c>
-      <c r="H144" s="132"/>
-      <c r="I144" s="133"/>
-      <c r="J144" s="134"/>
-      <c r="K144" s="133"/>
-      <c r="L144" s="135"/>
+      <c r="H144" s="115"/>
+      <c r="I144" s="116"/>
+      <c r="J144" s="117"/>
+      <c r="K144" s="116"/>
+      <c r="L144" s="118"/>
       <c r="M144" s="19"/>
       <c r="N144" s="19"/>
       <c r="O144" s="19"/>
@@ -25260,26 +25296,26 @@
       <c r="AE144" s="19"/>
     </row>
     <row r="145" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A145" s="129"/>
-      <c r="B145" s="129"/>
-      <c r="C145" s="129"/>
-      <c r="D145" s="130" t="s">
+      <c r="A145" s="131"/>
+      <c r="B145" s="131"/>
+      <c r="C145" s="131"/>
+      <c r="D145" s="113" t="s">
         <v>684</v>
       </c>
-      <c r="E145" s="130" t="s">
+      <c r="E145" s="113" t="s">
         <v>685</v>
       </c>
-      <c r="F145" s="131" t="s">
+      <c r="F145" s="114" t="s">
         <v>686</v>
       </c>
-      <c r="G145" s="132" t="s">
+      <c r="G145" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="H145" s="132"/>
-      <c r="I145" s="133"/>
-      <c r="J145" s="134"/>
-      <c r="K145" s="133"/>
-      <c r="L145" s="135"/>
+      <c r="H145" s="115"/>
+      <c r="I145" s="116"/>
+      <c r="J145" s="117"/>
+      <c r="K145" s="116"/>
+      <c r="L145" s="118"/>
       <c r="M145" s="19"/>
       <c r="N145" s="19"/>
       <c r="O145" s="19"/>
@@ -25301,26 +25337,26 @@
       <c r="AE145" s="19"/>
     </row>
     <row r="146" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A146" s="129"/>
-      <c r="B146" s="129"/>
-      <c r="C146" s="129"/>
-      <c r="D146" s="130" t="s">
+      <c r="A146" s="131"/>
+      <c r="B146" s="131"/>
+      <c r="C146" s="131"/>
+      <c r="D146" s="113" t="s">
         <v>688</v>
       </c>
-      <c r="E146" s="130" t="s">
+      <c r="E146" s="113" t="s">
         <v>689</v>
       </c>
-      <c r="F146" s="131" t="s">
+      <c r="F146" s="114" t="s">
         <v>690</v>
       </c>
-      <c r="G146" s="132" t="s">
+      <c r="G146" s="115" t="s">
         <v>691</v>
       </c>
-      <c r="H146" s="132"/>
-      <c r="I146" s="133"/>
-      <c r="J146" s="134"/>
-      <c r="K146" s="133"/>
-      <c r="L146" s="135"/>
+      <c r="H146" s="115"/>
+      <c r="I146" s="116"/>
+      <c r="J146" s="117"/>
+      <c r="K146" s="116"/>
+      <c r="L146" s="118"/>
       <c r="M146" s="19"/>
       <c r="N146" s="19"/>
       <c r="O146" s="19"/>
@@ -25342,26 +25378,26 @@
       <c r="AE146" s="19"/>
     </row>
     <row r="147" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A147" s="129"/>
-      <c r="B147" s="129"/>
-      <c r="C147" s="129"/>
-      <c r="D147" s="130" t="s">
+      <c r="A147" s="131"/>
+      <c r="B147" s="131"/>
+      <c r="C147" s="131"/>
+      <c r="D147" s="113" t="s">
         <v>692</v>
       </c>
-      <c r="E147" s="130" t="s">
+      <c r="E147" s="113" t="s">
         <v>693</v>
       </c>
-      <c r="F147" s="131" t="s">
+      <c r="F147" s="114" t="s">
         <v>694</v>
       </c>
-      <c r="G147" s="132" t="s">
+      <c r="G147" s="115" t="s">
         <v>695</v>
       </c>
-      <c r="H147" s="132"/>
-      <c r="I147" s="133"/>
-      <c r="J147" s="134"/>
-      <c r="K147" s="133"/>
-      <c r="L147" s="135"/>
+      <c r="H147" s="115"/>
+      <c r="I147" s="116"/>
+      <c r="J147" s="117"/>
+      <c r="K147" s="116"/>
+      <c r="L147" s="118"/>
       <c r="M147" s="19"/>
       <c r="N147" s="19"/>
       <c r="O147" s="19"/>
@@ -25383,26 +25419,26 @@
       <c r="AE147" s="19"/>
     </row>
     <row r="148" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A148" s="129"/>
-      <c r="B148" s="129"/>
-      <c r="C148" s="129"/>
-      <c r="D148" s="130" t="s">
+      <c r="A148" s="131"/>
+      <c r="B148" s="131"/>
+      <c r="C148" s="131"/>
+      <c r="D148" s="113" t="s">
         <v>696</v>
       </c>
-      <c r="E148" s="130" t="s">
+      <c r="E148" s="113" t="s">
         <v>697</v>
       </c>
-      <c r="F148" s="131" t="s">
+      <c r="F148" s="114" t="s">
         <v>698</v>
       </c>
-      <c r="G148" s="132" t="s">
+      <c r="G148" s="115" t="s">
         <v>699</v>
       </c>
-      <c r="H148" s="132"/>
-      <c r="I148" s="133"/>
-      <c r="J148" s="134"/>
-      <c r="K148" s="133"/>
-      <c r="L148" s="135"/>
+      <c r="H148" s="115"/>
+      <c r="I148" s="116"/>
+      <c r="J148" s="117"/>
+      <c r="K148" s="116"/>
+      <c r="L148" s="118"/>
       <c r="M148" s="19"/>
       <c r="N148" s="19"/>
       <c r="O148" s="19"/>
@@ -25424,26 +25460,26 @@
       <c r="AE148" s="19"/>
     </row>
     <row r="149" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A149" s="129"/>
-      <c r="B149" s="129"/>
-      <c r="C149" s="129"/>
-      <c r="D149" s="130" t="s">
+      <c r="A149" s="131"/>
+      <c r="B149" s="131"/>
+      <c r="C149" s="131"/>
+      <c r="D149" s="113" t="s">
         <v>700</v>
       </c>
-      <c r="E149" s="130" t="s">
+      <c r="E149" s="113" t="s">
         <v>701</v>
       </c>
-      <c r="F149" s="131" t="s">
+      <c r="F149" s="114" t="s">
         <v>702</v>
       </c>
-      <c r="G149" s="132" t="s">
+      <c r="G149" s="115" t="s">
         <v>703</v>
       </c>
-      <c r="H149" s="132"/>
-      <c r="I149" s="133"/>
-      <c r="J149" s="134"/>
-      <c r="K149" s="133"/>
-      <c r="L149" s="135"/>
+      <c r="H149" s="115"/>
+      <c r="I149" s="116"/>
+      <c r="J149" s="117"/>
+      <c r="K149" s="116"/>
+      <c r="L149" s="118"/>
       <c r="M149" s="19"/>
       <c r="N149" s="19"/>
       <c r="O149" s="19"/>
@@ -25465,26 +25501,26 @@
       <c r="AE149" s="19"/>
     </row>
     <row r="150" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A150" s="129"/>
-      <c r="B150" s="129"/>
-      <c r="C150" s="129"/>
-      <c r="D150" s="130" t="s">
+      <c r="A150" s="131"/>
+      <c r="B150" s="131"/>
+      <c r="C150" s="131"/>
+      <c r="D150" s="113" t="s">
         <v>704</v>
       </c>
-      <c r="E150" s="130" t="s">
+      <c r="E150" s="113" t="s">
         <v>705</v>
       </c>
-      <c r="F150" s="131" t="s">
+      <c r="F150" s="114" t="s">
         <v>706</v>
       </c>
-      <c r="G150" s="132" t="s">
+      <c r="G150" s="115" t="s">
         <v>707</v>
       </c>
-      <c r="H150" s="132"/>
-      <c r="I150" s="133"/>
-      <c r="J150" s="134"/>
-      <c r="K150" s="133"/>
-      <c r="L150" s="135"/>
+      <c r="H150" s="115"/>
+      <c r="I150" s="116"/>
+      <c r="J150" s="117"/>
+      <c r="K150" s="116"/>
+      <c r="L150" s="118"/>
       <c r="M150" s="19"/>
       <c r="N150" s="19"/>
       <c r="O150" s="19"/>
@@ -25506,26 +25542,26 @@
       <c r="AE150" s="19"/>
     </row>
     <row r="151" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A151" s="129"/>
-      <c r="B151" s="129"/>
-      <c r="C151" s="129"/>
-      <c r="D151" s="130" t="s">
+      <c r="A151" s="131"/>
+      <c r="B151" s="131"/>
+      <c r="C151" s="131"/>
+      <c r="D151" s="113" t="s">
         <v>708</v>
       </c>
-      <c r="E151" s="130" t="s">
+      <c r="E151" s="113" t="s">
         <v>709</v>
       </c>
-      <c r="F151" s="131" t="s">
+      <c r="F151" s="114" t="s">
         <v>710</v>
       </c>
-      <c r="G151" s="132" t="s">
+      <c r="G151" s="115" t="s">
         <v>711</v>
       </c>
-      <c r="H151" s="132"/>
-      <c r="I151" s="133"/>
-      <c r="J151" s="134"/>
-      <c r="K151" s="133"/>
-      <c r="L151" s="135"/>
+      <c r="H151" s="115"/>
+      <c r="I151" s="116"/>
+      <c r="J151" s="117"/>
+      <c r="K151" s="116"/>
+      <c r="L151" s="118"/>
       <c r="M151" s="19"/>
       <c r="N151" s="19"/>
       <c r="O151" s="19"/>
@@ -25547,26 +25583,26 @@
       <c r="AE151" s="19"/>
     </row>
     <row r="152" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A152" s="129"/>
-      <c r="B152" s="129"/>
-      <c r="C152" s="129"/>
-      <c r="D152" s="130" t="s">
+      <c r="A152" s="131"/>
+      <c r="B152" s="131"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="113" t="s">
         <v>712</v>
       </c>
-      <c r="E152" s="130" t="s">
+      <c r="E152" s="113" t="s">
         <v>713</v>
       </c>
-      <c r="F152" s="131" t="s">
+      <c r="F152" s="114" t="s">
         <v>714</v>
       </c>
-      <c r="G152" s="132" t="s">
+      <c r="G152" s="115" t="s">
         <v>715</v>
       </c>
-      <c r="H152" s="132"/>
-      <c r="I152" s="133"/>
-      <c r="J152" s="134"/>
-      <c r="K152" s="133"/>
-      <c r="L152" s="135"/>
+      <c r="H152" s="115"/>
+      <c r="I152" s="116"/>
+      <c r="J152" s="117"/>
+      <c r="K152" s="116"/>
+      <c r="L152" s="118"/>
       <c r="M152" s="19"/>
       <c r="N152" s="19"/>
       <c r="O152" s="19"/>
@@ -25588,26 +25624,26 @@
       <c r="AE152" s="19"/>
     </row>
     <row r="153" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A153" s="129"/>
-      <c r="B153" s="129"/>
-      <c r="C153" s="129"/>
-      <c r="D153" s="130" t="s">
+      <c r="A153" s="131"/>
+      <c r="B153" s="131"/>
+      <c r="C153" s="131"/>
+      <c r="D153" s="113" t="s">
         <v>716</v>
       </c>
-      <c r="E153" s="130" t="s">
+      <c r="E153" s="113" t="s">
         <v>717</v>
       </c>
-      <c r="F153" s="131" t="s">
+      <c r="F153" s="114" t="s">
         <v>718</v>
       </c>
-      <c r="G153" s="132" t="s">
+      <c r="G153" s="115" t="s">
         <v>719</v>
       </c>
-      <c r="H153" s="132"/>
-      <c r="I153" s="133"/>
-      <c r="J153" s="134"/>
-      <c r="K153" s="133"/>
-      <c r="L153" s="135"/>
+      <c r="H153" s="115"/>
+      <c r="I153" s="116"/>
+      <c r="J153" s="117"/>
+      <c r="K153" s="116"/>
+      <c r="L153" s="118"/>
       <c r="M153" s="19"/>
       <c r="N153" s="19"/>
       <c r="O153" s="19"/>
@@ -25629,26 +25665,26 @@
       <c r="AE153" s="19"/>
     </row>
     <row r="154" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A154" s="129"/>
-      <c r="B154" s="129"/>
-      <c r="C154" s="129"/>
-      <c r="D154" s="130" t="s">
+      <c r="A154" s="131"/>
+      <c r="B154" s="131"/>
+      <c r="C154" s="131"/>
+      <c r="D154" s="113" t="s">
         <v>720</v>
       </c>
-      <c r="E154" s="130" t="s">
+      <c r="E154" s="113" t="s">
         <v>721</v>
       </c>
-      <c r="F154" s="131" t="s">
+      <c r="F154" s="114" t="s">
         <v>722</v>
       </c>
-      <c r="G154" s="132" t="s">
+      <c r="G154" s="115" t="s">
         <v>723</v>
       </c>
-      <c r="H154" s="132"/>
-      <c r="I154" s="133"/>
-      <c r="J154" s="134"/>
-      <c r="K154" s="133"/>
-      <c r="L154" s="135"/>
+      <c r="H154" s="115"/>
+      <c r="I154" s="116"/>
+      <c r="J154" s="117"/>
+      <c r="K154" s="116"/>
+      <c r="L154" s="118"/>
       <c r="M154" s="19"/>
       <c r="N154" s="19"/>
       <c r="O154" s="19"/>
@@ -25670,26 +25706,26 @@
       <c r="AE154" s="19"/>
     </row>
     <row r="155" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A155" s="129"/>
-      <c r="B155" s="129"/>
-      <c r="C155" s="129"/>
-      <c r="D155" s="130" t="s">
+      <c r="A155" s="131"/>
+      <c r="B155" s="131"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="113" t="s">
         <v>724</v>
       </c>
-      <c r="E155" s="130" t="s">
+      <c r="E155" s="113" t="s">
         <v>725</v>
       </c>
-      <c r="F155" s="131" t="s">
+      <c r="F155" s="114" t="s">
         <v>726</v>
       </c>
-      <c r="G155" s="132" t="s">
+      <c r="G155" s="115" t="s">
         <v>727</v>
       </c>
-      <c r="H155" s="132"/>
-      <c r="I155" s="133"/>
-      <c r="J155" s="134"/>
-      <c r="K155" s="133"/>
-      <c r="L155" s="135"/>
+      <c r="H155" s="115"/>
+      <c r="I155" s="116"/>
+      <c r="J155" s="117"/>
+      <c r="K155" s="116"/>
+      <c r="L155" s="118"/>
       <c r="M155" s="19"/>
       <c r="N155" s="19"/>
       <c r="O155" s="19"/>
@@ -25711,26 +25747,26 @@
       <c r="AE155" s="19"/>
     </row>
     <row r="156" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A156" s="129"/>
-      <c r="B156" s="129"/>
-      <c r="C156" s="129"/>
-      <c r="D156" s="130" t="s">
+      <c r="A156" s="131"/>
+      <c r="B156" s="131"/>
+      <c r="C156" s="131"/>
+      <c r="D156" s="113" t="s">
         <v>728</v>
       </c>
-      <c r="E156" s="130" t="s">
+      <c r="E156" s="113" t="s">
         <v>729</v>
       </c>
-      <c r="F156" s="131" t="s">
+      <c r="F156" s="114" t="s">
         <v>730</v>
       </c>
-      <c r="G156" s="132" t="s">
+      <c r="G156" s="115" t="s">
         <v>731</v>
       </c>
-      <c r="H156" s="132"/>
-      <c r="I156" s="133"/>
-      <c r="J156" s="134"/>
-      <c r="K156" s="133"/>
-      <c r="L156" s="135"/>
+      <c r="H156" s="115"/>
+      <c r="I156" s="116"/>
+      <c r="J156" s="117"/>
+      <c r="K156" s="116"/>
+      <c r="L156" s="118"/>
       <c r="M156" s="19"/>
       <c r="N156" s="19"/>
       <c r="O156" s="19"/>
@@ -25752,26 +25788,26 @@
       <c r="AE156" s="19"/>
     </row>
     <row r="157" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A157" s="129"/>
-      <c r="B157" s="129"/>
-      <c r="C157" s="129"/>
-      <c r="D157" s="130" t="s">
+      <c r="A157" s="131"/>
+      <c r="B157" s="131"/>
+      <c r="C157" s="131"/>
+      <c r="D157" s="113" t="s">
         <v>732</v>
       </c>
-      <c r="E157" s="130" t="s">
+      <c r="E157" s="113" t="s">
         <v>733</v>
       </c>
-      <c r="F157" s="131" t="s">
+      <c r="F157" s="114" t="s">
         <v>734</v>
       </c>
-      <c r="G157" s="132" t="s">
+      <c r="G157" s="115" t="s">
         <v>735</v>
       </c>
-      <c r="H157" s="132"/>
-      <c r="I157" s="133"/>
-      <c r="J157" s="134"/>
-      <c r="K157" s="133"/>
-      <c r="L157" s="135"/>
+      <c r="H157" s="115"/>
+      <c r="I157" s="116"/>
+      <c r="J157" s="117"/>
+      <c r="K157" s="116"/>
+      <c r="L157" s="118"/>
       <c r="M157" s="19"/>
       <c r="N157" s="19"/>
       <c r="O157" s="19"/>
@@ -25793,26 +25829,26 @@
       <c r="AE157" s="19"/>
     </row>
     <row r="158" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A158" s="129"/>
-      <c r="B158" s="129"/>
-      <c r="C158" s="129"/>
-      <c r="D158" s="130" t="s">
+      <c r="A158" s="131"/>
+      <c r="B158" s="131"/>
+      <c r="C158" s="131"/>
+      <c r="D158" s="113" t="s">
         <v>736</v>
       </c>
-      <c r="E158" s="130" t="s">
+      <c r="E158" s="113" t="s">
         <v>737</v>
       </c>
-      <c r="F158" s="131" t="s">
+      <c r="F158" s="114" t="s">
         <v>738</v>
       </c>
-      <c r="G158" s="132" t="s">
+      <c r="G158" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="H158" s="132"/>
-      <c r="I158" s="133"/>
-      <c r="J158" s="134"/>
-      <c r="K158" s="133"/>
-      <c r="L158" s="135"/>
+      <c r="H158" s="115"/>
+      <c r="I158" s="116"/>
+      <c r="J158" s="117"/>
+      <c r="K158" s="116"/>
+      <c r="L158" s="118"/>
       <c r="M158" s="19"/>
       <c r="N158" s="19"/>
       <c r="O158" s="19"/>
@@ -25834,26 +25870,26 @@
       <c r="AE158" s="19"/>
     </row>
     <row r="159" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A159" s="129"/>
-      <c r="B159" s="129"/>
-      <c r="C159" s="129"/>
-      <c r="D159" s="130" t="s">
+      <c r="A159" s="131"/>
+      <c r="B159" s="131"/>
+      <c r="C159" s="131"/>
+      <c r="D159" s="113" t="s">
         <v>739</v>
       </c>
-      <c r="E159" s="130" t="s">
+      <c r="E159" s="113" t="s">
         <v>740</v>
       </c>
-      <c r="F159" s="131" t="s">
+      <c r="F159" s="114" t="s">
         <v>741</v>
       </c>
-      <c r="G159" s="132" t="s">
+      <c r="G159" s="115" t="s">
         <v>742</v>
       </c>
-      <c r="H159" s="132"/>
-      <c r="I159" s="133"/>
-      <c r="J159" s="134"/>
-      <c r="K159" s="133"/>
-      <c r="L159" s="135"/>
+      <c r="H159" s="115"/>
+      <c r="I159" s="116"/>
+      <c r="J159" s="117"/>
+      <c r="K159" s="116"/>
+      <c r="L159" s="118"/>
       <c r="M159" s="19"/>
       <c r="N159" s="19"/>
       <c r="O159" s="19"/>
@@ -25875,26 +25911,26 @@
       <c r="AE159" s="19"/>
     </row>
     <row r="160" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A160" s="129"/>
-      <c r="B160" s="129"/>
-      <c r="C160" s="129"/>
-      <c r="D160" s="130" t="s">
+      <c r="A160" s="131"/>
+      <c r="B160" s="131"/>
+      <c r="C160" s="131"/>
+      <c r="D160" s="113" t="s">
         <v>743</v>
       </c>
-      <c r="E160" s="130" t="s">
+      <c r="E160" s="113" t="s">
         <v>744</v>
       </c>
-      <c r="F160" s="131" t="s">
+      <c r="F160" s="114" t="s">
         <v>745</v>
       </c>
-      <c r="G160" s="132" t="s">
+      <c r="G160" s="115" t="s">
         <v>746</v>
       </c>
-      <c r="H160" s="132"/>
-      <c r="I160" s="133"/>
-      <c r="J160" s="134"/>
-      <c r="K160" s="133"/>
-      <c r="L160" s="135"/>
+      <c r="H160" s="115"/>
+      <c r="I160" s="116"/>
+      <c r="J160" s="117"/>
+      <c r="K160" s="116"/>
+      <c r="L160" s="118"/>
       <c r="M160" s="19"/>
       <c r="N160" s="19"/>
       <c r="O160" s="19"/>
@@ -25916,26 +25952,26 @@
       <c r="AE160" s="19"/>
     </row>
     <row r="161" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A161" s="129"/>
-      <c r="B161" s="129"/>
-      <c r="C161" s="129"/>
-      <c r="D161" s="130" t="s">
+      <c r="A161" s="131"/>
+      <c r="B161" s="131"/>
+      <c r="C161" s="131"/>
+      <c r="D161" s="113" t="s">
         <v>747</v>
       </c>
-      <c r="E161" s="130" t="s">
+      <c r="E161" s="113" t="s">
         <v>748</v>
       </c>
-      <c r="F161" s="131" t="s">
+      <c r="F161" s="114" t="s">
         <v>749</v>
       </c>
-      <c r="G161" s="132" t="s">
+      <c r="G161" s="115" t="s">
         <v>750</v>
       </c>
-      <c r="H161" s="132"/>
-      <c r="I161" s="133"/>
-      <c r="J161" s="134"/>
-      <c r="K161" s="133"/>
-      <c r="L161" s="135"/>
+      <c r="H161" s="115"/>
+      <c r="I161" s="116"/>
+      <c r="J161" s="117"/>
+      <c r="K161" s="116"/>
+      <c r="L161" s="118"/>
       <c r="M161" s="19"/>
       <c r="N161" s="19"/>
       <c r="O161" s="19"/>
@@ -25957,26 +25993,26 @@
       <c r="AE161" s="19"/>
     </row>
     <row r="162" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A162" s="129"/>
-      <c r="B162" s="129"/>
-      <c r="C162" s="129"/>
-      <c r="D162" s="130" t="s">
+      <c r="A162" s="131"/>
+      <c r="B162" s="131"/>
+      <c r="C162" s="131"/>
+      <c r="D162" s="113" t="s">
         <v>751</v>
       </c>
-      <c r="E162" s="130" t="s">
+      <c r="E162" s="113" t="s">
         <v>752</v>
       </c>
-      <c r="F162" s="131" t="s">
+      <c r="F162" s="114" t="s">
         <v>753</v>
       </c>
-      <c r="G162" s="132" t="s">
+      <c r="G162" s="115" t="s">
         <v>754</v>
       </c>
-      <c r="H162" s="132"/>
-      <c r="I162" s="133"/>
-      <c r="J162" s="134"/>
-      <c r="K162" s="133"/>
-      <c r="L162" s="135"/>
+      <c r="H162" s="115"/>
+      <c r="I162" s="116"/>
+      <c r="J162" s="117"/>
+      <c r="K162" s="116"/>
+      <c r="L162" s="118"/>
       <c r="M162" s="19"/>
       <c r="N162" s="19"/>
       <c r="O162" s="19"/>
@@ -25998,26 +26034,26 @@
       <c r="AE162" s="19"/>
     </row>
     <row r="163" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A163" s="129"/>
-      <c r="B163" s="129"/>
-      <c r="C163" s="129"/>
-      <c r="D163" s="130" t="s">
+      <c r="A163" s="131"/>
+      <c r="B163" s="131"/>
+      <c r="C163" s="131"/>
+      <c r="D163" s="113" t="s">
         <v>755</v>
       </c>
-      <c r="E163" s="130" t="s">
+      <c r="E163" s="113" t="s">
         <v>756</v>
       </c>
-      <c r="F163" s="131" t="s">
+      <c r="F163" s="114" t="s">
         <v>757</v>
       </c>
-      <c r="G163" s="132" t="s">
+      <c r="G163" s="115" t="s">
         <v>758</v>
       </c>
-      <c r="H163" s="132"/>
-      <c r="I163" s="133"/>
-      <c r="J163" s="134"/>
-      <c r="K163" s="133"/>
-      <c r="L163" s="135"/>
+      <c r="H163" s="115"/>
+      <c r="I163" s="116"/>
+      <c r="J163" s="117"/>
+      <c r="K163" s="116"/>
+      <c r="L163" s="118"/>
       <c r="M163" s="19"/>
       <c r="N163" s="19"/>
       <c r="O163" s="19"/>
@@ -26039,26 +26075,26 @@
       <c r="AE163" s="19"/>
     </row>
     <row r="164" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A164" s="129"/>
-      <c r="B164" s="129"/>
-      <c r="C164" s="129"/>
-      <c r="D164" s="130" t="s">
+      <c r="A164" s="131"/>
+      <c r="B164" s="131"/>
+      <c r="C164" s="131"/>
+      <c r="D164" s="113" t="s">
         <v>759</v>
       </c>
-      <c r="E164" s="130" t="s">
+      <c r="E164" s="113" t="s">
         <v>760</v>
       </c>
-      <c r="F164" s="131" t="s">
+      <c r="F164" s="114" t="s">
         <v>761</v>
       </c>
-      <c r="G164" s="132" t="s">
+      <c r="G164" s="115" t="s">
         <v>762</v>
       </c>
-      <c r="H164" s="132"/>
-      <c r="I164" s="133"/>
-      <c r="J164" s="134"/>
-      <c r="K164" s="133"/>
-      <c r="L164" s="135"/>
+      <c r="H164" s="115"/>
+      <c r="I164" s="116"/>
+      <c r="J164" s="117"/>
+      <c r="K164" s="116"/>
+      <c r="L164" s="118"/>
       <c r="M164" s="19"/>
       <c r="N164" s="19"/>
       <c r="O164" s="19"/>
@@ -26080,26 +26116,26 @@
       <c r="AE164" s="19"/>
     </row>
     <row r="165" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A165" s="129"/>
-      <c r="B165" s="129"/>
-      <c r="C165" s="129"/>
-      <c r="D165" s="130" t="s">
+      <c r="A165" s="131"/>
+      <c r="B165" s="131"/>
+      <c r="C165" s="131"/>
+      <c r="D165" s="113" t="s">
         <v>763</v>
       </c>
-      <c r="E165" s="130" t="s">
+      <c r="E165" s="113" t="s">
         <v>764</v>
       </c>
-      <c r="F165" s="131" t="s">
+      <c r="F165" s="114" t="s">
         <v>765</v>
       </c>
-      <c r="G165" s="132" t="s">
+      <c r="G165" s="115" t="s">
         <v>766</v>
       </c>
-      <c r="H165" s="132"/>
-      <c r="I165" s="133"/>
-      <c r="J165" s="134"/>
-      <c r="K165" s="133"/>
-      <c r="L165" s="135"/>
+      <c r="H165" s="115"/>
+      <c r="I165" s="116"/>
+      <c r="J165" s="117"/>
+      <c r="K165" s="116"/>
+      <c r="L165" s="118"/>
       <c r="M165" s="19"/>
       <c r="N165" s="19"/>
       <c r="O165" s="19"/>
@@ -26121,26 +26157,26 @@
       <c r="AE165" s="19"/>
     </row>
     <row r="166" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A166" s="129"/>
-      <c r="B166" s="129"/>
-      <c r="C166" s="129"/>
-      <c r="D166" s="130" t="s">
+      <c r="A166" s="131"/>
+      <c r="B166" s="131"/>
+      <c r="C166" s="131"/>
+      <c r="D166" s="113" t="s">
         <v>767</v>
       </c>
-      <c r="E166" s="130" t="s">
+      <c r="E166" s="113" t="s">
         <v>768</v>
       </c>
-      <c r="F166" s="131" t="s">
+      <c r="F166" s="114" t="s">
         <v>769</v>
       </c>
-      <c r="G166" s="132" t="s">
+      <c r="G166" s="115" t="s">
         <v>770</v>
       </c>
-      <c r="H166" s="132"/>
-      <c r="I166" s="133"/>
-      <c r="J166" s="134"/>
-      <c r="K166" s="133"/>
-      <c r="L166" s="135"/>
+      <c r="H166" s="115"/>
+      <c r="I166" s="116"/>
+      <c r="J166" s="117"/>
+      <c r="K166" s="116"/>
+      <c r="L166" s="118"/>
       <c r="M166" s="19"/>
       <c r="N166" s="19"/>
       <c r="O166" s="19"/>
@@ -26162,26 +26198,26 @@
       <c r="AE166" s="19"/>
     </row>
     <row r="167" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A167" s="129"/>
-      <c r="B167" s="129"/>
-      <c r="C167" s="129"/>
-      <c r="D167" s="130" t="s">
+      <c r="A167" s="131"/>
+      <c r="B167" s="131"/>
+      <c r="C167" s="131"/>
+      <c r="D167" s="113" t="s">
         <v>771</v>
       </c>
-      <c r="E167" s="130" t="s">
+      <c r="E167" s="113" t="s">
         <v>772</v>
       </c>
-      <c r="F167" s="131" t="s">
+      <c r="F167" s="114" t="s">
         <v>773</v>
       </c>
-      <c r="G167" s="132" t="s">
+      <c r="G167" s="115" t="s">
         <v>774</v>
       </c>
-      <c r="H167" s="132"/>
-      <c r="I167" s="133"/>
-      <c r="J167" s="134"/>
-      <c r="K167" s="133"/>
-      <c r="L167" s="135"/>
+      <c r="H167" s="115"/>
+      <c r="I167" s="116"/>
+      <c r="J167" s="117"/>
+      <c r="K167" s="116"/>
+      <c r="L167" s="118"/>
       <c r="M167" s="19"/>
       <c r="N167" s="19"/>
       <c r="O167" s="19"/>
@@ -26203,26 +26239,26 @@
       <c r="AE167" s="19"/>
     </row>
     <row r="168" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A168" s="129"/>
-      <c r="B168" s="129"/>
-      <c r="C168" s="129"/>
-      <c r="D168" s="130" t="s">
+      <c r="A168" s="131"/>
+      <c r="B168" s="131"/>
+      <c r="C168" s="131"/>
+      <c r="D168" s="113" t="s">
         <v>775</v>
       </c>
-      <c r="E168" s="130" t="s">
+      <c r="E168" s="113" t="s">
         <v>776</v>
       </c>
-      <c r="F168" s="131" t="s">
+      <c r="F168" s="114" t="s">
         <v>777</v>
       </c>
-      <c r="G168" s="132" t="s">
+      <c r="G168" s="115" t="s">
         <v>778</v>
       </c>
-      <c r="H168" s="132"/>
-      <c r="I168" s="133"/>
-      <c r="J168" s="134"/>
-      <c r="K168" s="133"/>
-      <c r="L168" s="135"/>
+      <c r="H168" s="115"/>
+      <c r="I168" s="116"/>
+      <c r="J168" s="117"/>
+      <c r="K168" s="116"/>
+      <c r="L168" s="118"/>
       <c r="M168" s="19"/>
       <c r="N168" s="19"/>
       <c r="O168" s="19"/>
@@ -26244,26 +26280,26 @@
       <c r="AE168" s="19"/>
     </row>
     <row r="169" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A169" s="129"/>
-      <c r="B169" s="129"/>
-      <c r="C169" s="129"/>
-      <c r="D169" s="130" t="s">
+      <c r="A169" s="131"/>
+      <c r="B169" s="131"/>
+      <c r="C169" s="131"/>
+      <c r="D169" s="113" t="s">
         <v>779</v>
       </c>
-      <c r="E169" s="130" t="s">
+      <c r="E169" s="113" t="s">
         <v>780</v>
       </c>
-      <c r="F169" s="131" t="s">
+      <c r="F169" s="114" t="s">
         <v>781</v>
       </c>
-      <c r="G169" s="132" t="s">
+      <c r="G169" s="115" t="s">
         <v>782</v>
       </c>
-      <c r="H169" s="132"/>
-      <c r="I169" s="133"/>
-      <c r="J169" s="134"/>
-      <c r="K169" s="133"/>
-      <c r="L169" s="135"/>
+      <c r="H169" s="115"/>
+      <c r="I169" s="116"/>
+      <c r="J169" s="117"/>
+      <c r="K169" s="116"/>
+      <c r="L169" s="118"/>
       <c r="M169" s="19"/>
       <c r="N169" s="19"/>
       <c r="O169" s="19"/>
@@ -26285,26 +26321,26 @@
       <c r="AE169" s="19"/>
     </row>
     <row r="170" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A170" s="129"/>
-      <c r="B170" s="129"/>
-      <c r="C170" s="129"/>
-      <c r="D170" s="130" t="s">
+      <c r="A170" s="131"/>
+      <c r="B170" s="131"/>
+      <c r="C170" s="131"/>
+      <c r="D170" s="113" t="s">
         <v>783</v>
       </c>
-      <c r="E170" s="130" t="s">
+      <c r="E170" s="113" t="s">
         <v>784</v>
       </c>
-      <c r="F170" s="131" t="s">
+      <c r="F170" s="114" t="s">
         <v>785</v>
       </c>
-      <c r="G170" s="132" t="s">
+      <c r="G170" s="115" t="s">
         <v>786</v>
       </c>
-      <c r="H170" s="132"/>
-      <c r="I170" s="133"/>
-      <c r="J170" s="134"/>
-      <c r="K170" s="133"/>
-      <c r="L170" s="135"/>
+      <c r="H170" s="115"/>
+      <c r="I170" s="116"/>
+      <c r="J170" s="117"/>
+      <c r="K170" s="116"/>
+      <c r="L170" s="118"/>
       <c r="M170" s="19"/>
       <c r="N170" s="19"/>
       <c r="O170" s="19"/>
@@ -26326,26 +26362,26 @@
       <c r="AE170" s="19"/>
     </row>
     <row r="171" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A171" s="129"/>
-      <c r="B171" s="129"/>
-      <c r="C171" s="129"/>
-      <c r="D171" s="130" t="s">
+      <c r="A171" s="131"/>
+      <c r="B171" s="131"/>
+      <c r="C171" s="131"/>
+      <c r="D171" s="113" t="s">
         <v>787</v>
       </c>
-      <c r="E171" s="130" t="s">
+      <c r="E171" s="113" t="s">
         <v>787</v>
       </c>
-      <c r="F171" s="131" t="s">
+      <c r="F171" s="114" t="s">
         <v>788</v>
       </c>
-      <c r="G171" s="132" t="s">
+      <c r="G171" s="115" t="s">
         <v>789</v>
       </c>
-      <c r="H171" s="132"/>
-      <c r="I171" s="133"/>
-      <c r="J171" s="134"/>
-      <c r="K171" s="133"/>
-      <c r="L171" s="135"/>
+      <c r="H171" s="115"/>
+      <c r="I171" s="116"/>
+      <c r="J171" s="117"/>
+      <c r="K171" s="116"/>
+      <c r="L171" s="118"/>
       <c r="M171" s="19"/>
       <c r="N171" s="19"/>
       <c r="O171" s="19"/>
@@ -26367,26 +26403,26 @@
       <c r="AE171" s="19"/>
     </row>
     <row r="172" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A172" s="129"/>
-      <c r="B172" s="129"/>
-      <c r="C172" s="129"/>
-      <c r="D172" s="130" t="s">
+      <c r="A172" s="131"/>
+      <c r="B172" s="131"/>
+      <c r="C172" s="131"/>
+      <c r="D172" s="113" t="s">
         <v>790</v>
       </c>
-      <c r="E172" s="130" t="s">
+      <c r="E172" s="113" t="s">
         <v>791</v>
       </c>
-      <c r="F172" s="131" t="s">
+      <c r="F172" s="114" t="s">
         <v>792</v>
       </c>
-      <c r="G172" s="132" t="s">
+      <c r="G172" s="115" t="s">
         <v>793</v>
       </c>
-      <c r="H172" s="132"/>
-      <c r="I172" s="133"/>
-      <c r="J172" s="134"/>
-      <c r="K172" s="133"/>
-      <c r="L172" s="135"/>
+      <c r="H172" s="115"/>
+      <c r="I172" s="116"/>
+      <c r="J172" s="117"/>
+      <c r="K172" s="116"/>
+      <c r="L172" s="118"/>
       <c r="M172" s="19"/>
       <c r="N172" s="19"/>
       <c r="O172" s="19"/>
@@ -26408,26 +26444,26 @@
       <c r="AE172" s="19"/>
     </row>
     <row r="173" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A173" s="129"/>
-      <c r="B173" s="129"/>
-      <c r="C173" s="129"/>
-      <c r="D173" s="130" t="s">
+      <c r="A173" s="131"/>
+      <c r="B173" s="131"/>
+      <c r="C173" s="131"/>
+      <c r="D173" s="113" t="s">
         <v>794</v>
       </c>
-      <c r="E173" s="130" t="s">
+      <c r="E173" s="113" t="s">
         <v>795</v>
       </c>
-      <c r="F173" s="131" t="s">
+      <c r="F173" s="114" t="s">
         <v>796</v>
       </c>
-      <c r="G173" s="132" t="s">
+      <c r="G173" s="115" t="s">
         <v>797</v>
       </c>
-      <c r="H173" s="132"/>
-      <c r="I173" s="133"/>
-      <c r="J173" s="134"/>
-      <c r="K173" s="133"/>
-      <c r="L173" s="135"/>
+      <c r="H173" s="115"/>
+      <c r="I173" s="116"/>
+      <c r="J173" s="117"/>
+      <c r="K173" s="116"/>
+      <c r="L173" s="118"/>
       <c r="M173" s="19"/>
       <c r="N173" s="19"/>
       <c r="O173" s="19"/>
@@ -26449,26 +26485,26 @@
       <c r="AE173" s="19"/>
     </row>
     <row r="174" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A174" s="129"/>
-      <c r="B174" s="129"/>
-      <c r="C174" s="129"/>
-      <c r="D174" s="130" t="s">
+      <c r="A174" s="131"/>
+      <c r="B174" s="131"/>
+      <c r="C174" s="131"/>
+      <c r="D174" s="113" t="s">
         <v>798</v>
       </c>
-      <c r="E174" s="130" t="s">
+      <c r="E174" s="113" t="s">
         <v>798</v>
       </c>
-      <c r="F174" s="131" t="s">
+      <c r="F174" s="114" t="s">
         <v>799</v>
       </c>
-      <c r="G174" s="132" t="s">
+      <c r="G174" s="115" t="s">
         <v>800</v>
       </c>
-      <c r="H174" s="132"/>
-      <c r="I174" s="133"/>
-      <c r="J174" s="134"/>
-      <c r="K174" s="133"/>
-      <c r="L174" s="135"/>
+      <c r="H174" s="115"/>
+      <c r="I174" s="116"/>
+      <c r="J174" s="117"/>
+      <c r="K174" s="116"/>
+      <c r="L174" s="118"/>
       <c r="M174" s="19"/>
       <c r="N174" s="19"/>
       <c r="O174" s="19"/>
@@ -26490,26 +26526,26 @@
       <c r="AE174" s="19"/>
     </row>
     <row r="175" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A175" s="129"/>
-      <c r="B175" s="129"/>
-      <c r="C175" s="129"/>
-      <c r="D175" s="130" t="s">
+      <c r="A175" s="131"/>
+      <c r="B175" s="131"/>
+      <c r="C175" s="131"/>
+      <c r="D175" s="113" t="s">
         <v>801</v>
       </c>
-      <c r="E175" s="130" t="s">
+      <c r="E175" s="113" t="s">
         <v>802</v>
       </c>
-      <c r="F175" s="131" t="s">
+      <c r="F175" s="114" t="s">
         <v>803</v>
       </c>
-      <c r="G175" s="132" t="s">
+      <c r="G175" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="H175" s="132"/>
-      <c r="I175" s="133"/>
-      <c r="J175" s="134"/>
-      <c r="K175" s="133"/>
-      <c r="L175" s="135"/>
+      <c r="H175" s="115"/>
+      <c r="I175" s="116"/>
+      <c r="J175" s="117"/>
+      <c r="K175" s="116"/>
+      <c r="L175" s="118"/>
       <c r="M175" s="19"/>
       <c r="N175" s="19"/>
       <c r="O175" s="19"/>
@@ -26531,26 +26567,26 @@
       <c r="AE175" s="19"/>
     </row>
     <row r="176" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A176" s="129"/>
-      <c r="B176" s="129"/>
-      <c r="C176" s="129"/>
-      <c r="D176" s="130" t="s">
+      <c r="A176" s="131"/>
+      <c r="B176" s="131"/>
+      <c r="C176" s="131"/>
+      <c r="D176" s="113" t="s">
         <v>804</v>
       </c>
-      <c r="E176" s="130" t="s">
+      <c r="E176" s="113" t="s">
         <v>805</v>
       </c>
-      <c r="F176" s="131" t="s">
+      <c r="F176" s="114" t="s">
         <v>806</v>
       </c>
-      <c r="G176" s="132" t="s">
+      <c r="G176" s="115" t="s">
         <v>807</v>
       </c>
-      <c r="H176" s="132"/>
-      <c r="I176" s="133"/>
-      <c r="J176" s="134"/>
-      <c r="K176" s="133"/>
-      <c r="L176" s="135"/>
+      <c r="H176" s="115"/>
+      <c r="I176" s="116"/>
+      <c r="J176" s="117"/>
+      <c r="K176" s="116"/>
+      <c r="L176" s="118"/>
       <c r="M176" s="19"/>
       <c r="N176" s="19"/>
       <c r="O176" s="19"/>
@@ -26572,26 +26608,26 @@
       <c r="AE176" s="19"/>
     </row>
     <row r="177" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A177" s="129"/>
-      <c r="B177" s="129"/>
-      <c r="C177" s="129"/>
-      <c r="D177" s="130" t="s">
+      <c r="A177" s="131"/>
+      <c r="B177" s="131"/>
+      <c r="C177" s="131"/>
+      <c r="D177" s="113" t="s">
         <v>808</v>
       </c>
-      <c r="E177" s="130" t="s">
+      <c r="E177" s="113" t="s">
         <v>808</v>
       </c>
-      <c r="F177" s="131" t="s">
+      <c r="F177" s="114" t="s">
         <v>809</v>
       </c>
-      <c r="G177" s="132" t="s">
+      <c r="G177" s="115" t="s">
         <v>810</v>
       </c>
-      <c r="H177" s="132"/>
-      <c r="I177" s="133"/>
-      <c r="J177" s="134"/>
-      <c r="K177" s="133"/>
-      <c r="L177" s="135"/>
+      <c r="H177" s="115"/>
+      <c r="I177" s="116"/>
+      <c r="J177" s="117"/>
+      <c r="K177" s="116"/>
+      <c r="L177" s="118"/>
       <c r="M177" s="19"/>
       <c r="N177" s="19"/>
       <c r="O177" s="19"/>
@@ -26613,26 +26649,26 @@
       <c r="AE177" s="19"/>
     </row>
     <row r="178" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A178" s="129"/>
-      <c r="B178" s="129"/>
-      <c r="C178" s="129"/>
-      <c r="D178" s="130" t="s">
+      <c r="A178" s="131"/>
+      <c r="B178" s="131"/>
+      <c r="C178" s="131"/>
+      <c r="D178" s="113" t="s">
         <v>811</v>
       </c>
-      <c r="E178" s="130" t="s">
+      <c r="E178" s="113" t="s">
         <v>812</v>
       </c>
-      <c r="F178" s="131" t="s">
+      <c r="F178" s="114" t="s">
         <v>813</v>
       </c>
-      <c r="G178" s="132" t="s">
+      <c r="G178" s="115" t="s">
         <v>814</v>
       </c>
-      <c r="H178" s="132"/>
-      <c r="I178" s="133"/>
-      <c r="J178" s="134"/>
-      <c r="K178" s="133"/>
-      <c r="L178" s="135"/>
+      <c r="H178" s="115"/>
+      <c r="I178" s="116"/>
+      <c r="J178" s="117"/>
+      <c r="K178" s="116"/>
+      <c r="L178" s="118"/>
       <c r="M178" s="19"/>
       <c r="N178" s="19"/>
       <c r="O178" s="19"/>
@@ -26654,26 +26690,26 @@
       <c r="AE178" s="19"/>
     </row>
     <row r="179" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A179" s="129"/>
-      <c r="B179" s="129"/>
-      <c r="C179" s="129"/>
-      <c r="D179" s="130" t="s">
+      <c r="A179" s="131"/>
+      <c r="B179" s="131"/>
+      <c r="C179" s="131"/>
+      <c r="D179" s="113" t="s">
         <v>815</v>
       </c>
-      <c r="E179" s="130" t="s">
+      <c r="E179" s="113" t="s">
         <v>816</v>
       </c>
-      <c r="F179" s="131" t="s">
+      <c r="F179" s="114" t="s">
         <v>817</v>
       </c>
-      <c r="G179" s="132" t="s">
+      <c r="G179" s="115" t="s">
         <v>818</v>
       </c>
-      <c r="H179" s="132"/>
-      <c r="I179" s="133"/>
-      <c r="J179" s="134"/>
-      <c r="K179" s="133"/>
-      <c r="L179" s="135"/>
+      <c r="H179" s="115"/>
+      <c r="I179" s="116"/>
+      <c r="J179" s="117"/>
+      <c r="K179" s="116"/>
+      <c r="L179" s="118"/>
       <c r="M179" s="19"/>
       <c r="N179" s="19"/>
       <c r="O179" s="19"/>
@@ -26695,26 +26731,26 @@
       <c r="AE179" s="19"/>
     </row>
     <row r="180" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A180" s="129"/>
-      <c r="B180" s="129"/>
-      <c r="C180" s="129"/>
-      <c r="D180" s="130" t="s">
+      <c r="A180" s="131"/>
+      <c r="B180" s="131"/>
+      <c r="C180" s="131"/>
+      <c r="D180" s="113" t="s">
         <v>819</v>
       </c>
-      <c r="E180" s="130" t="s">
+      <c r="E180" s="113" t="s">
         <v>820</v>
       </c>
-      <c r="F180" s="131" t="s">
+      <c r="F180" s="114" t="s">
         <v>821</v>
       </c>
-      <c r="G180" s="132" t="s">
+      <c r="G180" s="115" t="s">
         <v>822</v>
       </c>
-      <c r="H180" s="132"/>
-      <c r="I180" s="133"/>
-      <c r="J180" s="134"/>
-      <c r="K180" s="133"/>
-      <c r="L180" s="135"/>
+      <c r="H180" s="115"/>
+      <c r="I180" s="116"/>
+      <c r="J180" s="117"/>
+      <c r="K180" s="116"/>
+      <c r="L180" s="118"/>
       <c r="M180" s="19"/>
       <c r="N180" s="19"/>
       <c r="O180" s="19"/>
@@ -26736,26 +26772,26 @@
       <c r="AE180" s="19"/>
     </row>
     <row r="181" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A181" s="129"/>
-      <c r="B181" s="129"/>
-      <c r="C181" s="129"/>
-      <c r="D181" s="130" t="s">
+      <c r="A181" s="131"/>
+      <c r="B181" s="131"/>
+      <c r="C181" s="131"/>
+      <c r="D181" s="113" t="s">
         <v>823</v>
       </c>
-      <c r="E181" s="130" t="s">
+      <c r="E181" s="113" t="s">
         <v>824</v>
       </c>
-      <c r="F181" s="131" t="s">
+      <c r="F181" s="114" t="s">
         <v>825</v>
       </c>
-      <c r="G181" s="132" t="s">
+      <c r="G181" s="115" t="s">
         <v>826</v>
       </c>
-      <c r="H181" s="132"/>
-      <c r="I181" s="133"/>
-      <c r="J181" s="134"/>
-      <c r="K181" s="133"/>
-      <c r="L181" s="135"/>
+      <c r="H181" s="115"/>
+      <c r="I181" s="116"/>
+      <c r="J181" s="117"/>
+      <c r="K181" s="116"/>
+      <c r="L181" s="118"/>
       <c r="M181" s="19"/>
       <c r="N181" s="19"/>
       <c r="O181" s="19"/>
@@ -26777,26 +26813,26 @@
       <c r="AE181" s="19"/>
     </row>
     <row r="182" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A182" s="129"/>
-      <c r="B182" s="129"/>
-      <c r="C182" s="129"/>
-      <c r="D182" s="130" t="s">
+      <c r="A182" s="131"/>
+      <c r="B182" s="131"/>
+      <c r="C182" s="131"/>
+      <c r="D182" s="113" t="s">
         <v>827</v>
       </c>
-      <c r="E182" s="130" t="s">
+      <c r="E182" s="113" t="s">
         <v>828</v>
       </c>
-      <c r="F182" s="131" t="s">
+      <c r="F182" s="114" t="s">
         <v>829</v>
       </c>
-      <c r="G182" s="132" t="s">
+      <c r="G182" s="115" t="s">
         <v>830</v>
       </c>
-      <c r="H182" s="132"/>
-      <c r="I182" s="133"/>
-      <c r="J182" s="134"/>
-      <c r="K182" s="133"/>
-      <c r="L182" s="135"/>
+      <c r="H182" s="115"/>
+      <c r="I182" s="116"/>
+      <c r="J182" s="117"/>
+      <c r="K182" s="116"/>
+      <c r="L182" s="118"/>
       <c r="M182" s="19"/>
       <c r="N182" s="19"/>
       <c r="O182" s="19"/>
@@ -26818,26 +26854,26 @@
       <c r="AE182" s="19"/>
     </row>
     <row r="183" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A183" s="129"/>
-      <c r="B183" s="129"/>
-      <c r="C183" s="129"/>
-      <c r="D183" s="130" t="s">
+      <c r="A183" s="131"/>
+      <c r="B183" s="131"/>
+      <c r="C183" s="131"/>
+      <c r="D183" s="113" t="s">
         <v>831</v>
       </c>
-      <c r="E183" s="130" t="s">
+      <c r="E183" s="113" t="s">
         <v>832</v>
       </c>
-      <c r="F183" s="131" t="s">
+      <c r="F183" s="114" t="s">
         <v>833</v>
       </c>
-      <c r="G183" s="132" t="s">
+      <c r="G183" s="115" t="s">
         <v>834</v>
       </c>
-      <c r="H183" s="132"/>
-      <c r="I183" s="133"/>
-      <c r="J183" s="134"/>
-      <c r="K183" s="133"/>
-      <c r="L183" s="135"/>
+      <c r="H183" s="115"/>
+      <c r="I183" s="116"/>
+      <c r="J183" s="117"/>
+      <c r="K183" s="116"/>
+      <c r="L183" s="118"/>
       <c r="M183" s="19"/>
       <c r="N183" s="19"/>
       <c r="O183" s="19"/>
@@ -26859,26 +26895,26 @@
       <c r="AE183" s="19"/>
     </row>
     <row r="184" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A184" s="129"/>
-      <c r="B184" s="129"/>
-      <c r="C184" s="129"/>
-      <c r="D184" s="130" t="s">
+      <c r="A184" s="131"/>
+      <c r="B184" s="131"/>
+      <c r="C184" s="131"/>
+      <c r="D184" s="113" t="s">
         <v>835</v>
       </c>
-      <c r="E184" s="130" t="s">
+      <c r="E184" s="113" t="s">
         <v>836</v>
       </c>
-      <c r="F184" s="131" t="s">
+      <c r="F184" s="114" t="s">
         <v>837</v>
       </c>
-      <c r="G184" s="132" t="s">
+      <c r="G184" s="115" t="s">
         <v>838</v>
       </c>
-      <c r="H184" s="132"/>
-      <c r="I184" s="133"/>
-      <c r="J184" s="134"/>
-      <c r="K184" s="133"/>
-      <c r="L184" s="135"/>
+      <c r="H184" s="115"/>
+      <c r="I184" s="116"/>
+      <c r="J184" s="117"/>
+      <c r="K184" s="116"/>
+      <c r="L184" s="118"/>
       <c r="M184" s="19"/>
       <c r="N184" s="19"/>
       <c r="O184" s="19"/>
@@ -26900,26 +26936,26 @@
       <c r="AE184" s="19"/>
     </row>
     <row r="185" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A185" s="129"/>
-      <c r="B185" s="129"/>
-      <c r="C185" s="129"/>
-      <c r="D185" s="130" t="s">
+      <c r="A185" s="131"/>
+      <c r="B185" s="131"/>
+      <c r="C185" s="131"/>
+      <c r="D185" s="113" t="s">
         <v>839</v>
       </c>
-      <c r="E185" s="130" t="s">
+      <c r="E185" s="113" t="s">
         <v>840</v>
       </c>
-      <c r="F185" s="131" t="s">
+      <c r="F185" s="114" t="s">
         <v>841</v>
       </c>
-      <c r="G185" s="132" t="s">
+      <c r="G185" s="115" t="s">
         <v>842</v>
       </c>
-      <c r="H185" s="132"/>
-      <c r="I185" s="133"/>
-      <c r="J185" s="134"/>
-      <c r="K185" s="133"/>
-      <c r="L185" s="135"/>
+      <c r="H185" s="115"/>
+      <c r="I185" s="116"/>
+      <c r="J185" s="117"/>
+      <c r="K185" s="116"/>
+      <c r="L185" s="118"/>
       <c r="M185" s="19"/>
       <c r="N185" s="19"/>
       <c r="O185" s="19"/>
@@ -26941,26 +26977,26 @@
       <c r="AE185" s="19"/>
     </row>
     <row r="186" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A186" s="129"/>
-      <c r="B186" s="129"/>
-      <c r="C186" s="129"/>
-      <c r="D186" s="130" t="s">
+      <c r="A186" s="131"/>
+      <c r="B186" s="131"/>
+      <c r="C186" s="131"/>
+      <c r="D186" s="113" t="s">
         <v>843</v>
       </c>
-      <c r="E186" s="130" t="s">
+      <c r="E186" s="113" t="s">
         <v>844</v>
       </c>
-      <c r="F186" s="131" t="s">
+      <c r="F186" s="114" t="s">
         <v>845</v>
       </c>
-      <c r="G186" s="132" t="s">
+      <c r="G186" s="115" t="s">
         <v>846</v>
       </c>
-      <c r="H186" s="132"/>
-      <c r="I186" s="133"/>
-      <c r="J186" s="134"/>
-      <c r="K186" s="133"/>
-      <c r="L186" s="135"/>
+      <c r="H186" s="115"/>
+      <c r="I186" s="116"/>
+      <c r="J186" s="117"/>
+      <c r="K186" s="116"/>
+      <c r="L186" s="118"/>
       <c r="M186" s="19"/>
       <c r="N186" s="19"/>
       <c r="O186" s="19"/>
@@ -26982,26 +27018,26 @@
       <c r="AE186" s="19"/>
     </row>
     <row r="187" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A187" s="129"/>
-      <c r="B187" s="129"/>
-      <c r="C187" s="129"/>
-      <c r="D187" s="130" t="s">
+      <c r="A187" s="131"/>
+      <c r="B187" s="131"/>
+      <c r="C187" s="131"/>
+      <c r="D187" s="113" t="s">
         <v>847</v>
       </c>
-      <c r="E187" s="130" t="s">
+      <c r="E187" s="113" t="s">
         <v>848</v>
       </c>
-      <c r="F187" s="131" t="s">
+      <c r="F187" s="114" t="s">
         <v>849</v>
       </c>
-      <c r="G187" s="132" t="s">
+      <c r="G187" s="115" t="s">
         <v>850</v>
       </c>
-      <c r="H187" s="132"/>
-      <c r="I187" s="133"/>
-      <c r="J187" s="134"/>
-      <c r="K187" s="133"/>
-      <c r="L187" s="135"/>
+      <c r="H187" s="115"/>
+      <c r="I187" s="116"/>
+      <c r="J187" s="117"/>
+      <c r="K187" s="116"/>
+      <c r="L187" s="118"/>
       <c r="M187" s="19"/>
       <c r="N187" s="19"/>
       <c r="O187" s="19"/>
@@ -27023,26 +27059,26 @@
       <c r="AE187" s="19"/>
     </row>
     <row r="188" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A188" s="129"/>
-      <c r="B188" s="129"/>
-      <c r="C188" s="129"/>
-      <c r="D188" s="130" t="s">
+      <c r="A188" s="131"/>
+      <c r="B188" s="131"/>
+      <c r="C188" s="131"/>
+      <c r="D188" s="113" t="s">
         <v>851</v>
       </c>
-      <c r="E188" s="130" t="s">
+      <c r="E188" s="113" t="s">
         <v>852</v>
       </c>
-      <c r="F188" s="131" t="s">
+      <c r="F188" s="114" t="s">
         <v>853</v>
       </c>
-      <c r="G188" s="132" t="s">
+      <c r="G188" s="115" t="s">
         <v>854</v>
       </c>
-      <c r="H188" s="132"/>
-      <c r="I188" s="133"/>
-      <c r="J188" s="134"/>
-      <c r="K188" s="133"/>
-      <c r="L188" s="135"/>
+      <c r="H188" s="115"/>
+      <c r="I188" s="116"/>
+      <c r="J188" s="117"/>
+      <c r="K188" s="116"/>
+      <c r="L188" s="118"/>
       <c r="M188" s="19"/>
       <c r="N188" s="19"/>
       <c r="O188" s="19"/>
@@ -27064,26 +27100,26 @@
       <c r="AE188" s="19"/>
     </row>
     <row r="189" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A189" s="129"/>
-      <c r="B189" s="129"/>
-      <c r="C189" s="129"/>
-      <c r="D189" s="130" t="s">
+      <c r="A189" s="131"/>
+      <c r="B189" s="131"/>
+      <c r="C189" s="131"/>
+      <c r="D189" s="113" t="s">
         <v>855</v>
       </c>
-      <c r="E189" s="130" t="s">
+      <c r="E189" s="113" t="s">
         <v>856</v>
       </c>
-      <c r="F189" s="131" t="s">
+      <c r="F189" s="114" t="s">
         <v>857</v>
       </c>
-      <c r="G189" s="132" t="s">
+      <c r="G189" s="115" t="s">
         <v>858</v>
       </c>
-      <c r="H189" s="132"/>
-      <c r="I189" s="133"/>
-      <c r="J189" s="134"/>
-      <c r="K189" s="133"/>
-      <c r="L189" s="135"/>
+      <c r="H189" s="115"/>
+      <c r="I189" s="116"/>
+      <c r="J189" s="117"/>
+      <c r="K189" s="116"/>
+      <c r="L189" s="118"/>
       <c r="M189" s="19"/>
       <c r="N189" s="19"/>
       <c r="O189" s="19"/>
@@ -27105,26 +27141,26 @@
       <c r="AE189" s="19"/>
     </row>
     <row r="190" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A190" s="129"/>
-      <c r="B190" s="129"/>
-      <c r="C190" s="129"/>
-      <c r="D190" s="130" t="s">
+      <c r="A190" s="131"/>
+      <c r="B190" s="131"/>
+      <c r="C190" s="131"/>
+      <c r="D190" s="113" t="s">
         <v>859</v>
       </c>
-      <c r="E190" s="130" t="s">
+      <c r="E190" s="113" t="s">
         <v>860</v>
       </c>
-      <c r="F190" s="131" t="s">
+      <c r="F190" s="114" t="s">
         <v>861</v>
       </c>
-      <c r="G190" s="132" t="s">
+      <c r="G190" s="115" t="s">
         <v>862</v>
       </c>
-      <c r="H190" s="132"/>
-      <c r="I190" s="133"/>
-      <c r="J190" s="134"/>
-      <c r="K190" s="133"/>
-      <c r="L190" s="135"/>
+      <c r="H190" s="115"/>
+      <c r="I190" s="116"/>
+      <c r="J190" s="117"/>
+      <c r="K190" s="116"/>
+      <c r="L190" s="118"/>
       <c r="M190" s="19"/>
       <c r="N190" s="19"/>
       <c r="O190" s="19"/>
@@ -27146,26 +27182,26 @@
       <c r="AE190" s="19"/>
     </row>
     <row r="191" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A191" s="129"/>
-      <c r="B191" s="129"/>
-      <c r="C191" s="129"/>
-      <c r="D191" s="130" t="s">
+      <c r="A191" s="131"/>
+      <c r="B191" s="131"/>
+      <c r="C191" s="131"/>
+      <c r="D191" s="113" t="s">
         <v>863</v>
       </c>
-      <c r="E191" s="130" t="s">
+      <c r="E191" s="113" t="s">
         <v>864</v>
       </c>
-      <c r="F191" s="131" t="s">
+      <c r="F191" s="114" t="s">
         <v>865</v>
       </c>
-      <c r="G191" s="132" t="s">
+      <c r="G191" s="115" t="s">
         <v>866</v>
       </c>
-      <c r="H191" s="132"/>
-      <c r="I191" s="133"/>
-      <c r="J191" s="134"/>
-      <c r="K191" s="133"/>
-      <c r="L191" s="135"/>
+      <c r="H191" s="115"/>
+      <c r="I191" s="116"/>
+      <c r="J191" s="117"/>
+      <c r="K191" s="116"/>
+      <c r="L191" s="118"/>
       <c r="M191" s="19"/>
       <c r="N191" s="19"/>
       <c r="O191" s="19"/>
@@ -27187,26 +27223,26 @@
       <c r="AE191" s="19"/>
     </row>
     <row r="192" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A192" s="129"/>
-      <c r="B192" s="129"/>
-      <c r="C192" s="129"/>
-      <c r="D192" s="130" t="s">
+      <c r="A192" s="131"/>
+      <c r="B192" s="131"/>
+      <c r="C192" s="131"/>
+      <c r="D192" s="113" t="s">
         <v>867</v>
       </c>
-      <c r="E192" s="130" t="s">
+      <c r="E192" s="113" t="s">
         <v>868</v>
       </c>
-      <c r="F192" s="131" t="s">
+      <c r="F192" s="114" t="s">
         <v>869</v>
       </c>
-      <c r="G192" s="132" t="s">
+      <c r="G192" s="115" t="s">
         <v>870</v>
       </c>
-      <c r="H192" s="132"/>
-      <c r="I192" s="133"/>
-      <c r="J192" s="134"/>
-      <c r="K192" s="133"/>
-      <c r="L192" s="135"/>
+      <c r="H192" s="115"/>
+      <c r="I192" s="116"/>
+      <c r="J192" s="117"/>
+      <c r="K192" s="116"/>
+      <c r="L192" s="118"/>
       <c r="M192" s="19"/>
       <c r="N192" s="19"/>
       <c r="O192" s="19"/>
@@ -27228,26 +27264,26 @@
       <c r="AE192" s="19"/>
     </row>
     <row r="193" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A193" s="129"/>
-      <c r="B193" s="129"/>
-      <c r="C193" s="129"/>
-      <c r="D193" s="130" t="s">
+      <c r="A193" s="131"/>
+      <c r="B193" s="131"/>
+      <c r="C193" s="131"/>
+      <c r="D193" s="113" t="s">
         <v>871</v>
       </c>
-      <c r="E193" s="130" t="s">
+      <c r="E193" s="113" t="s">
         <v>872</v>
       </c>
-      <c r="F193" s="131" t="s">
+      <c r="F193" s="114" t="s">
         <v>873</v>
       </c>
-      <c r="G193" s="132" t="s">
+      <c r="G193" s="115" t="s">
         <v>874</v>
       </c>
-      <c r="H193" s="132"/>
-      <c r="I193" s="133"/>
-      <c r="J193" s="134"/>
-      <c r="K193" s="133"/>
-      <c r="L193" s="135"/>
+      <c r="H193" s="115"/>
+      <c r="I193" s="116"/>
+      <c r="J193" s="117"/>
+      <c r="K193" s="116"/>
+      <c r="L193" s="118"/>
       <c r="M193" s="19"/>
       <c r="N193" s="19"/>
       <c r="O193" s="19"/>
@@ -27269,26 +27305,26 @@
       <c r="AE193" s="19"/>
     </row>
     <row r="194" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A194" s="129"/>
-      <c r="B194" s="129"/>
-      <c r="C194" s="129"/>
-      <c r="D194" s="130" t="s">
+      <c r="A194" s="131"/>
+      <c r="B194" s="131"/>
+      <c r="C194" s="131"/>
+      <c r="D194" s="113" t="s">
         <v>875</v>
       </c>
-      <c r="E194" s="130" t="s">
+      <c r="E194" s="113" t="s">
         <v>876</v>
       </c>
-      <c r="F194" s="131" t="s">
+      <c r="F194" s="114" t="s">
         <v>877</v>
       </c>
-      <c r="G194" s="132" t="s">
+      <c r="G194" s="115" t="s">
         <v>878</v>
       </c>
-      <c r="H194" s="132"/>
-      <c r="I194" s="133"/>
-      <c r="J194" s="134"/>
-      <c r="K194" s="133"/>
-      <c r="L194" s="135"/>
+      <c r="H194" s="115"/>
+      <c r="I194" s="116"/>
+      <c r="J194" s="117"/>
+      <c r="K194" s="116"/>
+      <c r="L194" s="118"/>
       <c r="M194" s="19"/>
       <c r="N194" s="19"/>
       <c r="O194" s="19"/>
@@ -27310,26 +27346,26 @@
       <c r="AE194" s="19"/>
     </row>
     <row r="195" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A195" s="129"/>
-      <c r="B195" s="129"/>
-      <c r="C195" s="129"/>
-      <c r="D195" s="130" t="s">
+      <c r="A195" s="131"/>
+      <c r="B195" s="131"/>
+      <c r="C195" s="131"/>
+      <c r="D195" s="113" t="s">
         <v>879</v>
       </c>
-      <c r="E195" s="130" t="s">
+      <c r="E195" s="113" t="s">
         <v>880</v>
       </c>
-      <c r="F195" s="131" t="s">
+      <c r="F195" s="114" t="s">
         <v>881</v>
       </c>
-      <c r="G195" s="132" t="s">
+      <c r="G195" s="115" t="s">
         <v>882</v>
       </c>
-      <c r="H195" s="132"/>
-      <c r="I195" s="133"/>
-      <c r="J195" s="134"/>
-      <c r="K195" s="133"/>
-      <c r="L195" s="135"/>
+      <c r="H195" s="115"/>
+      <c r="I195" s="116"/>
+      <c r="J195" s="117"/>
+      <c r="K195" s="116"/>
+      <c r="L195" s="118"/>
       <c r="M195" s="19"/>
       <c r="N195" s="19"/>
       <c r="O195" s="19"/>
@@ -27351,26 +27387,26 @@
       <c r="AE195" s="19"/>
     </row>
     <row r="196" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A196" s="129"/>
-      <c r="B196" s="129"/>
-      <c r="C196" s="129"/>
-      <c r="D196" s="130" t="s">
+      <c r="A196" s="131"/>
+      <c r="B196" s="131"/>
+      <c r="C196" s="131"/>
+      <c r="D196" s="113" t="s">
         <v>883</v>
       </c>
-      <c r="E196" s="130" t="s">
+      <c r="E196" s="113" t="s">
         <v>884</v>
       </c>
-      <c r="F196" s="131" t="s">
+      <c r="F196" s="114" t="s">
         <v>885</v>
       </c>
-      <c r="G196" s="132" t="s">
+      <c r="G196" s="115" t="s">
         <v>886</v>
       </c>
-      <c r="H196" s="132"/>
-      <c r="I196" s="133"/>
-      <c r="J196" s="134"/>
-      <c r="K196" s="133"/>
-      <c r="L196" s="135"/>
+      <c r="H196" s="115"/>
+      <c r="I196" s="116"/>
+      <c r="J196" s="117"/>
+      <c r="K196" s="116"/>
+      <c r="L196" s="118"/>
       <c r="M196" s="19"/>
       <c r="N196" s="19"/>
       <c r="O196" s="19"/>
@@ -27392,26 +27428,26 @@
       <c r="AE196" s="19"/>
     </row>
     <row r="197" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A197" s="129"/>
-      <c r="B197" s="129"/>
-      <c r="C197" s="129"/>
-      <c r="D197" s="130" t="s">
+      <c r="A197" s="131"/>
+      <c r="B197" s="131"/>
+      <c r="C197" s="131"/>
+      <c r="D197" s="113" t="s">
         <v>887</v>
       </c>
-      <c r="E197" s="130" t="s">
+      <c r="E197" s="113" t="s">
         <v>888</v>
       </c>
-      <c r="F197" s="131" t="s">
+      <c r="F197" s="114" t="s">
         <v>889</v>
       </c>
-      <c r="G197" s="132" t="s">
+      <c r="G197" s="115" t="s">
         <v>890</v>
       </c>
-      <c r="H197" s="132"/>
-      <c r="I197" s="133"/>
-      <c r="J197" s="134"/>
-      <c r="K197" s="133"/>
-      <c r="L197" s="135"/>
+      <c r="H197" s="115"/>
+      <c r="I197" s="116"/>
+      <c r="J197" s="117"/>
+      <c r="K197" s="116"/>
+      <c r="L197" s="118"/>
       <c r="M197" s="19"/>
       <c r="N197" s="19"/>
       <c r="O197" s="19"/>
@@ -27433,26 +27469,26 @@
       <c r="AE197" s="19"/>
     </row>
     <row r="198" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="136"/>
-      <c r="B198" s="136"/>
-      <c r="C198" s="136"/>
-      <c r="D198" s="137" t="s">
+      <c r="A198" s="132"/>
+      <c r="B198" s="132"/>
+      <c r="C198" s="132"/>
+      <c r="D198" s="119" t="s">
         <v>891</v>
       </c>
-      <c r="E198" s="137" t="s">
+      <c r="E198" s="119" t="s">
         <v>892</v>
       </c>
-      <c r="F198" s="138" t="s">
+      <c r="F198" s="120" t="s">
         <v>893</v>
       </c>
-      <c r="G198" s="139" t="s">
+      <c r="G198" s="121" t="s">
         <v>894</v>
       </c>
-      <c r="H198" s="139"/>
-      <c r="I198" s="140"/>
-      <c r="J198" s="141"/>
-      <c r="K198" s="140"/>
-      <c r="L198" s="142"/>
+      <c r="H198" s="121"/>
+      <c r="I198" s="122"/>
+      <c r="J198" s="123"/>
+      <c r="K198" s="122"/>
+      <c r="L198" s="124"/>
       <c r="M198" s="19"/>
       <c r="N198" s="19"/>
       <c r="O198" s="19"/>
@@ -55854,6 +55890,7 @@
       <c r="AE1058" s="19"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AE198" xr:uid="{C8FFCE1F-54C1-8C47-AEE4-AFB8113A9E7C}"/>
   <mergeCells count="60">
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="B67:B69"/>
@@ -56110,8 +56147,12 @@
     <hyperlink ref="F196" r:id="rId191" xr:uid="{00000000-0004-0000-0200-0000D0000000}"/>
     <hyperlink ref="F197" r:id="rId192" xr:uid="{00000000-0004-0000-0200-0000D1000000}"/>
     <hyperlink ref="F198" r:id="rId193" xr:uid="{00000000-0004-0000-0200-0000D2000000}"/>
+    <hyperlink ref="H7" r:id="rId194" xr:uid="{7810AFF4-4DE0-D746-860E-FA891FFC039A}"/>
+    <hyperlink ref="G33" r:id="rId195" xr:uid="{1E9CDB7F-0CFC-724F-822C-93A5EC3EB548}"/>
+    <hyperlink ref="G36" r:id="rId196" xr:uid="{5DDF8F74-5028-5C4F-B203-6462658DB51F}"/>
+    <hyperlink ref="G37" r:id="rId197" xr:uid="{5413690D-D89C-B34D-AEE8-5F73193DE1F0}"/>
+    <hyperlink ref="G46" r:id="rId198" xr:uid="{DE998EA4-ED67-3149-910C-3107000F0A40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId194"/>
 </worksheet>
 </file>
--- a/Data/Developer_survey/Contributors_To_feature_files.xlsx
+++ b/Data/Developer_survey/Contributors_To_feature_files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitishpatkar/my-papers/RP-open-source-bdd-projects-analysis/Data/Developer_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809EFE4E-9B73-6D48-934C-604B2F69A11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C54B71-8369-5C48-A96D-E081C26A804F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="-2880" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3074,7 +3074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3337,7 +3337,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3438,6 +3437,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3449,15 +3466,10 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3476,30 +3488,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3723,7 +3726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3739,25 +3742,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2"/>
@@ -3953,7 +3956,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3978,7 +3981,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="128" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4003,7 +4006,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="128" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -4049,7 +4052,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="128" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -9356,7 +9359,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9374,31 +9377,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="100" t="s">
         <v>123</v>
       </c>
       <c r="J1" s="11"/>
@@ -19065,8 +19068,8 @@
   <dimension ref="A1:AE1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19087,40 +19090,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="105" t="s">
         <v>900</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="103" t="s">
         <v>903</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="103" t="s">
         <v>902</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="102" t="s">
         <v>910</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="104" t="s">
         <v>911</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="102" t="s">
         <v>898</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="104" t="s">
         <v>899</v>
       </c>
       <c r="M1" s="1"/>
@@ -19144,15 +19147,15 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A2" s="136">
+      <c r="A2" s="138">
         <f>Repos!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="137" t="str">
+      <c r="B2" s="139" t="str">
         <f>Repos!B2</f>
         <v>https://github.com/eugenp/tutorials</v>
       </c>
-      <c r="C2" s="138">
+      <c r="C2" s="140">
         <f>Authors!G2</f>
         <v>44346</v>
       </c>
@@ -19196,9 +19199,9 @@
       <c r="AE2" s="19"/>
     </row>
     <row r="3" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="31" t="s">
         <v>157</v>
       </c>
@@ -19239,9 +19242,9 @@
       <c r="AE3" s="19"/>
     </row>
     <row r="4" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="31" t="s">
         <v>161</v>
       </c>
@@ -19280,9 +19283,9 @@
       <c r="AE4" s="19"/>
     </row>
     <row r="5" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
       <c r="D5" s="31" t="s">
         <v>164</v>
       </c>
@@ -19321,9 +19324,9 @@
       <c r="AE5" s="19"/>
     </row>
     <row r="6" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="31" t="s">
         <v>167</v>
       </c>
@@ -19364,9 +19367,9 @@
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="46" t="s">
         <v>171</v>
       </c>
@@ -19379,11 +19382,11 @@
       <c r="G7" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="143" t="s">
+      <c r="H7" s="124" t="s">
         <v>174</v>
       </c>
       <c r="I7" s="48"/>
-      <c r="J7" s="93"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="48"/>
       <c r="L7" s="49"/>
       <c r="M7" s="19"/>
@@ -19407,15 +19410,15 @@
       <c r="AE7" s="19"/>
     </row>
     <row r="8" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A8" s="125">
+      <c r="A8" s="130">
         <f>Repos!A3</f>
         <v>2</v>
       </c>
-      <c r="B8" s="128" t="str">
+      <c r="B8" s="133" t="str">
         <f>Repos!B3</f>
         <v>https://github.com/neo4j/neo4j</v>
       </c>
-      <c r="C8" s="129">
+      <c r="C8" s="134">
         <f>Authors!G3</f>
         <v>44259</v>
       </c>
@@ -19431,7 +19434,7 @@
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="53"/>
-      <c r="J8" s="94"/>
+      <c r="J8" s="93"/>
       <c r="K8" s="53"/>
       <c r="L8" s="54"/>
       <c r="M8" s="19"/>
@@ -19455,9 +19458,9 @@
       <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="31" t="s">
         <v>178</v>
       </c>
@@ -19496,9 +19499,9 @@
       <c r="AE9" s="19"/>
     </row>
     <row r="10" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="31" t="s">
         <v>182</v>
       </c>
@@ -19537,9 +19540,9 @@
       <c r="AE10" s="19"/>
     </row>
     <row r="11" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="31" t="s">
         <v>186</v>
       </c>
@@ -19578,9 +19581,9 @@
       <c r="AE11" s="19"/>
     </row>
     <row r="12" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="31" t="s">
         <v>190</v>
       </c>
@@ -19619,9 +19622,9 @@
       <c r="AE12" s="19"/>
     </row>
     <row r="13" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="31" t="s">
         <v>194</v>
       </c>
@@ -19660,9 +19663,9 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="31" t="s">
         <v>198</v>
       </c>
@@ -19701,9 +19704,9 @@
       <c r="AE14" s="19"/>
     </row>
     <row r="15" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="31" t="s">
         <v>202</v>
       </c>
@@ -19742,9 +19745,9 @@
       <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="31" t="s">
         <v>206</v>
       </c>
@@ -19785,9 +19788,9 @@
       <c r="AE16" s="19"/>
     </row>
     <row r="17" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="31" t="s">
         <v>210</v>
       </c>
@@ -19828,9 +19831,9 @@
       <c r="AE17" s="19"/>
     </row>
     <row r="18" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="31" t="s">
         <v>214</v>
       </c>
@@ -19869,9 +19872,9 @@
       <c r="AE18" s="19"/>
     </row>
     <row r="19" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="31" t="s">
         <v>218</v>
       </c>
@@ -19910,9 +19913,9 @@
       <c r="AE19" s="19"/>
     </row>
     <row r="20" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A20" s="126"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="31" t="s">
         <v>222</v>
       </c>
@@ -19951,9 +19954,9 @@
       <c r="AE20" s="19"/>
     </row>
     <row r="21" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="31" t="s">
         <v>226</v>
       </c>
@@ -19992,9 +19995,9 @@
       <c r="AE21" s="19"/>
     </row>
     <row r="22" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="46" t="s">
         <v>230</v>
       </c>
@@ -20009,7 +20012,7 @@
       </c>
       <c r="H22" s="55"/>
       <c r="I22" s="48"/>
-      <c r="J22" s="93"/>
+      <c r="J22" s="92"/>
       <c r="K22" s="48"/>
       <c r="L22" s="49"/>
       <c r="M22" s="19"/>
@@ -20053,7 +20056,7 @@
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
-      <c r="J23" s="95"/>
+      <c r="J23" s="94"/>
       <c r="K23" s="61"/>
       <c r="L23" s="62"/>
       <c r="M23" s="19"/>
@@ -20077,15 +20080,15 @@
       <c r="AE23" s="19"/>
     </row>
     <row r="24" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A24" s="125">
+      <c r="A24" s="130">
         <f>Repos!A5</f>
         <v>4</v>
       </c>
-      <c r="B24" s="128" t="str">
+      <c r="B24" s="133" t="str">
         <f>Repos!B5</f>
         <v>https://github.com/eclipse/openj9</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="142" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="63" t="s">
@@ -20102,7 +20105,7 @@
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="53"/>
-      <c r="J24" s="94"/>
+      <c r="J24" s="93"/>
       <c r="K24" s="53"/>
       <c r="L24" s="54"/>
       <c r="M24" s="19"/>
@@ -20126,9 +20129,9 @@
       <c r="AE24" s="19"/>
     </row>
     <row r="25" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="126"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="31" t="s">
         <v>238</v>
       </c>
@@ -20167,9 +20170,9 @@
       <c r="AE25" s="19"/>
     </row>
     <row r="26" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="126"/>
+      <c r="A26" s="131"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="31" t="s">
         <v>242</v>
       </c>
@@ -20208,9 +20211,9 @@
       <c r="AE26" s="19"/>
     </row>
     <row r="27" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="126"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="31" t="s">
         <v>246</v>
       </c>
@@ -20249,9 +20252,9 @@
       <c r="AE27" s="19"/>
     </row>
     <row r="28" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="126"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="31" t="s">
         <v>250</v>
       </c>
@@ -20290,9 +20293,9 @@
       <c r="AE28" s="19"/>
     </row>
     <row r="29" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A29" s="126"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="126"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="31" t="s">
         <v>254</v>
       </c>
@@ -20331,9 +20334,9 @@
       <c r="AE29" s="19"/>
     </row>
     <row r="30" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="126"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="31" t="s">
         <v>258</v>
       </c>
@@ -20372,9 +20375,9 @@
       <c r="AE30" s="19"/>
     </row>
     <row r="31" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A31" s="126"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="126"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="31" t="s">
         <v>262</v>
       </c>
@@ -20413,9 +20416,9 @@
       <c r="AE31" s="19"/>
     </row>
     <row r="32" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="127"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
+      <c r="A32" s="132"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="46" t="s">
         <v>266</v>
       </c>
@@ -20430,7 +20433,7 @@
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="48"/>
-      <c r="J32" s="93"/>
+      <c r="J32" s="92"/>
       <c r="K32" s="48"/>
       <c r="L32" s="49"/>
       <c r="M32" s="19"/>
@@ -20475,14 +20478,14 @@
       <c r="F33" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="G33" s="144" t="s">
+      <c r="G33" s="125" t="s">
         <v>273</v>
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="J33" s="96"/>
+      <c r="J33" s="95"/>
       <c r="K33" s="71"/>
       <c r="L33" s="72"/>
       <c r="M33" s="19"/>
@@ -20506,15 +20509,15 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A34" s="125">
+      <c r="A34" s="130">
         <f>Repos!A7</f>
         <v>6</v>
       </c>
-      <c r="B34" s="128" t="str">
+      <c r="B34" s="133" t="str">
         <f>Repos!B7</f>
         <v>https://github.com/apache/servicecomb-pack</v>
       </c>
-      <c r="C34" s="135">
+      <c r="C34" s="137">
         <f>Authors!G7</f>
         <v>44271</v>
       </c>
@@ -20534,7 +20537,7 @@
       <c r="I34" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="J34" s="94"/>
+      <c r="J34" s="93"/>
       <c r="K34" s="53"/>
       <c r="L34" s="54"/>
       <c r="M34" s="19"/>
@@ -20558,9 +20561,9 @@
       <c r="AE34" s="19"/>
     </row>
     <row r="35" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A35" s="126"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
+      <c r="A35" s="131"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="31" t="s">
         <v>278</v>
       </c>
@@ -20603,9 +20606,9 @@
       <c r="AE35" s="19"/>
     </row>
     <row r="36" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A36" s="126"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="126"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="31" t="s">
         <v>282</v>
       </c>
@@ -20615,7 +20618,7 @@
       <c r="F36" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="G36" s="145" t="s">
+      <c r="G36" s="126" t="s">
         <v>285</v>
       </c>
       <c r="H36" s="36"/>
@@ -20646,9 +20649,9 @@
       <c r="AE36" s="19"/>
     </row>
     <row r="37" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
+      <c r="A37" s="132"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="46" t="s">
         <v>286</v>
       </c>
@@ -20658,14 +20661,14 @@
       <c r="F37" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="G37" s="146" t="s">
+      <c r="G37" s="127" t="s">
         <v>289</v>
       </c>
       <c r="H37" s="73"/>
       <c r="I37" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="J37" s="93"/>
+      <c r="J37" s="92"/>
       <c r="K37" s="48"/>
       <c r="L37" s="49"/>
       <c r="M37" s="19"/>
@@ -20715,7 +20718,7 @@
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="71"/>
-      <c r="J38" s="96"/>
+      <c r="J38" s="95"/>
       <c r="K38" s="71"/>
       <c r="L38" s="72"/>
       <c r="M38" s="19"/>
@@ -20739,15 +20742,15 @@
       <c r="AE38" s="19"/>
     </row>
     <row r="39" spans="1:31" ht="88" x14ac:dyDescent="0.25">
-      <c r="A39" s="125">
+      <c r="A39" s="130">
         <f>Repos!A9</f>
         <v>8</v>
       </c>
-      <c r="B39" s="128" t="str">
+      <c r="B39" s="133" t="str">
         <f>Repos!B9</f>
         <v>https://github.com/apache/tinkerpop</v>
       </c>
-      <c r="C39" s="129">
+      <c r="C39" s="134">
         <f>Authors!G9</f>
         <v>44365</v>
       </c>
@@ -20760,14 +20763,16 @@
       <c r="F39" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="129" t="s">
         <v>904</v>
       </c>
       <c r="H39" s="75" t="s">
         <v>905</v>
       </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="94"/>
+      <c r="I39" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="93"/>
       <c r="K39" s="53"/>
       <c r="L39" s="54"/>
       <c r="M39" s="19"/>
@@ -20791,9 +20796,9 @@
       <c r="AE39" s="19"/>
     </row>
     <row r="40" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A40" s="126"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="31" t="s">
         <v>297</v>
       </c>
@@ -20803,11 +20808,13 @@
       <c r="F40" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="129" t="s">
         <v>300</v>
       </c>
       <c r="H40" s="35"/>
-      <c r="I40" s="30"/>
+      <c r="I40" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J40" s="29"/>
       <c r="K40" s="30"/>
       <c r="L40" s="43"/>
@@ -20832,9 +20839,9 @@
       <c r="AE40" s="19"/>
     </row>
     <row r="41" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A41" s="126"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="31" t="s">
         <v>301</v>
       </c>
@@ -20848,7 +20855,9 @@
         <v>304</v>
       </c>
       <c r="H41" s="33"/>
-      <c r="I41" s="30"/>
+      <c r="I41" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J41" s="29"/>
       <c r="K41" s="30"/>
       <c r="L41" s="43"/>
@@ -20873,9 +20882,9 @@
       <c r="AE41" s="19"/>
     </row>
     <row r="42" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="31" t="s">
         <v>305</v>
       </c>
@@ -20914,9 +20923,9 @@
       <c r="AE42" s="19"/>
     </row>
     <row r="43" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A43" s="126"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="31" t="s">
         <v>307</v>
       </c>
@@ -20926,11 +20935,13 @@
       <c r="F43" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="129" t="s">
         <v>310</v>
       </c>
       <c r="H43" s="33"/>
-      <c r="I43" s="30"/>
+      <c r="I43" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J43" s="29"/>
       <c r="K43" s="30"/>
       <c r="L43" s="43"/>
@@ -20955,9 +20966,9 @@
       <c r="AE43" s="19"/>
     </row>
     <row r="44" spans="1:31" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="127"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
+      <c r="A44" s="132"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="46" t="s">
         <v>311</v>
       </c>
@@ -20971,8 +20982,10 @@
         <v>314</v>
       </c>
       <c r="H44" s="73"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="93"/>
+      <c r="I44" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="92"/>
       <c r="K44" s="48"/>
       <c r="L44" s="49"/>
       <c r="M44" s="19"/>
@@ -20996,15 +21009,15 @@
       <c r="AE44" s="19"/>
     </row>
     <row r="45" spans="1:31" ht="66" x14ac:dyDescent="0.25">
-      <c r="A45" s="125">
+      <c r="A45" s="130">
         <f>Repos!A10</f>
         <v>9</v>
       </c>
-      <c r="B45" s="128" t="str">
+      <c r="B45" s="133" t="str">
         <f>Repos!B10</f>
         <v>https://github.com/iotaledger/iri</v>
       </c>
-      <c r="C45" s="135">
+      <c r="C45" s="137">
         <f>Authors!G10</f>
         <v>43958</v>
       </c>
@@ -21024,7 +21037,7 @@
       <c r="I45" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="J45" s="94"/>
+      <c r="J45" s="93"/>
       <c r="K45" s="53"/>
       <c r="L45" s="54"/>
       <c r="M45" s="19"/>
@@ -21048,9 +21061,9 @@
       <c r="AE45" s="19"/>
     </row>
     <row r="46" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A46" s="126"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
+      <c r="A46" s="131"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
       <c r="D46" s="31" t="s">
         <v>319</v>
       </c>
@@ -21060,7 +21073,7 @@
       <c r="F46" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="G46" s="148" t="s">
+      <c r="G46" s="129" t="s">
         <v>322</v>
       </c>
       <c r="H46" s="33"/>
@@ -21091,9 +21104,9 @@
       <c r="AE46" s="19"/>
     </row>
     <row r="47" spans="1:31" ht="88" x14ac:dyDescent="0.25">
-      <c r="A47" s="126"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="126"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="31" t="s">
         <v>323</v>
       </c>
@@ -21134,9 +21147,9 @@
       <c r="AE47" s="19"/>
     </row>
     <row r="48" spans="1:31" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="127"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
       <c r="D48" s="46" t="s">
         <v>326</v>
       </c>
@@ -21153,7 +21166,7 @@
       <c r="I48" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="J48" s="93"/>
+      <c r="J48" s="92"/>
       <c r="K48" s="48"/>
       <c r="L48" s="49"/>
       <c r="M48" s="19"/>
@@ -21177,15 +21190,15 @@
       <c r="AE48" s="19"/>
     </row>
     <row r="49" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A49" s="125">
+      <c r="A49" s="130">
         <f>Repos!A11</f>
         <v>10</v>
       </c>
-      <c r="B49" s="128" t="str">
+      <c r="B49" s="133" t="str">
         <f>Repos!B11</f>
         <v>https://github.com/SmartBear/soapui</v>
       </c>
-      <c r="C49" s="135">
+      <c r="C49" s="137">
         <f>Authors!G11</f>
         <v>41827</v>
       </c>
@@ -21198,12 +21211,14 @@
       <c r="F49" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="148" t="s">
         <v>332</v>
       </c>
       <c r="H49" s="50"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="94"/>
+      <c r="I49" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="93"/>
       <c r="K49" s="53"/>
       <c r="L49" s="54"/>
       <c r="M49" s="19"/>
@@ -21227,9 +21242,9 @@
       <c r="AE49" s="19"/>
     </row>
     <row r="50" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A50" s="126"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="131"/>
       <c r="D50" s="31" t="s">
         <v>333</v>
       </c>
@@ -21239,11 +21254,13 @@
       <c r="F50" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G50" s="129" t="s">
         <v>336</v>
       </c>
       <c r="H50" s="35"/>
-      <c r="I50" s="30"/>
+      <c r="I50" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J50" s="29"/>
       <c r="K50" s="30"/>
       <c r="L50" s="43"/>
@@ -21268,9 +21285,9 @@
       <c r="AE50" s="19"/>
     </row>
     <row r="51" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
       <c r="D51" s="31" t="s">
         <v>337</v>
       </c>
@@ -21280,11 +21297,13 @@
       <c r="F51" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G51" s="129" t="s">
         <v>340</v>
       </c>
       <c r="H51" s="35"/>
-      <c r="I51" s="30"/>
+      <c r="I51" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J51" s="29"/>
       <c r="K51" s="30"/>
       <c r="L51" s="43"/>
@@ -21309,9 +21328,9 @@
       <c r="AE51" s="19"/>
     </row>
     <row r="52" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
+      <c r="A52" s="131"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
       <c r="D52" s="31" t="s">
         <v>341</v>
       </c>
@@ -21321,11 +21340,13 @@
       <c r="F52" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="129" t="s">
         <v>342</v>
       </c>
       <c r="H52" s="33"/>
-      <c r="I52" s="30"/>
+      <c r="I52" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J52" s="29"/>
       <c r="K52" s="30"/>
       <c r="L52" s="43"/>
@@ -21350,9 +21371,9 @@
       <c r="AE52" s="19"/>
     </row>
     <row r="53" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
       <c r="D53" s="31" t="s">
         <v>343</v>
       </c>
@@ -21362,11 +21383,13 @@
       <c r="F53" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="129" t="s">
         <v>346</v>
       </c>
       <c r="H53" s="33"/>
-      <c r="I53" s="30"/>
+      <c r="I53" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J53" s="29"/>
       <c r="K53" s="30"/>
       <c r="L53" s="43"/>
@@ -21391,9 +21414,9 @@
       <c r="AE53" s="19"/>
     </row>
     <row r="54" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
       <c r="D54" s="31" t="s">
         <v>347</v>
       </c>
@@ -21407,7 +21430,9 @@
         <v>350</v>
       </c>
       <c r="H54" s="33"/>
-      <c r="I54" s="30"/>
+      <c r="I54" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J54" s="29"/>
       <c r="K54" s="30"/>
       <c r="L54" s="43"/>
@@ -21432,9 +21457,9 @@
       <c r="AE54" s="19"/>
     </row>
     <row r="55" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="131"/>
       <c r="D55" s="31" t="s">
         <v>351</v>
       </c>
@@ -21444,11 +21469,13 @@
       <c r="F55" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="G55" s="129" t="s">
         <v>354</v>
       </c>
       <c r="H55" s="35"/>
-      <c r="I55" s="30"/>
+      <c r="I55" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="J55" s="29"/>
       <c r="K55" s="30"/>
       <c r="L55" s="43"/>
@@ -21473,9 +21500,9 @@
       <c r="AE55" s="19"/>
     </row>
     <row r="56" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="127"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
+      <c r="A56" s="132"/>
+      <c r="B56" s="132"/>
+      <c r="C56" s="132"/>
       <c r="D56" s="46" t="s">
         <v>355</v>
       </c>
@@ -21485,12 +21512,14 @@
       <c r="F56" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="G56" s="90" t="s">
+      <c r="G56" s="149" t="s">
         <v>358</v>
       </c>
       <c r="H56" s="55"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="93"/>
+      <c r="I56" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="92"/>
       <c r="K56" s="48"/>
       <c r="L56" s="49"/>
       <c r="M56" s="19"/>
@@ -21514,15 +21543,15 @@
       <c r="AE56" s="19"/>
     </row>
     <row r="57" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A57" s="125">
+      <c r="A57" s="130">
         <f>Repos!A12</f>
         <v>11</v>
       </c>
-      <c r="B57" s="128" t="str">
+      <c r="B57" s="133" t="str">
         <f>Repos!B12</f>
         <v>https://github.com/w3c/epubcheck</v>
       </c>
-      <c r="C57" s="135">
+      <c r="C57" s="137">
         <f>Authors!G12</f>
         <v>44253</v>
       </c>
@@ -21542,7 +21571,7 @@
         <v>907</v>
       </c>
       <c r="I57" s="53"/>
-      <c r="J57" s="94"/>
+      <c r="J57" s="93"/>
       <c r="K57" s="53"/>
       <c r="L57" s="54"/>
       <c r="M57" s="19"/>
@@ -21566,9 +21595,9 @@
       <c r="AE57" s="19"/>
     </row>
     <row r="58" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A58" s="126"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="131"/>
       <c r="D58" s="31" t="s">
         <v>362</v>
       </c>
@@ -21609,9 +21638,9 @@
       <c r="AE58" s="19"/>
     </row>
     <row r="59" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="127"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
+      <c r="A59" s="132"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
       <c r="D59" s="46" t="s">
         <v>366</v>
       </c>
@@ -21628,7 +21657,7 @@
         <v>369</v>
       </c>
       <c r="I59" s="48"/>
-      <c r="J59" s="93"/>
+      <c r="J59" s="92"/>
       <c r="K59" s="48"/>
       <c r="L59" s="49"/>
       <c r="M59" s="19"/>
@@ -21680,7 +21709,7 @@
       <c r="I60" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="J60" s="96"/>
+      <c r="J60" s="95"/>
       <c r="K60" s="71"/>
       <c r="L60" s="72"/>
       <c r="M60" s="19"/>
@@ -21704,15 +21733,15 @@
       <c r="AE60" s="19"/>
     </row>
     <row r="61" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A61" s="125">
+      <c r="A61" s="130">
         <f>Repos!A14</f>
         <v>13</v>
       </c>
-      <c r="B61" s="128" t="str">
+      <c r="B61" s="133" t="str">
         <f>Repos!B14</f>
         <v>https://github.com/bugsnag/bugsnag-android</v>
       </c>
-      <c r="C61" s="129">
+      <c r="C61" s="134">
         <f>Authors!G14</f>
         <v>44362</v>
       </c>
@@ -21730,7 +21759,7 @@
       </c>
       <c r="H61" s="75"/>
       <c r="I61" s="53"/>
-      <c r="J61" s="94"/>
+      <c r="J61" s="93"/>
       <c r="K61" s="53"/>
       <c r="L61" s="54"/>
       <c r="M61" s="19"/>
@@ -21754,9 +21783,9 @@
       <c r="AE61" s="19"/>
     </row>
     <row r="62" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A62" s="126"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="126"/>
+      <c r="A62" s="131"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="131"/>
       <c r="D62" s="31" t="s">
         <v>378</v>
       </c>
@@ -21795,9 +21824,9 @@
       <c r="AE62" s="19"/>
     </row>
     <row r="63" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A63" s="126"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="126"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="131"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="31" t="s">
         <v>382</v>
       </c>
@@ -21836,9 +21865,9 @@
       <c r="AE63" s="19"/>
     </row>
     <row r="64" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A64" s="126"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="126"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="131"/>
       <c r="D64" s="31" t="s">
         <v>386</v>
       </c>
@@ -21877,9 +21906,9 @@
       <c r="AE64" s="19"/>
     </row>
     <row r="65" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A65" s="126"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="126"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="131"/>
       <c r="D65" s="31" t="s">
         <v>390</v>
       </c>
@@ -21918,9 +21947,9 @@
       <c r="AE65" s="19"/>
     </row>
     <row r="66" spans="1:31" ht="89" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="127"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="127"/>
+      <c r="A66" s="132"/>
+      <c r="B66" s="132"/>
+      <c r="C66" s="132"/>
       <c r="D66" s="46" t="s">
         <v>393</v>
       </c>
@@ -21930,14 +21959,14 @@
       <c r="F66" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="G66" s="91" t="s">
+      <c r="G66" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="H66" s="92" t="s">
+      <c r="H66" s="91" t="s">
         <v>396</v>
       </c>
       <c r="I66" s="48"/>
-      <c r="J66" s="93"/>
+      <c r="J66" s="92"/>
       <c r="K66" s="48"/>
       <c r="L66" s="49"/>
       <c r="M66" s="19"/>
@@ -21961,15 +21990,15 @@
       <c r="AE66" s="19"/>
     </row>
     <row r="67" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A67" s="125">
+      <c r="A67" s="130">
         <f>Repos!A15</f>
         <v>14</v>
       </c>
-      <c r="B67" s="128" t="str">
+      <c r="B67" s="133" t="str">
         <f>Repos!B15</f>
         <v>https://github.com/blox/blox</v>
       </c>
-      <c r="C67" s="129">
+      <c r="C67" s="134">
         <f>Authors!G15</f>
         <v>43143</v>
       </c>
@@ -21989,7 +22018,7 @@
         <v>400</v>
       </c>
       <c r="I67" s="45"/>
-      <c r="J67" s="97"/>
+      <c r="J67" s="96"/>
       <c r="K67" s="53"/>
       <c r="L67" s="54"/>
       <c r="M67" s="19"/>
@@ -22013,9 +22042,9 @@
       <c r="AE67" s="19"/>
     </row>
     <row r="68" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A68" s="126"/>
-      <c r="B68" s="126"/>
-      <c r="C68" s="126"/>
+      <c r="A68" s="131"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="131"/>
       <c r="D68" s="31" t="s">
         <v>401</v>
       </c>
@@ -22056,9 +22085,9 @@
       <c r="AE68" s="19"/>
     </row>
     <row r="69" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="127"/>
-      <c r="B69" s="127"/>
-      <c r="C69" s="127"/>
+      <c r="A69" s="132"/>
+      <c r="B69" s="132"/>
+      <c r="C69" s="132"/>
       <c r="D69" s="46" t="s">
         <v>405</v>
       </c>
@@ -22073,7 +22102,7 @@
       </c>
       <c r="H69" s="77"/>
       <c r="I69" s="48"/>
-      <c r="J69" s="93"/>
+      <c r="J69" s="92"/>
       <c r="K69" s="48"/>
       <c r="L69" s="49"/>
       <c r="M69" s="19"/>
@@ -22125,7 +22154,7 @@
         <v>909</v>
       </c>
       <c r="I70" s="71"/>
-      <c r="J70" s="96"/>
+      <c r="J70" s="95"/>
       <c r="K70" s="71"/>
       <c r="L70" s="72"/>
       <c r="M70" s="19"/>
@@ -22149,15 +22178,15 @@
       <c r="AE70" s="19"/>
     </row>
     <row r="71" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A71" s="125">
+      <c r="A71" s="130">
         <f>Repos!A17</f>
         <v>16</v>
       </c>
-      <c r="B71" s="128" t="str">
+      <c r="B71" s="133" t="str">
         <f>Repos!B17</f>
         <v>https://github.com/FluentLenium/FluentLenium</v>
       </c>
-      <c r="C71" s="129">
+      <c r="C71" s="134">
         <f>Authors!G17</f>
         <v>43660</v>
       </c>
@@ -22175,7 +22204,7 @@
       </c>
       <c r="H71" s="50"/>
       <c r="I71" s="53"/>
-      <c r="J71" s="94"/>
+      <c r="J71" s="93"/>
       <c r="K71" s="53"/>
       <c r="L71" s="54"/>
       <c r="M71" s="19"/>
@@ -22199,9 +22228,9 @@
       <c r="AE71" s="19"/>
     </row>
     <row r="72" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="127"/>
-      <c r="B72" s="127"/>
-      <c r="C72" s="127"/>
+      <c r="A72" s="132"/>
+      <c r="B72" s="132"/>
+      <c r="C72" s="132"/>
       <c r="D72" s="46" t="s">
         <v>415</v>
       </c>
@@ -22216,7 +22245,7 @@
       </c>
       <c r="H72" s="55"/>
       <c r="I72" s="48"/>
-      <c r="J72" s="93"/>
+      <c r="J72" s="92"/>
       <c r="K72" s="48"/>
       <c r="L72" s="49"/>
       <c r="M72" s="19"/>
@@ -22240,15 +22269,15 @@
       <c r="AE72" s="19"/>
     </row>
     <row r="73" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A73" s="125">
+      <c r="A73" s="130">
         <f>Repos!A18</f>
         <v>17</v>
       </c>
-      <c r="B73" s="128" t="str">
+      <c r="B73" s="133" t="str">
         <f>Repos!B18</f>
         <v>https://github.com/AppiumTestDistribution/AppiumTestDistribution</v>
       </c>
-      <c r="C73" s="142">
+      <c r="C73" s="136">
         <f>Authors!G18</f>
         <v>44184</v>
       </c>
@@ -22266,7 +22295,7 @@
       </c>
       <c r="H73" s="75"/>
       <c r="I73" s="53"/>
-      <c r="J73" s="94"/>
+      <c r="J73" s="93"/>
       <c r="K73" s="53"/>
       <c r="L73" s="54"/>
       <c r="M73" s="19"/>
@@ -22290,9 +22319,9 @@
       <c r="AE73" s="19"/>
     </row>
     <row r="74" spans="1:31" ht="110" x14ac:dyDescent="0.25">
-      <c r="A74" s="126"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="126"/>
+      <c r="A74" s="131"/>
+      <c r="B74" s="131"/>
+      <c r="C74" s="131"/>
       <c r="D74" s="31" t="s">
         <v>423</v>
       </c>
@@ -22333,9 +22362,9 @@
       <c r="AE74" s="19"/>
     </row>
     <row r="75" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A75" s="126"/>
-      <c r="B75" s="126"/>
-      <c r="C75" s="126"/>
+      <c r="A75" s="131"/>
+      <c r="B75" s="131"/>
+      <c r="C75" s="131"/>
       <c r="D75" s="31" t="s">
         <v>427</v>
       </c>
@@ -22374,9 +22403,9 @@
       <c r="AE75" s="19"/>
     </row>
     <row r="76" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="127"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="127"/>
+      <c r="A76" s="132"/>
+      <c r="B76" s="132"/>
+      <c r="C76" s="132"/>
       <c r="D76" s="46" t="s">
         <v>431</v>
       </c>
@@ -22391,7 +22420,7 @@
       </c>
       <c r="H76" s="55"/>
       <c r="I76" s="48"/>
-      <c r="J76" s="93"/>
+      <c r="J76" s="92"/>
       <c r="K76" s="48"/>
       <c r="L76" s="49"/>
       <c r="M76" s="19"/>
@@ -22415,15 +22444,15 @@
       <c r="AE76" s="19"/>
     </row>
     <row r="77" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A77" s="125">
+      <c r="A77" s="130">
         <f>Repos!A19</f>
         <v>18</v>
       </c>
-      <c r="B77" s="128" t="str">
+      <c r="B77" s="133" t="str">
         <f>Repos!B19</f>
         <v>https://github.com/mzheravin/exchange-core</v>
       </c>
-      <c r="C77" s="135">
+      <c r="C77" s="137">
         <f>Authors!G19</f>
         <v>43989</v>
       </c>
@@ -22441,7 +22470,7 @@
       </c>
       <c r="H77" s="50"/>
       <c r="I77" s="53"/>
-      <c r="J77" s="94"/>
+      <c r="J77" s="93"/>
       <c r="K77" s="53"/>
       <c r="L77" s="54"/>
       <c r="M77" s="19"/>
@@ -22465,9 +22494,9 @@
       <c r="AE77" s="19"/>
     </row>
     <row r="78" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="127"/>
-      <c r="B78" s="127"/>
-      <c r="C78" s="127"/>
+      <c r="A78" s="132"/>
+      <c r="B78" s="132"/>
+      <c r="C78" s="132"/>
       <c r="D78" s="46" t="s">
         <v>439</v>
       </c>
@@ -22482,7 +22511,7 @@
       </c>
       <c r="H78" s="73"/>
       <c r="I78" s="48"/>
-      <c r="J78" s="93"/>
+      <c r="J78" s="92"/>
       <c r="K78" s="48"/>
       <c r="L78" s="49"/>
       <c r="M78" s="19"/>
@@ -22532,7 +22561,7 @@
       </c>
       <c r="H79" s="80"/>
       <c r="I79" s="71"/>
-      <c r="J79" s="96"/>
+      <c r="J79" s="95"/>
       <c r="K79" s="71"/>
       <c r="L79" s="72"/>
       <c r="M79" s="19"/>
@@ -22556,15 +22585,15 @@
       <c r="AE79" s="19"/>
     </row>
     <row r="80" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A80" s="125">
+      <c r="A80" s="130">
         <f>Repos!A21</f>
         <v>20</v>
       </c>
-      <c r="B80" s="128" t="str">
+      <c r="B80" s="133" t="str">
         <f>Repos!B21</f>
         <v>https://github.com/jbangdev/jbang</v>
       </c>
-      <c r="C80" s="141">
+      <c r="C80" s="135">
         <f>Authors!G21</f>
         <v>44340</v>
       </c>
@@ -22582,7 +22611,7 @@
       </c>
       <c r="H80" s="50"/>
       <c r="I80" s="53"/>
-      <c r="J80" s="94"/>
+      <c r="J80" s="93"/>
       <c r="K80" s="53"/>
       <c r="L80" s="54"/>
       <c r="M80" s="19"/>
@@ -22606,9 +22635,9 @@
       <c r="AE80" s="19"/>
     </row>
     <row r="81" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A81" s="126"/>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
+      <c r="A81" s="131"/>
+      <c r="B81" s="131"/>
+      <c r="C81" s="131"/>
       <c r="D81" s="31" t="s">
         <v>450</v>
       </c>
@@ -22647,9 +22676,9 @@
       <c r="AE81" s="19"/>
     </row>
     <row r="82" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A82" s="126"/>
-      <c r="B82" s="126"/>
-      <c r="C82" s="126"/>
+      <c r="A82" s="131"/>
+      <c r="B82" s="131"/>
+      <c r="C82" s="131"/>
       <c r="D82" s="31" t="s">
         <v>454</v>
       </c>
@@ -22688,9 +22717,9 @@
       <c r="AE82" s="19"/>
     </row>
     <row r="83" spans="1:31" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="126"/>
-      <c r="B83" s="126"/>
-      <c r="C83" s="126"/>
+      <c r="A83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="131"/>
       <c r="D83" s="31" t="s">
         <v>458</v>
       </c>
@@ -22731,15 +22760,15 @@
       <c r="AE83" s="19"/>
     </row>
     <row r="84" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A84" s="125">
+      <c r="A84" s="130">
         <f>Repos!A22</f>
         <v>21</v>
       </c>
-      <c r="B84" s="128" t="str">
+      <c r="B84" s="133" t="str">
         <f>Repos!B22</f>
         <v>https://github.com/SoftInstigate/restheart</v>
       </c>
-      <c r="C84" s="129">
+      <c r="C84" s="134">
         <f>Authors!G22</f>
         <v>44358</v>
       </c>
@@ -22757,7 +22786,7 @@
       </c>
       <c r="H84" s="50"/>
       <c r="I84" s="53"/>
-      <c r="J84" s="94"/>
+      <c r="J84" s="93"/>
       <c r="K84" s="53"/>
       <c r="L84" s="54"/>
       <c r="M84" s="19"/>
@@ -22781,9 +22810,9 @@
       <c r="AE84" s="19"/>
     </row>
     <row r="85" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A85" s="126"/>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
+      <c r="A85" s="131"/>
+      <c r="B85" s="131"/>
+      <c r="C85" s="131"/>
       <c r="D85" s="31" t="s">
         <v>466</v>
       </c>
@@ -22822,9 +22851,9 @@
       <c r="AE85" s="19"/>
     </row>
     <row r="86" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A86" s="126"/>
-      <c r="B86" s="126"/>
-      <c r="C86" s="126"/>
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
       <c r="D86" s="31" t="s">
         <v>468</v>
       </c>
@@ -22865,9 +22894,9 @@
       <c r="AE86" s="19"/>
     </row>
     <row r="87" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="127"/>
-      <c r="B87" s="127"/>
-      <c r="C87" s="127"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
       <c r="D87" s="46" t="s">
         <v>472</v>
       </c>
@@ -22882,7 +22911,7 @@
       </c>
       <c r="H87" s="73"/>
       <c r="I87" s="48"/>
-      <c r="J87" s="93"/>
+      <c r="J87" s="92"/>
       <c r="K87" s="48"/>
       <c r="L87" s="49"/>
       <c r="M87" s="19"/>
@@ -22934,7 +22963,7 @@
       <c r="I88" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="J88" s="95"/>
+      <c r="J88" s="94"/>
       <c r="K88" s="61" t="s">
         <v>126</v>
       </c>
@@ -22960,15 +22989,15 @@
       <c r="AE88" s="19"/>
     </row>
     <row r="89" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A89" s="125">
+      <c r="A89" s="130">
         <f>Repos!A24</f>
         <v>23</v>
       </c>
-      <c r="B89" s="128" t="str">
+      <c r="B89" s="133" t="str">
         <f>Repos!B24</f>
         <v>https://github.com/intuit/karate</v>
       </c>
-      <c r="C89" s="129">
+      <c r="C89" s="134">
         <v>44370</v>
       </c>
       <c r="D89" s="63" t="s">
@@ -22985,7 +23014,7 @@
       </c>
       <c r="H89" s="50"/>
       <c r="I89" s="53"/>
-      <c r="J89" s="94"/>
+      <c r="J89" s="93"/>
       <c r="K89" s="53"/>
       <c r="L89" s="54"/>
       <c r="M89" s="19"/>
@@ -23009,9 +23038,9 @@
       <c r="AE89" s="19"/>
     </row>
     <row r="90" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A90" s="126"/>
-      <c r="B90" s="126"/>
-      <c r="C90" s="126"/>
+      <c r="A90" s="131"/>
+      <c r="B90" s="131"/>
+      <c r="C90" s="131"/>
       <c r="D90" s="41" t="s">
         <v>480</v>
       </c>
@@ -23050,9 +23079,9 @@
       <c r="AE90" s="19"/>
     </row>
     <row r="91" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A91" s="126"/>
-      <c r="B91" s="126"/>
-      <c r="C91" s="126"/>
+      <c r="A91" s="131"/>
+      <c r="B91" s="131"/>
+      <c r="C91" s="131"/>
       <c r="D91" s="41" t="s">
         <v>484</v>
       </c>
@@ -23091,9 +23120,9 @@
       <c r="AE91" s="19"/>
     </row>
     <row r="92" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A92" s="126"/>
-      <c r="B92" s="126"/>
-      <c r="C92" s="126"/>
+      <c r="A92" s="131"/>
+      <c r="B92" s="131"/>
+      <c r="C92" s="131"/>
       <c r="D92" s="41" t="s">
         <v>488</v>
       </c>
@@ -23132,9 +23161,9 @@
       <c r="AE92" s="19"/>
     </row>
     <row r="93" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A93" s="126"/>
-      <c r="B93" s="126"/>
-      <c r="C93" s="126"/>
+      <c r="A93" s="131"/>
+      <c r="B93" s="131"/>
+      <c r="C93" s="131"/>
       <c r="D93" s="41" t="s">
         <v>492</v>
       </c>
@@ -23173,9 +23202,9 @@
       <c r="AE93" s="19"/>
     </row>
     <row r="94" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A94" s="126"/>
-      <c r="B94" s="126"/>
-      <c r="C94" s="126"/>
+      <c r="A94" s="131"/>
+      <c r="B94" s="131"/>
+      <c r="C94" s="131"/>
       <c r="D94" s="41" t="s">
         <v>496</v>
       </c>
@@ -23214,9 +23243,9 @@
       <c r="AE94" s="19"/>
     </row>
     <row r="95" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A95" s="126"/>
-      <c r="B95" s="126"/>
-      <c r="C95" s="126"/>
+      <c r="A95" s="131"/>
+      <c r="B95" s="131"/>
+      <c r="C95" s="131"/>
       <c r="D95" s="41" t="s">
         <v>500</v>
       </c>
@@ -23255,9 +23284,9 @@
       <c r="AE95" s="19"/>
     </row>
     <row r="96" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A96" s="126"/>
-      <c r="B96" s="126"/>
-      <c r="C96" s="126"/>
+      <c r="A96" s="131"/>
+      <c r="B96" s="131"/>
+      <c r="C96" s="131"/>
       <c r="D96" s="41" t="s">
         <v>504</v>
       </c>
@@ -23296,9 +23325,9 @@
       <c r="AE96" s="19"/>
     </row>
     <row r="97" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A97" s="126"/>
-      <c r="B97" s="126"/>
-      <c r="C97" s="126"/>
+      <c r="A97" s="131"/>
+      <c r="B97" s="131"/>
+      <c r="C97" s="131"/>
       <c r="D97" s="41" t="s">
         <v>506</v>
       </c>
@@ -23337,9 +23366,9 @@
       <c r="AE97" s="19"/>
     </row>
     <row r="98" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="127"/>
-      <c r="B98" s="127"/>
-      <c r="C98" s="127"/>
+      <c r="A98" s="132"/>
+      <c r="B98" s="132"/>
+      <c r="C98" s="132"/>
       <c r="D98" s="86" t="s">
         <v>509</v>
       </c>
@@ -23354,7 +23383,7 @@
       </c>
       <c r="H98" s="73"/>
       <c r="I98" s="48"/>
-      <c r="J98" s="93"/>
+      <c r="J98" s="92"/>
       <c r="K98" s="48"/>
       <c r="L98" s="49"/>
       <c r="M98" s="19"/>
@@ -23378,15 +23407,15 @@
       <c r="AE98" s="19"/>
     </row>
     <row r="99" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A99" s="125">
+      <c r="A99" s="130">
         <f>Repos!A25</f>
         <v>24</v>
       </c>
-      <c r="B99" s="128" t="str">
+      <c r="B99" s="133" t="str">
         <f>Repos!B25</f>
         <v>https://github.com/cucumber/cucumber</v>
       </c>
-      <c r="C99" s="129">
+      <c r="C99" s="134">
         <v>44370</v>
       </c>
       <c r="D99" s="63" t="s">
@@ -23403,7 +23432,7 @@
       </c>
       <c r="H99" s="50"/>
       <c r="I99" s="53"/>
-      <c r="J99" s="94"/>
+      <c r="J99" s="93"/>
       <c r="K99" s="53"/>
       <c r="L99" s="54"/>
       <c r="M99" s="19"/>
@@ -23427,9 +23456,9 @@
       <c r="AE99" s="19"/>
     </row>
     <row r="100" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A100" s="126"/>
-      <c r="B100" s="126"/>
-      <c r="C100" s="126"/>
+      <c r="A100" s="131"/>
+      <c r="B100" s="131"/>
+      <c r="C100" s="131"/>
       <c r="D100" s="41" t="s">
         <v>517</v>
       </c>
@@ -23468,9 +23497,9 @@
       <c r="AE100" s="19"/>
     </row>
     <row r="101" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A101" s="126"/>
-      <c r="B101" s="126"/>
-      <c r="C101" s="126"/>
+      <c r="A101" s="131"/>
+      <c r="B101" s="131"/>
+      <c r="C101" s="131"/>
       <c r="D101" s="41" t="s">
         <v>521</v>
       </c>
@@ -23509,9 +23538,9 @@
       <c r="AE101" s="19"/>
     </row>
     <row r="102" spans="1:31" ht="44" x14ac:dyDescent="0.25">
-      <c r="A102" s="126"/>
-      <c r="B102" s="126"/>
-      <c r="C102" s="126"/>
+      <c r="A102" s="131"/>
+      <c r="B102" s="131"/>
+      <c r="C102" s="131"/>
       <c r="D102" s="41" t="s">
         <v>525</v>
       </c>
@@ -23550,9 +23579,9 @@
       <c r="AE102" s="19"/>
     </row>
     <row r="103" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A103" s="126"/>
-      <c r="B103" s="126"/>
-      <c r="C103" s="126"/>
+      <c r="A103" s="131"/>
+      <c r="B103" s="131"/>
+      <c r="C103" s="131"/>
       <c r="D103" s="41" t="s">
         <v>529</v>
       </c>
@@ -23591,9 +23620,9 @@
       <c r="AE103" s="19"/>
     </row>
     <row r="104" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A104" s="126"/>
-      <c r="B104" s="126"/>
-      <c r="C104" s="126"/>
+      <c r="A104" s="131"/>
+      <c r="B104" s="131"/>
+      <c r="C104" s="131"/>
       <c r="D104" s="41" t="s">
         <v>532</v>
       </c>
@@ -23632,9 +23661,9 @@
       <c r="AE104" s="19"/>
     </row>
     <row r="105" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A105" s="126"/>
-      <c r="B105" s="126"/>
-      <c r="C105" s="126"/>
+      <c r="A105" s="131"/>
+      <c r="B105" s="131"/>
+      <c r="C105" s="131"/>
       <c r="D105" s="41" t="s">
         <v>535</v>
       </c>
@@ -23673,9 +23702,9 @@
       <c r="AE105" s="19"/>
     </row>
     <row r="106" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A106" s="126"/>
-      <c r="B106" s="126"/>
-      <c r="C106" s="126"/>
+      <c r="A106" s="131"/>
+      <c r="B106" s="131"/>
+      <c r="C106" s="131"/>
       <c r="D106" s="41" t="s">
         <v>539</v>
       </c>
@@ -23714,9 +23743,9 @@
       <c r="AE106" s="19"/>
     </row>
     <row r="107" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A107" s="126"/>
-      <c r="B107" s="126"/>
-      <c r="C107" s="126"/>
+      <c r="A107" s="131"/>
+      <c r="B107" s="131"/>
+      <c r="C107" s="131"/>
       <c r="D107" s="41" t="s">
         <v>542</v>
       </c>
@@ -23755,9 +23784,9 @@
       <c r="AE107" s="19"/>
     </row>
     <row r="108" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="127"/>
-      <c r="B108" s="127"/>
-      <c r="C108" s="127"/>
+      <c r="A108" s="132"/>
+      <c r="B108" s="132"/>
+      <c r="C108" s="132"/>
       <c r="D108" s="86" t="s">
         <v>545</v>
       </c>
@@ -23772,7 +23801,7 @@
       </c>
       <c r="H108" s="47"/>
       <c r="I108" s="48"/>
-      <c r="J108" s="93"/>
+      <c r="J108" s="92"/>
       <c r="K108" s="48"/>
       <c r="L108" s="49"/>
       <c r="M108" s="19"/>
@@ -23796,15 +23825,15 @@
       <c r="AE108" s="19"/>
     </row>
     <row r="109" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A109" s="125">
+      <c r="A109" s="130">
         <f>Repos!A26</f>
         <v>25</v>
       </c>
-      <c r="B109" s="128" t="str">
+      <c r="B109" s="133" t="str">
         <f>Repos!B26</f>
         <v>https://github.com/cucumber/cucumber-jvm</v>
       </c>
-      <c r="C109" s="129">
+      <c r="C109" s="134">
         <v>44370</v>
       </c>
       <c r="D109" s="63" t="s">
@@ -23821,7 +23850,7 @@
       </c>
       <c r="H109" s="50"/>
       <c r="I109" s="53"/>
-      <c r="J109" s="94"/>
+      <c r="J109" s="93"/>
       <c r="K109" s="53"/>
       <c r="L109" s="54"/>
       <c r="M109" s="19"/>
@@ -23845,9 +23874,9 @@
       <c r="AE109" s="19"/>
     </row>
     <row r="110" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A110" s="126"/>
-      <c r="B110" s="126"/>
-      <c r="C110" s="126"/>
+      <c r="A110" s="131"/>
+      <c r="B110" s="131"/>
+      <c r="C110" s="131"/>
       <c r="D110" s="41" t="s">
         <v>549</v>
       </c>
@@ -23886,9 +23915,9 @@
       <c r="AE110" s="19"/>
     </row>
     <row r="111" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A111" s="126"/>
-      <c r="B111" s="126"/>
-      <c r="C111" s="126"/>
+      <c r="A111" s="131"/>
+      <c r="B111" s="131"/>
+      <c r="C111" s="131"/>
       <c r="D111" s="41" t="s">
         <v>553</v>
       </c>
@@ -23927,9 +23956,9 @@
       <c r="AE111" s="19"/>
     </row>
     <row r="112" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A112" s="126"/>
-      <c r="B112" s="126"/>
-      <c r="C112" s="126"/>
+      <c r="A112" s="131"/>
+      <c r="B112" s="131"/>
+      <c r="C112" s="131"/>
       <c r="D112" s="41" t="s">
         <v>557</v>
       </c>
@@ -23968,9 +23997,9 @@
       <c r="AE112" s="19"/>
     </row>
     <row r="113" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A113" s="126"/>
-      <c r="B113" s="126"/>
-      <c r="C113" s="126"/>
+      <c r="A113" s="131"/>
+      <c r="B113" s="131"/>
+      <c r="C113" s="131"/>
       <c r="D113" s="41" t="s">
         <v>559</v>
       </c>
@@ -24009,9 +24038,9 @@
       <c r="AE113" s="19"/>
     </row>
     <row r="114" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="127"/>
-      <c r="B114" s="127"/>
-      <c r="C114" s="127"/>
+      <c r="A114" s="132"/>
+      <c r="B114" s="132"/>
+      <c r="C114" s="132"/>
       <c r="D114" s="86" t="s">
         <v>563</v>
       </c>
@@ -24026,7 +24055,7 @@
       </c>
       <c r="H114" s="73"/>
       <c r="I114" s="48"/>
-      <c r="J114" s="93"/>
+      <c r="J114" s="92"/>
       <c r="K114" s="48"/>
       <c r="L114" s="49"/>
       <c r="M114" s="19"/>
@@ -24050,15 +24079,15 @@
       <c r="AE114" s="19"/>
     </row>
     <row r="115" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A115" s="125">
+      <c r="A115" s="130">
         <f>Repos!A27</f>
         <v>26</v>
       </c>
-      <c r="B115" s="128" t="str">
+      <c r="B115" s="133" t="str">
         <f>Repos!B27</f>
         <v>https://github.com/JetBrains/intellij-plugins</v>
       </c>
-      <c r="C115" s="129">
+      <c r="C115" s="134">
         <v>44370</v>
       </c>
       <c r="D115" s="63" t="s">
@@ -24075,7 +24104,7 @@
       </c>
       <c r="H115" s="50"/>
       <c r="I115" s="53"/>
-      <c r="J115" s="94"/>
+      <c r="J115" s="93"/>
       <c r="K115" s="53"/>
       <c r="L115" s="54"/>
       <c r="M115" s="19"/>
@@ -24099,9 +24128,9 @@
       <c r="AE115" s="19"/>
     </row>
     <row r="116" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A116" s="126"/>
-      <c r="B116" s="126"/>
-      <c r="C116" s="126"/>
+      <c r="A116" s="131"/>
+      <c r="B116" s="131"/>
+      <c r="C116" s="131"/>
       <c r="D116" s="41" t="s">
         <v>569</v>
       </c>
@@ -24140,9 +24169,9 @@
       <c r="AE116" s="19"/>
     </row>
     <row r="117" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A117" s="126"/>
-      <c r="B117" s="126"/>
-      <c r="C117" s="126"/>
+      <c r="A117" s="131"/>
+      <c r="B117" s="131"/>
+      <c r="C117" s="131"/>
       <c r="D117" s="41" t="s">
         <v>573</v>
       </c>
@@ -24181,9 +24210,9 @@
       <c r="AE117" s="19"/>
     </row>
     <row r="118" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A118" s="126"/>
-      <c r="B118" s="126"/>
-      <c r="C118" s="126"/>
+      <c r="A118" s="131"/>
+      <c r="B118" s="131"/>
+      <c r="C118" s="131"/>
       <c r="D118" s="41" t="s">
         <v>577</v>
       </c>
@@ -24222,9 +24251,9 @@
       <c r="AE118" s="19"/>
     </row>
     <row r="119" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A119" s="126"/>
-      <c r="B119" s="126"/>
-      <c r="C119" s="126"/>
+      <c r="A119" s="131"/>
+      <c r="B119" s="131"/>
+      <c r="C119" s="131"/>
       <c r="D119" s="41" t="s">
         <v>581</v>
       </c>
@@ -24263,9 +24292,9 @@
       <c r="AE119" s="19"/>
     </row>
     <row r="120" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="127"/>
-      <c r="B120" s="127"/>
-      <c r="C120" s="127"/>
+      <c r="A120" s="132"/>
+      <c r="B120" s="132"/>
+      <c r="C120" s="132"/>
       <c r="D120" s="86" t="s">
         <v>585</v>
       </c>
@@ -24280,7 +24309,7 @@
       </c>
       <c r="H120" s="73"/>
       <c r="I120" s="48"/>
-      <c r="J120" s="93"/>
+      <c r="J120" s="92"/>
       <c r="K120" s="48"/>
       <c r="L120" s="49"/>
       <c r="M120" s="19"/>
@@ -24304,34 +24333,34 @@
       <c r="AE120" s="19"/>
     </row>
     <row r="121" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A121" s="130">
+      <c r="A121" s="143">
         <f>Repos!A28</f>
         <v>27</v>
       </c>
-      <c r="B121" s="133" t="str">
+      <c r="B121" s="146" t="str">
         <f>Repos!B28</f>
         <v>https://github.com/OpenLiberty/open-liberty</v>
       </c>
-      <c r="C121" s="134">
+      <c r="C121" s="147">
         <v>44370</v>
       </c>
-      <c r="D121" s="107" t="s">
+      <c r="D121" s="106" t="s">
         <v>589</v>
       </c>
-      <c r="E121" s="107" t="s">
+      <c r="E121" s="106" t="s">
         <v>590</v>
       </c>
-      <c r="F121" s="108" t="s">
+      <c r="F121" s="107" t="s">
         <v>591</v>
       </c>
-      <c r="G121" s="109" t="s">
+      <c r="G121" s="108" t="s">
         <v>592</v>
       </c>
-      <c r="H121" s="109"/>
-      <c r="I121" s="110"/>
-      <c r="J121" s="111"/>
-      <c r="K121" s="110"/>
-      <c r="L121" s="112"/>
+      <c r="H121" s="108"/>
+      <c r="I121" s="109"/>
+      <c r="J121" s="110"/>
+      <c r="K121" s="109"/>
+      <c r="L121" s="111"/>
       <c r="M121" s="19"/>
       <c r="N121" s="19"/>
       <c r="O121" s="19"/>
@@ -24353,26 +24382,26 @@
       <c r="AE121" s="19"/>
     </row>
     <row r="122" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A122" s="131"/>
-      <c r="B122" s="131"/>
-      <c r="C122" s="131"/>
-      <c r="D122" s="113" t="s">
+      <c r="A122" s="144"/>
+      <c r="B122" s="144"/>
+      <c r="C122" s="144"/>
+      <c r="D122" s="112" t="s">
         <v>593</v>
       </c>
-      <c r="E122" s="113" t="s">
+      <c r="E122" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="F122" s="114" t="s">
+      <c r="F122" s="113" t="s">
         <v>595</v>
       </c>
-      <c r="G122" s="115" t="s">
+      <c r="G122" s="114" t="s">
         <v>596</v>
       </c>
-      <c r="H122" s="115"/>
-      <c r="I122" s="116"/>
-      <c r="J122" s="117"/>
-      <c r="K122" s="116"/>
-      <c r="L122" s="118"/>
+      <c r="H122" s="114"/>
+      <c r="I122" s="115"/>
+      <c r="J122" s="116"/>
+      <c r="K122" s="115"/>
+      <c r="L122" s="117"/>
       <c r="M122" s="19"/>
       <c r="N122" s="19"/>
       <c r="O122" s="19"/>
@@ -24394,26 +24423,26 @@
       <c r="AE122" s="19"/>
     </row>
     <row r="123" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A123" s="131"/>
-      <c r="B123" s="131"/>
-      <c r="C123" s="131"/>
-      <c r="D123" s="113" t="s">
+      <c r="A123" s="144"/>
+      <c r="B123" s="144"/>
+      <c r="C123" s="144"/>
+      <c r="D123" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="E123" s="113" t="s">
+      <c r="E123" s="112" t="s">
         <v>598</v>
       </c>
-      <c r="F123" s="114" t="s">
+      <c r="F123" s="113" t="s">
         <v>599</v>
       </c>
-      <c r="G123" s="115" t="s">
+      <c r="G123" s="114" t="s">
         <v>600</v>
       </c>
-      <c r="H123" s="115"/>
-      <c r="I123" s="116"/>
-      <c r="J123" s="117"/>
-      <c r="K123" s="116"/>
-      <c r="L123" s="118"/>
+      <c r="H123" s="114"/>
+      <c r="I123" s="115"/>
+      <c r="J123" s="116"/>
+      <c r="K123" s="115"/>
+      <c r="L123" s="117"/>
       <c r="M123" s="19"/>
       <c r="N123" s="19"/>
       <c r="O123" s="19"/>
@@ -24435,26 +24464,26 @@
       <c r="AE123" s="19"/>
     </row>
     <row r="124" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A124" s="131"/>
-      <c r="B124" s="131"/>
-      <c r="C124" s="131"/>
-      <c r="D124" s="113" t="s">
+      <c r="A124" s="144"/>
+      <c r="B124" s="144"/>
+      <c r="C124" s="144"/>
+      <c r="D124" s="112" t="s">
         <v>601</v>
       </c>
-      <c r="E124" s="113" t="s">
+      <c r="E124" s="112" t="s">
         <v>602</v>
       </c>
-      <c r="F124" s="114" t="s">
+      <c r="F124" s="113" t="s">
         <v>603</v>
       </c>
-      <c r="G124" s="115" t="s">
+      <c r="G124" s="114" t="s">
         <v>604</v>
       </c>
-      <c r="H124" s="115"/>
-      <c r="I124" s="116"/>
-      <c r="J124" s="117"/>
-      <c r="K124" s="116"/>
-      <c r="L124" s="118"/>
+      <c r="H124" s="114"/>
+      <c r="I124" s="115"/>
+      <c r="J124" s="116"/>
+      <c r="K124" s="115"/>
+      <c r="L124" s="117"/>
       <c r="M124" s="19"/>
       <c r="N124" s="19"/>
       <c r="O124" s="19"/>
@@ -24476,26 +24505,26 @@
       <c r="AE124" s="19"/>
     </row>
     <row r="125" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A125" s="131"/>
-      <c r="B125" s="131"/>
-      <c r="C125" s="131"/>
-      <c r="D125" s="113" t="s">
+      <c r="A125" s="144"/>
+      <c r="B125" s="144"/>
+      <c r="C125" s="144"/>
+      <c r="D125" s="112" t="s">
         <v>605</v>
       </c>
-      <c r="E125" s="113" t="s">
+      <c r="E125" s="112" t="s">
         <v>606</v>
       </c>
-      <c r="F125" s="114" t="s">
+      <c r="F125" s="113" t="s">
         <v>607</v>
       </c>
-      <c r="G125" s="115" t="s">
+      <c r="G125" s="114" t="s">
         <v>608</v>
       </c>
-      <c r="H125" s="115"/>
-      <c r="I125" s="116"/>
-      <c r="J125" s="117"/>
-      <c r="K125" s="116"/>
-      <c r="L125" s="118"/>
+      <c r="H125" s="114"/>
+      <c r="I125" s="115"/>
+      <c r="J125" s="116"/>
+      <c r="K125" s="115"/>
+      <c r="L125" s="117"/>
       <c r="M125" s="19"/>
       <c r="N125" s="19"/>
       <c r="O125" s="19"/>
@@ -24517,26 +24546,26 @@
       <c r="AE125" s="19"/>
     </row>
     <row r="126" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A126" s="131"/>
-      <c r="B126" s="131"/>
-      <c r="C126" s="131"/>
-      <c r="D126" s="113" t="s">
+      <c r="A126" s="144"/>
+      <c r="B126" s="144"/>
+      <c r="C126" s="144"/>
+      <c r="D126" s="112" t="s">
         <v>609</v>
       </c>
-      <c r="E126" s="113" t="s">
+      <c r="E126" s="112" t="s">
         <v>610</v>
       </c>
-      <c r="F126" s="114" t="s">
+      <c r="F126" s="113" t="s">
         <v>611</v>
       </c>
-      <c r="G126" s="115" t="s">
+      <c r="G126" s="114" t="s">
         <v>612</v>
       </c>
-      <c r="H126" s="115"/>
-      <c r="I126" s="116"/>
-      <c r="J126" s="117"/>
-      <c r="K126" s="116"/>
-      <c r="L126" s="118"/>
+      <c r="H126" s="114"/>
+      <c r="I126" s="115"/>
+      <c r="J126" s="116"/>
+      <c r="K126" s="115"/>
+      <c r="L126" s="117"/>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="19"/>
@@ -24558,26 +24587,26 @@
       <c r="AE126" s="19"/>
     </row>
     <row r="127" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A127" s="131"/>
-      <c r="B127" s="131"/>
-      <c r="C127" s="131"/>
-      <c r="D127" s="113" t="s">
+      <c r="A127" s="144"/>
+      <c r="B127" s="144"/>
+      <c r="C127" s="144"/>
+      <c r="D127" s="112" t="s">
         <v>613</v>
       </c>
-      <c r="E127" s="113" t="s">
+      <c r="E127" s="112" t="s">
         <v>614</v>
       </c>
-      <c r="F127" s="114" t="s">
+      <c r="F127" s="113" t="s">
         <v>615</v>
       </c>
-      <c r="G127" s="115" t="s">
+      <c r="G127" s="114" t="s">
         <v>616</v>
       </c>
-      <c r="H127" s="115"/>
-      <c r="I127" s="116"/>
-      <c r="J127" s="117"/>
-      <c r="K127" s="116"/>
-      <c r="L127" s="118"/>
+      <c r="H127" s="114"/>
+      <c r="I127" s="115"/>
+      <c r="J127" s="116"/>
+      <c r="K127" s="115"/>
+      <c r="L127" s="117"/>
       <c r="M127" s="19"/>
       <c r="N127" s="19"/>
       <c r="O127" s="19"/>
@@ -24599,26 +24628,26 @@
       <c r="AE127" s="19"/>
     </row>
     <row r="128" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A128" s="131"/>
-      <c r="B128" s="131"/>
-      <c r="C128" s="131"/>
-      <c r="D128" s="113" t="s">
+      <c r="A128" s="144"/>
+      <c r="B128" s="144"/>
+      <c r="C128" s="144"/>
+      <c r="D128" s="112" t="s">
         <v>617</v>
       </c>
-      <c r="E128" s="113" t="s">
+      <c r="E128" s="112" t="s">
         <v>618</v>
       </c>
-      <c r="F128" s="114" t="s">
+      <c r="F128" s="113" t="s">
         <v>619</v>
       </c>
-      <c r="G128" s="115" t="s">
+      <c r="G128" s="114" t="s">
         <v>620</v>
       </c>
-      <c r="H128" s="115"/>
-      <c r="I128" s="116"/>
-      <c r="J128" s="117"/>
-      <c r="K128" s="116"/>
-      <c r="L128" s="118"/>
+      <c r="H128" s="114"/>
+      <c r="I128" s="115"/>
+      <c r="J128" s="116"/>
+      <c r="K128" s="115"/>
+      <c r="L128" s="117"/>
       <c r="M128" s="19"/>
       <c r="N128" s="19"/>
       <c r="O128" s="19"/>
@@ -24640,26 +24669,26 @@
       <c r="AE128" s="19"/>
     </row>
     <row r="129" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A129" s="131"/>
-      <c r="B129" s="131"/>
-      <c r="C129" s="131"/>
-      <c r="D129" s="113" t="s">
+      <c r="A129" s="144"/>
+      <c r="B129" s="144"/>
+      <c r="C129" s="144"/>
+      <c r="D129" s="112" t="s">
         <v>621</v>
       </c>
-      <c r="E129" s="113" t="s">
+      <c r="E129" s="112" t="s">
         <v>622</v>
       </c>
-      <c r="F129" s="114" t="s">
+      <c r="F129" s="113" t="s">
         <v>623</v>
       </c>
-      <c r="G129" s="115" t="s">
+      <c r="G129" s="114" t="s">
         <v>624</v>
       </c>
-      <c r="H129" s="115"/>
-      <c r="I129" s="116"/>
-      <c r="J129" s="117"/>
-      <c r="K129" s="116"/>
-      <c r="L129" s="118"/>
+      <c r="H129" s="114"/>
+      <c r="I129" s="115"/>
+      <c r="J129" s="116"/>
+      <c r="K129" s="115"/>
+      <c r="L129" s="117"/>
       <c r="M129" s="19"/>
       <c r="N129" s="19"/>
       <c r="O129" s="19"/>
@@ -24681,26 +24710,26 @@
       <c r="AE129" s="19"/>
     </row>
     <row r="130" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A130" s="131"/>
-      <c r="B130" s="131"/>
-      <c r="C130" s="131"/>
-      <c r="D130" s="113" t="s">
+      <c r="A130" s="144"/>
+      <c r="B130" s="144"/>
+      <c r="C130" s="144"/>
+      <c r="D130" s="112" t="s">
         <v>625</v>
       </c>
-      <c r="E130" s="113" t="s">
+      <c r="E130" s="112" t="s">
         <v>626</v>
       </c>
-      <c r="F130" s="114" t="s">
+      <c r="F130" s="113" t="s">
         <v>627</v>
       </c>
-      <c r="G130" s="115" t="s">
+      <c r="G130" s="114" t="s">
         <v>628</v>
       </c>
-      <c r="H130" s="115"/>
-      <c r="I130" s="116"/>
-      <c r="J130" s="117"/>
-      <c r="K130" s="116"/>
-      <c r="L130" s="118"/>
+      <c r="H130" s="114"/>
+      <c r="I130" s="115"/>
+      <c r="J130" s="116"/>
+      <c r="K130" s="115"/>
+      <c r="L130" s="117"/>
       <c r="M130" s="19"/>
       <c r="N130" s="19"/>
       <c r="O130" s="19"/>
@@ -24722,26 +24751,26 @@
       <c r="AE130" s="19"/>
     </row>
     <row r="131" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A131" s="131"/>
-      <c r="B131" s="131"/>
-      <c r="C131" s="131"/>
-      <c r="D131" s="113" t="s">
+      <c r="A131" s="144"/>
+      <c r="B131" s="144"/>
+      <c r="C131" s="144"/>
+      <c r="D131" s="112" t="s">
         <v>629</v>
       </c>
-      <c r="E131" s="113" t="s">
+      <c r="E131" s="112" t="s">
         <v>630</v>
       </c>
-      <c r="F131" s="114" t="s">
+      <c r="F131" s="113" t="s">
         <v>631</v>
       </c>
-      <c r="G131" s="115" t="s">
+      <c r="G131" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="H131" s="115"/>
-      <c r="I131" s="116"/>
-      <c r="J131" s="117"/>
-      <c r="K131" s="116"/>
-      <c r="L131" s="118"/>
+      <c r="H131" s="114"/>
+      <c r="I131" s="115"/>
+      <c r="J131" s="116"/>
+      <c r="K131" s="115"/>
+      <c r="L131" s="117"/>
       <c r="M131" s="19"/>
       <c r="N131" s="19"/>
       <c r="O131" s="19"/>
@@ -24763,26 +24792,26 @@
       <c r="AE131" s="19"/>
     </row>
     <row r="132" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A132" s="131"/>
-      <c r="B132" s="131"/>
-      <c r="C132" s="131"/>
-      <c r="D132" s="113" t="s">
+      <c r="A132" s="144"/>
+      <c r="B132" s="144"/>
+      <c r="C132" s="144"/>
+      <c r="D132" s="112" t="s">
         <v>632</v>
       </c>
-      <c r="E132" s="113" t="s">
+      <c r="E132" s="112" t="s">
         <v>633</v>
       </c>
-      <c r="F132" s="114" t="s">
+      <c r="F132" s="113" t="s">
         <v>634</v>
       </c>
-      <c r="G132" s="115" t="s">
+      <c r="G132" s="114" t="s">
         <v>635</v>
       </c>
-      <c r="H132" s="115"/>
-      <c r="I132" s="116"/>
-      <c r="J132" s="117"/>
-      <c r="K132" s="116"/>
-      <c r="L132" s="118"/>
+      <c r="H132" s="114"/>
+      <c r="I132" s="115"/>
+      <c r="J132" s="116"/>
+      <c r="K132" s="115"/>
+      <c r="L132" s="117"/>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
       <c r="O132" s="19"/>
@@ -24804,26 +24833,26 @@
       <c r="AE132" s="19"/>
     </row>
     <row r="133" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A133" s="131"/>
-      <c r="B133" s="131"/>
-      <c r="C133" s="131"/>
-      <c r="D133" s="113" t="s">
+      <c r="A133" s="144"/>
+      <c r="B133" s="144"/>
+      <c r="C133" s="144"/>
+      <c r="D133" s="112" t="s">
         <v>636</v>
       </c>
-      <c r="E133" s="113" t="s">
+      <c r="E133" s="112" t="s">
         <v>637</v>
       </c>
-      <c r="F133" s="114" t="s">
+      <c r="F133" s="113" t="s">
         <v>638</v>
       </c>
-      <c r="G133" s="115" t="s">
+      <c r="G133" s="114" t="s">
         <v>639</v>
       </c>
-      <c r="H133" s="115"/>
-      <c r="I133" s="116"/>
-      <c r="J133" s="117"/>
-      <c r="K133" s="116"/>
-      <c r="L133" s="118"/>
+      <c r="H133" s="114"/>
+      <c r="I133" s="115"/>
+      <c r="J133" s="116"/>
+      <c r="K133" s="115"/>
+      <c r="L133" s="117"/>
       <c r="M133" s="19"/>
       <c r="N133" s="19"/>
       <c r="O133" s="19"/>
@@ -24845,26 +24874,26 @@
       <c r="AE133" s="19"/>
     </row>
     <row r="134" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A134" s="131"/>
-      <c r="B134" s="131"/>
-      <c r="C134" s="131"/>
-      <c r="D134" s="113" t="s">
+      <c r="A134" s="144"/>
+      <c r="B134" s="144"/>
+      <c r="C134" s="144"/>
+      <c r="D134" s="112" t="s">
         <v>640</v>
       </c>
-      <c r="E134" s="113" t="s">
+      <c r="E134" s="112" t="s">
         <v>641</v>
       </c>
-      <c r="F134" s="114" t="s">
+      <c r="F134" s="113" t="s">
         <v>642</v>
       </c>
-      <c r="G134" s="115" t="s">
+      <c r="G134" s="114" t="s">
         <v>643</v>
       </c>
-      <c r="H134" s="115"/>
-      <c r="I134" s="116"/>
-      <c r="J134" s="117"/>
-      <c r="K134" s="116"/>
-      <c r="L134" s="118"/>
+      <c r="H134" s="114"/>
+      <c r="I134" s="115"/>
+      <c r="J134" s="116"/>
+      <c r="K134" s="115"/>
+      <c r="L134" s="117"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -24886,26 +24915,26 @@
       <c r="AE134" s="19"/>
     </row>
     <row r="135" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A135" s="131"/>
-      <c r="B135" s="131"/>
-      <c r="C135" s="131"/>
-      <c r="D135" s="113" t="s">
+      <c r="A135" s="144"/>
+      <c r="B135" s="144"/>
+      <c r="C135" s="144"/>
+      <c r="D135" s="112" t="s">
         <v>644</v>
       </c>
-      <c r="E135" s="113" t="s">
+      <c r="E135" s="112" t="s">
         <v>645</v>
       </c>
-      <c r="F135" s="114" t="s">
+      <c r="F135" s="113" t="s">
         <v>646</v>
       </c>
-      <c r="G135" s="115" t="s">
+      <c r="G135" s="114" t="s">
         <v>647</v>
       </c>
-      <c r="H135" s="115"/>
-      <c r="I135" s="116"/>
-      <c r="J135" s="117"/>
-      <c r="K135" s="116"/>
-      <c r="L135" s="118"/>
+      <c r="H135" s="114"/>
+      <c r="I135" s="115"/>
+      <c r="J135" s="116"/>
+      <c r="K135" s="115"/>
+      <c r="L135" s="117"/>
       <c r="M135" s="19"/>
       <c r="N135" s="19"/>
       <c r="O135" s="19"/>
@@ -24927,26 +24956,26 @@
       <c r="AE135" s="19"/>
     </row>
     <row r="136" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A136" s="131"/>
-      <c r="B136" s="131"/>
-      <c r="C136" s="131"/>
-      <c r="D136" s="113" t="s">
+      <c r="A136" s="144"/>
+      <c r="B136" s="144"/>
+      <c r="C136" s="144"/>
+      <c r="D136" s="112" t="s">
         <v>648</v>
       </c>
-      <c r="E136" s="113" t="s">
+      <c r="E136" s="112" t="s">
         <v>649</v>
       </c>
-      <c r="F136" s="114" t="s">
+      <c r="F136" s="113" t="s">
         <v>650</v>
       </c>
-      <c r="G136" s="115" t="s">
+      <c r="G136" s="114" t="s">
         <v>651</v>
       </c>
-      <c r="H136" s="115"/>
-      <c r="I136" s="116"/>
-      <c r="J136" s="117"/>
-      <c r="K136" s="116"/>
-      <c r="L136" s="118"/>
+      <c r="H136" s="114"/>
+      <c r="I136" s="115"/>
+      <c r="J136" s="116"/>
+      <c r="K136" s="115"/>
+      <c r="L136" s="117"/>
       <c r="M136" s="19"/>
       <c r="N136" s="19"/>
       <c r="O136" s="19"/>
@@ -24968,26 +24997,26 @@
       <c r="AE136" s="19"/>
     </row>
     <row r="137" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A137" s="131"/>
-      <c r="B137" s="131"/>
-      <c r="C137" s="131"/>
-      <c r="D137" s="113" t="s">
+      <c r="A137" s="144"/>
+      <c r="B137" s="144"/>
+      <c r="C137" s="144"/>
+      <c r="D137" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="E137" s="113" t="s">
+      <c r="E137" s="112" t="s">
         <v>653</v>
       </c>
-      <c r="F137" s="114" t="s">
+      <c r="F137" s="113" t="s">
         <v>654</v>
       </c>
-      <c r="G137" s="115" t="s">
+      <c r="G137" s="114" t="s">
         <v>655</v>
       </c>
-      <c r="H137" s="115"/>
-      <c r="I137" s="116"/>
-      <c r="J137" s="117"/>
-      <c r="K137" s="116"/>
-      <c r="L137" s="118"/>
+      <c r="H137" s="114"/>
+      <c r="I137" s="115"/>
+      <c r="J137" s="116"/>
+      <c r="K137" s="115"/>
+      <c r="L137" s="117"/>
       <c r="M137" s="19"/>
       <c r="N137" s="19"/>
       <c r="O137" s="19"/>
@@ -25009,26 +25038,26 @@
       <c r="AE137" s="19"/>
     </row>
     <row r="138" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A138" s="131"/>
-      <c r="B138" s="131"/>
-      <c r="C138" s="131"/>
-      <c r="D138" s="113" t="s">
+      <c r="A138" s="144"/>
+      <c r="B138" s="144"/>
+      <c r="C138" s="144"/>
+      <c r="D138" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="E138" s="113" t="s">
+      <c r="E138" s="112" t="s">
         <v>657</v>
       </c>
-      <c r="F138" s="114" t="s">
+      <c r="F138" s="113" t="s">
         <v>658</v>
       </c>
-      <c r="G138" s="115" t="s">
+      <c r="G138" s="114" t="s">
         <v>659</v>
       </c>
-      <c r="H138" s="115"/>
-      <c r="I138" s="116"/>
-      <c r="J138" s="117"/>
-      <c r="K138" s="116"/>
-      <c r="L138" s="118"/>
+      <c r="H138" s="114"/>
+      <c r="I138" s="115"/>
+      <c r="J138" s="116"/>
+      <c r="K138" s="115"/>
+      <c r="L138" s="117"/>
       <c r="M138" s="19"/>
       <c r="N138" s="19"/>
       <c r="O138" s="19"/>
@@ -25050,26 +25079,26 @@
       <c r="AE138" s="19"/>
     </row>
     <row r="139" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A139" s="131"/>
-      <c r="B139" s="131"/>
-      <c r="C139" s="131"/>
-      <c r="D139" s="113" t="s">
+      <c r="A139" s="144"/>
+      <c r="B139" s="144"/>
+      <c r="C139" s="144"/>
+      <c r="D139" s="112" t="s">
         <v>660</v>
       </c>
-      <c r="E139" s="113" t="s">
+      <c r="E139" s="112" t="s">
         <v>661</v>
       </c>
-      <c r="F139" s="114" t="s">
+      <c r="F139" s="113" t="s">
         <v>662</v>
       </c>
-      <c r="G139" s="115" t="s">
+      <c r="G139" s="114" t="s">
         <v>663</v>
       </c>
-      <c r="H139" s="115"/>
-      <c r="I139" s="116"/>
-      <c r="J139" s="117"/>
-      <c r="K139" s="116"/>
-      <c r="L139" s="118"/>
+      <c r="H139" s="114"/>
+      <c r="I139" s="115"/>
+      <c r="J139" s="116"/>
+      <c r="K139" s="115"/>
+      <c r="L139" s="117"/>
       <c r="M139" s="19"/>
       <c r="N139" s="19"/>
       <c r="O139" s="19"/>
@@ -25091,26 +25120,26 @@
       <c r="AE139" s="19"/>
     </row>
     <row r="140" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A140" s="131"/>
-      <c r="B140" s="131"/>
-      <c r="C140" s="131"/>
-      <c r="D140" s="113" t="s">
+      <c r="A140" s="144"/>
+      <c r="B140" s="144"/>
+      <c r="C140" s="144"/>
+      <c r="D140" s="112" t="s">
         <v>664</v>
       </c>
-      <c r="E140" s="113" t="s">
+      <c r="E140" s="112" t="s">
         <v>665</v>
       </c>
-      <c r="F140" s="114" t="s">
+      <c r="F140" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="G140" s="115" t="s">
+      <c r="G140" s="114" t="s">
         <v>667</v>
       </c>
-      <c r="H140" s="115"/>
-      <c r="I140" s="116"/>
-      <c r="J140" s="117"/>
-      <c r="K140" s="116"/>
-      <c r="L140" s="118"/>
+      <c r="H140" s="114"/>
+      <c r="I140" s="115"/>
+      <c r="J140" s="116"/>
+      <c r="K140" s="115"/>
+      <c r="L140" s="117"/>
       <c r="M140" s="19"/>
       <c r="N140" s="19"/>
       <c r="O140" s="19"/>
@@ -25132,26 +25161,26 @@
       <c r="AE140" s="19"/>
     </row>
     <row r="141" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A141" s="131"/>
-      <c r="B141" s="131"/>
-      <c r="C141" s="131"/>
-      <c r="D141" s="113" t="s">
+      <c r="A141" s="144"/>
+      <c r="B141" s="144"/>
+      <c r="C141" s="144"/>
+      <c r="D141" s="112" t="s">
         <v>668</v>
       </c>
-      <c r="E141" s="113" t="s">
+      <c r="E141" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="F141" s="114" t="s">
+      <c r="F141" s="113" t="s">
         <v>670</v>
       </c>
-      <c r="G141" s="115" t="s">
+      <c r="G141" s="114" t="s">
         <v>671</v>
       </c>
-      <c r="H141" s="115"/>
-      <c r="I141" s="116"/>
-      <c r="J141" s="117"/>
-      <c r="K141" s="116"/>
-      <c r="L141" s="118"/>
+      <c r="H141" s="114"/>
+      <c r="I141" s="115"/>
+      <c r="J141" s="116"/>
+      <c r="K141" s="115"/>
+      <c r="L141" s="117"/>
       <c r="M141" s="19"/>
       <c r="N141" s="19"/>
       <c r="O141" s="19"/>
@@ -25173,26 +25202,26 @@
       <c r="AE141" s="19"/>
     </row>
     <row r="142" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A142" s="131"/>
-      <c r="B142" s="131"/>
-      <c r="C142" s="131"/>
-      <c r="D142" s="113" t="s">
+      <c r="A142" s="144"/>
+      <c r="B142" s="144"/>
+      <c r="C142" s="144"/>
+      <c r="D142" s="112" t="s">
         <v>672</v>
       </c>
-      <c r="E142" s="113" t="s">
+      <c r="E142" s="112" t="s">
         <v>673</v>
       </c>
-      <c r="F142" s="114" t="s">
+      <c r="F142" s="113" t="s">
         <v>674</v>
       </c>
-      <c r="G142" s="115" t="s">
+      <c r="G142" s="114" t="s">
         <v>675</v>
       </c>
-      <c r="H142" s="115"/>
-      <c r="I142" s="116"/>
-      <c r="J142" s="117"/>
-      <c r="K142" s="116"/>
-      <c r="L142" s="118"/>
+      <c r="H142" s="114"/>
+      <c r="I142" s="115"/>
+      <c r="J142" s="116"/>
+      <c r="K142" s="115"/>
+      <c r="L142" s="117"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -25214,26 +25243,26 @@
       <c r="AE142" s="19"/>
     </row>
     <row r="143" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A143" s="131"/>
-      <c r="B143" s="131"/>
-      <c r="C143" s="131"/>
-      <c r="D143" s="113" t="s">
+      <c r="A143" s="144"/>
+      <c r="B143" s="144"/>
+      <c r="C143" s="144"/>
+      <c r="D143" s="112" t="s">
         <v>676</v>
       </c>
-      <c r="E143" s="113" t="s">
+      <c r="E143" s="112" t="s">
         <v>677</v>
       </c>
-      <c r="F143" s="114" t="s">
+      <c r="F143" s="113" t="s">
         <v>678</v>
       </c>
-      <c r="G143" s="115" t="s">
+      <c r="G143" s="114" t="s">
         <v>679</v>
       </c>
-      <c r="H143" s="115"/>
-      <c r="I143" s="116"/>
-      <c r="J143" s="117"/>
-      <c r="K143" s="116"/>
-      <c r="L143" s="118"/>
+      <c r="H143" s="114"/>
+      <c r="I143" s="115"/>
+      <c r="J143" s="116"/>
+      <c r="K143" s="115"/>
+      <c r="L143" s="117"/>
       <c r="M143" s="19"/>
       <c r="N143" s="19"/>
       <c r="O143" s="19"/>
@@ -25255,26 +25284,26 @@
       <c r="AE143" s="19"/>
     </row>
     <row r="144" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A144" s="131"/>
-      <c r="B144" s="131"/>
-      <c r="C144" s="131"/>
-      <c r="D144" s="113" t="s">
+      <c r="A144" s="144"/>
+      <c r="B144" s="144"/>
+      <c r="C144" s="144"/>
+      <c r="D144" s="112" t="s">
         <v>680</v>
       </c>
-      <c r="E144" s="113" t="s">
+      <c r="E144" s="112" t="s">
         <v>681</v>
       </c>
-      <c r="F144" s="114" t="s">
+      <c r="F144" s="113" t="s">
         <v>682</v>
       </c>
-      <c r="G144" s="115" t="s">
+      <c r="G144" s="114" t="s">
         <v>683</v>
       </c>
-      <c r="H144" s="115"/>
-      <c r="I144" s="116"/>
-      <c r="J144" s="117"/>
-      <c r="K144" s="116"/>
-      <c r="L144" s="118"/>
+      <c r="H144" s="114"/>
+      <c r="I144" s="115"/>
+      <c r="J144" s="116"/>
+      <c r="K144" s="115"/>
+      <c r="L144" s="117"/>
       <c r="M144" s="19"/>
       <c r="N144" s="19"/>
       <c r="O144" s="19"/>
@@ -25296,26 +25325,26 @@
       <c r="AE144" s="19"/>
     </row>
     <row r="145" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A145" s="131"/>
-      <c r="B145" s="131"/>
-      <c r="C145" s="131"/>
-      <c r="D145" s="113" t="s">
+      <c r="A145" s="144"/>
+      <c r="B145" s="144"/>
+      <c r="C145" s="144"/>
+      <c r="D145" s="112" t="s">
         <v>684</v>
       </c>
-      <c r="E145" s="113" t="s">
+      <c r="E145" s="112" t="s">
         <v>685</v>
       </c>
-      <c r="F145" s="114" t="s">
+      <c r="F145" s="113" t="s">
         <v>686</v>
       </c>
-      <c r="G145" s="115" t="s">
+      <c r="G145" s="114" t="s">
         <v>687</v>
       </c>
-      <c r="H145" s="115"/>
-      <c r="I145" s="116"/>
-      <c r="J145" s="117"/>
-      <c r="K145" s="116"/>
-      <c r="L145" s="118"/>
+      <c r="H145" s="114"/>
+      <c r="I145" s="115"/>
+      <c r="J145" s="116"/>
+      <c r="K145" s="115"/>
+      <c r="L145" s="117"/>
       <c r="M145" s="19"/>
       <c r="N145" s="19"/>
       <c r="O145" s="19"/>
@@ -25337,26 +25366,26 @@
       <c r="AE145" s="19"/>
     </row>
     <row r="146" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A146" s="131"/>
-      <c r="B146" s="131"/>
-      <c r="C146" s="131"/>
-      <c r="D146" s="113" t="s">
+      <c r="A146" s="144"/>
+      <c r="B146" s="144"/>
+      <c r="C146" s="144"/>
+      <c r="D146" s="112" t="s">
         <v>688</v>
       </c>
-      <c r="E146" s="113" t="s">
+      <c r="E146" s="112" t="s">
         <v>689</v>
       </c>
-      <c r="F146" s="114" t="s">
+      <c r="F146" s="113" t="s">
         <v>690</v>
       </c>
-      <c r="G146" s="115" t="s">
+      <c r="G146" s="114" t="s">
         <v>691</v>
       </c>
-      <c r="H146" s="115"/>
-      <c r="I146" s="116"/>
-      <c r="J146" s="117"/>
-      <c r="K146" s="116"/>
-      <c r="L146" s="118"/>
+      <c r="H146" s="114"/>
+      <c r="I146" s="115"/>
+      <c r="J146" s="116"/>
+      <c r="K146" s="115"/>
+      <c r="L146" s="117"/>
       <c r="M146" s="19"/>
       <c r="N146" s="19"/>
       <c r="O146" s="19"/>
@@ -25378,26 +25407,26 @@
       <c r="AE146" s="19"/>
     </row>
     <row r="147" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A147" s="131"/>
-      <c r="B147" s="131"/>
-      <c r="C147" s="131"/>
-      <c r="D147" s="113" t="s">
+      <c r="A147" s="144"/>
+      <c r="B147" s="144"/>
+      <c r="C147" s="144"/>
+      <c r="D147" s="112" t="s">
         <v>692</v>
       </c>
-      <c r="E147" s="113" t="s">
+      <c r="E147" s="112" t="s">
         <v>693</v>
       </c>
-      <c r="F147" s="114" t="s">
+      <c r="F147" s="113" t="s">
         <v>694</v>
       </c>
-      <c r="G147" s="115" t="s">
+      <c r="G147" s="114" t="s">
         <v>695</v>
       </c>
-      <c r="H147" s="115"/>
-      <c r="I147" s="116"/>
-      <c r="J147" s="117"/>
-      <c r="K147" s="116"/>
-      <c r="L147" s="118"/>
+      <c r="H147" s="114"/>
+      <c r="I147" s="115"/>
+      <c r="J147" s="116"/>
+      <c r="K147" s="115"/>
+      <c r="L147" s="117"/>
       <c r="M147" s="19"/>
       <c r="N147" s="19"/>
       <c r="O147" s="19"/>
@@ -25419,26 +25448,26 @@
       <c r="AE147" s="19"/>
     </row>
     <row r="148" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A148" s="131"/>
-      <c r="B148" s="131"/>
-      <c r="C148" s="131"/>
-      <c r="D148" s="113" t="s">
+      <c r="A148" s="144"/>
+      <c r="B148" s="144"/>
+      <c r="C148" s="144"/>
+      <c r="D148" s="112" t="s">
         <v>696</v>
       </c>
-      <c r="E148" s="113" t="s">
+      <c r="E148" s="112" t="s">
         <v>697</v>
       </c>
-      <c r="F148" s="114" t="s">
+      <c r="F148" s="113" t="s">
         <v>698</v>
       </c>
-      <c r="G148" s="115" t="s">
+      <c r="G148" s="114" t="s">
         <v>699</v>
       </c>
-      <c r="H148" s="115"/>
-      <c r="I148" s="116"/>
-      <c r="J148" s="117"/>
-      <c r="K148" s="116"/>
-      <c r="L148" s="118"/>
+      <c r="H148" s="114"/>
+      <c r="I148" s="115"/>
+      <c r="J148" s="116"/>
+      <c r="K148" s="115"/>
+      <c r="L148" s="117"/>
       <c r="M148" s="19"/>
       <c r="N148" s="19"/>
       <c r="O148" s="19"/>
@@ -25460,26 +25489,26 @@
       <c r="AE148" s="19"/>
     </row>
     <row r="149" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A149" s="131"/>
-      <c r="B149" s="131"/>
-      <c r="C149" s="131"/>
-      <c r="D149" s="113" t="s">
+      <c r="A149" s="144"/>
+      <c r="B149" s="144"/>
+      <c r="C149" s="144"/>
+      <c r="D149" s="112" t="s">
         <v>700</v>
       </c>
-      <c r="E149" s="113" t="s">
+      <c r="E149" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="F149" s="114" t="s">
+      <c r="F149" s="113" t="s">
         <v>702</v>
       </c>
-      <c r="G149" s="115" t="s">
+      <c r="G149" s="114" t="s">
         <v>703</v>
       </c>
-      <c r="H149" s="115"/>
-      <c r="I149" s="116"/>
-      <c r="J149" s="117"/>
-      <c r="K149" s="116"/>
-      <c r="L149" s="118"/>
+      <c r="H149" s="114"/>
+      <c r="I149" s="115"/>
+      <c r="J149" s="116"/>
+      <c r="K149" s="115"/>
+      <c r="L149" s="117"/>
       <c r="M149" s="19"/>
       <c r="N149" s="19"/>
       <c r="O149" s="19"/>
@@ -25501,26 +25530,26 @@
       <c r="AE149" s="19"/>
     </row>
     <row r="150" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A150" s="131"/>
-      <c r="B150" s="131"/>
-      <c r="C150" s="131"/>
-      <c r="D150" s="113" t="s">
+      <c r="A150" s="144"/>
+      <c r="B150" s="144"/>
+      <c r="C150" s="144"/>
+      <c r="D150" s="112" t="s">
         <v>704</v>
       </c>
-      <c r="E150" s="113" t="s">
+      <c r="E150" s="112" t="s">
         <v>705</v>
       </c>
-      <c r="F150" s="114" t="s">
+      <c r="F150" s="113" t="s">
         <v>706</v>
       </c>
-      <c r="G150" s="115" t="s">
+      <c r="G150" s="114" t="s">
         <v>707</v>
       </c>
-      <c r="H150" s="115"/>
-      <c r="I150" s="116"/>
-      <c r="J150" s="117"/>
-      <c r="K150" s="116"/>
-      <c r="L150" s="118"/>
+      <c r="H150" s="114"/>
+      <c r="I150" s="115"/>
+      <c r="J150" s="116"/>
+      <c r="K150" s="115"/>
+      <c r="L150" s="117"/>
       <c r="M150" s="19"/>
       <c r="N150" s="19"/>
       <c r="O150" s="19"/>
@@ -25542,26 +25571,26 @@
       <c r="AE150" s="19"/>
     </row>
     <row r="151" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A151" s="131"/>
-      <c r="B151" s="131"/>
-      <c r="C151" s="131"/>
-      <c r="D151" s="113" t="s">
+      <c r="A151" s="144"/>
+      <c r="B151" s="144"/>
+      <c r="C151" s="144"/>
+      <c r="D151" s="112" t="s">
         <v>708</v>
       </c>
-      <c r="E151" s="113" t="s">
+      <c r="E151" s="112" t="s">
         <v>709</v>
       </c>
-      <c r="F151" s="114" t="s">
+      <c r="F151" s="113" t="s">
         <v>710</v>
       </c>
-      <c r="G151" s="115" t="s">
+      <c r="G151" s="114" t="s">
         <v>711</v>
       </c>
-      <c r="H151" s="115"/>
-      <c r="I151" s="116"/>
-      <c r="J151" s="117"/>
-      <c r="K151" s="116"/>
-      <c r="L151" s="118"/>
+      <c r="H151" s="114"/>
+      <c r="I151" s="115"/>
+      <c r="J151" s="116"/>
+      <c r="K151" s="115"/>
+      <c r="L151" s="117"/>
       <c r="M151" s="19"/>
       <c r="N151" s="19"/>
       <c r="O151" s="19"/>
@@ -25583,26 +25612,26 @@
       <c r="AE151" s="19"/>
     </row>
     <row r="152" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A152" s="131"/>
-      <c r="B152" s="131"/>
-      <c r="C152" s="131"/>
-      <c r="D152" s="113" t="s">
+      <c r="A152" s="144"/>
+      <c r="B152" s="144"/>
+      <c r="C152" s="144"/>
+      <c r="D152" s="112" t="s">
         <v>712</v>
       </c>
-      <c r="E152" s="113" t="s">
+      <c r="E152" s="112" t="s">
         <v>713</v>
       </c>
-      <c r="F152" s="114" t="s">
+      <c r="F152" s="113" t="s">
         <v>714</v>
       </c>
-      <c r="G152" s="115" t="s">
+      <c r="G152" s="114" t="s">
         <v>715</v>
       </c>
-      <c r="H152" s="115"/>
-      <c r="I152" s="116"/>
-      <c r="J152" s="117"/>
-      <c r="K152" s="116"/>
-      <c r="L152" s="118"/>
+      <c r="H152" s="114"/>
+      <c r="I152" s="115"/>
+      <c r="J152" s="116"/>
+      <c r="K152" s="115"/>
+      <c r="L152" s="117"/>
       <c r="M152" s="19"/>
       <c r="N152" s="19"/>
       <c r="O152" s="19"/>
@@ -25624,26 +25653,26 @@
       <c r="AE152" s="19"/>
     </row>
     <row r="153" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A153" s="131"/>
-      <c r="B153" s="131"/>
-      <c r="C153" s="131"/>
-      <c r="D153" s="113" t="s">
+      <c r="A153" s="144"/>
+      <c r="B153" s="144"/>
+      <c r="C153" s="144"/>
+      <c r="D153" s="112" t="s">
         <v>716</v>
       </c>
-      <c r="E153" s="113" t="s">
+      <c r="E153" s="112" t="s">
         <v>717</v>
       </c>
-      <c r="F153" s="114" t="s">
+      <c r="F153" s="113" t="s">
         <v>718</v>
       </c>
-      <c r="G153" s="115" t="s">
+      <c r="G153" s="114" t="s">
         <v>719</v>
       </c>
-      <c r="H153" s="115"/>
-      <c r="I153" s="116"/>
-      <c r="J153" s="117"/>
-      <c r="K153" s="116"/>
-      <c r="L153" s="118"/>
+      <c r="H153" s="114"/>
+      <c r="I153" s="115"/>
+      <c r="J153" s="116"/>
+      <c r="K153" s="115"/>
+      <c r="L153" s="117"/>
       <c r="M153" s="19"/>
       <c r="N153" s="19"/>
       <c r="O153" s="19"/>
@@ -25665,26 +25694,26 @@
       <c r="AE153" s="19"/>
     </row>
     <row r="154" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A154" s="131"/>
-      <c r="B154" s="131"/>
-      <c r="C154" s="131"/>
-      <c r="D154" s="113" t="s">
+      <c r="A154" s="144"/>
+      <c r="B154" s="144"/>
+      <c r="C154" s="144"/>
+      <c r="D154" s="112" t="s">
         <v>720</v>
       </c>
-      <c r="E154" s="113" t="s">
+      <c r="E154" s="112" t="s">
         <v>721</v>
       </c>
-      <c r="F154" s="114" t="s">
+      <c r="F154" s="113" t="s">
         <v>722</v>
       </c>
-      <c r="G154" s="115" t="s">
+      <c r="G154" s="114" t="s">
         <v>723</v>
       </c>
-      <c r="H154" s="115"/>
-      <c r="I154" s="116"/>
-      <c r="J154" s="117"/>
-      <c r="K154" s="116"/>
-      <c r="L154" s="118"/>
+      <c r="H154" s="114"/>
+      <c r="I154" s="115"/>
+      <c r="J154" s="116"/>
+      <c r="K154" s="115"/>
+      <c r="L154" s="117"/>
       <c r="M154" s="19"/>
       <c r="N154" s="19"/>
       <c r="O154" s="19"/>
@@ -25706,26 +25735,26 @@
       <c r="AE154" s="19"/>
     </row>
     <row r="155" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A155" s="131"/>
-      <c r="B155" s="131"/>
-      <c r="C155" s="131"/>
-      <c r="D155" s="113" t="s">
+      <c r="A155" s="144"/>
+      <c r="B155" s="144"/>
+      <c r="C155" s="144"/>
+      <c r="D155" s="112" t="s">
         <v>724</v>
       </c>
-      <c r="E155" s="113" t="s">
+      <c r="E155" s="112" t="s">
         <v>725</v>
       </c>
-      <c r="F155" s="114" t="s">
+      <c r="F155" s="113" t="s">
         <v>726</v>
       </c>
-      <c r="G155" s="115" t="s">
+      <c r="G155" s="114" t="s">
         <v>727</v>
       </c>
-      <c r="H155" s="115"/>
-      <c r="I155" s="116"/>
-      <c r="J155" s="117"/>
-      <c r="K155" s="116"/>
-      <c r="L155" s="118"/>
+      <c r="H155" s="114"/>
+      <c r="I155" s="115"/>
+      <c r="J155" s="116"/>
+      <c r="K155" s="115"/>
+      <c r="L155" s="117"/>
       <c r="M155" s="19"/>
       <c r="N155" s="19"/>
       <c r="O155" s="19"/>
@@ -25747,26 +25776,26 @@
       <c r="AE155" s="19"/>
     </row>
     <row r="156" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A156" s="131"/>
-      <c r="B156" s="131"/>
-      <c r="C156" s="131"/>
-      <c r="D156" s="113" t="s">
+      <c r="A156" s="144"/>
+      <c r="B156" s="144"/>
+      <c r="C156" s="144"/>
+      <c r="D156" s="112" t="s">
         <v>728</v>
       </c>
-      <c r="E156" s="113" t="s">
+      <c r="E156" s="112" t="s">
         <v>729</v>
       </c>
-      <c r="F156" s="114" t="s">
+      <c r="F156" s="113" t="s">
         <v>730</v>
       </c>
-      <c r="G156" s="115" t="s">
+      <c r="G156" s="114" t="s">
         <v>731</v>
       </c>
-      <c r="H156" s="115"/>
-      <c r="I156" s="116"/>
-      <c r="J156" s="117"/>
-      <c r="K156" s="116"/>
-      <c r="L156" s="118"/>
+      <c r="H156" s="114"/>
+      <c r="I156" s="115"/>
+      <c r="J156" s="116"/>
+      <c r="K156" s="115"/>
+      <c r="L156" s="117"/>
       <c r="M156" s="19"/>
       <c r="N156" s="19"/>
       <c r="O156" s="19"/>
@@ -25788,26 +25817,26 @@
       <c r="AE156" s="19"/>
     </row>
     <row r="157" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A157" s="131"/>
-      <c r="B157" s="131"/>
-      <c r="C157" s="131"/>
-      <c r="D157" s="113" t="s">
+      <c r="A157" s="144"/>
+      <c r="B157" s="144"/>
+      <c r="C157" s="144"/>
+      <c r="D157" s="112" t="s">
         <v>732</v>
       </c>
-      <c r="E157" s="113" t="s">
+      <c r="E157" s="112" t="s">
         <v>733</v>
       </c>
-      <c r="F157" s="114" t="s">
+      <c r="F157" s="113" t="s">
         <v>734</v>
       </c>
-      <c r="G157" s="115" t="s">
+      <c r="G157" s="114" t="s">
         <v>735</v>
       </c>
-      <c r="H157" s="115"/>
-      <c r="I157" s="116"/>
-      <c r="J157" s="117"/>
-      <c r="K157" s="116"/>
-      <c r="L157" s="118"/>
+      <c r="H157" s="114"/>
+      <c r="I157" s="115"/>
+      <c r="J157" s="116"/>
+      <c r="K157" s="115"/>
+      <c r="L157" s="117"/>
       <c r="M157" s="19"/>
       <c r="N157" s="19"/>
       <c r="O157" s="19"/>
@@ -25829,26 +25858,26 @@
       <c r="AE157" s="19"/>
     </row>
     <row r="158" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A158" s="131"/>
-      <c r="B158" s="131"/>
-      <c r="C158" s="131"/>
-      <c r="D158" s="113" t="s">
+      <c r="A158" s="144"/>
+      <c r="B158" s="144"/>
+      <c r="C158" s="144"/>
+      <c r="D158" s="112" t="s">
         <v>736</v>
       </c>
-      <c r="E158" s="113" t="s">
+      <c r="E158" s="112" t="s">
         <v>737</v>
       </c>
-      <c r="F158" s="114" t="s">
+      <c r="F158" s="113" t="s">
         <v>738</v>
       </c>
-      <c r="G158" s="115" t="s">
+      <c r="G158" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="H158" s="115"/>
-      <c r="I158" s="116"/>
-      <c r="J158" s="117"/>
-      <c r="K158" s="116"/>
-      <c r="L158" s="118"/>
+      <c r="H158" s="114"/>
+      <c r="I158" s="115"/>
+      <c r="J158" s="116"/>
+      <c r="K158" s="115"/>
+      <c r="L158" s="117"/>
       <c r="M158" s="19"/>
       <c r="N158" s="19"/>
       <c r="O158" s="19"/>
@@ -25870,26 +25899,26 @@
       <c r="AE158" s="19"/>
     </row>
     <row r="159" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A159" s="131"/>
-      <c r="B159" s="131"/>
-      <c r="C159" s="131"/>
-      <c r="D159" s="113" t="s">
+      <c r="A159" s="144"/>
+      <c r="B159" s="144"/>
+      <c r="C159" s="144"/>
+      <c r="D159" s="112" t="s">
         <v>739</v>
       </c>
-      <c r="E159" s="113" t="s">
+      <c r="E159" s="112" t="s">
         <v>740</v>
       </c>
-      <c r="F159" s="114" t="s">
+      <c r="F159" s="113" t="s">
         <v>741</v>
       </c>
-      <c r="G159" s="115" t="s">
+      <c r="G159" s="114" t="s">
         <v>742</v>
       </c>
-      <c r="H159" s="115"/>
-      <c r="I159" s="116"/>
-      <c r="J159" s="117"/>
-      <c r="K159" s="116"/>
-      <c r="L159" s="118"/>
+      <c r="H159" s="114"/>
+      <c r="I159" s="115"/>
+      <c r="J159" s="116"/>
+      <c r="K159" s="115"/>
+      <c r="L159" s="117"/>
       <c r="M159" s="19"/>
       <c r="N159" s="19"/>
       <c r="O159" s="19"/>
@@ -25911,26 +25940,26 @@
       <c r="AE159" s="19"/>
     </row>
     <row r="160" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A160" s="131"/>
-      <c r="B160" s="131"/>
-      <c r="C160" s="131"/>
-      <c r="D160" s="113" t="s">
+      <c r="A160" s="144"/>
+      <c r="B160" s="144"/>
+      <c r="C160" s="144"/>
+      <c r="D160" s="112" t="s">
         <v>743</v>
       </c>
-      <c r="E160" s="113" t="s">
+      <c r="E160" s="112" t="s">
         <v>744</v>
       </c>
-      <c r="F160" s="114" t="s">
+      <c r="F160" s="113" t="s">
         <v>745</v>
       </c>
-      <c r="G160" s="115" t="s">
+      <c r="G160" s="114" t="s">
         <v>746</v>
       </c>
-      <c r="H160" s="115"/>
-      <c r="I160" s="116"/>
-      <c r="J160" s="117"/>
-      <c r="K160" s="116"/>
-      <c r="L160" s="118"/>
+      <c r="H160" s="114"/>
+      <c r="I160" s="115"/>
+      <c r="J160" s="116"/>
+      <c r="K160" s="115"/>
+      <c r="L160" s="117"/>
       <c r="M160" s="19"/>
       <c r="N160" s="19"/>
       <c r="O160" s="19"/>
@@ -25952,26 +25981,26 @@
       <c r="AE160" s="19"/>
     </row>
     <row r="161" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A161" s="131"/>
-      <c r="B161" s="131"/>
-      <c r="C161" s="131"/>
-      <c r="D161" s="113" t="s">
+      <c r="A161" s="144"/>
+      <c r="B161" s="144"/>
+      <c r="C161" s="144"/>
+      <c r="D161" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="E161" s="113" t="s">
+      <c r="E161" s="112" t="s">
         <v>748</v>
       </c>
-      <c r="F161" s="114" t="s">
+      <c r="F161" s="113" t="s">
         <v>749</v>
       </c>
-      <c r="G161" s="115" t="s">
+      <c r="G161" s="114" t="s">
         <v>750</v>
       </c>
-      <c r="H161" s="115"/>
-      <c r="I161" s="116"/>
-      <c r="J161" s="117"/>
-      <c r="K161" s="116"/>
-      <c r="L161" s="118"/>
+      <c r="H161" s="114"/>
+      <c r="I161" s="115"/>
+      <c r="J161" s="116"/>
+      <c r="K161" s="115"/>
+      <c r="L161" s="117"/>
       <c r="M161" s="19"/>
       <c r="N161" s="19"/>
       <c r="O161" s="19"/>
@@ -25993,26 +26022,26 @@
       <c r="AE161" s="19"/>
     </row>
     <row r="162" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A162" s="131"/>
-      <c r="B162" s="131"/>
-      <c r="C162" s="131"/>
-      <c r="D162" s="113" t="s">
+      <c r="A162" s="144"/>
+      <c r="B162" s="144"/>
+      <c r="C162" s="144"/>
+      <c r="D162" s="112" t="s">
         <v>751</v>
       </c>
-      <c r="E162" s="113" t="s">
+      <c r="E162" s="112" t="s">
         <v>752</v>
       </c>
-      <c r="F162" s="114" t="s">
+      <c r="F162" s="113" t="s">
         <v>753</v>
       </c>
-      <c r="G162" s="115" t="s">
+      <c r="G162" s="114" t="s">
         <v>754</v>
       </c>
-      <c r="H162" s="115"/>
-      <c r="I162" s="116"/>
-      <c r="J162" s="117"/>
-      <c r="K162" s="116"/>
-      <c r="L162" s="118"/>
+      <c r="H162" s="114"/>
+      <c r="I162" s="115"/>
+      <c r="J162" s="116"/>
+      <c r="K162" s="115"/>
+      <c r="L162" s="117"/>
       <c r="M162" s="19"/>
       <c r="N162" s="19"/>
       <c r="O162" s="19"/>
@@ -26034,26 +26063,26 @@
       <c r="AE162" s="19"/>
     </row>
     <row r="163" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A163" s="131"/>
-      <c r="B163" s="131"/>
-      <c r="C163" s="131"/>
-      <c r="D163" s="113" t="s">
+      <c r="A163" s="144"/>
+      <c r="B163" s="144"/>
+      <c r="C163" s="144"/>
+      <c r="D163" s="112" t="s">
         <v>755</v>
       </c>
-      <c r="E163" s="113" t="s">
+      <c r="E163" s="112" t="s">
         <v>756</v>
       </c>
-      <c r="F163" s="114" t="s">
+      <c r="F163" s="113" t="s">
         <v>757</v>
       </c>
-      <c r="G163" s="115" t="s">
+      <c r="G163" s="114" t="s">
         <v>758</v>
       </c>
-      <c r="H163" s="115"/>
-      <c r="I163" s="116"/>
-      <c r="J163" s="117"/>
-      <c r="K163" s="116"/>
-      <c r="L163" s="118"/>
+      <c r="H163" s="114"/>
+      <c r="I163" s="115"/>
+      <c r="J163" s="116"/>
+      <c r="K163" s="115"/>
+      <c r="L163" s="117"/>
       <c r="M163" s="19"/>
       <c r="N163" s="19"/>
       <c r="O163" s="19"/>
@@ -26075,26 +26104,26 @@
       <c r="AE163" s="19"/>
     </row>
     <row r="164" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A164" s="131"/>
-      <c r="B164" s="131"/>
-      <c r="C164" s="131"/>
-      <c r="D164" s="113" t="s">
+      <c r="A164" s="144"/>
+      <c r="B164" s="144"/>
+      <c r="C164" s="144"/>
+      <c r="D164" s="112" t="s">
         <v>759</v>
       </c>
-      <c r="E164" s="113" t="s">
+      <c r="E164" s="112" t="s">
         <v>760</v>
       </c>
-      <c r="F164" s="114" t="s">
+      <c r="F164" s="113" t="s">
         <v>761</v>
       </c>
-      <c r="G164" s="115" t="s">
+      <c r="G164" s="114" t="s">
         <v>762</v>
       </c>
-      <c r="H164" s="115"/>
-      <c r="I164" s="116"/>
-      <c r="J164" s="117"/>
-      <c r="K164" s="116"/>
-      <c r="L164" s="118"/>
+      <c r="H164" s="114"/>
+      <c r="I164" s="115"/>
+      <c r="J164" s="116"/>
+      <c r="K164" s="115"/>
+      <c r="L164" s="117"/>
       <c r="M164" s="19"/>
       <c r="N164" s="19"/>
       <c r="O164" s="19"/>
@@ -26116,26 +26145,26 @@
       <c r="AE164" s="19"/>
     </row>
     <row r="165" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A165" s="131"/>
-      <c r="B165" s="131"/>
-      <c r="C165" s="131"/>
-      <c r="D165" s="113" t="s">
+      <c r="A165" s="144"/>
+      <c r="B165" s="144"/>
+      <c r="C165" s="144"/>
+      <c r="D165" s="112" t="s">
         <v>763</v>
       </c>
-      <c r="E165" s="113" t="s">
+      <c r="E165" s="112" t="s">
         <v>764</v>
       </c>
-      <c r="F165" s="114" t="s">
+      <c r="F165" s="113" t="s">
         <v>765</v>
       </c>
-      <c r="G165" s="115" t="s">
+      <c r="G165" s="114" t="s">
         <v>766</v>
       </c>
-      <c r="H165" s="115"/>
-      <c r="I165" s="116"/>
-      <c r="J165" s="117"/>
-      <c r="K165" s="116"/>
-      <c r="L165" s="118"/>
+      <c r="H165" s="114"/>
+      <c r="I165" s="115"/>
+      <c r="J165" s="116"/>
+      <c r="K165" s="115"/>
+      <c r="L165" s="117"/>
       <c r="M165" s="19"/>
       <c r="N165" s="19"/>
       <c r="O165" s="19"/>
@@ -26157,26 +26186,26 @@
       <c r="AE165" s="19"/>
     </row>
     <row r="166" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A166" s="131"/>
-      <c r="B166" s="131"/>
-      <c r="C166" s="131"/>
-      <c r="D166" s="113" t="s">
+      <c r="A166" s="144"/>
+      <c r="B166" s="144"/>
+      <c r="C166" s="144"/>
+      <c r="D166" s="112" t="s">
         <v>767</v>
       </c>
-      <c r="E166" s="113" t="s">
+      <c r="E166" s="112" t="s">
         <v>768</v>
       </c>
-      <c r="F166" s="114" t="s">
+      <c r="F166" s="113" t="s">
         <v>769</v>
       </c>
-      <c r="G166" s="115" t="s">
+      <c r="G166" s="114" t="s">
         <v>770</v>
       </c>
-      <c r="H166" s="115"/>
-      <c r="I166" s="116"/>
-      <c r="J166" s="117"/>
-      <c r="K166" s="116"/>
-      <c r="L166" s="118"/>
+      <c r="H166" s="114"/>
+      <c r="I166" s="115"/>
+      <c r="J166" s="116"/>
+      <c r="K166" s="115"/>
+      <c r="L166" s="117"/>
       <c r="M166" s="19"/>
       <c r="N166" s="19"/>
       <c r="O166" s="19"/>
@@ -26198,26 +26227,26 @@
       <c r="AE166" s="19"/>
     </row>
     <row r="167" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A167" s="131"/>
-      <c r="B167" s="131"/>
-      <c r="C167" s="131"/>
-      <c r="D167" s="113" t="s">
+      <c r="A167" s="144"/>
+      <c r="B167" s="144"/>
+      <c r="C167" s="144"/>
+      <c r="D167" s="112" t="s">
         <v>771</v>
       </c>
-      <c r="E167" s="113" t="s">
+      <c r="E167" s="112" t="s">
         <v>772</v>
       </c>
-      <c r="F167" s="114" t="s">
+      <c r="F167" s="113" t="s">
         <v>773</v>
       </c>
-      <c r="G167" s="115" t="s">
+      <c r="G167" s="114" t="s">
         <v>774</v>
       </c>
-      <c r="H167" s="115"/>
-      <c r="I167" s="116"/>
-      <c r="J167" s="117"/>
-      <c r="K167" s="116"/>
-      <c r="L167" s="118"/>
+      <c r="H167" s="114"/>
+      <c r="I167" s="115"/>
+      <c r="J167" s="116"/>
+      <c r="K167" s="115"/>
+      <c r="L167" s="117"/>
       <c r="M167" s="19"/>
       <c r="N167" s="19"/>
       <c r="O167" s="19"/>
@@ -26239,26 +26268,26 @@
       <c r="AE167" s="19"/>
     </row>
     <row r="168" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A168" s="131"/>
-      <c r="B168" s="131"/>
-      <c r="C168" s="131"/>
-      <c r="D168" s="113" t="s">
+      <c r="A168" s="144"/>
+      <c r="B168" s="144"/>
+      <c r="C168" s="144"/>
+      <c r="D168" s="112" t="s">
         <v>775</v>
       </c>
-      <c r="E168" s="113" t="s">
+      <c r="E168" s="112" t="s">
         <v>776</v>
       </c>
-      <c r="F168" s="114" t="s">
+      <c r="F168" s="113" t="s">
         <v>777</v>
       </c>
-      <c r="G168" s="115" t="s">
+      <c r="G168" s="114" t="s">
         <v>778</v>
       </c>
-      <c r="H168" s="115"/>
-      <c r="I168" s="116"/>
-      <c r="J168" s="117"/>
-      <c r="K168" s="116"/>
-      <c r="L168" s="118"/>
+      <c r="H168" s="114"/>
+      <c r="I168" s="115"/>
+      <c r="J168" s="116"/>
+      <c r="K168" s="115"/>
+      <c r="L168" s="117"/>
       <c r="M168" s="19"/>
       <c r="N168" s="19"/>
       <c r="O168" s="19"/>
@@ -26280,26 +26309,26 @@
       <c r="AE168" s="19"/>
     </row>
     <row r="169" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A169" s="131"/>
-      <c r="B169" s="131"/>
-      <c r="C169" s="131"/>
-      <c r="D169" s="113" t="s">
+      <c r="A169" s="144"/>
+      <c r="B169" s="144"/>
+      <c r="C169" s="144"/>
+      <c r="D169" s="112" t="s">
         <v>779</v>
       </c>
-      <c r="E169" s="113" t="s">
+      <c r="E169" s="112" t="s">
         <v>780</v>
       </c>
-      <c r="F169" s="114" t="s">
+      <c r="F169" s="113" t="s">
         <v>781</v>
       </c>
-      <c r="G169" s="115" t="s">
+      <c r="G169" s="114" t="s">
         <v>782</v>
       </c>
-      <c r="H169" s="115"/>
-      <c r="I169" s="116"/>
-      <c r="J169" s="117"/>
-      <c r="K169" s="116"/>
-      <c r="L169" s="118"/>
+      <c r="H169" s="114"/>
+      <c r="I169" s="115"/>
+      <c r="J169" s="116"/>
+      <c r="K169" s="115"/>
+      <c r="L169" s="117"/>
       <c r="M169" s="19"/>
       <c r="N169" s="19"/>
       <c r="O169" s="19"/>
@@ -26321,26 +26350,26 @@
       <c r="AE169" s="19"/>
     </row>
     <row r="170" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A170" s="131"/>
-      <c r="B170" s="131"/>
-      <c r="C170" s="131"/>
-      <c r="D170" s="113" t="s">
+      <c r="A170" s="144"/>
+      <c r="B170" s="144"/>
+      <c r="C170" s="144"/>
+      <c r="D170" s="112" t="s">
         <v>783</v>
       </c>
-      <c r="E170" s="113" t="s">
+      <c r="E170" s="112" t="s">
         <v>784</v>
       </c>
-      <c r="F170" s="114" t="s">
+      <c r="F170" s="113" t="s">
         <v>785</v>
       </c>
-      <c r="G170" s="115" t="s">
+      <c r="G170" s="114" t="s">
         <v>786</v>
       </c>
-      <c r="H170" s="115"/>
-      <c r="I170" s="116"/>
-      <c r="J170" s="117"/>
-      <c r="K170" s="116"/>
-      <c r="L170" s="118"/>
+      <c r="H170" s="114"/>
+      <c r="I170" s="115"/>
+      <c r="J170" s="116"/>
+      <c r="K170" s="115"/>
+      <c r="L170" s="117"/>
       <c r="M170" s="19"/>
       <c r="N170" s="19"/>
       <c r="O170" s="19"/>
@@ -26362,26 +26391,26 @@
       <c r="AE170" s="19"/>
     </row>
     <row r="171" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A171" s="131"/>
-      <c r="B171" s="131"/>
-      <c r="C171" s="131"/>
-      <c r="D171" s="113" t="s">
+      <c r="A171" s="144"/>
+      <c r="B171" s="144"/>
+      <c r="C171" s="144"/>
+      <c r="D171" s="112" t="s">
         <v>787</v>
       </c>
-      <c r="E171" s="113" t="s">
+      <c r="E171" s="112" t="s">
         <v>787</v>
       </c>
-      <c r="F171" s="114" t="s">
+      <c r="F171" s="113" t="s">
         <v>788</v>
       </c>
-      <c r="G171" s="115" t="s">
+      <c r="G171" s="114" t="s">
         <v>789</v>
       </c>
-      <c r="H171" s="115"/>
-      <c r="I171" s="116"/>
-      <c r="J171" s="117"/>
-      <c r="K171" s="116"/>
-      <c r="L171" s="118"/>
+      <c r="H171" s="114"/>
+      <c r="I171" s="115"/>
+      <c r="J171" s="116"/>
+      <c r="K171" s="115"/>
+      <c r="L171" s="117"/>
       <c r="M171" s="19"/>
       <c r="N171" s="19"/>
       <c r="O171" s="19"/>
@@ -26403,26 +26432,26 @@
       <c r="AE171" s="19"/>
     </row>
     <row r="172" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A172" s="131"/>
-      <c r="B172" s="131"/>
-      <c r="C172" s="131"/>
-      <c r="D172" s="113" t="s">
+      <c r="A172" s="144"/>
+      <c r="B172" s="144"/>
+      <c r="C172" s="144"/>
+      <c r="D172" s="112" t="s">
         <v>790</v>
       </c>
-      <c r="E172" s="113" t="s">
+      <c r="E172" s="112" t="s">
         <v>791</v>
       </c>
-      <c r="F172" s="114" t="s">
+      <c r="F172" s="113" t="s">
         <v>792</v>
       </c>
-      <c r="G172" s="115" t="s">
+      <c r="G172" s="114" t="s">
         <v>793</v>
       </c>
-      <c r="H172" s="115"/>
-      <c r="I172" s="116"/>
-      <c r="J172" s="117"/>
-      <c r="K172" s="116"/>
-      <c r="L172" s="118"/>
+      <c r="H172" s="114"/>
+      <c r="I172" s="115"/>
+      <c r="J172" s="116"/>
+      <c r="K172" s="115"/>
+      <c r="L172" s="117"/>
       <c r="M172" s="19"/>
       <c r="N172" s="19"/>
       <c r="O172" s="19"/>
@@ -26444,26 +26473,26 @@
       <c r="AE172" s="19"/>
     </row>
     <row r="173" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A173" s="131"/>
-      <c r="B173" s="131"/>
-      <c r="C173" s="131"/>
-      <c r="D173" s="113" t="s">
+      <c r="A173" s="144"/>
+      <c r="B173" s="144"/>
+      <c r="C173" s="144"/>
+      <c r="D173" s="112" t="s">
         <v>794</v>
       </c>
-      <c r="E173" s="113" t="s">
+      <c r="E173" s="112" t="s">
         <v>795</v>
       </c>
-      <c r="F173" s="114" t="s">
+      <c r="F173" s="113" t="s">
         <v>796</v>
       </c>
-      <c r="G173" s="115" t="s">
+      <c r="G173" s="114" t="s">
         <v>797</v>
       </c>
-      <c r="H173" s="115"/>
-      <c r="I173" s="116"/>
-      <c r="J173" s="117"/>
-      <c r="K173" s="116"/>
-      <c r="L173" s="118"/>
+      <c r="H173" s="114"/>
+      <c r="I173" s="115"/>
+      <c r="J173" s="116"/>
+      <c r="K173" s="115"/>
+      <c r="L173" s="117"/>
       <c r="M173" s="19"/>
       <c r="N173" s="19"/>
       <c r="O173" s="19"/>
@@ -26485,26 +26514,26 @@
       <c r="AE173" s="19"/>
     </row>
     <row r="174" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A174" s="131"/>
-      <c r="B174" s="131"/>
-      <c r="C174" s="131"/>
-      <c r="D174" s="113" t="s">
+      <c r="A174" s="144"/>
+      <c r="B174" s="144"/>
+      <c r="C174" s="144"/>
+      <c r="D174" s="112" t="s">
         <v>798</v>
       </c>
-      <c r="E174" s="113" t="s">
+      <c r="E174" s="112" t="s">
         <v>798</v>
       </c>
-      <c r="F174" s="114" t="s">
+      <c r="F174" s="113" t="s">
         <v>799</v>
       </c>
-      <c r="G174" s="115" t="s">
+      <c r="G174" s="114" t="s">
         <v>800</v>
       </c>
-      <c r="H174" s="115"/>
-      <c r="I174" s="116"/>
-      <c r="J174" s="117"/>
-      <c r="K174" s="116"/>
-      <c r="L174" s="118"/>
+      <c r="H174" s="114"/>
+      <c r="I174" s="115"/>
+      <c r="J174" s="116"/>
+      <c r="K174" s="115"/>
+      <c r="L174" s="117"/>
       <c r="M174" s="19"/>
       <c r="N174" s="19"/>
       <c r="O174" s="19"/>
@@ -26526,26 +26555,26 @@
       <c r="AE174" s="19"/>
     </row>
     <row r="175" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A175" s="131"/>
-      <c r="B175" s="131"/>
-      <c r="C175" s="131"/>
-      <c r="D175" s="113" t="s">
+      <c r="A175" s="144"/>
+      <c r="B175" s="144"/>
+      <c r="C175" s="144"/>
+      <c r="D175" s="112" t="s">
         <v>801</v>
       </c>
-      <c r="E175" s="113" t="s">
+      <c r="E175" s="112" t="s">
         <v>802</v>
       </c>
-      <c r="F175" s="114" t="s">
+      <c r="F175" s="113" t="s">
         <v>803</v>
       </c>
-      <c r="G175" s="115" t="s">
+      <c r="G175" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="H175" s="115"/>
-      <c r="I175" s="116"/>
-      <c r="J175" s="117"/>
-      <c r="K175" s="116"/>
-      <c r="L175" s="118"/>
+      <c r="H175" s="114"/>
+      <c r="I175" s="115"/>
+      <c r="J175" s="116"/>
+      <c r="K175" s="115"/>
+      <c r="L175" s="117"/>
       <c r="M175" s="19"/>
       <c r="N175" s="19"/>
       <c r="O175" s="19"/>
@@ -26567,26 +26596,26 @@
       <c r="AE175" s="19"/>
     </row>
     <row r="176" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A176" s="131"/>
-      <c r="B176" s="131"/>
-      <c r="C176" s="131"/>
-      <c r="D176" s="113" t="s">
+      <c r="A176" s="144"/>
+      <c r="B176" s="144"/>
+      <c r="C176" s="144"/>
+      <c r="D176" s="112" t="s">
         <v>804</v>
       </c>
-      <c r="E176" s="113" t="s">
+      <c r="E176" s="112" t="s">
         <v>805</v>
       </c>
-      <c r="F176" s="114" t="s">
+      <c r="F176" s="113" t="s">
         <v>806</v>
       </c>
-      <c r="G176" s="115" t="s">
+      <c r="G176" s="114" t="s">
         <v>807</v>
       </c>
-      <c r="H176" s="115"/>
-      <c r="I176" s="116"/>
-      <c r="J176" s="117"/>
-      <c r="K176" s="116"/>
-      <c r="L176" s="118"/>
+      <c r="H176" s="114"/>
+      <c r="I176" s="115"/>
+      <c r="J176" s="116"/>
+      <c r="K176" s="115"/>
+      <c r="L176" s="117"/>
       <c r="M176" s="19"/>
       <c r="N176" s="19"/>
       <c r="O176" s="19"/>
@@ -26608,26 +26637,26 @@
       <c r="AE176" s="19"/>
     </row>
     <row r="177" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A177" s="131"/>
-      <c r="B177" s="131"/>
-      <c r="C177" s="131"/>
-      <c r="D177" s="113" t="s">
+      <c r="A177" s="144"/>
+      <c r="B177" s="144"/>
+      <c r="C177" s="144"/>
+      <c r="D177" s="112" t="s">
         <v>808</v>
       </c>
-      <c r="E177" s="113" t="s">
+      <c r="E177" s="112" t="s">
         <v>808</v>
       </c>
-      <c r="F177" s="114" t="s">
+      <c r="F177" s="113" t="s">
         <v>809</v>
       </c>
-      <c r="G177" s="115" t="s">
+      <c r="G177" s="114" t="s">
         <v>810</v>
       </c>
-      <c r="H177" s="115"/>
-      <c r="I177" s="116"/>
-      <c r="J177" s="117"/>
-      <c r="K177" s="116"/>
-      <c r="L177" s="118"/>
+      <c r="H177" s="114"/>
+      <c r="I177" s="115"/>
+      <c r="J177" s="116"/>
+      <c r="K177" s="115"/>
+      <c r="L177" s="117"/>
       <c r="M177" s="19"/>
       <c r="N177" s="19"/>
       <c r="O177" s="19"/>
@@ -26649,26 +26678,26 @@
       <c r="AE177" s="19"/>
     </row>
     <row r="178" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A178" s="131"/>
-      <c r="B178" s="131"/>
-      <c r="C178" s="131"/>
-      <c r="D178" s="113" t="s">
+      <c r="A178" s="144"/>
+      <c r="B178" s="144"/>
+      <c r="C178" s="144"/>
+      <c r="D178" s="112" t="s">
         <v>811</v>
       </c>
-      <c r="E178" s="113" t="s">
+      <c r="E178" s="112" t="s">
         <v>812</v>
       </c>
-      <c r="F178" s="114" t="s">
+      <c r="F178" s="113" t="s">
         <v>813</v>
       </c>
-      <c r="G178" s="115" t="s">
+      <c r="G178" s="114" t="s">
         <v>814</v>
       </c>
-      <c r="H178" s="115"/>
-      <c r="I178" s="116"/>
-      <c r="J178" s="117"/>
-      <c r="K178" s="116"/>
-      <c r="L178" s="118"/>
+      <c r="H178" s="114"/>
+      <c r="I178" s="115"/>
+      <c r="J178" s="116"/>
+      <c r="K178" s="115"/>
+      <c r="L178" s="117"/>
       <c r="M178" s="19"/>
       <c r="N178" s="19"/>
       <c r="O178" s="19"/>
@@ -26690,26 +26719,26 @@
       <c r="AE178" s="19"/>
     </row>
     <row r="179" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A179" s="131"/>
-      <c r="B179" s="131"/>
-      <c r="C179" s="131"/>
-      <c r="D179" s="113" t="s">
+      <c r="A179" s="144"/>
+      <c r="B179" s="144"/>
+      <c r="C179" s="144"/>
+      <c r="D179" s="112" t="s">
         <v>815</v>
       </c>
-      <c r="E179" s="113" t="s">
+      <c r="E179" s="112" t="s">
         <v>816</v>
       </c>
-      <c r="F179" s="114" t="s">
+      <c r="F179" s="113" t="s">
         <v>817</v>
       </c>
-      <c r="G179" s="115" t="s">
+      <c r="G179" s="114" t="s">
         <v>818</v>
       </c>
-      <c r="H179" s="115"/>
-      <c r="I179" s="116"/>
-      <c r="J179" s="117"/>
-      <c r="K179" s="116"/>
-      <c r="L179" s="118"/>
+      <c r="H179" s="114"/>
+      <c r="I179" s="115"/>
+      <c r="J179" s="116"/>
+      <c r="K179" s="115"/>
+      <c r="L179" s="117"/>
       <c r="M179" s="19"/>
       <c r="N179" s="19"/>
       <c r="O179" s="19"/>
@@ -26731,26 +26760,26 @@
       <c r="AE179" s="19"/>
     </row>
     <row r="180" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A180" s="131"/>
-      <c r="B180" s="131"/>
-      <c r="C180" s="131"/>
-      <c r="D180" s="113" t="s">
+      <c r="A180" s="144"/>
+      <c r="B180" s="144"/>
+      <c r="C180" s="144"/>
+      <c r="D180" s="112" t="s">
         <v>819</v>
       </c>
-      <c r="E180" s="113" t="s">
+      <c r="E180" s="112" t="s">
         <v>820</v>
       </c>
-      <c r="F180" s="114" t="s">
+      <c r="F180" s="113" t="s">
         <v>821</v>
       </c>
-      <c r="G180" s="115" t="s">
+      <c r="G180" s="114" t="s">
         <v>822</v>
       </c>
-      <c r="H180" s="115"/>
-      <c r="I180" s="116"/>
-      <c r="J180" s="117"/>
-      <c r="K180" s="116"/>
-      <c r="L180" s="118"/>
+      <c r="H180" s="114"/>
+      <c r="I180" s="115"/>
+      <c r="J180" s="116"/>
+      <c r="K180" s="115"/>
+      <c r="L180" s="117"/>
       <c r="M180" s="19"/>
       <c r="N180" s="19"/>
       <c r="O180" s="19"/>
@@ -26772,26 +26801,26 @@
       <c r="AE180" s="19"/>
     </row>
     <row r="181" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A181" s="131"/>
-      <c r="B181" s="131"/>
-      <c r="C181" s="131"/>
-      <c r="D181" s="113" t="s">
+      <c r="A181" s="144"/>
+      <c r="B181" s="144"/>
+      <c r="C181" s="144"/>
+      <c r="D181" s="112" t="s">
         <v>823</v>
       </c>
-      <c r="E181" s="113" t="s">
+      <c r="E181" s="112" t="s">
         <v>824</v>
       </c>
-      <c r="F181" s="114" t="s">
+      <c r="F181" s="113" t="s">
         <v>825</v>
       </c>
-      <c r="G181" s="115" t="s">
+      <c r="G181" s="114" t="s">
         <v>826</v>
       </c>
-      <c r="H181" s="115"/>
-      <c r="I181" s="116"/>
-      <c r="J181" s="117"/>
-      <c r="K181" s="116"/>
-      <c r="L181" s="118"/>
+      <c r="H181" s="114"/>
+      <c r="I181" s="115"/>
+      <c r="J181" s="116"/>
+      <c r="K181" s="115"/>
+      <c r="L181" s="117"/>
       <c r="M181" s="19"/>
       <c r="N181" s="19"/>
       <c r="O181" s="19"/>
@@ -26813,26 +26842,26 @@
       <c r="AE181" s="19"/>
     </row>
     <row r="182" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A182" s="131"/>
-      <c r="B182" s="131"/>
-      <c r="C182" s="131"/>
-      <c r="D182" s="113" t="s">
+      <c r="A182" s="144"/>
+      <c r="B182" s="144"/>
+      <c r="C182" s="144"/>
+      <c r="D182" s="112" t="s">
         <v>827</v>
       </c>
-      <c r="E182" s="113" t="s">
+      <c r="E182" s="112" t="s">
         <v>828</v>
       </c>
-      <c r="F182" s="114" t="s">
+      <c r="F182" s="113" t="s">
         <v>829</v>
       </c>
-      <c r="G182" s="115" t="s">
+      <c r="G182" s="114" t="s">
         <v>830</v>
       </c>
-      <c r="H182" s="115"/>
-      <c r="I182" s="116"/>
-      <c r="J182" s="117"/>
-      <c r="K182" s="116"/>
-      <c r="L182" s="118"/>
+      <c r="H182" s="114"/>
+      <c r="I182" s="115"/>
+      <c r="J182" s="116"/>
+      <c r="K182" s="115"/>
+      <c r="L182" s="117"/>
       <c r="M182" s="19"/>
       <c r="N182" s="19"/>
       <c r="O182" s="19"/>
@@ -26854,26 +26883,26 @@
       <c r="AE182" s="19"/>
     </row>
     <row r="183" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A183" s="131"/>
-      <c r="B183" s="131"/>
-      <c r="C183" s="131"/>
-      <c r="D183" s="113" t="s">
+      <c r="A183" s="144"/>
+      <c r="B183" s="144"/>
+      <c r="C183" s="144"/>
+      <c r="D183" s="112" t="s">
         <v>831</v>
       </c>
-      <c r="E183" s="113" t="s">
+      <c r="E183" s="112" t="s">
         <v>832</v>
       </c>
-      <c r="F183" s="114" t="s">
+      <c r="F183" s="113" t="s">
         <v>833</v>
       </c>
-      <c r="G183" s="115" t="s">
+      <c r="G183" s="114" t="s">
         <v>834</v>
       </c>
-      <c r="H183" s="115"/>
-      <c r="I183" s="116"/>
-      <c r="J183" s="117"/>
-      <c r="K183" s="116"/>
-      <c r="L183" s="118"/>
+      <c r="H183" s="114"/>
+      <c r="I183" s="115"/>
+      <c r="J183" s="116"/>
+      <c r="K183" s="115"/>
+      <c r="L183" s="117"/>
       <c r="M183" s="19"/>
       <c r="N183" s="19"/>
       <c r="O183" s="19"/>
@@ -26895,26 +26924,26 @@
       <c r="AE183" s="19"/>
     </row>
     <row r="184" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A184" s="131"/>
-      <c r="B184" s="131"/>
-      <c r="C184" s="131"/>
-      <c r="D184" s="113" t="s">
+      <c r="A184" s="144"/>
+      <c r="B184" s="144"/>
+      <c r="C184" s="144"/>
+      <c r="D184" s="112" t="s">
         <v>835</v>
       </c>
-      <c r="E184" s="113" t="s">
+      <c r="E184" s="112" t="s">
         <v>836</v>
       </c>
-      <c r="F184" s="114" t="s">
+      <c r="F184" s="113" t="s">
         <v>837</v>
       </c>
-      <c r="G184" s="115" t="s">
+      <c r="G184" s="114" t="s">
         <v>838</v>
       </c>
-      <c r="H184" s="115"/>
-      <c r="I184" s="116"/>
-      <c r="J184" s="117"/>
-      <c r="K184" s="116"/>
-      <c r="L184" s="118"/>
+      <c r="H184" s="114"/>
+      <c r="I184" s="115"/>
+      <c r="J184" s="116"/>
+      <c r="K184" s="115"/>
+      <c r="L184" s="117"/>
       <c r="M184" s="19"/>
       <c r="N184" s="19"/>
       <c r="O184" s="19"/>
@@ -26936,26 +26965,26 @@
       <c r="AE184" s="19"/>
     </row>
     <row r="185" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A185" s="131"/>
-      <c r="B185" s="131"/>
-      <c r="C185" s="131"/>
-      <c r="D185" s="113" t="s">
+      <c r="A185" s="144"/>
+      <c r="B185" s="144"/>
+      <c r="C185" s="144"/>
+      <c r="D185" s="112" t="s">
         <v>839</v>
       </c>
-      <c r="E185" s="113" t="s">
+      <c r="E185" s="112" t="s">
         <v>840</v>
       </c>
-      <c r="F185" s="114" t="s">
+      <c r="F185" s="113" t="s">
         <v>841</v>
       </c>
-      <c r="G185" s="115" t="s">
+      <c r="G185" s="114" t="s">
         <v>842</v>
       </c>
-      <c r="H185" s="115"/>
-      <c r="I185" s="116"/>
-      <c r="J185" s="117"/>
-      <c r="K185" s="116"/>
-      <c r="L185" s="118"/>
+      <c r="H185" s="114"/>
+      <c r="I185" s="115"/>
+      <c r="J185" s="116"/>
+      <c r="K185" s="115"/>
+      <c r="L185" s="117"/>
       <c r="M185" s="19"/>
       <c r="N185" s="19"/>
       <c r="O185" s="19"/>
@@ -26977,26 +27006,26 @@
       <c r="AE185" s="19"/>
     </row>
     <row r="186" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A186" s="131"/>
-      <c r="B186" s="131"/>
-      <c r="C186" s="131"/>
-      <c r="D186" s="113" t="s">
+      <c r="A186" s="144"/>
+      <c r="B186" s="144"/>
+      <c r="C186" s="144"/>
+      <c r="D186" s="112" t="s">
         <v>843</v>
       </c>
-      <c r="E186" s="113" t="s">
+      <c r="E186" s="112" t="s">
         <v>844</v>
       </c>
-      <c r="F186" s="114" t="s">
+      <c r="F186" s="113" t="s">
         <v>845</v>
       </c>
-      <c r="G186" s="115" t="s">
+      <c r="G186" s="114" t="s">
         <v>846</v>
       </c>
-      <c r="H186" s="115"/>
-      <c r="I186" s="116"/>
-      <c r="J186" s="117"/>
-      <c r="K186" s="116"/>
-      <c r="L186" s="118"/>
+      <c r="H186" s="114"/>
+      <c r="I186" s="115"/>
+      <c r="J186" s="116"/>
+      <c r="K186" s="115"/>
+      <c r="L186" s="117"/>
       <c r="M186" s="19"/>
       <c r="N186" s="19"/>
       <c r="O186" s="19"/>
@@ -27018,26 +27047,26 @@
       <c r="AE186" s="19"/>
     </row>
     <row r="187" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A187" s="131"/>
-      <c r="B187" s="131"/>
-      <c r="C187" s="131"/>
-      <c r="D187" s="113" t="s">
+      <c r="A187" s="144"/>
+      <c r="B187" s="144"/>
+      <c r="C187" s="144"/>
+      <c r="D187" s="112" t="s">
         <v>847</v>
       </c>
-      <c r="E187" s="113" t="s">
+      <c r="E187" s="112" t="s">
         <v>848</v>
       </c>
-      <c r="F187" s="114" t="s">
+      <c r="F187" s="113" t="s">
         <v>849</v>
       </c>
-      <c r="G187" s="115" t="s">
+      <c r="G187" s="114" t="s">
         <v>850</v>
       </c>
-      <c r="H187" s="115"/>
-      <c r="I187" s="116"/>
-      <c r="J187" s="117"/>
-      <c r="K187" s="116"/>
-      <c r="L187" s="118"/>
+      <c r="H187" s="114"/>
+      <c r="I187" s="115"/>
+      <c r="J187" s="116"/>
+      <c r="K187" s="115"/>
+      <c r="L187" s="117"/>
       <c r="M187" s="19"/>
       <c r="N187" s="19"/>
       <c r="O187" s="19"/>
@@ -27059,26 +27088,26 @@
       <c r="AE187" s="19"/>
     </row>
     <row r="188" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A188" s="131"/>
-      <c r="B188" s="131"/>
-      <c r="C188" s="131"/>
-      <c r="D188" s="113" t="s">
+      <c r="A188" s="144"/>
+      <c r="B188" s="144"/>
+      <c r="C188" s="144"/>
+      <c r="D188" s="112" t="s">
         <v>851</v>
       </c>
-      <c r="E188" s="113" t="s">
+      <c r="E188" s="112" t="s">
         <v>852</v>
       </c>
-      <c r="F188" s="114" t="s">
+      <c r="F188" s="113" t="s">
         <v>853</v>
       </c>
-      <c r="G188" s="115" t="s">
+      <c r="G188" s="114" t="s">
         <v>854</v>
       </c>
-      <c r="H188" s="115"/>
-      <c r="I188" s="116"/>
-      <c r="J188" s="117"/>
-      <c r="K188" s="116"/>
-      <c r="L188" s="118"/>
+      <c r="H188" s="114"/>
+      <c r="I188" s="115"/>
+      <c r="J188" s="116"/>
+      <c r="K188" s="115"/>
+      <c r="L188" s="117"/>
       <c r="M188" s="19"/>
       <c r="N188" s="19"/>
       <c r="O188" s="19"/>
@@ -27100,26 +27129,26 @@
       <c r="AE188" s="19"/>
     </row>
     <row r="189" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A189" s="131"/>
-      <c r="B189" s="131"/>
-      <c r="C189" s="131"/>
-      <c r="D189" s="113" t="s">
+      <c r="A189" s="144"/>
+      <c r="B189" s="144"/>
+      <c r="C189" s="144"/>
+      <c r="D189" s="112" t="s">
         <v>855</v>
       </c>
-      <c r="E189" s="113" t="s">
+      <c r="E189" s="112" t="s">
         <v>856</v>
       </c>
-      <c r="F189" s="114" t="s">
+      <c r="F189" s="113" t="s">
         <v>857</v>
       </c>
-      <c r="G189" s="115" t="s">
+      <c r="G189" s="114" t="s">
         <v>858</v>
       </c>
-      <c r="H189" s="115"/>
-      <c r="I189" s="116"/>
-      <c r="J189" s="117"/>
-      <c r="K189" s="116"/>
-      <c r="L189" s="118"/>
+      <c r="H189" s="114"/>
+      <c r="I189" s="115"/>
+      <c r="J189" s="116"/>
+      <c r="K189" s="115"/>
+      <c r="L189" s="117"/>
       <c r="M189" s="19"/>
       <c r="N189" s="19"/>
       <c r="O189" s="19"/>
@@ -27141,26 +27170,26 @@
       <c r="AE189" s="19"/>
     </row>
     <row r="190" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A190" s="131"/>
-      <c r="B190" s="131"/>
-      <c r="C190" s="131"/>
-      <c r="D190" s="113" t="s">
+      <c r="A190" s="144"/>
+      <c r="B190" s="144"/>
+      <c r="C190" s="144"/>
+      <c r="D190" s="112" t="s">
         <v>859</v>
       </c>
-      <c r="E190" s="113" t="s">
+      <c r="E190" s="112" t="s">
         <v>860</v>
       </c>
-      <c r="F190" s="114" t="s">
+      <c r="F190" s="113" t="s">
         <v>861</v>
       </c>
-      <c r="G190" s="115" t="s">
+      <c r="G190" s="114" t="s">
         <v>862</v>
       </c>
-      <c r="H190" s="115"/>
-      <c r="I190" s="116"/>
-      <c r="J190" s="117"/>
-      <c r="K190" s="116"/>
-      <c r="L190" s="118"/>
+      <c r="H190" s="114"/>
+      <c r="I190" s="115"/>
+      <c r="J190" s="116"/>
+      <c r="K190" s="115"/>
+      <c r="L190" s="117"/>
       <c r="M190" s="19"/>
       <c r="N190" s="19"/>
       <c r="O190" s="19"/>
@@ -27182,26 +27211,26 @@
       <c r="AE190" s="19"/>
     </row>
     <row r="191" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A191" s="131"/>
-      <c r="B191" s="131"/>
-      <c r="C191" s="131"/>
-      <c r="D191" s="113" t="s">
+      <c r="A191" s="144"/>
+      <c r="B191" s="144"/>
+      <c r="C191" s="144"/>
+      <c r="D191" s="112" t="s">
         <v>863</v>
       </c>
-      <c r="E191" s="113" t="s">
+      <c r="E191" s="112" t="s">
         <v>864</v>
       </c>
-      <c r="F191" s="114" t="s">
+      <c r="F191" s="113" t="s">
         <v>865</v>
       </c>
-      <c r="G191" s="115" t="s">
+      <c r="G191" s="114" t="s">
         <v>866</v>
       </c>
-      <c r="H191" s="115"/>
-      <c r="I191" s="116"/>
-      <c r="J191" s="117"/>
-      <c r="K191" s="116"/>
-      <c r="L191" s="118"/>
+      <c r="H191" s="114"/>
+      <c r="I191" s="115"/>
+      <c r="J191" s="116"/>
+      <c r="K191" s="115"/>
+      <c r="L191" s="117"/>
       <c r="M191" s="19"/>
       <c r="N191" s="19"/>
       <c r="O191" s="19"/>
@@ -27223,26 +27252,26 @@
       <c r="AE191" s="19"/>
     </row>
     <row r="192" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A192" s="131"/>
-      <c r="B192" s="131"/>
-      <c r="C192" s="131"/>
-      <c r="D192" s="113" t="s">
+      <c r="A192" s="144"/>
+      <c r="B192" s="144"/>
+      <c r="C192" s="144"/>
+      <c r="D192" s="112" t="s">
         <v>867</v>
       </c>
-      <c r="E192" s="113" t="s">
+      <c r="E192" s="112" t="s">
         <v>868</v>
       </c>
-      <c r="F192" s="114" t="s">
+      <c r="F192" s="113" t="s">
         <v>869</v>
       </c>
-      <c r="G192" s="115" t="s">
+      <c r="G192" s="114" t="s">
         <v>870</v>
       </c>
-      <c r="H192" s="115"/>
-      <c r="I192" s="116"/>
-      <c r="J192" s="117"/>
-      <c r="K192" s="116"/>
-      <c r="L192" s="118"/>
+      <c r="H192" s="114"/>
+      <c r="I192" s="115"/>
+      <c r="J192" s="116"/>
+      <c r="K192" s="115"/>
+      <c r="L192" s="117"/>
       <c r="M192" s="19"/>
       <c r="N192" s="19"/>
       <c r="O192" s="19"/>
@@ -27264,26 +27293,26 @@
       <c r="AE192" s="19"/>
     </row>
     <row r="193" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A193" s="131"/>
-      <c r="B193" s="131"/>
-      <c r="C193" s="131"/>
-      <c r="D193" s="113" t="s">
+      <c r="A193" s="144"/>
+      <c r="B193" s="144"/>
+      <c r="C193" s="144"/>
+      <c r="D193" s="112" t="s">
         <v>871</v>
       </c>
-      <c r="E193" s="113" t="s">
+      <c r="E193" s="112" t="s">
         <v>872</v>
       </c>
-      <c r="F193" s="114" t="s">
+      <c r="F193" s="113" t="s">
         <v>873</v>
       </c>
-      <c r="G193" s="115" t="s">
+      <c r="G193" s="114" t="s">
         <v>874</v>
       </c>
-      <c r="H193" s="115"/>
-      <c r="I193" s="116"/>
-      <c r="J193" s="117"/>
-      <c r="K193" s="116"/>
-      <c r="L193" s="118"/>
+      <c r="H193" s="114"/>
+      <c r="I193" s="115"/>
+      <c r="J193" s="116"/>
+      <c r="K193" s="115"/>
+      <c r="L193" s="117"/>
       <c r="M193" s="19"/>
       <c r="N193" s="19"/>
       <c r="O193" s="19"/>
@@ -27305,26 +27334,26 @@
       <c r="AE193" s="19"/>
     </row>
     <row r="194" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A194" s="131"/>
-      <c r="B194" s="131"/>
-      <c r="C194" s="131"/>
-      <c r="D194" s="113" t="s">
+      <c r="A194" s="144"/>
+      <c r="B194" s="144"/>
+      <c r="C194" s="144"/>
+      <c r="D194" s="112" t="s">
         <v>875</v>
       </c>
-      <c r="E194" s="113" t="s">
+      <c r="E194" s="112" t="s">
         <v>876</v>
       </c>
-      <c r="F194" s="114" t="s">
+      <c r="F194" s="113" t="s">
         <v>877</v>
       </c>
-      <c r="G194" s="115" t="s">
+      <c r="G194" s="114" t="s">
         <v>878</v>
       </c>
-      <c r="H194" s="115"/>
-      <c r="I194" s="116"/>
-      <c r="J194" s="117"/>
-      <c r="K194" s="116"/>
-      <c r="L194" s="118"/>
+      <c r="H194" s="114"/>
+      <c r="I194" s="115"/>
+      <c r="J194" s="116"/>
+      <c r="K194" s="115"/>
+      <c r="L194" s="117"/>
       <c r="M194" s="19"/>
       <c r="N194" s="19"/>
       <c r="O194" s="19"/>
@@ -27346,26 +27375,26 @@
       <c r="AE194" s="19"/>
     </row>
     <row r="195" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A195" s="131"/>
-      <c r="B195" s="131"/>
-      <c r="C195" s="131"/>
-      <c r="D195" s="113" t="s">
+      <c r="A195" s="144"/>
+      <c r="B195" s="144"/>
+      <c r="C195" s="144"/>
+      <c r="D195" s="112" t="s">
         <v>879</v>
       </c>
-      <c r="E195" s="113" t="s">
+      <c r="E195" s="112" t="s">
         <v>880</v>
       </c>
-      <c r="F195" s="114" t="s">
+      <c r="F195" s="113" t="s">
         <v>881</v>
       </c>
-      <c r="G195" s="115" t="s">
+      <c r="G195" s="114" t="s">
         <v>882</v>
       </c>
-      <c r="H195" s="115"/>
-      <c r="I195" s="116"/>
-      <c r="J195" s="117"/>
-      <c r="K195" s="116"/>
-      <c r="L195" s="118"/>
+      <c r="H195" s="114"/>
+      <c r="I195" s="115"/>
+      <c r="J195" s="116"/>
+      <c r="K195" s="115"/>
+      <c r="L195" s="117"/>
       <c r="M195" s="19"/>
       <c r="N195" s="19"/>
       <c r="O195" s="19"/>
@@ -27387,26 +27416,26 @@
       <c r="AE195" s="19"/>
     </row>
     <row r="196" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A196" s="131"/>
-      <c r="B196" s="131"/>
-      <c r="C196" s="131"/>
-      <c r="D196" s="113" t="s">
+      <c r="A196" s="144"/>
+      <c r="B196" s="144"/>
+      <c r="C196" s="144"/>
+      <c r="D196" s="112" t="s">
         <v>883</v>
       </c>
-      <c r="E196" s="113" t="s">
+      <c r="E196" s="112" t="s">
         <v>884</v>
       </c>
-      <c r="F196" s="114" t="s">
+      <c r="F196" s="113" t="s">
         <v>885</v>
       </c>
-      <c r="G196" s="115" t="s">
+      <c r="G196" s="114" t="s">
         <v>886</v>
       </c>
-      <c r="H196" s="115"/>
-      <c r="I196" s="116"/>
-      <c r="J196" s="117"/>
-      <c r="K196" s="116"/>
-      <c r="L196" s="118"/>
+      <c r="H196" s="114"/>
+      <c r="I196" s="115"/>
+      <c r="J196" s="116"/>
+      <c r="K196" s="115"/>
+      <c r="L196" s="117"/>
       <c r="M196" s="19"/>
       <c r="N196" s="19"/>
       <c r="O196" s="19"/>
@@ -27428,26 +27457,26 @@
       <c r="AE196" s="19"/>
     </row>
     <row r="197" spans="1:31" ht="22" x14ac:dyDescent="0.25">
-      <c r="A197" s="131"/>
-      <c r="B197" s="131"/>
-      <c r="C197" s="131"/>
-      <c r="D197" s="113" t="s">
+      <c r="A197" s="144"/>
+      <c r="B197" s="144"/>
+      <c r="C197" s="144"/>
+      <c r="D197" s="112" t="s">
         <v>887</v>
       </c>
-      <c r="E197" s="113" t="s">
+      <c r="E197" s="112" t="s">
         <v>888</v>
       </c>
-      <c r="F197" s="114" t="s">
+      <c r="F197" s="113" t="s">
         <v>889</v>
       </c>
-      <c r="G197" s="115" t="s">
+      <c r="G197" s="114" t="s">
         <v>890</v>
       </c>
-      <c r="H197" s="115"/>
-      <c r="I197" s="116"/>
-      <c r="J197" s="117"/>
-      <c r="K197" s="116"/>
-      <c r="L197" s="118"/>
+      <c r="H197" s="114"/>
+      <c r="I197" s="115"/>
+      <c r="J197" s="116"/>
+      <c r="K197" s="115"/>
+      <c r="L197" s="117"/>
       <c r="M197" s="19"/>
       <c r="N197" s="19"/>
       <c r="O197" s="19"/>
@@ -27469,26 +27498,26 @@
       <c r="AE197" s="19"/>
     </row>
     <row r="198" spans="1:31" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="132"/>
-      <c r="B198" s="132"/>
-      <c r="C198" s="132"/>
-      <c r="D198" s="119" t="s">
+      <c r="A198" s="145"/>
+      <c r="B198" s="145"/>
+      <c r="C198" s="145"/>
+      <c r="D198" s="118" t="s">
         <v>891</v>
       </c>
-      <c r="E198" s="119" t="s">
+      <c r="E198" s="118" t="s">
         <v>892</v>
       </c>
-      <c r="F198" s="120" t="s">
+      <c r="F198" s="119" t="s">
         <v>893</v>
       </c>
-      <c r="G198" s="121" t="s">
+      <c r="G198" s="120" t="s">
         <v>894</v>
       </c>
-      <c r="H198" s="121"/>
-      <c r="I198" s="122"/>
-      <c r="J198" s="123"/>
-      <c r="K198" s="122"/>
-      <c r="L198" s="124"/>
+      <c r="H198" s="120"/>
+      <c r="I198" s="121"/>
+      <c r="J198" s="122"/>
+      <c r="K198" s="121"/>
+      <c r="L198" s="123"/>
       <c r="M198" s="19"/>
       <c r="N198" s="19"/>
       <c r="O198" s="19"/>
@@ -55892,19 +55921,37 @@
   </sheetData>
   <autoFilter ref="A1:AE198" xr:uid="{C8FFCE1F-54C1-8C47-AEE4-AFB8113A9E7C}"/>
   <mergeCells count="60">
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="A121:A198"/>
+    <mergeCell ref="B121:B198"/>
+    <mergeCell ref="C121:C198"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="C49:C56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="B8:B22"/>
     <mergeCell ref="C8:C22"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="B109:B114"/>
@@ -55921,37 +55968,19 @@
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="B8:B22"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="C49:C56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="A121:A198"/>
-    <mergeCell ref="B121:B198"/>
-    <mergeCell ref="C121:C198"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -56152,6 +56181,16 @@
     <hyperlink ref="G36" r:id="rId196" xr:uid="{5DDF8F74-5028-5C4F-B203-6462658DB51F}"/>
     <hyperlink ref="G37" r:id="rId197" xr:uid="{5413690D-D89C-B34D-AEE8-5F73193DE1F0}"/>
     <hyperlink ref="G46" r:id="rId198" xr:uid="{DE998EA4-ED67-3149-910C-3107000F0A40}"/>
+    <hyperlink ref="G39" r:id="rId199" xr:uid="{6E419524-55C3-8440-98F5-8DFB27E4D9B7}"/>
+    <hyperlink ref="G40" r:id="rId200" xr:uid="{6F38650C-D98F-FD45-A6A1-8A329B3BC85B}"/>
+    <hyperlink ref="G43" r:id="rId201" xr:uid="{8363F645-3089-CA47-81CD-7A0193BAC08C}"/>
+    <hyperlink ref="G49" r:id="rId202" xr:uid="{BE8FB353-CA8C-174C-8FC1-4A5835E19213}"/>
+    <hyperlink ref="G50" r:id="rId203" xr:uid="{DBAA4E44-0CFF-0B42-8EED-DA241E6343B0}"/>
+    <hyperlink ref="G51" r:id="rId204" xr:uid="{CAD0BD63-C840-764F-A2D8-3280AD3D8415}"/>
+    <hyperlink ref="G52" r:id="rId205" xr:uid="{2D527D03-1ADD-CF46-AABC-189E24F04EFD}"/>
+    <hyperlink ref="G53" r:id="rId206" xr:uid="{52BE9BAA-06B3-A445-9B2B-33E4FD22F95C}"/>
+    <hyperlink ref="G55" r:id="rId207" xr:uid="{81B54851-F36D-DC4A-99DE-5AC20C5C8CD2}"/>
+    <hyperlink ref="G56" r:id="rId208" xr:uid="{33DC4853-BE65-8F43-90B7-726A6A3EB78D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Developer_survey/Contributors_To_feature_files.xlsx
+++ b/Data/Developer_survey/Contributors_To_feature_files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adwait Chandorkar\Machine Learning Projects\Nitish_paper\RP-open-source-bdd-projects-analysis\Data\Developer_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B21B6EA-25C3-42B3-A948-B7402E45DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122CF35-0640-41FC-8CEE-C1BC9326EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="914">
   <si>
     <t>Index</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>buildspecs/...</t>
-  </si>
-  <si>
-    <t>Most likely these results are correct and useful</t>
   </si>
   <si>
     <t>https://github.com/geoserver/geoserver</t>
@@ -2844,7 +2841,7 @@
     <t>Error accessing the feature files in the repo. Feature file names can be fetched but individual files cannot be accessed</t>
   </si>
   <si>
-    <t>Repo name changed</t>
+    <t>Repo name has been changed in a later commit</t>
   </si>
 </sst>
 </file>
@@ -3460,6 +3457,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3471,15 +3472,10 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3498,15 +3494,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3729,9 +3726,9 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3856,35 +3853,35 @@
         <v>18</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:28" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:28" ht="81" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="25">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="151" t="s">
-        <v>914</v>
+      <c r="G5" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="H5" s="133" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="81" x14ac:dyDescent="0.3">
@@ -3893,22 +3890,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="6">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3918,19 +3915,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="6">
         <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
@@ -3941,19 +3938,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="5"/>
@@ -3964,22 +3961,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="6">
         <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -3989,22 +3986,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="6">
         <v>5</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -4014,16 +4011,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="128" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="6">
         <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>10</v>
@@ -4037,19 +4034,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="6">
         <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="5"/>
@@ -4060,19 +4057,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="6">
         <v>53</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="5"/>
@@ -4083,22 +4080,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D14" s="6">
         <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -4108,19 +4105,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="6">
         <v>10</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="5"/>
@@ -4131,19 +4128,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="5"/>
@@ -4154,22 +4151,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="6">
         <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -4179,19 +4176,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="5"/>
@@ -4202,22 +4199,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -4227,19 +4224,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D20" s="6">
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
@@ -4250,19 +4247,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D21" s="6">
         <v>18</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="5"/>
@@ -4273,22 +4270,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D22" s="6">
         <v>31</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H22" s="5"/>
     </row>
@@ -4298,22 +4295,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="D23" s="25">
         <v>2</v>
       </c>
       <c r="E23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>98</v>
-      </c>
       <c r="G23" s="26" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -4323,19 +4320,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D24" s="6">
         <v>394</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="5"/>
@@ -4346,23 +4343,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D25" s="6">
         <v>439</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="151" t="s">
-        <v>913</v>
+      <c r="H25" s="133" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
@@ -4371,19 +4368,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D26" s="6">
         <v>92</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="5"/>
@@ -4394,19 +4391,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D27" s="6">
         <v>103</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="5"/>
@@ -4417,22 +4414,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>116</v>
       </c>
       <c r="D28" s="25">
         <v>727</v>
       </c>
       <c r="E28" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>118</v>
-      </c>
       <c r="G28" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -4440,205 +4437,205 @@
       <c r="E29" s="7"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="150"/>
+      <c r="H29" s="132"/>
     </row>
     <row r="30" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="7"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="150"/>
+      <c r="H30" s="132"/>
     </row>
     <row r="31" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="7"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="150"/>
+      <c r="H31" s="132"/>
     </row>
     <row r="32" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="7"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="150"/>
+      <c r="H32" s="132"/>
     </row>
     <row r="33" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="7"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="150"/>
+      <c r="H33" s="132"/>
     </row>
     <row r="34" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="7"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="150"/>
+      <c r="H34" s="132"/>
     </row>
     <row r="35" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="150"/>
+      <c r="H35" s="132"/>
     </row>
     <row r="36" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="7"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="150"/>
+      <c r="H36" s="132"/>
     </row>
     <row r="37" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="150"/>
+      <c r="H37" s="132"/>
     </row>
     <row r="38" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="150"/>
+      <c r="H38" s="132"/>
     </row>
     <row r="39" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="150"/>
+      <c r="H39" s="132"/>
     </row>
     <row r="40" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="150"/>
+      <c r="H40" s="132"/>
     </row>
     <row r="41" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="150"/>
+      <c r="H41" s="132"/>
     </row>
     <row r="42" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="150"/>
+      <c r="H42" s="132"/>
     </row>
     <row r="43" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="150"/>
+      <c r="H43" s="132"/>
     </row>
     <row r="44" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="150"/>
+      <c r="H44" s="132"/>
     </row>
     <row r="45" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="150"/>
+      <c r="H45" s="132"/>
     </row>
     <row r="46" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="150"/>
+      <c r="H46" s="132"/>
     </row>
     <row r="47" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="150"/>
+      <c r="H47" s="132"/>
     </row>
     <row r="48" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="150"/>
+      <c r="H48" s="132"/>
     </row>
     <row r="49" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="7"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="150"/>
+      <c r="H49" s="132"/>
     </row>
     <row r="50" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="7"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="150"/>
+      <c r="H50" s="132"/>
     </row>
     <row r="51" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="7"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="150"/>
+      <c r="H51" s="132"/>
     </row>
     <row r="52" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="7"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="150"/>
+      <c r="H52" s="132"/>
     </row>
     <row r="53" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E53" s="7"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="150"/>
+      <c r="H53" s="132"/>
     </row>
     <row r="54" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="7"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="150"/>
+      <c r="H54" s="132"/>
     </row>
     <row r="55" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="150"/>
+      <c r="H55" s="132"/>
     </row>
     <row r="56" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="7"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="150"/>
+      <c r="H56" s="132"/>
     </row>
     <row r="57" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="7"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="150"/>
+      <c r="H57" s="132"/>
     </row>
     <row r="58" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="7"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="150"/>
+      <c r="H58" s="132"/>
     </row>
     <row r="59" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E59" s="7"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="150"/>
+      <c r="H59" s="132"/>
     </row>
     <row r="60" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E60" s="7"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="150"/>
+      <c r="H60" s="132"/>
     </row>
     <row r="61" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E61" s="7"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="150"/>
+      <c r="H61" s="132"/>
     </row>
     <row r="62" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E62" s="7"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="150"/>
+      <c r="H62" s="132"/>
     </row>
     <row r="63" spans="5:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E63" s="7"/>
@@ -9433,19 +9430,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="G1" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="H1" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="100" t="s">
         <v>122</v>
-      </c>
-      <c r="I1" s="100" t="s">
-        <v>123</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -9484,7 +9481,7 @@
         <v>https://github.com/eugenp/tutorials/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="14">
         <v>44355</v>
@@ -9516,7 +9513,7 @@
         <v>https://github.com/neo4j/neo4j/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="14">
         <v>44354</v>
@@ -9548,19 +9545,19 @@
         <v>https://github.com/aws/aws-sdk-java/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F4" s="28">
         <v>44354</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="21">
         <v>171</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="60.75" x14ac:dyDescent="0.3">
@@ -9580,7 +9577,7 @@
         <v>https://github.com/eclipse-openj9/openj9/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="14">
         <v>44355</v>
@@ -9599,7 +9596,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="12">
         <f>Repos!D6</f>
@@ -9610,7 +9607,7 @@
         <v>https://github.com/search?q=feature+repo%3Ageoserver%2Fgeoserver+language%3AGherkin&amp;type=Code&amp;ref=advsearch&amp;l=Gherkin&amp;l=</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="14">
         <v>44355</v>
@@ -9631,7 +9628,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="12">
         <f>Repos!D7</f>
@@ -9642,7 +9639,7 @@
         <v>https://github.com/apache/servicecomb-pack/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="14">
         <v>44289</v>
@@ -9663,7 +9660,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12">
         <f>Repos!D8</f>
@@ -9674,7 +9671,7 @@
         <v>https://github.com/microservices-patterns/ftgo-application/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="14">
         <v>44349</v>
@@ -9695,7 +9692,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="12">
         <f>Repos!D9</f>
@@ -9706,7 +9703,7 @@
         <v>https://github.com/apache/tinkerpop/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="14">
         <v>44354</v>
@@ -9727,7 +9724,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="12">
         <f>Repos!D10</f>
@@ -9738,7 +9735,7 @@
         <v>https://github.com/iotaledger/iri/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="15">
         <v>44061</v>
@@ -9759,7 +9756,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="12">
         <f>Repos!D11</f>
@@ -9770,7 +9767,7 @@
         <v>https://github.com/SmartBear/soapui/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="15">
         <v>44174</v>
@@ -9791,7 +9788,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="12">
         <f>Repos!D12</f>
@@ -9802,7 +9799,7 @@
         <v>https://github.com/w3c/epubcheck/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="15">
         <v>44270</v>
@@ -9823,7 +9820,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="12">
         <f>Repos!D13</f>
@@ -9834,7 +9831,7 @@
         <v>https://github.com/aws/aws-sdk-java-v2/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="14">
         <v>44354</v>
@@ -9855,7 +9852,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="12">
         <f>Repos!D14</f>
@@ -9866,7 +9863,7 @@
         <v>https://github.com/bugsnag/bugsnag-android/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="14">
         <v>44354</v>
@@ -9887,7 +9884,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="12">
         <f>Repos!D15</f>
@@ -9898,7 +9895,7 @@
         <v>https://github.com/blox/blox/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" s="15">
         <v>43171</v>
@@ -9919,7 +9916,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="12">
         <f>Repos!D16</f>
@@ -9930,7 +9927,7 @@
         <v>https://github.com/ddd-by-examples/factory/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="15">
         <v>44310</v>
@@ -9951,7 +9948,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="12">
         <f>Repos!D17</f>
@@ -9962,7 +9959,7 @@
         <v>https://github.com/FluentLenium/FluentLenium/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="15">
         <v>44355</v>
@@ -9983,7 +9980,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="12">
         <f>Repos!D18</f>
@@ -9994,7 +9991,7 @@
         <v>https://github.com/AppiumTestDistribution/AppiumTestDistribution/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="14">
         <v>44324</v>
@@ -10015,7 +10012,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="12">
         <f>Repos!D19</f>
@@ -10026,7 +10023,7 @@
         <v>https://github.com/mzheravin/exchange-core/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="15">
         <v>44311</v>
@@ -10047,7 +10044,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="12">
         <f>Repos!D20</f>
@@ -10058,7 +10055,7 @@
         <v>https://github.com/iriusrisk/bdd-security/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="15">
         <v>43320</v>
@@ -10079,7 +10076,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="12">
         <f>Repos!D21</f>
@@ -10090,7 +10087,7 @@
         <v>https://github.com/jbangdev/jbang/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="14">
         <v>44354</v>
@@ -10111,7 +10108,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="12">
         <f>Repos!D22</f>
@@ -10122,7 +10119,7 @@
         <v>https://github.com/SoftInstigate/restheart/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="14">
         <v>44354</v>
@@ -10143,7 +10140,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="21">
         <f>Repos!D23</f>
@@ -10154,19 +10151,19 @@
         <v>https://github.com/apache/isis/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="28">
         <v>44355</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H23" s="21">
         <v>45</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="60.75" x14ac:dyDescent="0.3">
@@ -10175,7 +10172,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="12">
         <f>Repos!D24</f>
@@ -10186,7 +10183,7 @@
         <v>https://github.com/intuit/karate/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" s="14">
         <v>44340</v>
@@ -10205,7 +10202,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="12">
         <f>Repos!D25</f>
@@ -10216,7 +10213,7 @@
         <v>https://github.com/cucumber/common/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" s="14">
         <v>44354</v>
@@ -10235,7 +10232,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="12">
         <f>Repos!D26</f>
@@ -10246,7 +10243,7 @@
         <v>https://github.com/cucumber/cucumber-jvm/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="14">
         <v>44353</v>
@@ -10265,7 +10262,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="12">
         <f>Repos!D27</f>
@@ -10276,7 +10273,7 @@
         <v>https://github.com/JetBrains/intellij-plugins/search?l=Gherkin&amp;q=feature</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" s="14">
         <v>44354</v>
@@ -10295,7 +10292,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="21">
         <f>Repos!D28</f>
@@ -10306,7 +10303,7 @@
         <v>https://github.com/OpenLiberty/open-liberty/search?l=Gherkin&amp;p=72&amp;q=feature</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F28" s="28">
         <v>44355</v>
@@ -19140,34 +19137,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>899</v>
+      </c>
+      <c r="E1" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="105" t="s">
-        <v>900</v>
-      </c>
-      <c r="E1" s="105" t="s">
+      <c r="F1" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="103" t="s">
-        <v>152</v>
-      </c>
       <c r="G1" s="103" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I1" s="102" t="s">
+        <v>909</v>
+      </c>
+      <c r="J1" s="104" t="s">
         <v>910</v>
       </c>
-      <c r="J1" s="104" t="s">
-        <v>911</v>
-      </c>
       <c r="K1" s="102" t="s">
+        <v>897</v>
+      </c>
+      <c r="L1" s="104" t="s">
         <v>898</v>
-      </c>
-      <c r="L1" s="104" t="s">
-        <v>899</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -19190,29 +19187,29 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="143">
+      <c r="A2" s="142">
         <f>Repos!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="144" t="str">
+      <c r="B2" s="143" t="str">
         <f>Repos!B2</f>
         <v>https://github.com/eugenp/tutorials</v>
       </c>
-      <c r="C2" s="145">
+      <c r="C2" s="144">
         <f>Authors!G2</f>
         <v>44346</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>156</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="30" t="b">
@@ -19242,20 +19239,20 @@
       <c r="AE2" s="19"/>
     </row>
     <row r="3" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
       <c r="D3" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>159</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>160</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="30" t="b">
@@ -19285,18 +19282,18 @@
       <c r="AE3" s="19"/>
     </row>
     <row r="4" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>163</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="30" t="b">
@@ -19326,18 +19323,18 @@
       <c r="AE4" s="19"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>166</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="30" t="b">
@@ -19367,20 +19364,20 @@
       <c r="AE5" s="19"/>
     </row>
     <row r="6" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="133"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="F6" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>169</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>170</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="30" t="b">
@@ -19410,23 +19407,23 @@
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="F7" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="G7" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="124" t="s">
         <v>173</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="124" t="s">
-        <v>174</v>
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="92"/>
@@ -19453,27 +19450,27 @@
       <c r="AE7" s="19"/>
     </row>
     <row r="8" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="132">
+      <c r="A8" s="134">
         <f>Repos!A3</f>
         <v>2</v>
       </c>
-      <c r="B8" s="135" t="str">
+      <c r="B8" s="137" t="str">
         <f>Repos!B3</f>
         <v>https://github.com/neo4j/neo4j</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="138">
         <f>Authors!G3</f>
         <v>44259</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="52" t="s">
         <v>176</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>177</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="53"/>
@@ -19501,20 +19498,20 @@
       <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>180</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>181</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="30"/>
@@ -19542,20 +19539,20 @@
       <c r="AE9" s="19"/>
     </row>
     <row r="10" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="F10" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>184</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>185</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="30"/>
@@ -19583,20 +19580,20 @@
       <c r="AE10" s="19"/>
     </row>
     <row r="11" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="133"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="F11" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>188</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>189</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="30"/>
@@ -19624,20 +19621,20 @@
       <c r="AE11" s="19"/>
     </row>
     <row r="12" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="F12" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>192</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>193</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="30"/>
@@ -19665,20 +19662,20 @@
       <c r="AE12" s="19"/>
     </row>
     <row r="13" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="F13" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>196</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>197</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="30"/>
@@ -19706,20 +19703,20 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="133"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="F14" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="G14" s="33" t="s">
         <v>200</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>201</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="30"/>
@@ -19747,20 +19744,20 @@
       <c r="AE14" s="19"/>
     </row>
     <row r="15" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="133"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="F15" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>204</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>205</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="30"/>
@@ -19788,23 +19785,23 @@
       <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="133"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="F16" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="G16" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="88" t="s">
         <v>208</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="88" t="s">
-        <v>209</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="29"/>
@@ -19831,23 +19828,23 @@
       <c r="AE16" s="19"/>
     </row>
     <row r="17" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="133"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
       <c r="D17" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="F17" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="G17" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="88" t="s">
         <v>212</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="88" t="s">
-        <v>213</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="29"/>
@@ -19874,20 +19871,20 @@
       <c r="AE17" s="19"/>
     </row>
     <row r="18" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="F18" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="G18" s="33" t="s">
         <v>216</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="30"/>
@@ -19915,20 +19912,20 @@
       <c r="AE18" s="19"/>
     </row>
     <row r="19" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="133"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="F19" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>220</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>221</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="30"/>
@@ -19956,20 +19953,20 @@
       <c r="AE19" s="19"/>
     </row>
     <row r="20" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="133"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="F20" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>224</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>225</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="30"/>
@@ -19997,20 +19994,20 @@
       <c r="AE20" s="19"/>
     </row>
     <row r="21" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="133"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="F21" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="G21" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>229</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="30"/>
@@ -20038,20 +20035,20 @@
       <c r="AE21" s="19"/>
     </row>
     <row r="22" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="134"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="F22" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="G22" s="55" t="s">
         <v>232</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>233</v>
       </c>
       <c r="H22" s="55"/>
       <c r="I22" s="48"/>
@@ -20092,7 +20089,7 @@
         <v>-</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
@@ -20123,28 +20120,28 @@
       <c r="AE23" s="19"/>
     </row>
     <row r="24" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="132">
+      <c r="A24" s="134">
         <f>Repos!A5</f>
         <v>4</v>
       </c>
-      <c r="B24" s="135" t="str">
+      <c r="B24" s="137" t="str">
         <f>Repos!B5</f>
         <v>https://github.com/eclipse/openj9</v>
       </c>
-      <c r="C24" s="147" t="s">
-        <v>126</v>
+      <c r="C24" s="146" t="s">
+        <v>125</v>
       </c>
       <c r="D24" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="F24" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="G24" s="50" t="s">
         <v>236</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>237</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="53"/>
@@ -20172,20 +20169,20 @@
       <c r="AE24" s="19"/>
     </row>
     <row r="25" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="133"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="133"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="F25" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="G25" s="33" t="s">
         <v>240</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>241</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="30"/>
@@ -20213,20 +20210,20 @@
       <c r="AE25" s="19"/>
     </row>
     <row r="26" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="133"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="133"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="F26" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="G26" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>245</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="30"/>
@@ -20254,20 +20251,20 @@
       <c r="AE26" s="19"/>
     </row>
     <row r="27" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="133"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="133"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="F27" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="G27" s="33" t="s">
         <v>248</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>249</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="30"/>
@@ -20295,20 +20292,20 @@
       <c r="AE27" s="19"/>
     </row>
     <row r="28" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="133"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="133"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="F28" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="G28" s="33" t="s">
         <v>252</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>253</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="30"/>
@@ -20336,20 +20333,20 @@
       <c r="AE28" s="19"/>
     </row>
     <row r="29" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="133"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="133"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="135"/>
       <c r="D29" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="F29" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="G29" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="30"/>
@@ -20377,20 +20374,20 @@
       <c r="AE29" s="19"/>
     </row>
     <row r="30" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="133"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="133"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="F30" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="G30" s="33" t="s">
         <v>260</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>261</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="30"/>
@@ -20418,20 +20415,20 @@
       <c r="AE30" s="19"/>
     </row>
     <row r="31" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="133"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="133"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="F31" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="G31" s="33" t="s">
         <v>264</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>265</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="30"/>
@@ -20459,20 +20456,20 @@
       <c r="AE31" s="19"/>
     </row>
     <row r="32" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="134"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
       <c r="D32" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="F32" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="G32" s="55" t="s">
         <v>268</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>269</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="48"/>
@@ -20513,16 +20510,16 @@
         <v>42997</v>
       </c>
       <c r="D33" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="F33" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="G33" s="125" t="s">
         <v>272</v>
-      </c>
-      <c r="G33" s="125" t="s">
-        <v>273</v>
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="71" t="b">
@@ -20552,29 +20549,29 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="132">
+      <c r="A34" s="134">
         <f>Repos!A7</f>
         <v>6</v>
       </c>
-      <c r="B34" s="135" t="str">
+      <c r="B34" s="137" t="str">
         <f>Repos!B7</f>
         <v>https://github.com/apache/servicecomb-pack</v>
       </c>
-      <c r="C34" s="142">
+      <c r="C34" s="141">
         <f>Authors!G7</f>
         <v>44271</v>
       </c>
       <c r="D34" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="F34" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="G34" s="50" t="s">
         <v>276</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>277</v>
       </c>
       <c r="H34" s="50"/>
       <c r="I34" s="53" t="b">
@@ -20604,20 +20601,20 @@
       <c r="AE34" s="19"/>
     </row>
     <row r="35" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="133"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
       <c r="D35" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="F35" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="G35" s="33" t="s">
         <v>280</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>281</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="30" t="b">
@@ -20626,7 +20623,7 @@
       <c r="J35" s="29"/>
       <c r="K35" s="30"/>
       <c r="L35" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
@@ -20649,20 +20646,20 @@
       <c r="AE35" s="19"/>
     </row>
     <row r="36" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="133"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
       <c r="D36" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="F36" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="G36" s="126" t="s">
         <v>284</v>
-      </c>
-      <c r="G36" s="126" t="s">
-        <v>285</v>
       </c>
       <c r="H36" s="36"/>
       <c r="I36" s="30" t="b">
@@ -20692,20 +20689,20 @@
       <c r="AE36" s="19"/>
     </row>
     <row r="37" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="134"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
+      <c r="A37" s="136"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="F37" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="G37" s="127" t="s">
         <v>288</v>
-      </c>
-      <c r="G37" s="127" t="s">
-        <v>289</v>
       </c>
       <c r="H37" s="73"/>
       <c r="I37" s="48" t="b">
@@ -20748,16 +20745,16 @@
         <v>43291</v>
       </c>
       <c r="D38" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="F38" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="G38" s="70" t="s">
         <v>292</v>
-      </c>
-      <c r="G38" s="70" t="s">
-        <v>293</v>
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="71"/>
@@ -20785,32 +20782,32 @@
       <c r="AE38" s="19"/>
     </row>
     <row r="39" spans="1:31" ht="81" x14ac:dyDescent="0.3">
-      <c r="A39" s="132">
+      <c r="A39" s="134">
         <f>Repos!A9</f>
         <v>8</v>
       </c>
-      <c r="B39" s="135" t="str">
+      <c r="B39" s="137" t="str">
         <f>Repos!B9</f>
         <v>https://github.com/apache/tinkerpop</v>
       </c>
-      <c r="C39" s="136">
+      <c r="C39" s="138">
         <f>Authors!G9</f>
         <v>44365</v>
       </c>
       <c r="D39" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="F39" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F39" s="51" t="s">
-        <v>296</v>
-      </c>
       <c r="G39" s="129" t="s">
+        <v>903</v>
+      </c>
+      <c r="H39" s="75" t="s">
         <v>904</v>
-      </c>
-      <c r="H39" s="75" t="s">
-        <v>905</v>
       </c>
       <c r="I39" s="53" t="b">
         <v>1</v>
@@ -20839,20 +20836,20 @@
       <c r="AE39" s="19"/>
     </row>
     <row r="40" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="133"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="F40" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="G40" s="129" t="s">
         <v>299</v>
-      </c>
-      <c r="G40" s="129" t="s">
-        <v>300</v>
       </c>
       <c r="H40" s="35"/>
       <c r="I40" s="30" t="b">
@@ -20882,20 +20879,20 @@
       <c r="AE40" s="19"/>
     </row>
     <row r="41" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="133"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="F41" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="G41" s="33" t="s">
         <v>303</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>304</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="30" t="b">
@@ -20925,20 +20922,20 @@
       <c r="AE41" s="19"/>
     </row>
     <row r="42" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="133"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>306</v>
-      </c>
       <c r="G42" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="30"/>
@@ -20966,20 +20963,20 @@
       <c r="AE42" s="19"/>
     </row>
     <row r="43" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="133"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="F43" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="G43" s="129" t="s">
         <v>309</v>
-      </c>
-      <c r="G43" s="129" t="s">
-        <v>310</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="30" t="b">
@@ -21009,20 +21006,20 @@
       <c r="AE43" s="19"/>
     </row>
     <row r="44" spans="1:31" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="134"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="F44" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="G44" s="73" t="s">
         <v>313</v>
-      </c>
-      <c r="G44" s="73" t="s">
-        <v>314</v>
       </c>
       <c r="H44" s="73"/>
       <c r="I44" s="48" t="b">
@@ -21052,29 +21049,29 @@
       <c r="AE44" s="19"/>
     </row>
     <row r="45" spans="1:31" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="132">
+      <c r="A45" s="134">
         <f>Repos!A10</f>
         <v>9</v>
       </c>
-      <c r="B45" s="135" t="str">
+      <c r="B45" s="137" t="str">
         <f>Repos!B10</f>
         <v>https://github.com/iotaledger/iri</v>
       </c>
-      <c r="C45" s="142">
+      <c r="C45" s="141">
         <f>Authors!G10</f>
         <v>43958</v>
       </c>
       <c r="D45" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="F45" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="G45" s="50" t="s">
         <v>317</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>318</v>
       </c>
       <c r="H45" s="50"/>
       <c r="I45" s="53" t="b">
@@ -21104,20 +21101,20 @@
       <c r="AE45" s="19"/>
     </row>
     <row r="46" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
       <c r="D46" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="F46" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="G46" s="129" t="s">
         <v>321</v>
-      </c>
-      <c r="G46" s="129" t="s">
-        <v>322</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="30" t="b">
@@ -21147,23 +21144,23 @@
       <c r="AE46" s="19"/>
     </row>
     <row r="47" spans="1:31" ht="81" x14ac:dyDescent="0.3">
-      <c r="A47" s="133"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
       <c r="D47" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="F47" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>325</v>
-      </c>
       <c r="G47" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="29"/>
@@ -21190,20 +21187,20 @@
       <c r="AE47" s="19"/>
     </row>
     <row r="48" spans="1:31" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="134"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
       <c r="D48" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="E48" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="F48" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="F48" s="47" t="s">
+      <c r="G48" s="73" t="s">
         <v>328</v>
-      </c>
-      <c r="G48" s="73" t="s">
-        <v>329</v>
       </c>
       <c r="H48" s="73"/>
       <c r="I48" s="48" t="b">
@@ -21233,29 +21230,29 @@
       <c r="AE48" s="19"/>
     </row>
     <row r="49" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="132">
+      <c r="A49" s="134">
         <f>Repos!A11</f>
         <v>10</v>
       </c>
-      <c r="B49" s="135" t="str">
+      <c r="B49" s="137" t="str">
         <f>Repos!B11</f>
         <v>https://github.com/SmartBear/soapui</v>
       </c>
-      <c r="C49" s="142">
+      <c r="C49" s="141">
         <f>Authors!G11</f>
         <v>41827</v>
       </c>
       <c r="D49" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="E49" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="51" t="s">
+      <c r="G49" s="130" t="s">
         <v>331</v>
-      </c>
-      <c r="G49" s="130" t="s">
-        <v>332</v>
       </c>
       <c r="H49" s="50"/>
       <c r="I49" s="53" t="b">
@@ -21285,20 +21282,20 @@
       <c r="AE49" s="19"/>
     </row>
     <row r="50" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="133"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
+      <c r="A50" s="135"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
       <c r="D50" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="F50" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="G50" s="129" t="s">
         <v>335</v>
-      </c>
-      <c r="G50" s="129" t="s">
-        <v>336</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="30" t="b">
@@ -21328,20 +21325,20 @@
       <c r="AE50" s="19"/>
     </row>
     <row r="51" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="133"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
+      <c r="A51" s="135"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
       <c r="D51" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="F51" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="G51" s="129" t="s">
         <v>339</v>
-      </c>
-      <c r="G51" s="129" t="s">
-        <v>340</v>
       </c>
       <c r="H51" s="35"/>
       <c r="I51" s="30" t="b">
@@ -21371,20 +21368,20 @@
       <c r="AE51" s="19"/>
     </row>
     <row r="52" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="133"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
+      <c r="A52" s="135"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
       <c r="D52" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="129" t="s">
         <v>341</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="129" t="s">
-        <v>342</v>
       </c>
       <c r="H52" s="33"/>
       <c r="I52" s="30" t="b">
@@ -21414,20 +21411,20 @@
       <c r="AE52" s="19"/>
     </row>
     <row r="53" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="133"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
+      <c r="A53" s="135"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="135"/>
       <c r="D53" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="F53" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="G53" s="129" t="s">
         <v>345</v>
-      </c>
-      <c r="G53" s="129" t="s">
-        <v>346</v>
       </c>
       <c r="H53" s="33"/>
       <c r="I53" s="30" t="b">
@@ -21457,20 +21454,20 @@
       <c r="AE53" s="19"/>
     </row>
     <row r="54" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="133"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133"/>
+      <c r="A54" s="135"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
       <c r="D54" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="F54" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="G54" s="33" t="s">
         <v>349</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>350</v>
       </c>
       <c r="H54" s="33"/>
       <c r="I54" s="30" t="b">
@@ -21500,20 +21497,20 @@
       <c r="AE54" s="19"/>
     </row>
     <row r="55" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="133"/>
-      <c r="B55" s="133"/>
-      <c r="C55" s="133"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
       <c r="D55" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E55" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="F55" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="G55" s="129" t="s">
         <v>353</v>
-      </c>
-      <c r="G55" s="129" t="s">
-        <v>354</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="30" t="b">
@@ -21543,20 +21540,20 @@
       <c r="AE55" s="19"/>
     </row>
     <row r="56" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="134"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="134"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
       <c r="D56" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="F56" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="G56" s="131" t="s">
         <v>357</v>
-      </c>
-      <c r="G56" s="131" t="s">
-        <v>358</v>
       </c>
       <c r="H56" s="55"/>
       <c r="I56" s="48" t="b">
@@ -21586,32 +21583,32 @@
       <c r="AE56" s="19"/>
     </row>
     <row r="57" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="132">
+      <c r="A57" s="134">
         <f>Repos!A12</f>
         <v>11</v>
       </c>
-      <c r="B57" s="135" t="str">
+      <c r="B57" s="137" t="str">
         <f>Repos!B12</f>
         <v>https://github.com/w3c/epubcheck</v>
       </c>
-      <c r="C57" s="142">
+      <c r="C57" s="141">
         <f>Authors!G12</f>
         <v>44253</v>
       </c>
       <c r="D57" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="E57" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="F57" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="F57" s="44" t="s">
-        <v>361</v>
-      </c>
       <c r="G57" s="87" t="s">
+        <v>905</v>
+      </c>
+      <c r="H57" s="88" t="s">
         <v>906</v>
-      </c>
-      <c r="H57" s="88" t="s">
-        <v>907</v>
       </c>
       <c r="I57" s="53"/>
       <c r="J57" s="93"/>
@@ -21638,23 +21635,23 @@
       <c r="AE57" s="19"/>
     </row>
     <row r="58" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="133"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="133"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
       <c r="D58" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E58" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="F58" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="G58" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="88" t="s">
         <v>364</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H58" s="88" t="s">
-        <v>365</v>
       </c>
       <c r="I58" s="30"/>
       <c r="J58" s="29"/>
@@ -21681,23 +21678,23 @@
       <c r="AE58" s="19"/>
     </row>
     <row r="59" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="134"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
+      <c r="A59" s="136"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="E59" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="F59" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="F59" s="47" t="s">
+      <c r="G59" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="88" t="s">
         <v>368</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H59" s="88" t="s">
-        <v>369</v>
       </c>
       <c r="I59" s="48"/>
       <c r="J59" s="92"/>
@@ -21737,16 +21734,16 @@
         <v>43326</v>
       </c>
       <c r="D60" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="E60" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="E60" s="68" t="s">
+      <c r="F60" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="F60" s="69" t="s">
+      <c r="G60" s="70" t="s">
         <v>372</v>
-      </c>
-      <c r="G60" s="70" t="s">
-        <v>373</v>
       </c>
       <c r="H60" s="70"/>
       <c r="I60" s="71" t="b">
@@ -21776,29 +21773,29 @@
       <c r="AE60" s="19"/>
     </row>
     <row r="61" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="132">
+      <c r="A61" s="134">
         <f>Repos!A14</f>
         <v>13</v>
       </c>
-      <c r="B61" s="135" t="str">
+      <c r="B61" s="137" t="str">
         <f>Repos!B14</f>
         <v>https://github.com/bugsnag/bugsnag-android</v>
       </c>
-      <c r="C61" s="136">
+      <c r="C61" s="138">
         <f>Authors!G14</f>
         <v>44362</v>
       </c>
       <c r="D61" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="E61" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="F61" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="F61" s="51" t="s">
+      <c r="G61" s="75" t="s">
         <v>376</v>
-      </c>
-      <c r="G61" s="75" t="s">
-        <v>377</v>
       </c>
       <c r="H61" s="75"/>
       <c r="I61" s="53"/>
@@ -21826,20 +21823,20 @@
       <c r="AE61" s="19"/>
     </row>
     <row r="62" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="133"/>
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
+      <c r="A62" s="135"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="135"/>
       <c r="D62" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="E62" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="F62" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="G62" s="33" t="s">
         <v>380</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>381</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="30"/>
@@ -21867,20 +21864,20 @@
       <c r="AE62" s="19"/>
     </row>
     <row r="63" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="133"/>
-      <c r="B63" s="133"/>
-      <c r="C63" s="133"/>
+      <c r="A63" s="135"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="135"/>
       <c r="D63" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="F63" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="G63" s="33" t="s">
         <v>384</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>385</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="30"/>
@@ -21908,20 +21905,20 @@
       <c r="AE63" s="19"/>
     </row>
     <row r="64" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="133"/>
-      <c r="B64" s="133"/>
-      <c r="C64" s="133"/>
+      <c r="A64" s="135"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="135"/>
       <c r="D64" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E64" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="F64" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="G64" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="G64" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="30"/>
@@ -21949,20 +21946,20 @@
       <c r="AE64" s="19"/>
     </row>
     <row r="65" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="133"/>
-      <c r="B65" s="133"/>
-      <c r="C65" s="133"/>
+      <c r="A65" s="135"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="135"/>
       <c r="D65" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="E65" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="F65" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="F65" s="34" t="s">
-        <v>392</v>
-      </c>
       <c r="G65" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H65" s="37"/>
       <c r="I65" s="30"/>
@@ -21990,23 +21987,23 @@
       <c r="AE65" s="19"/>
     </row>
     <row r="66" spans="1:31" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="134"/>
-      <c r="B66" s="134"/>
-      <c r="C66" s="134"/>
+      <c r="A66" s="136"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
       <c r="D66" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="E66" s="46" t="s">
+      <c r="F66" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="F66" s="47" t="s">
+      <c r="G66" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="91" t="s">
         <v>395</v>
-      </c>
-      <c r="G66" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="H66" s="91" t="s">
-        <v>396</v>
       </c>
       <c r="I66" s="48"/>
       <c r="J66" s="92"/>
@@ -22033,32 +22030,32 @@
       <c r="AE66" s="19"/>
     </row>
     <row r="67" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="132">
+      <c r="A67" s="134">
         <f>Repos!A15</f>
         <v>14</v>
       </c>
-      <c r="B67" s="135" t="str">
+      <c r="B67" s="137" t="str">
         <f>Repos!B15</f>
         <v>https://github.com/blox/blox</v>
       </c>
-      <c r="C67" s="136">
+      <c r="C67" s="138">
         <f>Authors!G15</f>
         <v>43143</v>
       </c>
       <c r="D67" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="E67" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="E67" s="50" t="s">
+      <c r="F67" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="G67" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" s="88" t="s">
         <v>399</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H67" s="88" t="s">
-        <v>400</v>
       </c>
       <c r="I67" s="45"/>
       <c r="J67" s="96"/>
@@ -22085,23 +22082,23 @@
       <c r="AE67" s="19"/>
     </row>
     <row r="68" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="133"/>
-      <c r="B68" s="133"/>
-      <c r="C68" s="133"/>
+      <c r="A68" s="135"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="135"/>
       <c r="D68" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="E68" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="F68" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="G68" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="88" t="s">
         <v>403</v>
-      </c>
-      <c r="G68" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H68" s="88" t="s">
-        <v>404</v>
       </c>
       <c r="I68" s="30"/>
       <c r="J68" s="29"/>
@@ -22128,20 +22125,20 @@
       <c r="AE68" s="19"/>
     </row>
     <row r="69" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="134"/>
-      <c r="B69" s="134"/>
-      <c r="C69" s="134"/>
+      <c r="A69" s="136"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="136"/>
       <c r="D69" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="47" t="s">
+      <c r="G69" s="77" t="s">
         <v>406</v>
-      </c>
-      <c r="G69" s="77" t="s">
-        <v>407</v>
       </c>
       <c r="H69" s="77"/>
       <c r="I69" s="48"/>
@@ -22182,19 +22179,19 @@
         <v>43091</v>
       </c>
       <c r="D70" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="E70" s="78" t="s">
         <v>408</v>
       </c>
-      <c r="E70" s="78" t="s">
+      <c r="F70" s="69" t="s">
         <v>409</v>
       </c>
-      <c r="F70" s="69" t="s">
-        <v>410</v>
-      </c>
       <c r="G70" s="87" t="s">
+        <v>907</v>
+      </c>
+      <c r="H70" s="88" t="s">
         <v>908</v>
-      </c>
-      <c r="H70" s="88" t="s">
-        <v>909</v>
       </c>
       <c r="I70" s="71"/>
       <c r="J70" s="95"/>
@@ -22221,29 +22218,29 @@
       <c r="AE70" s="19"/>
     </row>
     <row r="71" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="132">
+      <c r="A71" s="134">
         <f>Repos!A17</f>
         <v>16</v>
       </c>
-      <c r="B71" s="135" t="str">
+      <c r="B71" s="137" t="str">
         <f>Repos!B17</f>
         <v>https://github.com/FluentLenium/FluentLenium</v>
       </c>
-      <c r="C71" s="136">
+      <c r="C71" s="138">
         <f>Authors!G17</f>
         <v>43660</v>
       </c>
       <c r="D71" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="E71" s="63" t="s">
         <v>411</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="F71" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="F71" s="51" t="s">
+      <c r="G71" s="50" t="s">
         <v>413</v>
-      </c>
-      <c r="G71" s="50" t="s">
-        <v>414</v>
       </c>
       <c r="H71" s="50"/>
       <c r="I71" s="53"/>
@@ -22271,20 +22268,20 @@
       <c r="AE71" s="19"/>
     </row>
     <row r="72" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="134"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="134"/>
+      <c r="A72" s="136"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="136"/>
       <c r="D72" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="F72" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="F72" s="47" t="s">
+      <c r="G72" s="55" t="s">
         <v>417</v>
-      </c>
-      <c r="G72" s="55" t="s">
-        <v>418</v>
       </c>
       <c r="H72" s="55"/>
       <c r="I72" s="48"/>
@@ -22312,29 +22309,29 @@
       <c r="AE72" s="19"/>
     </row>
     <row r="73" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="132">
+      <c r="A73" s="134">
         <f>Repos!A18</f>
         <v>17</v>
       </c>
-      <c r="B73" s="135" t="str">
+      <c r="B73" s="137" t="str">
         <f>Repos!B18</f>
         <v>https://github.com/AppiumTestDistribution/AppiumTestDistribution</v>
       </c>
-      <c r="C73" s="149">
+      <c r="C73" s="140">
         <f>Authors!G18</f>
         <v>44184</v>
       </c>
       <c r="D73" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E73" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E73" s="50" t="s">
+      <c r="F73" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="F73" s="51" t="s">
+      <c r="G73" s="75" t="s">
         <v>421</v>
-      </c>
-      <c r="G73" s="75" t="s">
-        <v>422</v>
       </c>
       <c r="H73" s="75"/>
       <c r="I73" s="53"/>
@@ -22362,23 +22359,23 @@
       <c r="AE73" s="19"/>
     </row>
     <row r="74" spans="1:31" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="133"/>
-      <c r="B74" s="133"/>
-      <c r="C74" s="133"/>
+      <c r="A74" s="135"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="135"/>
       <c r="D74" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="E74" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="F74" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="G74" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="88" t="s">
         <v>425</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H74" s="88" t="s">
-        <v>426</v>
       </c>
       <c r="I74" s="30"/>
       <c r="J74" s="29"/>
@@ -22405,20 +22402,20 @@
       <c r="AE74" s="19"/>
     </row>
     <row r="75" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="133"/>
-      <c r="B75" s="133"/>
-      <c r="C75" s="133"/>
+      <c r="A75" s="135"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="135"/>
       <c r="D75" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="F75" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="F75" s="34" t="s">
+      <c r="G75" s="33" t="s">
         <v>429</v>
-      </c>
-      <c r="G75" s="33" t="s">
-        <v>430</v>
       </c>
       <c r="H75" s="33"/>
       <c r="I75" s="30"/>
@@ -22446,20 +22443,20 @@
       <c r="AE75" s="19"/>
     </row>
     <row r="76" spans="1:31" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="134"/>
-      <c r="B76" s="134"/>
-      <c r="C76" s="134"/>
+      <c r="A76" s="136"/>
+      <c r="B76" s="136"/>
+      <c r="C76" s="136"/>
       <c r="D76" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="E76" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="F76" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="F76" s="47" t="s">
+      <c r="G76" s="55" t="s">
         <v>433</v>
-      </c>
-      <c r="G76" s="55" t="s">
-        <v>434</v>
       </c>
       <c r="H76" s="55"/>
       <c r="I76" s="48"/>
@@ -22487,29 +22484,29 @@
       <c r="AE76" s="19"/>
     </row>
     <row r="77" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="132">
+      <c r="A77" s="134">
         <f>Repos!A19</f>
         <v>18</v>
       </c>
-      <c r="B77" s="135" t="str">
+      <c r="B77" s="137" t="str">
         <f>Repos!B19</f>
         <v>https://github.com/mzheravin/exchange-core</v>
       </c>
-      <c r="C77" s="142">
+      <c r="C77" s="141">
         <f>Authors!G19</f>
         <v>43989</v>
       </c>
       <c r="D77" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="E77" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="F77" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="F77" s="51" t="s">
+      <c r="G77" s="50" t="s">
         <v>437</v>
-      </c>
-      <c r="G77" s="50" t="s">
-        <v>438</v>
       </c>
       <c r="H77" s="50"/>
       <c r="I77" s="53"/>
@@ -22537,20 +22534,20 @@
       <c r="AE77" s="19"/>
     </row>
     <row r="78" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="134"/>
-      <c r="B78" s="134"/>
-      <c r="C78" s="134"/>
+      <c r="A78" s="136"/>
+      <c r="B78" s="136"/>
+      <c r="C78" s="136"/>
       <c r="D78" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="E78" s="46" t="s">
+      <c r="F78" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="F78" s="47" t="s">
+      <c r="G78" s="73" t="s">
         <v>441</v>
-      </c>
-      <c r="G78" s="73" t="s">
-        <v>442</v>
       </c>
       <c r="H78" s="73"/>
       <c r="I78" s="48"/>
@@ -22591,16 +22588,16 @@
         <v>43244</v>
       </c>
       <c r="D79" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="E79" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="69" t="s">
         <v>443</v>
       </c>
-      <c r="E79" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="F79" s="69" t="s">
+      <c r="G79" s="80" t="s">
         <v>444</v>
-      </c>
-      <c r="G79" s="80" t="s">
-        <v>445</v>
       </c>
       <c r="H79" s="80"/>
       <c r="I79" s="71"/>
@@ -22628,29 +22625,29 @@
       <c r="AE79" s="19"/>
     </row>
     <row r="80" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="132">
+      <c r="A80" s="134">
         <f>Repos!A21</f>
         <v>20</v>
       </c>
-      <c r="B80" s="135" t="str">
+      <c r="B80" s="137" t="str">
         <f>Repos!B21</f>
         <v>https://github.com/jbangdev/jbang</v>
       </c>
-      <c r="C80" s="148">
+      <c r="C80" s="139">
         <f>Authors!G21</f>
         <v>44340</v>
       </c>
       <c r="D80" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="E80" s="63" t="s">
         <v>446</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="F80" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="F80" s="51" t="s">
+      <c r="G80" s="50" t="s">
         <v>448</v>
-      </c>
-      <c r="G80" s="50" t="s">
-        <v>449</v>
       </c>
       <c r="H80" s="50"/>
       <c r="I80" s="53"/>
@@ -22678,20 +22675,20 @@
       <c r="AE80" s="19"/>
     </row>
     <row r="81" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="133"/>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
+      <c r="A81" s="135"/>
+      <c r="B81" s="135"/>
+      <c r="C81" s="135"/>
       <c r="D81" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="E81" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="F81" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="F81" s="34" t="s">
+      <c r="G81" s="33" t="s">
         <v>452</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>453</v>
       </c>
       <c r="H81" s="33"/>
       <c r="I81" s="30"/>
@@ -22719,20 +22716,20 @@
       <c r="AE81" s="19"/>
     </row>
     <row r="82" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="133"/>
-      <c r="B82" s="133"/>
-      <c r="C82" s="133"/>
+      <c r="A82" s="135"/>
+      <c r="B82" s="135"/>
+      <c r="C82" s="135"/>
       <c r="D82" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="E82" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="F82" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="F82" s="34" t="s">
+      <c r="G82" s="33" t="s">
         <v>456</v>
-      </c>
-      <c r="G82" s="33" t="s">
-        <v>457</v>
       </c>
       <c r="H82" s="33"/>
       <c r="I82" s="30"/>
@@ -22760,23 +22757,23 @@
       <c r="AE82" s="19"/>
     </row>
     <row r="83" spans="1:31" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="133"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
+      <c r="A83" s="135"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="135"/>
       <c r="D83" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="F83" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="F83" s="34" t="s">
+      <c r="G83" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H83" s="88" t="s">
         <v>460</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H83" s="88" t="s">
-        <v>461</v>
       </c>
       <c r="I83" s="30"/>
       <c r="J83" s="29"/>
@@ -22803,29 +22800,29 @@
       <c r="AE83" s="19"/>
     </row>
     <row r="84" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="132">
+      <c r="A84" s="134">
         <f>Repos!A22</f>
         <v>21</v>
       </c>
-      <c r="B84" s="135" t="str">
+      <c r="B84" s="137" t="str">
         <f>Repos!B22</f>
         <v>https://github.com/SoftInstigate/restheart</v>
       </c>
-      <c r="C84" s="136">
+      <c r="C84" s="138">
         <f>Authors!G22</f>
         <v>44358</v>
       </c>
       <c r="D84" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="E84" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="E84" s="50" t="s">
+      <c r="F84" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="F84" s="51" t="s">
+      <c r="G84" s="50" t="s">
         <v>464</v>
-      </c>
-      <c r="G84" s="50" t="s">
-        <v>465</v>
       </c>
       <c r="H84" s="50"/>
       <c r="I84" s="53"/>
@@ -22853,20 +22850,20 @@
       <c r="AE84" s="19"/>
     </row>
     <row r="85" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="133"/>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
+      <c r="A85" s="135"/>
+      <c r="B85" s="135"/>
+      <c r="C85" s="135"/>
       <c r="D85" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="E85" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="E85" s="31" t="s">
-        <v>467</v>
-      </c>
       <c r="F85" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H85" s="33"/>
       <c r="I85" s="30"/>
@@ -22894,23 +22891,23 @@
       <c r="AE85" s="19"/>
     </row>
     <row r="86" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="133"/>
-      <c r="B86" s="133"/>
-      <c r="C86" s="133"/>
+      <c r="A86" s="135"/>
+      <c r="B86" s="135"/>
+      <c r="C86" s="135"/>
       <c r="D86" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="E86" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="E86" s="31" t="s">
+      <c r="F86" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="F86" s="34" t="s">
+      <c r="G86" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" s="88" t="s">
         <v>470</v>
-      </c>
-      <c r="G86" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="H86" s="88" t="s">
-        <v>471</v>
       </c>
       <c r="I86" s="30"/>
       <c r="J86" s="29"/>
@@ -22937,20 +22934,20 @@
       <c r="AE86" s="19"/>
     </row>
     <row r="87" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="134"/>
-      <c r="B87" s="134"/>
-      <c r="C87" s="134"/>
+      <c r="A87" s="136"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
       <c r="D87" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="E87" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="E87" s="46" t="s">
+      <c r="F87" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="G87" s="73" t="s">
         <v>474</v>
-      </c>
-      <c r="G87" s="73" t="s">
-        <v>475</v>
       </c>
       <c r="H87" s="73"/>
       <c r="I87" s="48"/>
@@ -22991,24 +22988,24 @@
         <v>-</v>
       </c>
       <c r="D88" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F88" s="85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88" s="85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H88" s="85"/>
       <c r="I88" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J88" s="94"/>
       <c r="K88" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L88" s="72"/>
       <c r="M88" s="19"/>
@@ -23032,28 +23029,28 @@
       <c r="AE88" s="19"/>
     </row>
     <row r="89" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="132">
+      <c r="A89" s="134">
         <f>Repos!A24</f>
         <v>23</v>
       </c>
-      <c r="B89" s="135" t="str">
+      <c r="B89" s="137" t="str">
         <f>Repos!B24</f>
         <v>https://github.com/intuit/karate</v>
       </c>
-      <c r="C89" s="136">
+      <c r="C89" s="138">
         <v>44370</v>
       </c>
       <c r="D89" s="63" t="s">
+        <v>475</v>
+      </c>
+      <c r="E89" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="E89" s="63" t="s">
+      <c r="F89" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="F89" s="64" t="s">
+      <c r="G89" s="50" t="s">
         <v>478</v>
-      </c>
-      <c r="G89" s="50" t="s">
-        <v>479</v>
       </c>
       <c r="H89" s="50"/>
       <c r="I89" s="53"/>
@@ -23081,20 +23078,20 @@
       <c r="AE89" s="19"/>
     </row>
     <row r="90" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
+      <c r="A90" s="135"/>
+      <c r="B90" s="135"/>
+      <c r="C90" s="135"/>
       <c r="D90" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="E90" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="E90" s="41" t="s">
+      <c r="F90" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="F90" s="40" t="s">
+      <c r="G90" s="33" t="s">
         <v>482</v>
-      </c>
-      <c r="G90" s="33" t="s">
-        <v>483</v>
       </c>
       <c r="H90" s="33"/>
       <c r="I90" s="30"/>
@@ -23122,20 +23119,20 @@
       <c r="AE90" s="19"/>
     </row>
     <row r="91" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="133"/>
-      <c r="B91" s="133"/>
-      <c r="C91" s="133"/>
+      <c r="A91" s="135"/>
+      <c r="B91" s="135"/>
+      <c r="C91" s="135"/>
       <c r="D91" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="E91" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="E91" s="41" t="s">
+      <c r="F91" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="G91" s="33" t="s">
         <v>486</v>
-      </c>
-      <c r="G91" s="33" t="s">
-        <v>487</v>
       </c>
       <c r="H91" s="33"/>
       <c r="I91" s="30"/>
@@ -23163,20 +23160,20 @@
       <c r="AE91" s="19"/>
     </row>
     <row r="92" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="133"/>
-      <c r="B92" s="133"/>
-      <c r="C92" s="133"/>
+      <c r="A92" s="135"/>
+      <c r="B92" s="135"/>
+      <c r="C92" s="135"/>
       <c r="D92" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="E92" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="E92" s="41" t="s">
+      <c r="F92" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="F92" s="40" t="s">
+      <c r="G92" s="33" t="s">
         <v>490</v>
-      </c>
-      <c r="G92" s="33" t="s">
-        <v>491</v>
       </c>
       <c r="H92" s="33"/>
       <c r="I92" s="30"/>
@@ -23204,20 +23201,20 @@
       <c r="AE92" s="19"/>
     </row>
     <row r="93" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="133"/>
-      <c r="B93" s="133"/>
-      <c r="C93" s="133"/>
+      <c r="A93" s="135"/>
+      <c r="B93" s="135"/>
+      <c r="C93" s="135"/>
       <c r="D93" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="E93" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="E93" s="41" t="s">
+      <c r="F93" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="F93" s="34" t="s">
+      <c r="G93" s="33" t="s">
         <v>494</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>495</v>
       </c>
       <c r="H93" s="33"/>
       <c r="I93" s="30"/>
@@ -23245,20 +23242,20 @@
       <c r="AE93" s="19"/>
     </row>
     <row r="94" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="133"/>
-      <c r="B94" s="133"/>
-      <c r="C94" s="133"/>
+      <c r="A94" s="135"/>
+      <c r="B94" s="135"/>
+      <c r="C94" s="135"/>
       <c r="D94" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="E94" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="E94" s="41" t="s">
+      <c r="F94" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="F94" s="34" t="s">
+      <c r="G94" s="33" t="s">
         <v>498</v>
-      </c>
-      <c r="G94" s="33" t="s">
-        <v>499</v>
       </c>
       <c r="H94" s="33"/>
       <c r="I94" s="30"/>
@@ -23286,20 +23283,20 @@
       <c r="AE94" s="19"/>
     </row>
     <row r="95" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="133"/>
-      <c r="B95" s="133"/>
-      <c r="C95" s="133"/>
+      <c r="A95" s="135"/>
+      <c r="B95" s="135"/>
+      <c r="C95" s="135"/>
       <c r="D95" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="E95" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="E95" s="41" t="s">
+      <c r="F95" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="F95" s="40" t="s">
+      <c r="G95" s="33" t="s">
         <v>502</v>
-      </c>
-      <c r="G95" s="33" t="s">
-        <v>503</v>
       </c>
       <c r="H95" s="33"/>
       <c r="I95" s="30"/>
@@ -23327,20 +23324,20 @@
       <c r="AE95" s="19"/>
     </row>
     <row r="96" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="133"/>
-      <c r="B96" s="133"/>
-      <c r="C96" s="133"/>
+      <c r="A96" s="135"/>
+      <c r="B96" s="135"/>
+      <c r="C96" s="135"/>
       <c r="D96" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E96" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="F96" s="34" t="s">
-        <v>505</v>
-      </c>
       <c r="G96" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H96" s="33"/>
       <c r="I96" s="30"/>
@@ -23368,20 +23365,20 @@
       <c r="AE96" s="19"/>
     </row>
     <row r="97" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="133"/>
-      <c r="B97" s="133"/>
-      <c r="C97" s="133"/>
+      <c r="A97" s="135"/>
+      <c r="B97" s="135"/>
+      <c r="C97" s="135"/>
       <c r="D97" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="F97" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="E97" s="41" t="s">
-        <v>506</v>
-      </c>
-      <c r="F97" s="34" t="s">
+      <c r="G97" s="33" t="s">
         <v>507</v>
-      </c>
-      <c r="G97" s="33" t="s">
-        <v>508</v>
       </c>
       <c r="H97" s="33"/>
       <c r="I97" s="30"/>
@@ -23409,20 +23406,20 @@
       <c r="AE97" s="19"/>
     </row>
     <row r="98" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="134"/>
-      <c r="B98" s="134"/>
-      <c r="C98" s="134"/>
+      <c r="A98" s="136"/>
+      <c r="B98" s="136"/>
+      <c r="C98" s="136"/>
       <c r="D98" s="86" t="s">
+        <v>508</v>
+      </c>
+      <c r="E98" s="86" t="s">
         <v>509</v>
       </c>
-      <c r="E98" s="86" t="s">
+      <c r="F98" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="F98" s="47" t="s">
+      <c r="G98" s="73" t="s">
         <v>511</v>
-      </c>
-      <c r="G98" s="73" t="s">
-        <v>512</v>
       </c>
       <c r="H98" s="73"/>
       <c r="I98" s="48"/>
@@ -23450,28 +23447,28 @@
       <c r="AE98" s="19"/>
     </row>
     <row r="99" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="132">
+      <c r="A99" s="134">
         <f>Repos!A25</f>
         <v>24</v>
       </c>
-      <c r="B99" s="135" t="str">
+      <c r="B99" s="137" t="str">
         <f>Repos!B25</f>
         <v>https://github.com/cucumber/cucumber</v>
       </c>
-      <c r="C99" s="136">
+      <c r="C99" s="138">
         <v>44370</v>
       </c>
       <c r="D99" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="E99" s="63" t="s">
         <v>513</v>
       </c>
-      <c r="E99" s="63" t="s">
+      <c r="F99" s="51" t="s">
         <v>514</v>
       </c>
-      <c r="F99" s="51" t="s">
+      <c r="G99" s="50" t="s">
         <v>515</v>
-      </c>
-      <c r="G99" s="50" t="s">
-        <v>516</v>
       </c>
       <c r="H99" s="50"/>
       <c r="I99" s="53"/>
@@ -23499,20 +23496,20 @@
       <c r="AE99" s="19"/>
     </row>
     <row r="100" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="133"/>
-      <c r="B100" s="133"/>
-      <c r="C100" s="133"/>
+      <c r="A100" s="135"/>
+      <c r="B100" s="135"/>
+      <c r="C100" s="135"/>
       <c r="D100" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="E100" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="F100" s="40" t="s">
         <v>518</v>
       </c>
-      <c r="F100" s="40" t="s">
+      <c r="G100" s="33" t="s">
         <v>519</v>
-      </c>
-      <c r="G100" s="33" t="s">
-        <v>520</v>
       </c>
       <c r="H100" s="33"/>
       <c r="I100" s="30"/>
@@ -23540,20 +23537,20 @@
       <c r="AE100" s="19"/>
     </row>
     <row r="101" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="133"/>
-      <c r="B101" s="133"/>
-      <c r="C101" s="133"/>
+      <c r="A101" s="135"/>
+      <c r="B101" s="135"/>
+      <c r="C101" s="135"/>
       <c r="D101" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="E101" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="F101" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="F101" s="34" t="s">
+      <c r="G101" s="33" t="s">
         <v>523</v>
-      </c>
-      <c r="G101" s="33" t="s">
-        <v>524</v>
       </c>
       <c r="H101" s="33"/>
       <c r="I101" s="30"/>
@@ -23581,20 +23578,20 @@
       <c r="AE101" s="19"/>
     </row>
     <row r="102" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="133"/>
-      <c r="B102" s="133"/>
-      <c r="C102" s="133"/>
+      <c r="A102" s="135"/>
+      <c r="B102" s="135"/>
+      <c r="C102" s="135"/>
       <c r="D102" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="E102" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="F102" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="F102" s="34" t="s">
+      <c r="G102" s="33" t="s">
         <v>527</v>
-      </c>
-      <c r="G102" s="33" t="s">
-        <v>528</v>
       </c>
       <c r="H102" s="33"/>
       <c r="I102" s="30"/>
@@ -23621,21 +23618,21 @@
       <c r="AD102" s="19"/>
       <c r="AE102" s="19"/>
     </row>
-    <row r="103" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="133"/>
-      <c r="B103" s="133"/>
-      <c r="C103" s="133"/>
+    <row r="103" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="135"/>
+      <c r="B103" s="135"/>
+      <c r="C103" s="135"/>
       <c r="D103" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="E103" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="F103" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="F103" s="34" t="s">
-        <v>531</v>
-      </c>
       <c r="G103" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H103" s="33"/>
       <c r="I103" s="30"/>
@@ -23663,20 +23660,20 @@
       <c r="AE103" s="19"/>
     </row>
     <row r="104" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="133"/>
-      <c r="B104" s="133"/>
-      <c r="C104" s="133"/>
+      <c r="A104" s="135"/>
+      <c r="B104" s="135"/>
+      <c r="C104" s="135"/>
       <c r="D104" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="E104" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="F104" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="E104" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="F104" s="40" t="s">
+      <c r="G104" s="33" t="s">
         <v>533</v>
-      </c>
-      <c r="G104" s="33" t="s">
-        <v>534</v>
       </c>
       <c r="H104" s="33"/>
       <c r="I104" s="30"/>
@@ -23704,20 +23701,20 @@
       <c r="AE104" s="19"/>
     </row>
     <row r="105" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="133"/>
-      <c r="B105" s="133"/>
-      <c r="C105" s="133"/>
+      <c r="A105" s="135"/>
+      <c r="B105" s="135"/>
+      <c r="C105" s="135"/>
       <c r="D105" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="E105" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="F105" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="F105" s="34" t="s">
+      <c r="G105" s="33" t="s">
         <v>537</v>
-      </c>
-      <c r="G105" s="33" t="s">
-        <v>538</v>
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="30"/>
@@ -23745,20 +23742,20 @@
       <c r="AE105" s="19"/>
     </row>
     <row r="106" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="133"/>
-      <c r="B106" s="133"/>
-      <c r="C106" s="133"/>
+      <c r="A106" s="135"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="135"/>
       <c r="D106" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="E106" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="E106" s="41" t="s">
+      <c r="F106" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="F106" s="34" t="s">
-        <v>541</v>
-      </c>
       <c r="G106" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H106" s="33"/>
       <c r="I106" s="30"/>
@@ -23786,20 +23783,20 @@
       <c r="AE106" s="19"/>
     </row>
     <row r="107" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="133"/>
-      <c r="B107" s="133"/>
-      <c r="C107" s="133"/>
+      <c r="A107" s="135"/>
+      <c r="B107" s="135"/>
+      <c r="C107" s="135"/>
       <c r="D107" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="E107" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="F107" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="E107" s="41" t="s">
-        <v>542</v>
-      </c>
-      <c r="F107" s="34" t="s">
+      <c r="G107" s="33" t="s">
         <v>543</v>
-      </c>
-      <c r="G107" s="33" t="s">
-        <v>544</v>
       </c>
       <c r="H107" s="33"/>
       <c r="I107" s="30"/>
@@ -23827,20 +23824,20 @@
       <c r="AE107" s="19"/>
     </row>
     <row r="108" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="134"/>
-      <c r="B108" s="134"/>
-      <c r="C108" s="134"/>
+      <c r="A108" s="136"/>
+      <c r="B108" s="136"/>
+      <c r="C108" s="136"/>
       <c r="D108" s="86" t="s">
+        <v>544</v>
+      </c>
+      <c r="E108" s="86" t="s">
         <v>545</v>
       </c>
-      <c r="E108" s="86" t="s">
+      <c r="F108" s="47" t="s">
         <v>546</v>
       </c>
-      <c r="F108" s="47" t="s">
+      <c r="G108" s="47" t="s">
         <v>547</v>
-      </c>
-      <c r="G108" s="47" t="s">
-        <v>548</v>
       </c>
       <c r="H108" s="47"/>
       <c r="I108" s="48"/>
@@ -23868,28 +23865,28 @@
       <c r="AE108" s="19"/>
     </row>
     <row r="109" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="132">
+      <c r="A109" s="134">
         <f>Repos!A26</f>
         <v>25</v>
       </c>
-      <c r="B109" s="135" t="str">
+      <c r="B109" s="137" t="str">
         <f>Repos!B26</f>
         <v>https://github.com/cucumber/cucumber-jvm</v>
       </c>
-      <c r="C109" s="136">
+      <c r="C109" s="138">
         <v>44370</v>
       </c>
       <c r="D109" s="63" t="s">
+        <v>538</v>
+      </c>
+      <c r="E109" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="E109" s="63" t="s">
+      <c r="F109" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="F109" s="64" t="s">
-        <v>541</v>
-      </c>
       <c r="G109" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H109" s="50"/>
       <c r="I109" s="53"/>
@@ -23917,20 +23914,20 @@
       <c r="AE109" s="19"/>
     </row>
     <row r="110" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="133"/>
-      <c r="B110" s="133"/>
-      <c r="C110" s="133"/>
+      <c r="A110" s="135"/>
+      <c r="B110" s="135"/>
+      <c r="C110" s="135"/>
       <c r="D110" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="E110" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="E110" s="41" t="s">
+      <c r="F110" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="F110" s="34" t="s">
+      <c r="G110" s="33" t="s">
         <v>551</v>
-      </c>
-      <c r="G110" s="33" t="s">
-        <v>552</v>
       </c>
       <c r="H110" s="33"/>
       <c r="I110" s="30"/>
@@ -23958,20 +23955,20 @@
       <c r="AE110" s="19"/>
     </row>
     <row r="111" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="133"/>
-      <c r="B111" s="133"/>
-      <c r="C111" s="133"/>
+      <c r="A111" s="135"/>
+      <c r="B111" s="135"/>
+      <c r="C111" s="135"/>
       <c r="D111" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="E111" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="F111" s="34" t="s">
         <v>554</v>
       </c>
-      <c r="F111" s="34" t="s">
+      <c r="G111" s="33" t="s">
         <v>555</v>
-      </c>
-      <c r="G111" s="33" t="s">
-        <v>556</v>
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="30"/>
@@ -23999,20 +23996,20 @@
       <c r="AE111" s="19"/>
     </row>
     <row r="112" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="133"/>
-      <c r="B112" s="133"/>
-      <c r="C112" s="133"/>
+      <c r="A112" s="135"/>
+      <c r="B112" s="135"/>
+      <c r="C112" s="135"/>
       <c r="D112" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="E112" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="F112" s="34" t="s">
         <v>557</v>
       </c>
-      <c r="E112" s="41" t="s">
-        <v>557</v>
-      </c>
-      <c r="F112" s="34" t="s">
-        <v>558</v>
-      </c>
       <c r="G112" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H112" s="33"/>
       <c r="I112" s="30"/>
@@ -24040,20 +24037,20 @@
       <c r="AE112" s="19"/>
     </row>
     <row r="113" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="133"/>
-      <c r="B113" s="133"/>
-      <c r="C113" s="133"/>
+      <c r="A113" s="135"/>
+      <c r="B113" s="135"/>
+      <c r="C113" s="135"/>
       <c r="D113" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="E113" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="E113" s="41" t="s">
+      <c r="F113" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="F113" s="34" t="s">
+      <c r="G113" s="33" t="s">
         <v>561</v>
-      </c>
-      <c r="G113" s="33" t="s">
-        <v>562</v>
       </c>
       <c r="H113" s="33"/>
       <c r="I113" s="30"/>
@@ -24081,20 +24078,20 @@
       <c r="AE113" s="19"/>
     </row>
     <row r="114" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="134"/>
-      <c r="B114" s="134"/>
-      <c r="C114" s="134"/>
+      <c r="A114" s="136"/>
+      <c r="B114" s="136"/>
+      <c r="C114" s="136"/>
       <c r="D114" s="86" t="s">
+        <v>562</v>
+      </c>
+      <c r="E114" s="86" t="s">
+        <v>562</v>
+      </c>
+      <c r="F114" s="47" t="s">
         <v>563</v>
       </c>
-      <c r="E114" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="F114" s="47" t="s">
-        <v>564</v>
-      </c>
       <c r="G114" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H114" s="73"/>
       <c r="I114" s="48"/>
@@ -24122,28 +24119,28 @@
       <c r="AE114" s="19"/>
     </row>
     <row r="115" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="132">
+      <c r="A115" s="134">
         <f>Repos!A27</f>
         <v>26</v>
       </c>
-      <c r="B115" s="135" t="str">
+      <c r="B115" s="137" t="str">
         <f>Repos!B27</f>
         <v>https://github.com/JetBrains/intellij-plugins</v>
       </c>
-      <c r="C115" s="136">
+      <c r="C115" s="138">
         <v>44370</v>
       </c>
       <c r="D115" s="63" t="s">
+        <v>564</v>
+      </c>
+      <c r="E115" s="63" t="s">
         <v>565</v>
       </c>
-      <c r="E115" s="63" t="s">
+      <c r="F115" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="F115" s="51" t="s">
+      <c r="G115" s="50" t="s">
         <v>567</v>
-      </c>
-      <c r="G115" s="50" t="s">
-        <v>568</v>
       </c>
       <c r="H115" s="50"/>
       <c r="I115" s="53"/>
@@ -24171,20 +24168,20 @@
       <c r="AE115" s="19"/>
     </row>
     <row r="116" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="133"/>
-      <c r="B116" s="133"/>
-      <c r="C116" s="133"/>
+      <c r="A116" s="135"/>
+      <c r="B116" s="135"/>
+      <c r="C116" s="135"/>
       <c r="D116" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E116" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="E116" s="41" t="s">
+      <c r="F116" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="F116" s="34" t="s">
+      <c r="G116" s="33" t="s">
         <v>571</v>
-      </c>
-      <c r="G116" s="33" t="s">
-        <v>572</v>
       </c>
       <c r="H116" s="33"/>
       <c r="I116" s="30"/>
@@ -24212,20 +24209,20 @@
       <c r="AE116" s="19"/>
     </row>
     <row r="117" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="133"/>
-      <c r="B117" s="133"/>
-      <c r="C117" s="133"/>
+      <c r="A117" s="135"/>
+      <c r="B117" s="135"/>
+      <c r="C117" s="135"/>
       <c r="D117" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="E117" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="E117" s="41" t="s">
+      <c r="F117" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="F117" s="34" t="s">
+      <c r="G117" s="33" t="s">
         <v>575</v>
-      </c>
-      <c r="G117" s="33" t="s">
-        <v>576</v>
       </c>
       <c r="H117" s="33"/>
       <c r="I117" s="30"/>
@@ -24253,20 +24250,20 @@
       <c r="AE117" s="19"/>
     </row>
     <row r="118" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="133"/>
-      <c r="B118" s="133"/>
-      <c r="C118" s="133"/>
+      <c r="A118" s="135"/>
+      <c r="B118" s="135"/>
+      <c r="C118" s="135"/>
       <c r="D118" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="E118" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="E118" s="41" t="s">
+      <c r="F118" s="34" t="s">
         <v>578</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="G118" s="33" t="s">
         <v>579</v>
-      </c>
-      <c r="G118" s="33" t="s">
-        <v>580</v>
       </c>
       <c r="H118" s="33"/>
       <c r="I118" s="30"/>
@@ -24294,20 +24291,20 @@
       <c r="AE118" s="19"/>
     </row>
     <row r="119" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="133"/>
-      <c r="B119" s="133"/>
-      <c r="C119" s="133"/>
+      <c r="A119" s="135"/>
+      <c r="B119" s="135"/>
+      <c r="C119" s="135"/>
       <c r="D119" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="E119" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="E119" s="41" t="s">
+      <c r="F119" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="F119" s="34" t="s">
+      <c r="G119" s="33" t="s">
         <v>583</v>
-      </c>
-      <c r="G119" s="33" t="s">
-        <v>584</v>
       </c>
       <c r="H119" s="33"/>
       <c r="I119" s="30"/>
@@ -24335,20 +24332,20 @@
       <c r="AE119" s="19"/>
     </row>
     <row r="120" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="134"/>
-      <c r="B120" s="134"/>
-      <c r="C120" s="134"/>
+      <c r="A120" s="136"/>
+      <c r="B120" s="136"/>
+      <c r="C120" s="136"/>
       <c r="D120" s="86" t="s">
+        <v>584</v>
+      </c>
+      <c r="E120" s="86" t="s">
         <v>585</v>
       </c>
-      <c r="E120" s="86" t="s">
+      <c r="F120" s="47" t="s">
         <v>586</v>
       </c>
-      <c r="F120" s="47" t="s">
+      <c r="G120" s="73" t="s">
         <v>587</v>
-      </c>
-      <c r="G120" s="73" t="s">
-        <v>588</v>
       </c>
       <c r="H120" s="73"/>
       <c r="I120" s="48"/>
@@ -24376,28 +24373,28 @@
       <c r="AE120" s="19"/>
     </row>
     <row r="121" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="137">
+      <c r="A121" s="147">
         <f>Repos!A28</f>
         <v>27</v>
       </c>
-      <c r="B121" s="140" t="str">
+      <c r="B121" s="150" t="str">
         <f>Repos!B28</f>
         <v>https://github.com/OpenLiberty/open-liberty</v>
       </c>
-      <c r="C121" s="141">
+      <c r="C121" s="151">
         <v>44370</v>
       </c>
       <c r="D121" s="106" t="s">
+        <v>588</v>
+      </c>
+      <c r="E121" s="106" t="s">
         <v>589</v>
       </c>
-      <c r="E121" s="106" t="s">
+      <c r="F121" s="107" t="s">
         <v>590</v>
       </c>
-      <c r="F121" s="107" t="s">
+      <c r="G121" s="108" t="s">
         <v>591</v>
-      </c>
-      <c r="G121" s="108" t="s">
-        <v>592</v>
       </c>
       <c r="H121" s="108"/>
       <c r="I121" s="109"/>
@@ -24425,20 +24422,20 @@
       <c r="AE121" s="19"/>
     </row>
     <row r="122" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="138"/>
-      <c r="B122" s="138"/>
-      <c r="C122" s="138"/>
+      <c r="A122" s="148"/>
+      <c r="B122" s="148"/>
+      <c r="C122" s="148"/>
       <c r="D122" s="112" t="s">
+        <v>592</v>
+      </c>
+      <c r="E122" s="112" t="s">
         <v>593</v>
       </c>
-      <c r="E122" s="112" t="s">
+      <c r="F122" s="113" t="s">
         <v>594</v>
       </c>
-      <c r="F122" s="113" t="s">
+      <c r="G122" s="114" t="s">
         <v>595</v>
-      </c>
-      <c r="G122" s="114" t="s">
-        <v>596</v>
       </c>
       <c r="H122" s="114"/>
       <c r="I122" s="115"/>
@@ -24466,20 +24463,20 @@
       <c r="AE122" s="19"/>
     </row>
     <row r="123" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="138"/>
-      <c r="B123" s="138"/>
-      <c r="C123" s="138"/>
+      <c r="A123" s="148"/>
+      <c r="B123" s="148"/>
+      <c r="C123" s="148"/>
       <c r="D123" s="112" t="s">
+        <v>596</v>
+      </c>
+      <c r="E123" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="E123" s="112" t="s">
+      <c r="F123" s="113" t="s">
         <v>598</v>
       </c>
-      <c r="F123" s="113" t="s">
+      <c r="G123" s="114" t="s">
         <v>599</v>
-      </c>
-      <c r="G123" s="114" t="s">
-        <v>600</v>
       </c>
       <c r="H123" s="114"/>
       <c r="I123" s="115"/>
@@ -24507,20 +24504,20 @@
       <c r="AE123" s="19"/>
     </row>
     <row r="124" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="138"/>
-      <c r="B124" s="138"/>
-      <c r="C124" s="138"/>
+      <c r="A124" s="148"/>
+      <c r="B124" s="148"/>
+      <c r="C124" s="148"/>
       <c r="D124" s="112" t="s">
+        <v>600</v>
+      </c>
+      <c r="E124" s="112" t="s">
         <v>601</v>
       </c>
-      <c r="E124" s="112" t="s">
+      <c r="F124" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="F124" s="113" t="s">
+      <c r="G124" s="114" t="s">
         <v>603</v>
-      </c>
-      <c r="G124" s="114" t="s">
-        <v>604</v>
       </c>
       <c r="H124" s="114"/>
       <c r="I124" s="115"/>
@@ -24548,20 +24545,20 @@
       <c r="AE124" s="19"/>
     </row>
     <row r="125" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="138"/>
-      <c r="B125" s="138"/>
-      <c r="C125" s="138"/>
+      <c r="A125" s="148"/>
+      <c r="B125" s="148"/>
+      <c r="C125" s="148"/>
       <c r="D125" s="112" t="s">
+        <v>604</v>
+      </c>
+      <c r="E125" s="112" t="s">
         <v>605</v>
       </c>
-      <c r="E125" s="112" t="s">
+      <c r="F125" s="113" t="s">
         <v>606</v>
       </c>
-      <c r="F125" s="113" t="s">
+      <c r="G125" s="114" t="s">
         <v>607</v>
-      </c>
-      <c r="G125" s="114" t="s">
-        <v>608</v>
       </c>
       <c r="H125" s="114"/>
       <c r="I125" s="115"/>
@@ -24589,20 +24586,20 @@
       <c r="AE125" s="19"/>
     </row>
     <row r="126" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="138"/>
-      <c r="B126" s="138"/>
-      <c r="C126" s="138"/>
+      <c r="A126" s="148"/>
+      <c r="B126" s="148"/>
+      <c r="C126" s="148"/>
       <c r="D126" s="112" t="s">
+        <v>608</v>
+      </c>
+      <c r="E126" s="112" t="s">
         <v>609</v>
       </c>
-      <c r="E126" s="112" t="s">
+      <c r="F126" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="F126" s="113" t="s">
+      <c r="G126" s="114" t="s">
         <v>611</v>
-      </c>
-      <c r="G126" s="114" t="s">
-        <v>612</v>
       </c>
       <c r="H126" s="114"/>
       <c r="I126" s="115"/>
@@ -24630,20 +24627,20 @@
       <c r="AE126" s="19"/>
     </row>
     <row r="127" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A127" s="138"/>
-      <c r="B127" s="138"/>
-      <c r="C127" s="138"/>
+      <c r="A127" s="148"/>
+      <c r="B127" s="148"/>
+      <c r="C127" s="148"/>
       <c r="D127" s="112" t="s">
+        <v>612</v>
+      </c>
+      <c r="E127" s="112" t="s">
         <v>613</v>
       </c>
-      <c r="E127" s="112" t="s">
+      <c r="F127" s="113" t="s">
         <v>614</v>
       </c>
-      <c r="F127" s="113" t="s">
+      <c r="G127" s="114" t="s">
         <v>615</v>
-      </c>
-      <c r="G127" s="114" t="s">
-        <v>616</v>
       </c>
       <c r="H127" s="114"/>
       <c r="I127" s="115"/>
@@ -24671,20 +24668,20 @@
       <c r="AE127" s="19"/>
     </row>
     <row r="128" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A128" s="138"/>
-      <c r="B128" s="138"/>
-      <c r="C128" s="138"/>
+      <c r="A128" s="148"/>
+      <c r="B128" s="148"/>
+      <c r="C128" s="148"/>
       <c r="D128" s="112" t="s">
+        <v>616</v>
+      </c>
+      <c r="E128" s="112" t="s">
         <v>617</v>
       </c>
-      <c r="E128" s="112" t="s">
+      <c r="F128" s="113" t="s">
         <v>618</v>
       </c>
-      <c r="F128" s="113" t="s">
+      <c r="G128" s="114" t="s">
         <v>619</v>
-      </c>
-      <c r="G128" s="114" t="s">
-        <v>620</v>
       </c>
       <c r="H128" s="114"/>
       <c r="I128" s="115"/>
@@ -24712,20 +24709,20 @@
       <c r="AE128" s="19"/>
     </row>
     <row r="129" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A129" s="138"/>
-      <c r="B129" s="138"/>
-      <c r="C129" s="138"/>
+      <c r="A129" s="148"/>
+      <c r="B129" s="148"/>
+      <c r="C129" s="148"/>
       <c r="D129" s="112" t="s">
+        <v>620</v>
+      </c>
+      <c r="E129" s="112" t="s">
         <v>621</v>
       </c>
-      <c r="E129" s="112" t="s">
+      <c r="F129" s="113" t="s">
         <v>622</v>
       </c>
-      <c r="F129" s="113" t="s">
+      <c r="G129" s="114" t="s">
         <v>623</v>
-      </c>
-      <c r="G129" s="114" t="s">
-        <v>624</v>
       </c>
       <c r="H129" s="114"/>
       <c r="I129" s="115"/>
@@ -24753,20 +24750,20 @@
       <c r="AE129" s="19"/>
     </row>
     <row r="130" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="138"/>
-      <c r="B130" s="138"/>
-      <c r="C130" s="138"/>
+      <c r="A130" s="148"/>
+      <c r="B130" s="148"/>
+      <c r="C130" s="148"/>
       <c r="D130" s="112" t="s">
+        <v>624</v>
+      </c>
+      <c r="E130" s="112" t="s">
         <v>625</v>
       </c>
-      <c r="E130" s="112" t="s">
+      <c r="F130" s="113" t="s">
         <v>626</v>
       </c>
-      <c r="F130" s="113" t="s">
+      <c r="G130" s="114" t="s">
         <v>627</v>
-      </c>
-      <c r="G130" s="114" t="s">
-        <v>628</v>
       </c>
       <c r="H130" s="114"/>
       <c r="I130" s="115"/>
@@ -24794,20 +24791,20 @@
       <c r="AE130" s="19"/>
     </row>
     <row r="131" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="138"/>
-      <c r="B131" s="138"/>
-      <c r="C131" s="138"/>
+      <c r="A131" s="148"/>
+      <c r="B131" s="148"/>
+      <c r="C131" s="148"/>
       <c r="D131" s="112" t="s">
+        <v>628</v>
+      </c>
+      <c r="E131" s="112" t="s">
         <v>629</v>
       </c>
-      <c r="E131" s="112" t="s">
+      <c r="F131" s="113" t="s">
         <v>630</v>
       </c>
-      <c r="F131" s="113" t="s">
-        <v>631</v>
-      </c>
       <c r="G131" s="114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H131" s="114"/>
       <c r="I131" s="115"/>
@@ -24835,20 +24832,20 @@
       <c r="AE131" s="19"/>
     </row>
     <row r="132" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="138"/>
-      <c r="B132" s="138"/>
-      <c r="C132" s="138"/>
+      <c r="A132" s="148"/>
+      <c r="B132" s="148"/>
+      <c r="C132" s="148"/>
       <c r="D132" s="112" t="s">
+        <v>631</v>
+      </c>
+      <c r="E132" s="112" t="s">
         <v>632</v>
       </c>
-      <c r="E132" s="112" t="s">
+      <c r="F132" s="113" t="s">
         <v>633</v>
       </c>
-      <c r="F132" s="113" t="s">
+      <c r="G132" s="114" t="s">
         <v>634</v>
-      </c>
-      <c r="G132" s="114" t="s">
-        <v>635</v>
       </c>
       <c r="H132" s="114"/>
       <c r="I132" s="115"/>
@@ -24876,20 +24873,20 @@
       <c r="AE132" s="19"/>
     </row>
     <row r="133" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A133" s="138"/>
-      <c r="B133" s="138"/>
-      <c r="C133" s="138"/>
+      <c r="A133" s="148"/>
+      <c r="B133" s="148"/>
+      <c r="C133" s="148"/>
       <c r="D133" s="112" t="s">
+        <v>635</v>
+      </c>
+      <c r="E133" s="112" t="s">
         <v>636</v>
       </c>
-      <c r="E133" s="112" t="s">
+      <c r="F133" s="113" t="s">
         <v>637</v>
       </c>
-      <c r="F133" s="113" t="s">
+      <c r="G133" s="114" t="s">
         <v>638</v>
-      </c>
-      <c r="G133" s="114" t="s">
-        <v>639</v>
       </c>
       <c r="H133" s="114"/>
       <c r="I133" s="115"/>
@@ -24917,20 +24914,20 @@
       <c r="AE133" s="19"/>
     </row>
     <row r="134" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="138"/>
-      <c r="B134" s="138"/>
-      <c r="C134" s="138"/>
+      <c r="A134" s="148"/>
+      <c r="B134" s="148"/>
+      <c r="C134" s="148"/>
       <c r="D134" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E134" s="112" t="s">
         <v>640</v>
       </c>
-      <c r="E134" s="112" t="s">
+      <c r="F134" s="113" t="s">
         <v>641</v>
       </c>
-      <c r="F134" s="113" t="s">
+      <c r="G134" s="114" t="s">
         <v>642</v>
-      </c>
-      <c r="G134" s="114" t="s">
-        <v>643</v>
       </c>
       <c r="H134" s="114"/>
       <c r="I134" s="115"/>
@@ -24958,20 +24955,20 @@
       <c r="AE134" s="19"/>
     </row>
     <row r="135" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="138"/>
-      <c r="B135" s="138"/>
-      <c r="C135" s="138"/>
+      <c r="A135" s="148"/>
+      <c r="B135" s="148"/>
+      <c r="C135" s="148"/>
       <c r="D135" s="112" t="s">
+        <v>643</v>
+      </c>
+      <c r="E135" s="112" t="s">
         <v>644</v>
       </c>
-      <c r="E135" s="112" t="s">
+      <c r="F135" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="F135" s="113" t="s">
+      <c r="G135" s="114" t="s">
         <v>646</v>
-      </c>
-      <c r="G135" s="114" t="s">
-        <v>647</v>
       </c>
       <c r="H135" s="114"/>
       <c r="I135" s="115"/>
@@ -24999,20 +24996,20 @@
       <c r="AE135" s="19"/>
     </row>
     <row r="136" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="138"/>
-      <c r="B136" s="138"/>
-      <c r="C136" s="138"/>
+      <c r="A136" s="148"/>
+      <c r="B136" s="148"/>
+      <c r="C136" s="148"/>
       <c r="D136" s="112" t="s">
+        <v>647</v>
+      </c>
+      <c r="E136" s="112" t="s">
         <v>648</v>
       </c>
-      <c r="E136" s="112" t="s">
+      <c r="F136" s="113" t="s">
         <v>649</v>
       </c>
-      <c r="F136" s="113" t="s">
+      <c r="G136" s="114" t="s">
         <v>650</v>
-      </c>
-      <c r="G136" s="114" t="s">
-        <v>651</v>
       </c>
       <c r="H136" s="114"/>
       <c r="I136" s="115"/>
@@ -25040,20 +25037,20 @@
       <c r="AE136" s="19"/>
     </row>
     <row r="137" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="138"/>
-      <c r="B137" s="138"/>
-      <c r="C137" s="138"/>
+      <c r="A137" s="148"/>
+      <c r="B137" s="148"/>
+      <c r="C137" s="148"/>
       <c r="D137" s="112" t="s">
+        <v>651</v>
+      </c>
+      <c r="E137" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="E137" s="112" t="s">
+      <c r="F137" s="113" t="s">
         <v>653</v>
       </c>
-      <c r="F137" s="113" t="s">
+      <c r="G137" s="114" t="s">
         <v>654</v>
-      </c>
-      <c r="G137" s="114" t="s">
-        <v>655</v>
       </c>
       <c r="H137" s="114"/>
       <c r="I137" s="115"/>
@@ -25081,20 +25078,20 @@
       <c r="AE137" s="19"/>
     </row>
     <row r="138" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="138"/>
-      <c r="B138" s="138"/>
-      <c r="C138" s="138"/>
+      <c r="A138" s="148"/>
+      <c r="B138" s="148"/>
+      <c r="C138" s="148"/>
       <c r="D138" s="112" t="s">
+        <v>655</v>
+      </c>
+      <c r="E138" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="E138" s="112" t="s">
+      <c r="F138" s="113" t="s">
         <v>657</v>
       </c>
-      <c r="F138" s="113" t="s">
+      <c r="G138" s="114" t="s">
         <v>658</v>
-      </c>
-      <c r="G138" s="114" t="s">
-        <v>659</v>
       </c>
       <c r="H138" s="114"/>
       <c r="I138" s="115"/>
@@ -25122,20 +25119,20 @@
       <c r="AE138" s="19"/>
     </row>
     <row r="139" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="138"/>
-      <c r="B139" s="138"/>
-      <c r="C139" s="138"/>
+      <c r="A139" s="148"/>
+      <c r="B139" s="148"/>
+      <c r="C139" s="148"/>
       <c r="D139" s="112" t="s">
+        <v>659</v>
+      </c>
+      <c r="E139" s="112" t="s">
         <v>660</v>
       </c>
-      <c r="E139" s="112" t="s">
+      <c r="F139" s="113" t="s">
         <v>661</v>
       </c>
-      <c r="F139" s="113" t="s">
+      <c r="G139" s="114" t="s">
         <v>662</v>
-      </c>
-      <c r="G139" s="114" t="s">
-        <v>663</v>
       </c>
       <c r="H139" s="114"/>
       <c r="I139" s="115"/>
@@ -25163,20 +25160,20 @@
       <c r="AE139" s="19"/>
     </row>
     <row r="140" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="138"/>
-      <c r="B140" s="138"/>
-      <c r="C140" s="138"/>
+      <c r="A140" s="148"/>
+      <c r="B140" s="148"/>
+      <c r="C140" s="148"/>
       <c r="D140" s="112" t="s">
+        <v>663</v>
+      </c>
+      <c r="E140" s="112" t="s">
         <v>664</v>
       </c>
-      <c r="E140" s="112" t="s">
+      <c r="F140" s="113" t="s">
         <v>665</v>
       </c>
-      <c r="F140" s="113" t="s">
+      <c r="G140" s="114" t="s">
         <v>666</v>
-      </c>
-      <c r="G140" s="114" t="s">
-        <v>667</v>
       </c>
       <c r="H140" s="114"/>
       <c r="I140" s="115"/>
@@ -25204,20 +25201,20 @@
       <c r="AE140" s="19"/>
     </row>
     <row r="141" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A141" s="138"/>
-      <c r="B141" s="138"/>
-      <c r="C141" s="138"/>
+      <c r="A141" s="148"/>
+      <c r="B141" s="148"/>
+      <c r="C141" s="148"/>
       <c r="D141" s="112" t="s">
+        <v>667</v>
+      </c>
+      <c r="E141" s="112" t="s">
         <v>668</v>
       </c>
-      <c r="E141" s="112" t="s">
+      <c r="F141" s="113" t="s">
         <v>669</v>
       </c>
-      <c r="F141" s="113" t="s">
+      <c r="G141" s="114" t="s">
         <v>670</v>
-      </c>
-      <c r="G141" s="114" t="s">
-        <v>671</v>
       </c>
       <c r="H141" s="114"/>
       <c r="I141" s="115"/>
@@ -25245,20 +25242,20 @@
       <c r="AE141" s="19"/>
     </row>
     <row r="142" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A142" s="138"/>
-      <c r="B142" s="138"/>
-      <c r="C142" s="138"/>
+      <c r="A142" s="148"/>
+      <c r="B142" s="148"/>
+      <c r="C142" s="148"/>
       <c r="D142" s="112" t="s">
+        <v>671</v>
+      </c>
+      <c r="E142" s="112" t="s">
         <v>672</v>
       </c>
-      <c r="E142" s="112" t="s">
+      <c r="F142" s="113" t="s">
         <v>673</v>
       </c>
-      <c r="F142" s="113" t="s">
+      <c r="G142" s="114" t="s">
         <v>674</v>
-      </c>
-      <c r="G142" s="114" t="s">
-        <v>675</v>
       </c>
       <c r="H142" s="114"/>
       <c r="I142" s="115"/>
@@ -25286,20 +25283,20 @@
       <c r="AE142" s="19"/>
     </row>
     <row r="143" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="138"/>
-      <c r="B143" s="138"/>
-      <c r="C143" s="138"/>
+      <c r="A143" s="148"/>
+      <c r="B143" s="148"/>
+      <c r="C143" s="148"/>
       <c r="D143" s="112" t="s">
+        <v>675</v>
+      </c>
+      <c r="E143" s="112" t="s">
         <v>676</v>
       </c>
-      <c r="E143" s="112" t="s">
+      <c r="F143" s="113" t="s">
         <v>677</v>
       </c>
-      <c r="F143" s="113" t="s">
+      <c r="G143" s="114" t="s">
         <v>678</v>
-      </c>
-      <c r="G143" s="114" t="s">
-        <v>679</v>
       </c>
       <c r="H143" s="114"/>
       <c r="I143" s="115"/>
@@ -25327,20 +25324,20 @@
       <c r="AE143" s="19"/>
     </row>
     <row r="144" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A144" s="138"/>
-      <c r="B144" s="138"/>
-      <c r="C144" s="138"/>
+      <c r="A144" s="148"/>
+      <c r="B144" s="148"/>
+      <c r="C144" s="148"/>
       <c r="D144" s="112" t="s">
+        <v>679</v>
+      </c>
+      <c r="E144" s="112" t="s">
         <v>680</v>
       </c>
-      <c r="E144" s="112" t="s">
+      <c r="F144" s="113" t="s">
         <v>681</v>
       </c>
-      <c r="F144" s="113" t="s">
+      <c r="G144" s="114" t="s">
         <v>682</v>
-      </c>
-      <c r="G144" s="114" t="s">
-        <v>683</v>
       </c>
       <c r="H144" s="114"/>
       <c r="I144" s="115"/>
@@ -25368,20 +25365,20 @@
       <c r="AE144" s="19"/>
     </row>
     <row r="145" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="138"/>
-      <c r="B145" s="138"/>
-      <c r="C145" s="138"/>
+      <c r="A145" s="148"/>
+      <c r="B145" s="148"/>
+      <c r="C145" s="148"/>
       <c r="D145" s="112" t="s">
+        <v>683</v>
+      </c>
+      <c r="E145" s="112" t="s">
         <v>684</v>
       </c>
-      <c r="E145" s="112" t="s">
+      <c r="F145" s="113" t="s">
         <v>685</v>
       </c>
-      <c r="F145" s="113" t="s">
+      <c r="G145" s="114" t="s">
         <v>686</v>
-      </c>
-      <c r="G145" s="114" t="s">
-        <v>687</v>
       </c>
       <c r="H145" s="114"/>
       <c r="I145" s="115"/>
@@ -25409,20 +25406,20 @@
       <c r="AE145" s="19"/>
     </row>
     <row r="146" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="138"/>
-      <c r="B146" s="138"/>
-      <c r="C146" s="138"/>
+      <c r="A146" s="148"/>
+      <c r="B146" s="148"/>
+      <c r="C146" s="148"/>
       <c r="D146" s="112" t="s">
+        <v>687</v>
+      </c>
+      <c r="E146" s="112" t="s">
         <v>688</v>
       </c>
-      <c r="E146" s="112" t="s">
+      <c r="F146" s="113" t="s">
         <v>689</v>
       </c>
-      <c r="F146" s="113" t="s">
+      <c r="G146" s="114" t="s">
         <v>690</v>
-      </c>
-      <c r="G146" s="114" t="s">
-        <v>691</v>
       </c>
       <c r="H146" s="114"/>
       <c r="I146" s="115"/>
@@ -25450,20 +25447,20 @@
       <c r="AE146" s="19"/>
     </row>
     <row r="147" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="138"/>
-      <c r="B147" s="138"/>
-      <c r="C147" s="138"/>
+      <c r="A147" s="148"/>
+      <c r="B147" s="148"/>
+      <c r="C147" s="148"/>
       <c r="D147" s="112" t="s">
+        <v>691</v>
+      </c>
+      <c r="E147" s="112" t="s">
         <v>692</v>
       </c>
-      <c r="E147" s="112" t="s">
+      <c r="F147" s="113" t="s">
         <v>693</v>
       </c>
-      <c r="F147" s="113" t="s">
+      <c r="G147" s="114" t="s">
         <v>694</v>
-      </c>
-      <c r="G147" s="114" t="s">
-        <v>695</v>
       </c>
       <c r="H147" s="114"/>
       <c r="I147" s="115"/>
@@ -25491,20 +25488,20 @@
       <c r="AE147" s="19"/>
     </row>
     <row r="148" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A148" s="138"/>
-      <c r="B148" s="138"/>
-      <c r="C148" s="138"/>
+      <c r="A148" s="148"/>
+      <c r="B148" s="148"/>
+      <c r="C148" s="148"/>
       <c r="D148" s="112" t="s">
+        <v>695</v>
+      </c>
+      <c r="E148" s="112" t="s">
         <v>696</v>
       </c>
-      <c r="E148" s="112" t="s">
+      <c r="F148" s="113" t="s">
         <v>697</v>
       </c>
-      <c r="F148" s="113" t="s">
+      <c r="G148" s="114" t="s">
         <v>698</v>
-      </c>
-      <c r="G148" s="114" t="s">
-        <v>699</v>
       </c>
       <c r="H148" s="114"/>
       <c r="I148" s="115"/>
@@ -25532,20 +25529,20 @@
       <c r="AE148" s="19"/>
     </row>
     <row r="149" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A149" s="138"/>
-      <c r="B149" s="138"/>
-      <c r="C149" s="138"/>
+      <c r="A149" s="148"/>
+      <c r="B149" s="148"/>
+      <c r="C149" s="148"/>
       <c r="D149" s="112" t="s">
+        <v>699</v>
+      </c>
+      <c r="E149" s="112" t="s">
         <v>700</v>
       </c>
-      <c r="E149" s="112" t="s">
+      <c r="F149" s="113" t="s">
         <v>701</v>
       </c>
-      <c r="F149" s="113" t="s">
+      <c r="G149" s="114" t="s">
         <v>702</v>
-      </c>
-      <c r="G149" s="114" t="s">
-        <v>703</v>
       </c>
       <c r="H149" s="114"/>
       <c r="I149" s="115"/>
@@ -25573,20 +25570,20 @@
       <c r="AE149" s="19"/>
     </row>
     <row r="150" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A150" s="138"/>
-      <c r="B150" s="138"/>
-      <c r="C150" s="138"/>
+      <c r="A150" s="148"/>
+      <c r="B150" s="148"/>
+      <c r="C150" s="148"/>
       <c r="D150" s="112" t="s">
+        <v>703</v>
+      </c>
+      <c r="E150" s="112" t="s">
         <v>704</v>
       </c>
-      <c r="E150" s="112" t="s">
+      <c r="F150" s="113" t="s">
         <v>705</v>
       </c>
-      <c r="F150" s="113" t="s">
+      <c r="G150" s="114" t="s">
         <v>706</v>
-      </c>
-      <c r="G150" s="114" t="s">
-        <v>707</v>
       </c>
       <c r="H150" s="114"/>
       <c r="I150" s="115"/>
@@ -25614,20 +25611,20 @@
       <c r="AE150" s="19"/>
     </row>
     <row r="151" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A151" s="138"/>
-      <c r="B151" s="138"/>
-      <c r="C151" s="138"/>
+      <c r="A151" s="148"/>
+      <c r="B151" s="148"/>
+      <c r="C151" s="148"/>
       <c r="D151" s="112" t="s">
+        <v>707</v>
+      </c>
+      <c r="E151" s="112" t="s">
         <v>708</v>
       </c>
-      <c r="E151" s="112" t="s">
+      <c r="F151" s="113" t="s">
         <v>709</v>
       </c>
-      <c r="F151" s="113" t="s">
+      <c r="G151" s="114" t="s">
         <v>710</v>
-      </c>
-      <c r="G151" s="114" t="s">
-        <v>711</v>
       </c>
       <c r="H151" s="114"/>
       <c r="I151" s="115"/>
@@ -25655,20 +25652,20 @@
       <c r="AE151" s="19"/>
     </row>
     <row r="152" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A152" s="138"/>
-      <c r="B152" s="138"/>
-      <c r="C152" s="138"/>
+      <c r="A152" s="148"/>
+      <c r="B152" s="148"/>
+      <c r="C152" s="148"/>
       <c r="D152" s="112" t="s">
+        <v>711</v>
+      </c>
+      <c r="E152" s="112" t="s">
         <v>712</v>
       </c>
-      <c r="E152" s="112" t="s">
+      <c r="F152" s="113" t="s">
         <v>713</v>
       </c>
-      <c r="F152" s="113" t="s">
+      <c r="G152" s="114" t="s">
         <v>714</v>
-      </c>
-      <c r="G152" s="114" t="s">
-        <v>715</v>
       </c>
       <c r="H152" s="114"/>
       <c r="I152" s="115"/>
@@ -25696,20 +25693,20 @@
       <c r="AE152" s="19"/>
     </row>
     <row r="153" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A153" s="138"/>
-      <c r="B153" s="138"/>
-      <c r="C153" s="138"/>
+      <c r="A153" s="148"/>
+      <c r="B153" s="148"/>
+      <c r="C153" s="148"/>
       <c r="D153" s="112" t="s">
+        <v>715</v>
+      </c>
+      <c r="E153" s="112" t="s">
         <v>716</v>
       </c>
-      <c r="E153" s="112" t="s">
+      <c r="F153" s="113" t="s">
         <v>717</v>
       </c>
-      <c r="F153" s="113" t="s">
+      <c r="G153" s="114" t="s">
         <v>718</v>
-      </c>
-      <c r="G153" s="114" t="s">
-        <v>719</v>
       </c>
       <c r="H153" s="114"/>
       <c r="I153" s="115"/>
@@ -25737,20 +25734,20 @@
       <c r="AE153" s="19"/>
     </row>
     <row r="154" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A154" s="138"/>
-      <c r="B154" s="138"/>
-      <c r="C154" s="138"/>
+      <c r="A154" s="148"/>
+      <c r="B154" s="148"/>
+      <c r="C154" s="148"/>
       <c r="D154" s="112" t="s">
+        <v>719</v>
+      </c>
+      <c r="E154" s="112" t="s">
         <v>720</v>
       </c>
-      <c r="E154" s="112" t="s">
+      <c r="F154" s="113" t="s">
         <v>721</v>
       </c>
-      <c r="F154" s="113" t="s">
+      <c r="G154" s="114" t="s">
         <v>722</v>
-      </c>
-      <c r="G154" s="114" t="s">
-        <v>723</v>
       </c>
       <c r="H154" s="114"/>
       <c r="I154" s="115"/>
@@ -25778,20 +25775,20 @@
       <c r="AE154" s="19"/>
     </row>
     <row r="155" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="138"/>
-      <c r="B155" s="138"/>
-      <c r="C155" s="138"/>
+      <c r="A155" s="148"/>
+      <c r="B155" s="148"/>
+      <c r="C155" s="148"/>
       <c r="D155" s="112" t="s">
+        <v>723</v>
+      </c>
+      <c r="E155" s="112" t="s">
         <v>724</v>
       </c>
-      <c r="E155" s="112" t="s">
+      <c r="F155" s="113" t="s">
         <v>725</v>
       </c>
-      <c r="F155" s="113" t="s">
+      <c r="G155" s="114" t="s">
         <v>726</v>
-      </c>
-      <c r="G155" s="114" t="s">
-        <v>727</v>
       </c>
       <c r="H155" s="114"/>
       <c r="I155" s="115"/>
@@ -25819,20 +25816,20 @@
       <c r="AE155" s="19"/>
     </row>
     <row r="156" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A156" s="138"/>
-      <c r="B156" s="138"/>
-      <c r="C156" s="138"/>
+      <c r="A156" s="148"/>
+      <c r="B156" s="148"/>
+      <c r="C156" s="148"/>
       <c r="D156" s="112" t="s">
+        <v>727</v>
+      </c>
+      <c r="E156" s="112" t="s">
         <v>728</v>
       </c>
-      <c r="E156" s="112" t="s">
+      <c r="F156" s="113" t="s">
         <v>729</v>
       </c>
-      <c r="F156" s="113" t="s">
+      <c r="G156" s="114" t="s">
         <v>730</v>
-      </c>
-      <c r="G156" s="114" t="s">
-        <v>731</v>
       </c>
       <c r="H156" s="114"/>
       <c r="I156" s="115"/>
@@ -25860,20 +25857,20 @@
       <c r="AE156" s="19"/>
     </row>
     <row r="157" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A157" s="138"/>
-      <c r="B157" s="138"/>
-      <c r="C157" s="138"/>
+      <c r="A157" s="148"/>
+      <c r="B157" s="148"/>
+      <c r="C157" s="148"/>
       <c r="D157" s="112" t="s">
+        <v>731</v>
+      </c>
+      <c r="E157" s="112" t="s">
         <v>732</v>
       </c>
-      <c r="E157" s="112" t="s">
+      <c r="F157" s="113" t="s">
         <v>733</v>
       </c>
-      <c r="F157" s="113" t="s">
+      <c r="G157" s="114" t="s">
         <v>734</v>
-      </c>
-      <c r="G157" s="114" t="s">
-        <v>735</v>
       </c>
       <c r="H157" s="114"/>
       <c r="I157" s="115"/>
@@ -25901,20 +25898,20 @@
       <c r="AE157" s="19"/>
     </row>
     <row r="158" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A158" s="138"/>
-      <c r="B158" s="138"/>
-      <c r="C158" s="138"/>
+      <c r="A158" s="148"/>
+      <c r="B158" s="148"/>
+      <c r="C158" s="148"/>
       <c r="D158" s="112" t="s">
+        <v>735</v>
+      </c>
+      <c r="E158" s="112" t="s">
         <v>736</v>
       </c>
-      <c r="E158" s="112" t="s">
+      <c r="F158" s="113" t="s">
         <v>737</v>
       </c>
-      <c r="F158" s="113" t="s">
-        <v>738</v>
-      </c>
       <c r="G158" s="114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H158" s="114"/>
       <c r="I158" s="115"/>
@@ -25942,20 +25939,20 @@
       <c r="AE158" s="19"/>
     </row>
     <row r="159" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A159" s="138"/>
-      <c r="B159" s="138"/>
-      <c r="C159" s="138"/>
+      <c r="A159" s="148"/>
+      <c r="B159" s="148"/>
+      <c r="C159" s="148"/>
       <c r="D159" s="112" t="s">
+        <v>738</v>
+      </c>
+      <c r="E159" s="112" t="s">
         <v>739</v>
       </c>
-      <c r="E159" s="112" t="s">
+      <c r="F159" s="113" t="s">
         <v>740</v>
       </c>
-      <c r="F159" s="113" t="s">
+      <c r="G159" s="114" t="s">
         <v>741</v>
-      </c>
-      <c r="G159" s="114" t="s">
-        <v>742</v>
       </c>
       <c r="H159" s="114"/>
       <c r="I159" s="115"/>
@@ -25983,20 +25980,20 @@
       <c r="AE159" s="19"/>
     </row>
     <row r="160" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="138"/>
-      <c r="B160" s="138"/>
-      <c r="C160" s="138"/>
+      <c r="A160" s="148"/>
+      <c r="B160" s="148"/>
+      <c r="C160" s="148"/>
       <c r="D160" s="112" t="s">
+        <v>742</v>
+      </c>
+      <c r="E160" s="112" t="s">
         <v>743</v>
       </c>
-      <c r="E160" s="112" t="s">
+      <c r="F160" s="113" t="s">
         <v>744</v>
       </c>
-      <c r="F160" s="113" t="s">
+      <c r="G160" s="114" t="s">
         <v>745</v>
-      </c>
-      <c r="G160" s="114" t="s">
-        <v>746</v>
       </c>
       <c r="H160" s="114"/>
       <c r="I160" s="115"/>
@@ -26024,20 +26021,20 @@
       <c r="AE160" s="19"/>
     </row>
     <row r="161" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A161" s="138"/>
-      <c r="B161" s="138"/>
-      <c r="C161" s="138"/>
+      <c r="A161" s="148"/>
+      <c r="B161" s="148"/>
+      <c r="C161" s="148"/>
       <c r="D161" s="112" t="s">
+        <v>746</v>
+      </c>
+      <c r="E161" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="E161" s="112" t="s">
+      <c r="F161" s="113" t="s">
         <v>748</v>
       </c>
-      <c r="F161" s="113" t="s">
+      <c r="G161" s="114" t="s">
         <v>749</v>
-      </c>
-      <c r="G161" s="114" t="s">
-        <v>750</v>
       </c>
       <c r="H161" s="114"/>
       <c r="I161" s="115"/>
@@ -26065,20 +26062,20 @@
       <c r="AE161" s="19"/>
     </row>
     <row r="162" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A162" s="138"/>
-      <c r="B162" s="138"/>
-      <c r="C162" s="138"/>
+      <c r="A162" s="148"/>
+      <c r="B162" s="148"/>
+      <c r="C162" s="148"/>
       <c r="D162" s="112" t="s">
+        <v>750</v>
+      </c>
+      <c r="E162" s="112" t="s">
         <v>751</v>
       </c>
-      <c r="E162" s="112" t="s">
+      <c r="F162" s="113" t="s">
         <v>752</v>
       </c>
-      <c r="F162" s="113" t="s">
+      <c r="G162" s="114" t="s">
         <v>753</v>
-      </c>
-      <c r="G162" s="114" t="s">
-        <v>754</v>
       </c>
       <c r="H162" s="114"/>
       <c r="I162" s="115"/>
@@ -26106,20 +26103,20 @@
       <c r="AE162" s="19"/>
     </row>
     <row r="163" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A163" s="138"/>
-      <c r="B163" s="138"/>
-      <c r="C163" s="138"/>
+      <c r="A163" s="148"/>
+      <c r="B163" s="148"/>
+      <c r="C163" s="148"/>
       <c r="D163" s="112" t="s">
+        <v>754</v>
+      </c>
+      <c r="E163" s="112" t="s">
         <v>755</v>
       </c>
-      <c r="E163" s="112" t="s">
+      <c r="F163" s="113" t="s">
         <v>756</v>
       </c>
-      <c r="F163" s="113" t="s">
+      <c r="G163" s="114" t="s">
         <v>757</v>
-      </c>
-      <c r="G163" s="114" t="s">
-        <v>758</v>
       </c>
       <c r="H163" s="114"/>
       <c r="I163" s="115"/>
@@ -26147,20 +26144,20 @@
       <c r="AE163" s="19"/>
     </row>
     <row r="164" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A164" s="138"/>
-      <c r="B164" s="138"/>
-      <c r="C164" s="138"/>
+      <c r="A164" s="148"/>
+      <c r="B164" s="148"/>
+      <c r="C164" s="148"/>
       <c r="D164" s="112" t="s">
+        <v>758</v>
+      </c>
+      <c r="E164" s="112" t="s">
         <v>759</v>
       </c>
-      <c r="E164" s="112" t="s">
+      <c r="F164" s="113" t="s">
         <v>760</v>
       </c>
-      <c r="F164" s="113" t="s">
+      <c r="G164" s="114" t="s">
         <v>761</v>
-      </c>
-      <c r="G164" s="114" t="s">
-        <v>762</v>
       </c>
       <c r="H164" s="114"/>
       <c r="I164" s="115"/>
@@ -26188,20 +26185,20 @@
       <c r="AE164" s="19"/>
     </row>
     <row r="165" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A165" s="138"/>
-      <c r="B165" s="138"/>
-      <c r="C165" s="138"/>
+      <c r="A165" s="148"/>
+      <c r="B165" s="148"/>
+      <c r="C165" s="148"/>
       <c r="D165" s="112" t="s">
+        <v>762</v>
+      </c>
+      <c r="E165" s="112" t="s">
         <v>763</v>
       </c>
-      <c r="E165" s="112" t="s">
+      <c r="F165" s="113" t="s">
         <v>764</v>
       </c>
-      <c r="F165" s="113" t="s">
+      <c r="G165" s="114" t="s">
         <v>765</v>
-      </c>
-      <c r="G165" s="114" t="s">
-        <v>766</v>
       </c>
       <c r="H165" s="114"/>
       <c r="I165" s="115"/>
@@ -26229,20 +26226,20 @@
       <c r="AE165" s="19"/>
     </row>
     <row r="166" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="138"/>
-      <c r="B166" s="138"/>
-      <c r="C166" s="138"/>
+      <c r="A166" s="148"/>
+      <c r="B166" s="148"/>
+      <c r="C166" s="148"/>
       <c r="D166" s="112" t="s">
+        <v>766</v>
+      </c>
+      <c r="E166" s="112" t="s">
         <v>767</v>
       </c>
-      <c r="E166" s="112" t="s">
+      <c r="F166" s="113" t="s">
         <v>768</v>
       </c>
-      <c r="F166" s="113" t="s">
+      <c r="G166" s="114" t="s">
         <v>769</v>
-      </c>
-      <c r="G166" s="114" t="s">
-        <v>770</v>
       </c>
       <c r="H166" s="114"/>
       <c r="I166" s="115"/>
@@ -26270,20 +26267,20 @@
       <c r="AE166" s="19"/>
     </row>
     <row r="167" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="138"/>
-      <c r="B167" s="138"/>
-      <c r="C167" s="138"/>
+      <c r="A167" s="148"/>
+      <c r="B167" s="148"/>
+      <c r="C167" s="148"/>
       <c r="D167" s="112" t="s">
+        <v>770</v>
+      </c>
+      <c r="E167" s="112" t="s">
         <v>771</v>
       </c>
-      <c r="E167" s="112" t="s">
+      <c r="F167" s="113" t="s">
         <v>772</v>
       </c>
-      <c r="F167" s="113" t="s">
+      <c r="G167" s="114" t="s">
         <v>773</v>
-      </c>
-      <c r="G167" s="114" t="s">
-        <v>774</v>
       </c>
       <c r="H167" s="114"/>
       <c r="I167" s="115"/>
@@ -26311,20 +26308,20 @@
       <c r="AE167" s="19"/>
     </row>
     <row r="168" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A168" s="138"/>
-      <c r="B168" s="138"/>
-      <c r="C168" s="138"/>
+      <c r="A168" s="148"/>
+      <c r="B168" s="148"/>
+      <c r="C168" s="148"/>
       <c r="D168" s="112" t="s">
+        <v>774</v>
+      </c>
+      <c r="E168" s="112" t="s">
         <v>775</v>
       </c>
-      <c r="E168" s="112" t="s">
+      <c r="F168" s="113" t="s">
         <v>776</v>
       </c>
-      <c r="F168" s="113" t="s">
+      <c r="G168" s="114" t="s">
         <v>777</v>
-      </c>
-      <c r="G168" s="114" t="s">
-        <v>778</v>
       </c>
       <c r="H168" s="114"/>
       <c r="I168" s="115"/>
@@ -26352,20 +26349,20 @@
       <c r="AE168" s="19"/>
     </row>
     <row r="169" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A169" s="138"/>
-      <c r="B169" s="138"/>
-      <c r="C169" s="138"/>
+      <c r="A169" s="148"/>
+      <c r="B169" s="148"/>
+      <c r="C169" s="148"/>
       <c r="D169" s="112" t="s">
+        <v>778</v>
+      </c>
+      <c r="E169" s="112" t="s">
         <v>779</v>
       </c>
-      <c r="E169" s="112" t="s">
+      <c r="F169" s="113" t="s">
         <v>780</v>
       </c>
-      <c r="F169" s="113" t="s">
+      <c r="G169" s="114" t="s">
         <v>781</v>
-      </c>
-      <c r="G169" s="114" t="s">
-        <v>782</v>
       </c>
       <c r="H169" s="114"/>
       <c r="I169" s="115"/>
@@ -26393,20 +26390,20 @@
       <c r="AE169" s="19"/>
     </row>
     <row r="170" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A170" s="138"/>
-      <c r="B170" s="138"/>
-      <c r="C170" s="138"/>
+      <c r="A170" s="148"/>
+      <c r="B170" s="148"/>
+      <c r="C170" s="148"/>
       <c r="D170" s="112" t="s">
+        <v>782</v>
+      </c>
+      <c r="E170" s="112" t="s">
         <v>783</v>
       </c>
-      <c r="E170" s="112" t="s">
+      <c r="F170" s="113" t="s">
         <v>784</v>
       </c>
-      <c r="F170" s="113" t="s">
+      <c r="G170" s="114" t="s">
         <v>785</v>
-      </c>
-      <c r="G170" s="114" t="s">
-        <v>786</v>
       </c>
       <c r="H170" s="114"/>
       <c r="I170" s="115"/>
@@ -26434,20 +26431,20 @@
       <c r="AE170" s="19"/>
     </row>
     <row r="171" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A171" s="138"/>
-      <c r="B171" s="138"/>
-      <c r="C171" s="138"/>
+      <c r="A171" s="148"/>
+      <c r="B171" s="148"/>
+      <c r="C171" s="148"/>
       <c r="D171" s="112" t="s">
+        <v>786</v>
+      </c>
+      <c r="E171" s="112" t="s">
+        <v>786</v>
+      </c>
+      <c r="F171" s="113" t="s">
         <v>787</v>
       </c>
-      <c r="E171" s="112" t="s">
-        <v>787</v>
-      </c>
-      <c r="F171" s="113" t="s">
+      <c r="G171" s="114" t="s">
         <v>788</v>
-      </c>
-      <c r="G171" s="114" t="s">
-        <v>789</v>
       </c>
       <c r="H171" s="114"/>
       <c r="I171" s="115"/>
@@ -26475,20 +26472,20 @@
       <c r="AE171" s="19"/>
     </row>
     <row r="172" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A172" s="138"/>
-      <c r="B172" s="138"/>
-      <c r="C172" s="138"/>
+      <c r="A172" s="148"/>
+      <c r="B172" s="148"/>
+      <c r="C172" s="148"/>
       <c r="D172" s="112" t="s">
+        <v>789</v>
+      </c>
+      <c r="E172" s="112" t="s">
         <v>790</v>
       </c>
-      <c r="E172" s="112" t="s">
+      <c r="F172" s="113" t="s">
         <v>791</v>
       </c>
-      <c r="F172" s="113" t="s">
+      <c r="G172" s="114" t="s">
         <v>792</v>
-      </c>
-      <c r="G172" s="114" t="s">
-        <v>793</v>
       </c>
       <c r="H172" s="114"/>
       <c r="I172" s="115"/>
@@ -26516,20 +26513,20 @@
       <c r="AE172" s="19"/>
     </row>
     <row r="173" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A173" s="138"/>
-      <c r="B173" s="138"/>
-      <c r="C173" s="138"/>
+      <c r="A173" s="148"/>
+      <c r="B173" s="148"/>
+      <c r="C173" s="148"/>
       <c r="D173" s="112" t="s">
+        <v>793</v>
+      </c>
+      <c r="E173" s="112" t="s">
         <v>794</v>
       </c>
-      <c r="E173" s="112" t="s">
+      <c r="F173" s="113" t="s">
         <v>795</v>
       </c>
-      <c r="F173" s="113" t="s">
+      <c r="G173" s="114" t="s">
         <v>796</v>
-      </c>
-      <c r="G173" s="114" t="s">
-        <v>797</v>
       </c>
       <c r="H173" s="114"/>
       <c r="I173" s="115"/>
@@ -26557,20 +26554,20 @@
       <c r="AE173" s="19"/>
     </row>
     <row r="174" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A174" s="138"/>
-      <c r="B174" s="138"/>
-      <c r="C174" s="138"/>
+      <c r="A174" s="148"/>
+      <c r="B174" s="148"/>
+      <c r="C174" s="148"/>
       <c r="D174" s="112" t="s">
+        <v>797</v>
+      </c>
+      <c r="E174" s="112" t="s">
+        <v>797</v>
+      </c>
+      <c r="F174" s="113" t="s">
         <v>798</v>
       </c>
-      <c r="E174" s="112" t="s">
-        <v>798</v>
-      </c>
-      <c r="F174" s="113" t="s">
+      <c r="G174" s="114" t="s">
         <v>799</v>
-      </c>
-      <c r="G174" s="114" t="s">
-        <v>800</v>
       </c>
       <c r="H174" s="114"/>
       <c r="I174" s="115"/>
@@ -26598,20 +26595,20 @@
       <c r="AE174" s="19"/>
     </row>
     <row r="175" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="138"/>
-      <c r="B175" s="138"/>
-      <c r="C175" s="138"/>
+      <c r="A175" s="148"/>
+      <c r="B175" s="148"/>
+      <c r="C175" s="148"/>
       <c r="D175" s="112" t="s">
+        <v>800</v>
+      </c>
+      <c r="E175" s="112" t="s">
         <v>801</v>
       </c>
-      <c r="E175" s="112" t="s">
+      <c r="F175" s="113" t="s">
         <v>802</v>
       </c>
-      <c r="F175" s="113" t="s">
-        <v>803</v>
-      </c>
       <c r="G175" s="114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H175" s="114"/>
       <c r="I175" s="115"/>
@@ -26639,20 +26636,20 @@
       <c r="AE175" s="19"/>
     </row>
     <row r="176" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="138"/>
-      <c r="B176" s="138"/>
-      <c r="C176" s="138"/>
+      <c r="A176" s="148"/>
+      <c r="B176" s="148"/>
+      <c r="C176" s="148"/>
       <c r="D176" s="112" t="s">
+        <v>803</v>
+      </c>
+      <c r="E176" s="112" t="s">
         <v>804</v>
       </c>
-      <c r="E176" s="112" t="s">
+      <c r="F176" s="113" t="s">
         <v>805</v>
       </c>
-      <c r="F176" s="113" t="s">
+      <c r="G176" s="114" t="s">
         <v>806</v>
-      </c>
-      <c r="G176" s="114" t="s">
-        <v>807</v>
       </c>
       <c r="H176" s="114"/>
       <c r="I176" s="115"/>
@@ -26680,20 +26677,20 @@
       <c r="AE176" s="19"/>
     </row>
     <row r="177" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A177" s="138"/>
-      <c r="B177" s="138"/>
-      <c r="C177" s="138"/>
+      <c r="A177" s="148"/>
+      <c r="B177" s="148"/>
+      <c r="C177" s="148"/>
       <c r="D177" s="112" t="s">
+        <v>807</v>
+      </c>
+      <c r="E177" s="112" t="s">
+        <v>807</v>
+      </c>
+      <c r="F177" s="113" t="s">
         <v>808</v>
       </c>
-      <c r="E177" s="112" t="s">
-        <v>808</v>
-      </c>
-      <c r="F177" s="113" t="s">
+      <c r="G177" s="114" t="s">
         <v>809</v>
-      </c>
-      <c r="G177" s="114" t="s">
-        <v>810</v>
       </c>
       <c r="H177" s="114"/>
       <c r="I177" s="115"/>
@@ -26721,20 +26718,20 @@
       <c r="AE177" s="19"/>
     </row>
     <row r="178" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A178" s="138"/>
-      <c r="B178" s="138"/>
-      <c r="C178" s="138"/>
+      <c r="A178" s="148"/>
+      <c r="B178" s="148"/>
+      <c r="C178" s="148"/>
       <c r="D178" s="112" t="s">
+        <v>810</v>
+      </c>
+      <c r="E178" s="112" t="s">
         <v>811</v>
       </c>
-      <c r="E178" s="112" t="s">
+      <c r="F178" s="113" t="s">
         <v>812</v>
       </c>
-      <c r="F178" s="113" t="s">
+      <c r="G178" s="114" t="s">
         <v>813</v>
-      </c>
-      <c r="G178" s="114" t="s">
-        <v>814</v>
       </c>
       <c r="H178" s="114"/>
       <c r="I178" s="115"/>
@@ -26762,20 +26759,20 @@
       <c r="AE178" s="19"/>
     </row>
     <row r="179" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A179" s="138"/>
-      <c r="B179" s="138"/>
-      <c r="C179" s="138"/>
+      <c r="A179" s="148"/>
+      <c r="B179" s="148"/>
+      <c r="C179" s="148"/>
       <c r="D179" s="112" t="s">
+        <v>814</v>
+      </c>
+      <c r="E179" s="112" t="s">
         <v>815</v>
       </c>
-      <c r="E179" s="112" t="s">
+      <c r="F179" s="113" t="s">
         <v>816</v>
       </c>
-      <c r="F179" s="113" t="s">
+      <c r="G179" s="114" t="s">
         <v>817</v>
-      </c>
-      <c r="G179" s="114" t="s">
-        <v>818</v>
       </c>
       <c r="H179" s="114"/>
       <c r="I179" s="115"/>
@@ -26803,20 +26800,20 @@
       <c r="AE179" s="19"/>
     </row>
     <row r="180" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A180" s="138"/>
-      <c r="B180" s="138"/>
-      <c r="C180" s="138"/>
+      <c r="A180" s="148"/>
+      <c r="B180" s="148"/>
+      <c r="C180" s="148"/>
       <c r="D180" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="E180" s="112" t="s">
         <v>819</v>
       </c>
-      <c r="E180" s="112" t="s">
+      <c r="F180" s="113" t="s">
         <v>820</v>
       </c>
-      <c r="F180" s="113" t="s">
+      <c r="G180" s="114" t="s">
         <v>821</v>
-      </c>
-      <c r="G180" s="114" t="s">
-        <v>822</v>
       </c>
       <c r="H180" s="114"/>
       <c r="I180" s="115"/>
@@ -26844,20 +26841,20 @@
       <c r="AE180" s="19"/>
     </row>
     <row r="181" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A181" s="138"/>
-      <c r="B181" s="138"/>
-      <c r="C181" s="138"/>
+      <c r="A181" s="148"/>
+      <c r="B181" s="148"/>
+      <c r="C181" s="148"/>
       <c r="D181" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="E181" s="112" t="s">
         <v>823</v>
       </c>
-      <c r="E181" s="112" t="s">
+      <c r="F181" s="113" t="s">
         <v>824</v>
       </c>
-      <c r="F181" s="113" t="s">
+      <c r="G181" s="114" t="s">
         <v>825</v>
-      </c>
-      <c r="G181" s="114" t="s">
-        <v>826</v>
       </c>
       <c r="H181" s="114"/>
       <c r="I181" s="115"/>
@@ -26885,20 +26882,20 @@
       <c r="AE181" s="19"/>
     </row>
     <row r="182" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A182" s="138"/>
-      <c r="B182" s="138"/>
-      <c r="C182" s="138"/>
+      <c r="A182" s="148"/>
+      <c r="B182" s="148"/>
+      <c r="C182" s="148"/>
       <c r="D182" s="112" t="s">
+        <v>826</v>
+      </c>
+      <c r="E182" s="112" t="s">
         <v>827</v>
       </c>
-      <c r="E182" s="112" t="s">
+      <c r="F182" s="113" t="s">
         <v>828</v>
       </c>
-      <c r="F182" s="113" t="s">
+      <c r="G182" s="114" t="s">
         <v>829</v>
-      </c>
-      <c r="G182" s="114" t="s">
-        <v>830</v>
       </c>
       <c r="H182" s="114"/>
       <c r="I182" s="115"/>
@@ -26926,20 +26923,20 @@
       <c r="AE182" s="19"/>
     </row>
     <row r="183" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="138"/>
-      <c r="B183" s="138"/>
-      <c r="C183" s="138"/>
+      <c r="A183" s="148"/>
+      <c r="B183" s="148"/>
+      <c r="C183" s="148"/>
       <c r="D183" s="112" t="s">
+        <v>830</v>
+      </c>
+      <c r="E183" s="112" t="s">
         <v>831</v>
       </c>
-      <c r="E183" s="112" t="s">
+      <c r="F183" s="113" t="s">
         <v>832</v>
       </c>
-      <c r="F183" s="113" t="s">
+      <c r="G183" s="114" t="s">
         <v>833</v>
-      </c>
-      <c r="G183" s="114" t="s">
-        <v>834</v>
       </c>
       <c r="H183" s="114"/>
       <c r="I183" s="115"/>
@@ -26967,20 +26964,20 @@
       <c r="AE183" s="19"/>
     </row>
     <row r="184" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A184" s="138"/>
-      <c r="B184" s="138"/>
-      <c r="C184" s="138"/>
+      <c r="A184" s="148"/>
+      <c r="B184" s="148"/>
+      <c r="C184" s="148"/>
       <c r="D184" s="112" t="s">
+        <v>834</v>
+      </c>
+      <c r="E184" s="112" t="s">
         <v>835</v>
       </c>
-      <c r="E184" s="112" t="s">
+      <c r="F184" s="113" t="s">
         <v>836</v>
       </c>
-      <c r="F184" s="113" t="s">
+      <c r="G184" s="114" t="s">
         <v>837</v>
-      </c>
-      <c r="G184" s="114" t="s">
-        <v>838</v>
       </c>
       <c r="H184" s="114"/>
       <c r="I184" s="115"/>
@@ -27008,20 +27005,20 @@
       <c r="AE184" s="19"/>
     </row>
     <row r="185" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A185" s="138"/>
-      <c r="B185" s="138"/>
-      <c r="C185" s="138"/>
+      <c r="A185" s="148"/>
+      <c r="B185" s="148"/>
+      <c r="C185" s="148"/>
       <c r="D185" s="112" t="s">
+        <v>838</v>
+      </c>
+      <c r="E185" s="112" t="s">
         <v>839</v>
       </c>
-      <c r="E185" s="112" t="s">
+      <c r="F185" s="113" t="s">
         <v>840</v>
       </c>
-      <c r="F185" s="113" t="s">
+      <c r="G185" s="114" t="s">
         <v>841</v>
-      </c>
-      <c r="G185" s="114" t="s">
-        <v>842</v>
       </c>
       <c r="H185" s="114"/>
       <c r="I185" s="115"/>
@@ -27049,20 +27046,20 @@
       <c r="AE185" s="19"/>
     </row>
     <row r="186" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="138"/>
-      <c r="B186" s="138"/>
-      <c r="C186" s="138"/>
+      <c r="A186" s="148"/>
+      <c r="B186" s="148"/>
+      <c r="C186" s="148"/>
       <c r="D186" s="112" t="s">
+        <v>842</v>
+      </c>
+      <c r="E186" s="112" t="s">
         <v>843</v>
       </c>
-      <c r="E186" s="112" t="s">
+      <c r="F186" s="113" t="s">
         <v>844</v>
       </c>
-      <c r="F186" s="113" t="s">
+      <c r="G186" s="114" t="s">
         <v>845</v>
-      </c>
-      <c r="G186" s="114" t="s">
-        <v>846</v>
       </c>
       <c r="H186" s="114"/>
       <c r="I186" s="115"/>
@@ -27090,20 +27087,20 @@
       <c r="AE186" s="19"/>
     </row>
     <row r="187" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A187" s="138"/>
-      <c r="B187" s="138"/>
-      <c r="C187" s="138"/>
+      <c r="A187" s="148"/>
+      <c r="B187" s="148"/>
+      <c r="C187" s="148"/>
       <c r="D187" s="112" t="s">
+        <v>846</v>
+      </c>
+      <c r="E187" s="112" t="s">
         <v>847</v>
       </c>
-      <c r="E187" s="112" t="s">
+      <c r="F187" s="113" t="s">
         <v>848</v>
       </c>
-      <c r="F187" s="113" t="s">
+      <c r="G187" s="114" t="s">
         <v>849</v>
-      </c>
-      <c r="G187" s="114" t="s">
-        <v>850</v>
       </c>
       <c r="H187" s="114"/>
       <c r="I187" s="115"/>
@@ -27131,20 +27128,20 @@
       <c r="AE187" s="19"/>
     </row>
     <row r="188" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A188" s="138"/>
-      <c r="B188" s="138"/>
-      <c r="C188" s="138"/>
+      <c r="A188" s="148"/>
+      <c r="B188" s="148"/>
+      <c r="C188" s="148"/>
       <c r="D188" s="112" t="s">
+        <v>850</v>
+      </c>
+      <c r="E188" s="112" t="s">
         <v>851</v>
       </c>
-      <c r="E188" s="112" t="s">
+      <c r="F188" s="113" t="s">
         <v>852</v>
       </c>
-      <c r="F188" s="113" t="s">
+      <c r="G188" s="114" t="s">
         <v>853</v>
-      </c>
-      <c r="G188" s="114" t="s">
-        <v>854</v>
       </c>
       <c r="H188" s="114"/>
       <c r="I188" s="115"/>
@@ -27172,20 +27169,20 @@
       <c r="AE188" s="19"/>
     </row>
     <row r="189" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A189" s="138"/>
-      <c r="B189" s="138"/>
-      <c r="C189" s="138"/>
+      <c r="A189" s="148"/>
+      <c r="B189" s="148"/>
+      <c r="C189" s="148"/>
       <c r="D189" s="112" t="s">
+        <v>854</v>
+      </c>
+      <c r="E189" s="112" t="s">
         <v>855</v>
       </c>
-      <c r="E189" s="112" t="s">
+      <c r="F189" s="113" t="s">
         <v>856</v>
       </c>
-      <c r="F189" s="113" t="s">
+      <c r="G189" s="114" t="s">
         <v>857</v>
-      </c>
-      <c r="G189" s="114" t="s">
-        <v>858</v>
       </c>
       <c r="H189" s="114"/>
       <c r="I189" s="115"/>
@@ -27213,20 +27210,20 @@
       <c r="AE189" s="19"/>
     </row>
     <row r="190" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A190" s="138"/>
-      <c r="B190" s="138"/>
-      <c r="C190" s="138"/>
+      <c r="A190" s="148"/>
+      <c r="B190" s="148"/>
+      <c r="C190" s="148"/>
       <c r="D190" s="112" t="s">
+        <v>858</v>
+      </c>
+      <c r="E190" s="112" t="s">
         <v>859</v>
       </c>
-      <c r="E190" s="112" t="s">
+      <c r="F190" s="113" t="s">
         <v>860</v>
       </c>
-      <c r="F190" s="113" t="s">
+      <c r="G190" s="114" t="s">
         <v>861</v>
-      </c>
-      <c r="G190" s="114" t="s">
-        <v>862</v>
       </c>
       <c r="H190" s="114"/>
       <c r="I190" s="115"/>
@@ -27254,20 +27251,20 @@
       <c r="AE190" s="19"/>
     </row>
     <row r="191" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A191" s="138"/>
-      <c r="B191" s="138"/>
-      <c r="C191" s="138"/>
+      <c r="A191" s="148"/>
+      <c r="B191" s="148"/>
+      <c r="C191" s="148"/>
       <c r="D191" s="112" t="s">
+        <v>862</v>
+      </c>
+      <c r="E191" s="112" t="s">
         <v>863</v>
       </c>
-      <c r="E191" s="112" t="s">
+      <c r="F191" s="113" t="s">
         <v>864</v>
       </c>
-      <c r="F191" s="113" t="s">
+      <c r="G191" s="114" t="s">
         <v>865</v>
-      </c>
-      <c r="G191" s="114" t="s">
-        <v>866</v>
       </c>
       <c r="H191" s="114"/>
       <c r="I191" s="115"/>
@@ -27295,20 +27292,20 @@
       <c r="AE191" s="19"/>
     </row>
     <row r="192" spans="1:31" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A192" s="138"/>
-      <c r="B192" s="138"/>
-      <c r="C192" s="138"/>
+      <c r="A192" s="148"/>
+      <c r="B192" s="148"/>
+      <c r="C192" s="148"/>
       <c r="D192" s="112" t="s">
+        <v>866</v>
+      </c>
+      <c r="E192" s="112" t="s">
         <v>867</v>
       </c>
-      <c r="E192" s="112" t="s">
+      <c r="F192" s="113" t="s">
         <v>868</v>
       </c>
-      <c r="F192" s="113" t="s">
+      <c r="G192" s="114" t="s">
         <v>869</v>
-      </c>
-      <c r="G192" s="114" t="s">
-        <v>870</v>
       </c>
       <c r="H192" s="114"/>
       <c r="I192" s="115"/>
@@ -27336,20 +27333,20 @@
       <c r="AE192" s="19"/>
     </row>
     <row r="193" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A193" s="138"/>
-      <c r="B193" s="138"/>
-      <c r="C193" s="138"/>
+      <c r="A193" s="148"/>
+      <c r="B193" s="148"/>
+      <c r="C193" s="148"/>
       <c r="D193" s="112" t="s">
+        <v>870</v>
+      </c>
+      <c r="E193" s="112" t="s">
         <v>871</v>
       </c>
-      <c r="E193" s="112" t="s">
+      <c r="F193" s="113" t="s">
         <v>872</v>
       </c>
-      <c r="F193" s="113" t="s">
+      <c r="G193" s="114" t="s">
         <v>873</v>
-      </c>
-      <c r="G193" s="114" t="s">
-        <v>874</v>
       </c>
       <c r="H193" s="114"/>
       <c r="I193" s="115"/>
@@ -27377,20 +27374,20 @@
       <c r="AE193" s="19"/>
     </row>
     <row r="194" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A194" s="138"/>
-      <c r="B194" s="138"/>
-      <c r="C194" s="138"/>
+      <c r="A194" s="148"/>
+      <c r="B194" s="148"/>
+      <c r="C194" s="148"/>
       <c r="D194" s="112" t="s">
+        <v>874</v>
+      </c>
+      <c r="E194" s="112" t="s">
         <v>875</v>
       </c>
-      <c r="E194" s="112" t="s">
+      <c r="F194" s="113" t="s">
         <v>876</v>
       </c>
-      <c r="F194" s="113" t="s">
+      <c r="G194" s="114" t="s">
         <v>877</v>
-      </c>
-      <c r="G194" s="114" t="s">
-        <v>878</v>
       </c>
       <c r="H194" s="114"/>
       <c r="I194" s="115"/>
@@ -27418,20 +27415,20 @@
       <c r="AE194" s="19"/>
     </row>
     <row r="195" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A195" s="138"/>
-      <c r="B195" s="138"/>
-      <c r="C195" s="138"/>
+      <c r="A195" s="148"/>
+      <c r="B195" s="148"/>
+      <c r="C195" s="148"/>
       <c r="D195" s="112" t="s">
+        <v>878</v>
+      </c>
+      <c r="E195" s="112" t="s">
         <v>879</v>
       </c>
-      <c r="E195" s="112" t="s">
+      <c r="F195" s="113" t="s">
         <v>880</v>
       </c>
-      <c r="F195" s="113" t="s">
+      <c r="G195" s="114" t="s">
         <v>881</v>
-      </c>
-      <c r="G195" s="114" t="s">
-        <v>882</v>
       </c>
       <c r="H195" s="114"/>
       <c r="I195" s="115"/>
@@ -27459,20 +27456,20 @@
       <c r="AE195" s="19"/>
     </row>
     <row r="196" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="138"/>
-      <c r="B196" s="138"/>
-      <c r="C196" s="138"/>
+      <c r="A196" s="148"/>
+      <c r="B196" s="148"/>
+      <c r="C196" s="148"/>
       <c r="D196" s="112" t="s">
+        <v>882</v>
+      </c>
+      <c r="E196" s="112" t="s">
         <v>883</v>
       </c>
-      <c r="E196" s="112" t="s">
+      <c r="F196" s="113" t="s">
         <v>884</v>
       </c>
-      <c r="F196" s="113" t="s">
+      <c r="G196" s="114" t="s">
         <v>885</v>
-      </c>
-      <c r="G196" s="114" t="s">
-        <v>886</v>
       </c>
       <c r="H196" s="114"/>
       <c r="I196" s="115"/>
@@ -27500,20 +27497,20 @@
       <c r="AE196" s="19"/>
     </row>
     <row r="197" spans="1:31" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A197" s="138"/>
-      <c r="B197" s="138"/>
-      <c r="C197" s="138"/>
+      <c r="A197" s="148"/>
+      <c r="B197" s="148"/>
+      <c r="C197" s="148"/>
       <c r="D197" s="112" t="s">
+        <v>886</v>
+      </c>
+      <c r="E197" s="112" t="s">
         <v>887</v>
       </c>
-      <c r="E197" s="112" t="s">
+      <c r="F197" s="113" t="s">
         <v>888</v>
       </c>
-      <c r="F197" s="113" t="s">
+      <c r="G197" s="114" t="s">
         <v>889</v>
-      </c>
-      <c r="G197" s="114" t="s">
-        <v>890</v>
       </c>
       <c r="H197" s="114"/>
       <c r="I197" s="115"/>
@@ -27541,20 +27538,20 @@
       <c r="AE197" s="19"/>
     </row>
     <row r="198" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="139"/>
-      <c r="B198" s="139"/>
-      <c r="C198" s="139"/>
+      <c r="A198" s="149"/>
+      <c r="B198" s="149"/>
+      <c r="C198" s="149"/>
       <c r="D198" s="118" t="s">
+        <v>890</v>
+      </c>
+      <c r="E198" s="118" t="s">
         <v>891</v>
       </c>
-      <c r="E198" s="118" t="s">
+      <c r="F198" s="119" t="s">
         <v>892</v>
       </c>
-      <c r="F198" s="119" t="s">
+      <c r="G198" s="120" t="s">
         <v>893</v>
-      </c>
-      <c r="G198" s="120" t="s">
-        <v>894</v>
       </c>
       <c r="H198" s="120"/>
       <c r="I198" s="121"/>
@@ -55964,19 +55961,37 @@
   </sheetData>
   <autoFilter ref="A1:AE198" xr:uid="{C8FFCE1F-54C1-8C47-AEE4-AFB8113A9E7C}"/>
   <mergeCells count="60">
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="A121:A198"/>
+    <mergeCell ref="B121:B198"/>
+    <mergeCell ref="C121:C198"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="C49:C56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="B8:B22"/>
     <mergeCell ref="C8:C22"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="B109:B114"/>
@@ -55993,37 +56008,19 @@
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="B8:B22"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="C49:C56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="A121:A198"/>
-    <mergeCell ref="B121:B198"/>
-    <mergeCell ref="C121:C198"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
